--- a/Planning/Assetlist.xlsx
+++ b/Planning/Assetlist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CarloAkuma\Documents\Gamelab\Deltion.Gamelab1\Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CarloAkuma\Desktop\JOHN CENA TUUTUUDUU TUUU\Gamelab1\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="623">
   <si>
     <t>2D</t>
   </si>
@@ -618,9 +618,6 @@
     <t>3D_ENVTABLE_001</t>
   </si>
   <si>
-    <t>3D_ENVBOOK_003</t>
-  </si>
-  <si>
     <t>3D_ENVBOOK_002</t>
   </si>
   <si>
@@ -1897,6 +1894,39 @@
   </si>
   <si>
     <t>Tool Tip Ability</t>
+  </si>
+  <si>
+    <t>7S_NXTL_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next Level </t>
+  </si>
+  <si>
+    <t>1Dag</t>
+  </si>
+  <si>
+    <t>2D_WSWORD_001</t>
+  </si>
+  <si>
+    <t>Houten Zwaard</t>
+  </si>
+  <si>
+    <t>3D_WSWORD_001</t>
+  </si>
+  <si>
+    <t>4U_WSWORD_001</t>
+  </si>
+  <si>
+    <t>3D_ENVTABLE_003</t>
+  </si>
+  <si>
+    <t>3D_ENVNS_001</t>
+  </si>
+  <si>
+    <t>2D_ENVTNS_001</t>
+  </si>
+  <si>
+    <t>4U_ENVNS_001</t>
   </si>
 </sst>
 </file>
@@ -1981,7 +2011,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2092,22 +2122,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2120,9 +2139,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2144,17 +2161,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -2435,10 +2448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:BX92"/>
+  <dimension ref="B1:BX93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AW39" sqref="AW39"/>
+    <sheetView tabSelected="1" topLeftCell="S4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2460,10 +2473,10 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I1" s="7"/>
       <c r="K1" s="7" t="s">
@@ -2476,14 +2489,14 @@
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
       <c r="P1" s="7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="R1" s="7"/>
       <c r="T1" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="U1" s="6"/>
       <c r="V1" s="6" t="s">
@@ -2492,14 +2505,14 @@
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
       <c r="Y1" s="7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="Z1" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AA1" s="7"/>
       <c r="AC1" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AD1" s="6"/>
       <c r="AE1" s="6" t="s">
@@ -2508,14 +2521,14 @@
       <c r="AF1" s="6"/>
       <c r="AG1" s="6"/>
       <c r="AH1" s="7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AI1" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AJ1" s="7"/>
       <c r="AL1" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AM1" s="6"/>
       <c r="AN1" s="6" t="s">
@@ -2525,14 +2538,14 @@
       <c r="AP1" s="6"/>
       <c r="AQ1" s="6"/>
       <c r="AR1" s="7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AS1" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AT1" s="7"/>
       <c r="AV1" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AW1" s="6"/>
       <c r="AX1" s="6" t="s">
@@ -2541,14 +2554,14 @@
       <c r="AY1" s="6"/>
       <c r="AZ1" s="6"/>
       <c r="BA1" s="7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="BB1" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="BC1" s="7"/>
       <c r="BE1" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BF1" s="6"/>
       <c r="BG1" s="6" t="s">
@@ -2557,10 +2570,10 @@
       <c r="BH1" s="6"/>
       <c r="BI1" s="6"/>
       <c r="BJ1" s="7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="BK1" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="BL1" s="7"/>
       <c r="BM1" s="9"/>
@@ -2603,14 +2616,14 @@
         <v>4</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="35" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="11"/>
-      <c r="H3" s="19" t="s">
-        <v>587</v>
-      </c>
-      <c r="I3" s="20"/>
+      <c r="H3" s="17" t="s">
+        <v>586</v>
+      </c>
+      <c r="I3" s="18"/>
       <c r="J3" s="1"/>
       <c r="K3" s="3" t="s">
         <v>171</v>
@@ -2620,97 +2633,97 @@
         <v>4</v>
       </c>
       <c r="N3" s="3"/>
-      <c r="O3" s="38" t="s">
+      <c r="O3" s="35" t="s">
         <v>170</v>
       </c>
       <c r="P3" s="11"/>
-      <c r="Q3" s="19" t="s">
-        <v>570</v>
-      </c>
-      <c r="R3" s="20"/>
+      <c r="Q3" s="17" t="s">
+        <v>569</v>
+      </c>
+      <c r="R3" s="18"/>
       <c r="S3" s="8"/>
       <c r="T3" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="U3" s="3"/>
       <c r="V3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W3" s="3"/>
-      <c r="X3" s="38" t="s">
-        <v>237</v>
+      <c r="X3" s="35" t="s">
+        <v>236</v>
       </c>
       <c r="Y3" s="10"/>
-      <c r="Z3" s="19" t="s">
-        <v>587</v>
-      </c>
-      <c r="AA3" s="20"/>
+      <c r="Z3" s="17" t="s">
+        <v>586</v>
+      </c>
+      <c r="AA3" s="18"/>
       <c r="AC3" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AD3" s="3"/>
       <c r="AE3" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF3" s="3"/>
-      <c r="AG3" s="38" t="s">
-        <v>320</v>
+      <c r="AG3" s="3" t="s">
+        <v>319</v>
       </c>
       <c r="AH3" s="10"/>
-      <c r="AI3" s="19" t="s">
-        <v>573</v>
-      </c>
-      <c r="AJ3" s="20"/>
+      <c r="AI3" s="17" t="s">
+        <v>572</v>
+      </c>
+      <c r="AJ3" s="18"/>
       <c r="AL3" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AM3" s="3"/>
       <c r="AN3" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AO3" s="3"/>
       <c r="AP3" s="3"/>
       <c r="AQ3" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="AR3" s="6"/>
-      <c r="AS3" s="19" t="s">
-        <v>589</v>
-      </c>
-      <c r="AT3" s="20"/>
+        <v>383</v>
+      </c>
+      <c r="AR3" s="10"/>
+      <c r="AS3" s="17" t="s">
+        <v>588</v>
+      </c>
+      <c r="AT3" s="18"/>
       <c r="AV3" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AW3" s="3"/>
       <c r="AX3" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AY3" s="3"/>
-      <c r="AZ3" s="18" t="s">
-        <v>427</v>
+      <c r="AZ3" s="16" t="s">
+        <v>426</v>
       </c>
       <c r="BA3" s="10"/>
-      <c r="BB3" s="19" t="s">
-        <v>572</v>
-      </c>
-      <c r="BC3" s="20"/>
+      <c r="BB3" s="17" t="s">
+        <v>571</v>
+      </c>
+      <c r="BC3" s="18"/>
       <c r="BD3" s="1"/>
       <c r="BE3" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BF3" s="2"/>
       <c r="BG3" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="BH3" s="2"/>
       <c r="BI3" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BJ3" s="6"/>
-      <c r="BK3" s="33" t="s">
-        <v>577</v>
-      </c>
-      <c r="BL3" s="34"/>
+      <c r="BK3" s="31" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL3" s="32"/>
     </row>
     <row r="4" spans="2:76" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
@@ -2725,10 +2738,10 @@
         <v>3</v>
       </c>
       <c r="G4" s="11"/>
-      <c r="H4" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="I4" s="22"/>
+      <c r="H4" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="I4" s="20"/>
       <c r="J4" s="1"/>
       <c r="K4" s="3" t="s">
         <v>172</v>
@@ -2742,13 +2755,13 @@
         <v>170</v>
       </c>
       <c r="P4" s="11"/>
-      <c r="Q4" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="R4" s="22"/>
+      <c r="Q4" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="R4" s="20"/>
       <c r="S4" s="8"/>
       <c r="T4" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U4" s="3"/>
       <c r="V4" s="3" t="s">
@@ -2756,79 +2769,79 @@
       </c>
       <c r="W4" s="3"/>
       <c r="X4" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Y4" s="10"/>
-      <c r="Z4" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA4" s="22"/>
+      <c r="Z4" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="AA4" s="20"/>
       <c r="AC4" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AD4" s="3"/>
       <c r="AE4" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF4" s="3"/>
       <c r="AG4" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AH4" s="10"/>
-      <c r="AI4" s="21" t="s">
-        <v>575</v>
-      </c>
-      <c r="AJ4" s="22"/>
+      <c r="AI4" s="19" t="s">
+        <v>574</v>
+      </c>
+      <c r="AJ4" s="20"/>
       <c r="AL4" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AM4" s="2"/>
       <c r="AN4" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="AR4" s="6"/>
-      <c r="AS4" s="27" t="s">
-        <v>579</v>
-      </c>
-      <c r="AT4" s="26"/>
+        <v>383</v>
+      </c>
+      <c r="AR4" s="10"/>
+      <c r="AS4" s="25" t="s">
+        <v>578</v>
+      </c>
+      <c r="AT4" s="24"/>
       <c r="AV4" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AW4" s="3"/>
       <c r="AX4" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AY4" s="3"/>
-      <c r="AZ4" s="15" t="s">
-        <v>428</v>
+      <c r="AZ4" s="13" t="s">
+        <v>427</v>
       </c>
       <c r="BA4" s="10"/>
-      <c r="BB4" s="21" t="s">
-        <v>570</v>
-      </c>
-      <c r="BC4" s="22"/>
+      <c r="BB4" s="19" t="s">
+        <v>569</v>
+      </c>
+      <c r="BC4" s="20"/>
       <c r="BD4" s="1"/>
       <c r="BE4" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="BF4" s="2"/>
       <c r="BG4" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="BH4" s="2"/>
       <c r="BI4" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BJ4" s="6"/>
-      <c r="BK4" s="33" t="s">
-        <v>577</v>
-      </c>
-      <c r="BL4" s="31"/>
+      <c r="BK4" s="31" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL4" s="29"/>
     </row>
     <row r="5" spans="2:76" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -2843,10 +2856,10 @@
         <v>3</v>
       </c>
       <c r="G5" s="11"/>
-      <c r="H5" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="I5" s="22"/>
+      <c r="H5" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="I5" s="20"/>
       <c r="J5" s="1"/>
       <c r="K5" s="3" t="s">
         <v>173</v>
@@ -2860,13 +2873,13 @@
         <v>170</v>
       </c>
       <c r="P5" s="11"/>
-      <c r="Q5" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="R5" s="22"/>
+      <c r="Q5" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="R5" s="20"/>
       <c r="S5" s="8"/>
       <c r="T5" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3" t="s">
@@ -2874,79 +2887,79 @@
       </c>
       <c r="W5" s="3"/>
       <c r="X5" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Y5" s="10"/>
-      <c r="Z5" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="AA5" s="22"/>
+      <c r="Z5" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA5" s="20"/>
       <c r="AC5" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AD5" s="3"/>
       <c r="AE5" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AF5" s="3"/>
       <c r="AG5" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AH5" s="10"/>
-      <c r="AI5" s="21" t="s">
-        <v>575</v>
-      </c>
-      <c r="AJ5" s="22"/>
+      <c r="AI5" s="19" t="s">
+        <v>574</v>
+      </c>
+      <c r="AJ5" s="20"/>
       <c r="AL5" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AM5" s="4"/>
       <c r="AN5" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AO5" s="4"/>
       <c r="AP5" s="4"/>
       <c r="AQ5" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="AR5" s="6"/>
-      <c r="AS5" s="23" t="s">
-        <v>580</v>
-      </c>
-      <c r="AT5" s="24"/>
+        <v>383</v>
+      </c>
+      <c r="AR5" s="10"/>
+      <c r="AS5" s="21" t="s">
+        <v>579</v>
+      </c>
+      <c r="AT5" s="22"/>
       <c r="AV5" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AW5" s="3"/>
       <c r="AX5" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AY5" s="3"/>
-      <c r="AZ5" s="15" t="s">
-        <v>428</v>
+      <c r="AZ5" s="13" t="s">
+        <v>427</v>
       </c>
       <c r="BA5" s="6"/>
-      <c r="BB5" s="21" t="s">
-        <v>571</v>
-      </c>
-      <c r="BC5" s="22"/>
+      <c r="BB5" s="19" t="s">
+        <v>570</v>
+      </c>
+      <c r="BC5" s="20"/>
       <c r="BD5" s="1"/>
       <c r="BE5" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="BF5" s="2"/>
       <c r="BG5" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="BH5" s="2"/>
       <c r="BI5" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BJ5" s="6"/>
-      <c r="BK5" s="33" t="s">
-        <v>577</v>
-      </c>
-      <c r="BL5" s="31"/>
+      <c r="BK5" s="31" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL5" s="29"/>
     </row>
     <row r="6" spans="2:76" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
@@ -2960,11 +2973,11 @@
       <c r="F6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="I6" s="24"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="I6" s="22"/>
       <c r="J6" s="1"/>
       <c r="K6" s="4" t="s">
         <v>174</v>
@@ -2977,14 +2990,14 @@
       <c r="O6" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="23" t="s">
-        <v>576</v>
-      </c>
-      <c r="R6" s="24"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="R6" s="22"/>
       <c r="S6" s="8"/>
       <c r="T6" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="U6" s="4"/>
       <c r="V6" s="4" t="s">
@@ -2992,79 +3005,79 @@
       </c>
       <c r="W6" s="4"/>
       <c r="X6" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="23" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA6" s="24"/>
+        <v>236</v>
+      </c>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="AA6" s="22"/>
       <c r="AC6" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AD6" s="3"/>
       <c r="AE6" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AF6" s="3"/>
       <c r="AG6" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AH6" s="6"/>
-      <c r="AI6" s="21" t="s">
-        <v>575</v>
-      </c>
-      <c r="AJ6" s="22"/>
+      <c r="AI6" s="19" t="s">
+        <v>574</v>
+      </c>
+      <c r="AJ6" s="20"/>
       <c r="AL6" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AM6" s="3"/>
       <c r="AN6" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AO6" s="3"/>
       <c r="AP6" s="3"/>
       <c r="AQ6" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="AR6" s="6"/>
-      <c r="AS6" s="21" t="s">
-        <v>590</v>
-      </c>
-      <c r="AT6" s="22"/>
+        <v>383</v>
+      </c>
+      <c r="AR6" s="10"/>
+      <c r="AS6" s="19" t="s">
+        <v>589</v>
+      </c>
+      <c r="AT6" s="20"/>
       <c r="AV6" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AW6" s="3"/>
       <c r="AX6" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AY6" s="3"/>
-      <c r="AZ6" s="15" t="s">
-        <v>428</v>
+      <c r="AZ6" s="13" t="s">
+        <v>427</v>
       </c>
       <c r="BA6" s="10"/>
-      <c r="BB6" s="21" t="s">
-        <v>572</v>
-      </c>
-      <c r="BC6" s="22"/>
+      <c r="BB6" s="19" t="s">
+        <v>571</v>
+      </c>
+      <c r="BC6" s="20"/>
       <c r="BD6" s="1"/>
       <c r="BE6" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="BF6" s="3"/>
       <c r="BG6" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="BH6" s="3"/>
       <c r="BI6" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BJ6" s="6"/>
-      <c r="BK6" s="21" t="s">
-        <v>585</v>
-      </c>
-      <c r="BL6" s="22"/>
+      <c r="BK6" s="19" t="s">
+        <v>584</v>
+      </c>
+      <c r="BL6" s="20"/>
     </row>
     <row r="7" spans="2:76" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
@@ -3078,11 +3091,11 @@
       <c r="F7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="I7" s="24"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="I7" s="22"/>
       <c r="J7" s="1"/>
       <c r="K7" s="4" t="s">
         <v>175</v>
@@ -3095,14 +3108,14 @@
       <c r="O7" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="23" t="s">
-        <v>576</v>
-      </c>
-      <c r="R7" s="24"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="R7" s="22"/>
       <c r="S7" s="8"/>
       <c r="T7" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U7" s="4"/>
       <c r="V7" s="4" t="s">
@@ -3110,79 +3123,79 @@
       </c>
       <c r="W7" s="4"/>
       <c r="X7" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="23" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA7" s="24"/>
+        <v>236</v>
+      </c>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="AA7" s="22"/>
       <c r="AC7" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AD7" s="3"/>
       <c r="AE7" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AF7" s="3"/>
       <c r="AG7" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AH7" s="6"/>
-      <c r="AI7" s="21" t="s">
-        <v>575</v>
-      </c>
-      <c r="AJ7" s="22"/>
+      <c r="AI7" s="19" t="s">
+        <v>574</v>
+      </c>
+      <c r="AJ7" s="20"/>
       <c r="AL7" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AM7" s="3"/>
       <c r="AN7" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AO7" s="3"/>
       <c r="AP7" s="3"/>
       <c r="AQ7" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="AR7" s="6"/>
-      <c r="AS7" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="AT7" s="22"/>
+        <v>383</v>
+      </c>
+      <c r="AR7" s="10"/>
+      <c r="AS7" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="AT7" s="20"/>
       <c r="AV7" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AW7" s="3"/>
       <c r="AX7" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AY7" s="3"/>
-      <c r="AZ7" s="15" t="s">
-        <v>428</v>
+      <c r="AZ7" s="13" t="s">
+        <v>427</v>
       </c>
       <c r="BA7" s="6"/>
-      <c r="BB7" s="21" t="s">
-        <v>572</v>
-      </c>
-      <c r="BC7" s="22"/>
+      <c r="BB7" s="19" t="s">
+        <v>571</v>
+      </c>
+      <c r="BC7" s="20"/>
       <c r="BD7" s="1"/>
       <c r="BE7" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="BF7" s="3"/>
       <c r="BG7" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="BH7" s="3"/>
       <c r="BI7" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BJ7" s="6"/>
-      <c r="BK7" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="BL7" s="22"/>
+      <c r="BK7" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL7" s="20"/>
     </row>
     <row r="8" spans="2:76" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -3193,14 +3206,14 @@
         <v>30</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="35" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="11"/>
-      <c r="H8" s="23" t="s">
-        <v>576</v>
-      </c>
-      <c r="I8" s="24"/>
+      <c r="H8" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="I8" s="22"/>
       <c r="J8" s="1"/>
       <c r="K8" s="2" t="s">
         <v>176</v>
@@ -3210,97 +3223,97 @@
         <v>30</v>
       </c>
       <c r="N8" s="2"/>
-      <c r="O8" s="38" t="s">
+      <c r="O8" s="35" t="s">
         <v>170</v>
       </c>
       <c r="P8" s="11"/>
-      <c r="Q8" s="30" t="s">
-        <v>577</v>
-      </c>
-      <c r="R8" s="31"/>
+      <c r="Q8" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="R8" s="29"/>
       <c r="S8" s="8"/>
       <c r="T8" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="U8" s="2"/>
       <c r="V8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="W8" s="2"/>
-      <c r="X8" s="38" t="s">
-        <v>237</v>
+      <c r="X8" s="35" t="s">
+        <v>236</v>
       </c>
       <c r="Y8" s="10"/>
-      <c r="Z8" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA8" s="31"/>
+      <c r="Z8" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="AA8" s="29"/>
       <c r="AC8" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AD8" s="3"/>
       <c r="AE8" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF8" s="3"/>
-      <c r="AG8" s="38" t="s">
-        <v>320</v>
+      <c r="AG8" s="35" t="s">
+        <v>319</v>
       </c>
       <c r="AH8" s="6"/>
-      <c r="AI8" s="19" t="s">
-        <v>572</v>
-      </c>
-      <c r="AJ8" s="22"/>
+      <c r="AI8" s="17" t="s">
+        <v>571</v>
+      </c>
+      <c r="AJ8" s="20"/>
       <c r="AL8" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AM8" s="4"/>
       <c r="AN8" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AO8" s="4"/>
       <c r="AP8" s="4"/>
       <c r="AQ8" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="AR8" s="6"/>
-      <c r="AS8" s="23" t="s">
-        <v>581</v>
-      </c>
-      <c r="AT8" s="24"/>
+        <v>383</v>
+      </c>
+      <c r="AR8" s="10"/>
+      <c r="AS8" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="AT8" s="22"/>
       <c r="AV8" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AW8" s="3"/>
       <c r="AX8" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AY8" s="3"/>
-      <c r="AZ8" s="15" t="s">
-        <v>428</v>
+      <c r="AZ8" s="13" t="s">
+        <v>427</v>
       </c>
       <c r="BA8" s="6"/>
-      <c r="BB8" s="21" t="s">
-        <v>573</v>
-      </c>
-      <c r="BC8" s="22"/>
+      <c r="BB8" s="19" t="s">
+        <v>572</v>
+      </c>
+      <c r="BC8" s="20"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="BF8" s="3"/>
       <c r="BG8" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="BH8" s="3"/>
       <c r="BI8" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BJ8" s="6"/>
-      <c r="BK8" s="21" t="s">
-        <v>581</v>
-      </c>
-      <c r="BL8" s="22"/>
+      <c r="BK8" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="BL8" s="20"/>
     </row>
     <row r="9" spans="2:76" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
@@ -3311,14 +3324,14 @@
         <v>31</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="35" t="s">
         <v>3</v>
       </c>
       <c r="G9" s="11"/>
-      <c r="H9" s="23" t="s">
-        <v>576</v>
-      </c>
-      <c r="I9" s="24"/>
+      <c r="H9" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="I9" s="22"/>
       <c r="J9" s="1"/>
       <c r="K9" s="4" t="s">
         <v>177</v>
@@ -3328,97 +3341,97 @@
         <v>31</v>
       </c>
       <c r="N9" s="4"/>
-      <c r="O9" s="38" t="s">
+      <c r="O9" s="35" t="s">
         <v>170</v>
       </c>
       <c r="P9" s="11"/>
-      <c r="Q9" s="23" t="s">
-        <v>576</v>
-      </c>
-      <c r="R9" s="24"/>
+      <c r="Q9" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="R9" s="22"/>
       <c r="S9" s="8"/>
       <c r="T9" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="U9" s="4"/>
       <c r="V9" s="4" t="s">
         <v>31</v>
       </c>
       <c r="W9" s="4"/>
-      <c r="X9" s="38" t="s">
-        <v>237</v>
+      <c r="X9" s="35" t="s">
+        <v>236</v>
       </c>
       <c r="Y9" s="10"/>
-      <c r="Z9" s="23" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA9" s="24"/>
+      <c r="Z9" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="AA9" s="22"/>
       <c r="AC9" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AF9" s="3"/>
       <c r="AG9" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AH9" s="6"/>
-      <c r="AI9" s="19" t="s">
-        <v>573</v>
-      </c>
-      <c r="AJ9" s="22"/>
+      <c r="AI9" s="17" t="s">
+        <v>572</v>
+      </c>
+      <c r="AJ9" s="20"/>
       <c r="AL9" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AM9" s="3"/>
       <c r="AN9" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AO9" s="3"/>
       <c r="AP9" s="3"/>
       <c r="AQ9" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="AR9" s="6"/>
-      <c r="AS9" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="AT9" s="22"/>
+        <v>383</v>
+      </c>
+      <c r="AR9" s="10"/>
+      <c r="AS9" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="AT9" s="20"/>
       <c r="AV9" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AW9" s="3"/>
       <c r="AX9" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AY9" s="3"/>
-      <c r="AZ9" s="15" t="s">
-        <v>428</v>
+      <c r="AZ9" s="13" t="s">
+        <v>427</v>
       </c>
       <c r="BA9" s="10"/>
-      <c r="BB9" s="21" t="s">
-        <v>574</v>
-      </c>
-      <c r="BC9" s="22"/>
+      <c r="BB9" s="19" t="s">
+        <v>573</v>
+      </c>
+      <c r="BC9" s="20"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="BF9" s="3"/>
       <c r="BG9" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="BH9" s="3"/>
       <c r="BI9" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BJ9" s="6"/>
-      <c r="BK9" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="BL9" s="22"/>
+      <c r="BK9" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL9" s="20"/>
     </row>
     <row r="10" spans="2:76" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
@@ -3426,17 +3439,17 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="35" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="11"/>
-      <c r="H10" s="23" t="s">
-        <v>576</v>
-      </c>
-      <c r="I10" s="24"/>
+      <c r="H10" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="I10" s="22"/>
       <c r="J10" s="1"/>
       <c r="K10" s="2" t="s">
         <v>178</v>
@@ -3446,97 +3459,97 @@
         <v>32</v>
       </c>
       <c r="N10" s="2"/>
-      <c r="O10" s="38" t="s">
+      <c r="O10" s="35" t="s">
         <v>170</v>
       </c>
       <c r="P10" s="11"/>
-      <c r="Q10" s="30" t="s">
-        <v>578</v>
-      </c>
-      <c r="R10" s="31"/>
+      <c r="Q10" s="28" t="s">
+        <v>577</v>
+      </c>
+      <c r="R10" s="29"/>
       <c r="S10" s="8"/>
       <c r="T10" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="U10" s="2"/>
       <c r="V10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W10" s="2"/>
-      <c r="X10" s="38" t="s">
-        <v>237</v>
+      <c r="X10" s="35" t="s">
+        <v>236</v>
       </c>
       <c r="Y10" s="10"/>
-      <c r="Z10" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA10" s="22"/>
+      <c r="Z10" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="AA10" s="20"/>
       <c r="AC10" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AD10" s="3"/>
       <c r="AE10" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AF10" s="3"/>
       <c r="AG10" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AH10" s="10"/>
-      <c r="AI10" s="19" t="s">
-        <v>573</v>
-      </c>
-      <c r="AJ10" s="29"/>
+      <c r="AI10" s="17" t="s">
+        <v>572</v>
+      </c>
+      <c r="AJ10" s="27"/>
       <c r="AL10" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AM10" s="3"/>
       <c r="AN10" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AO10" s="3"/>
       <c r="AP10" s="3"/>
       <c r="AQ10" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="AR10" s="6"/>
-      <c r="AS10" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="AT10" s="22"/>
+        <v>383</v>
+      </c>
+      <c r="AR10" s="10"/>
+      <c r="AS10" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="AT10" s="20"/>
       <c r="AV10" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AW10" s="3"/>
       <c r="AX10" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AY10" s="3"/>
-      <c r="AZ10" s="39" t="s">
-        <v>428</v>
+      <c r="AZ10" s="36" t="s">
+        <v>427</v>
       </c>
       <c r="BA10" s="10"/>
-      <c r="BB10" s="21" t="s">
-        <v>572</v>
-      </c>
-      <c r="BC10" s="22"/>
+      <c r="BB10" s="19" t="s">
+        <v>571</v>
+      </c>
+      <c r="BC10" s="20"/>
       <c r="BD10" s="1"/>
       <c r="BE10" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="BF10" s="3"/>
       <c r="BG10" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="BH10" s="3"/>
       <c r="BI10" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BJ10" s="6"/>
-      <c r="BK10" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="BL10" s="22"/>
+      <c r="BK10" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL10" s="20"/>
     </row>
     <row r="11" spans="2:76" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
@@ -3547,14 +3560,14 @@
         <v>33</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="35" t="s">
         <v>3</v>
       </c>
       <c r="G11" s="11"/>
-      <c r="H11" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="I11" s="22"/>
+      <c r="H11" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="I11" s="20"/>
       <c r="J11" s="1"/>
       <c r="K11" s="3" t="s">
         <v>179</v>
@@ -3564,81 +3577,81 @@
         <v>33</v>
       </c>
       <c r="N11" s="3"/>
-      <c r="O11" s="38" t="s">
+      <c r="O11" s="35" t="s">
         <v>170</v>
       </c>
       <c r="P11" s="11"/>
-      <c r="Q11" s="21" t="s">
-        <v>579</v>
-      </c>
-      <c r="R11" s="22"/>
+      <c r="Q11" s="19" t="s">
+        <v>578</v>
+      </c>
+      <c r="R11" s="20"/>
       <c r="S11" s="8"/>
       <c r="T11" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="U11" s="3"/>
       <c r="V11" s="3" t="s">
         <v>33</v>
       </c>
       <c r="W11" s="3"/>
-      <c r="X11" s="38" t="s">
-        <v>237</v>
+      <c r="X11" s="35" t="s">
+        <v>236</v>
       </c>
       <c r="Y11" s="10"/>
-      <c r="Z11" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="AA11" s="22"/>
+      <c r="Z11" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA11" s="20"/>
       <c r="AL11" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AM11" s="3"/>
       <c r="AN11" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AO11" s="3"/>
       <c r="AP11" s="3"/>
       <c r="AQ11" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="AR11" s="6"/>
-      <c r="AS11" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="AT11" s="22"/>
+        <v>383</v>
+      </c>
+      <c r="AR11" s="10"/>
+      <c r="AS11" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="AT11" s="20"/>
       <c r="AV11" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AW11" s="3"/>
       <c r="AX11" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AY11" s="3"/>
-      <c r="AZ11" s="39" t="s">
-        <v>428</v>
+      <c r="AZ11" s="36" t="s">
+        <v>427</v>
       </c>
       <c r="BA11" s="10"/>
-      <c r="BB11" s="21" t="s">
-        <v>572</v>
-      </c>
-      <c r="BC11" s="22"/>
+      <c r="BB11" s="19" t="s">
+        <v>571</v>
+      </c>
+      <c r="BC11" s="20"/>
       <c r="BD11" s="1"/>
       <c r="BE11" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="BF11" s="2"/>
       <c r="BG11" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="BH11" s="2"/>
       <c r="BI11" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BJ11" s="6"/>
-      <c r="BK11" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL11" s="31"/>
+      <c r="BK11" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="BL11" s="29"/>
     </row>
     <row r="12" spans="2:76" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
@@ -3649,14 +3662,14 @@
         <v>34</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="35" t="s">
         <v>3</v>
       </c>
       <c r="G12" s="11"/>
-      <c r="H12" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="I12" s="22"/>
+      <c r="H12" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="I12" s="20"/>
       <c r="J12" s="1"/>
       <c r="K12" s="3" t="s">
         <v>180</v>
@@ -3666,85 +3679,85 @@
         <v>34</v>
       </c>
       <c r="N12" s="3"/>
-      <c r="O12" s="38" t="s">
+      <c r="O12" s="35" t="s">
         <v>3</v>
       </c>
       <c r="P12" s="11"/>
-      <c r="Q12" s="21" t="s">
-        <v>579</v>
-      </c>
-      <c r="R12" s="22"/>
+      <c r="Q12" s="19" t="s">
+        <v>578</v>
+      </c>
+      <c r="R12" s="20"/>
       <c r="S12" s="8"/>
       <c r="T12" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="U12" s="3"/>
       <c r="V12" s="3" t="s">
         <v>34</v>
       </c>
       <c r="W12" s="3"/>
-      <c r="X12" s="38" t="s">
+      <c r="X12" s="35" t="s">
         <v>3</v>
       </c>
       <c r="Y12" s="10"/>
-      <c r="Z12" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="AA12" s="22"/>
+      <c r="Z12" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA12" s="20"/>
       <c r="AL12" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AM12" s="3"/>
       <c r="AN12" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AO12" s="3"/>
       <c r="AP12" s="3"/>
       <c r="AQ12" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="AR12" s="6"/>
-      <c r="AS12" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="AT12" s="22"/>
+        <v>383</v>
+      </c>
+      <c r="AR12" s="10"/>
+      <c r="AS12" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="AT12" s="20"/>
       <c r="AV12" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AW12" s="3"/>
       <c r="AX12" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AY12" s="3"/>
-      <c r="AZ12" s="39" t="s">
-        <v>428</v>
+      <c r="AZ12" s="36" t="s">
+        <v>427</v>
       </c>
       <c r="BA12" s="10"/>
-      <c r="BB12" s="21" t="s">
-        <v>575</v>
-      </c>
-      <c r="BC12" s="22"/>
+      <c r="BB12" s="19" t="s">
+        <v>574</v>
+      </c>
+      <c r="BC12" s="20"/>
       <c r="BD12" s="1"/>
       <c r="BE12" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="BF12" s="3"/>
       <c r="BG12" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="BH12" s="3"/>
       <c r="BI12" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BJ12" s="6"/>
-      <c r="BK12" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="BL12" s="22"/>
+      <c r="BK12" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL12" s="20"/>
     </row>
     <row r="13" spans="2:76" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
@@ -3755,13 +3768,13 @@
         <v>3</v>
       </c>
       <c r="G13" s="11"/>
-      <c r="H13" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="I13" s="22"/>
+      <c r="H13" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="I13" s="20"/>
       <c r="J13" s="1"/>
       <c r="K13" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3" t="s">
@@ -3772,13 +3785,13 @@
         <v>170</v>
       </c>
       <c r="P13" s="11"/>
-      <c r="Q13" s="21" t="s">
-        <v>580</v>
-      </c>
-      <c r="R13" s="22"/>
+      <c r="Q13" s="19" t="s">
+        <v>579</v>
+      </c>
+      <c r="R13" s="20"/>
       <c r="S13" s="8"/>
       <c r="T13" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="U13" s="3"/>
       <c r="V13" s="3" t="s">
@@ -3786,67 +3799,67 @@
       </c>
       <c r="W13" s="3"/>
       <c r="X13" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Y13" s="10"/>
-      <c r="Z13" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA13" s="22"/>
+      <c r="Z13" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="AA13" s="20"/>
       <c r="AL13" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AM13" s="3"/>
       <c r="AN13" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AO13" s="3"/>
       <c r="AP13" s="3"/>
       <c r="AQ13" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="AR13" s="6"/>
-      <c r="AS13" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="AT13" s="22"/>
+        <v>383</v>
+      </c>
+      <c r="AR13" s="10"/>
+      <c r="AS13" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="AT13" s="20"/>
       <c r="AV13" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AW13" s="3"/>
       <c r="AX13" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AY13" s="3"/>
-      <c r="AZ13" s="15" t="s">
-        <v>428</v>
+      <c r="AZ13" s="13" t="s">
+        <v>427</v>
       </c>
       <c r="BA13" s="10"/>
-      <c r="BB13" s="21" t="s">
-        <v>573</v>
-      </c>
-      <c r="BC13" s="22"/>
+      <c r="BB13" s="19" t="s">
+        <v>572</v>
+      </c>
+      <c r="BC13" s="20"/>
       <c r="BD13" s="1"/>
       <c r="BE13" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="BF13" s="3"/>
       <c r="BG13" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="BH13" s="3"/>
       <c r="BI13" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BJ13" s="6"/>
-      <c r="BK13" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="BL13" s="22"/>
+      <c r="BK13" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL13" s="20"/>
     </row>
     <row r="14" spans="2:76" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
@@ -3857,13 +3870,13 @@
         <v>3</v>
       </c>
       <c r="G14" s="11"/>
-      <c r="H14" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="I14" s="22"/>
+      <c r="H14" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="I14" s="20"/>
       <c r="J14" s="1"/>
       <c r="K14" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4" t="s">
@@ -3874,13 +3887,13 @@
         <v>170</v>
       </c>
       <c r="P14" s="11"/>
-      <c r="Q14" s="23" t="s">
-        <v>580</v>
-      </c>
-      <c r="R14" s="24"/>
+      <c r="Q14" s="21" t="s">
+        <v>579</v>
+      </c>
+      <c r="R14" s="22"/>
       <c r="S14" s="8"/>
       <c r="T14" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="U14" s="4"/>
       <c r="V14" s="4" t="s">
@@ -3888,67 +3901,67 @@
       </c>
       <c r="W14" s="4"/>
       <c r="X14" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Y14" s="10"/>
-      <c r="Z14" s="23" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA14" s="24"/>
+      <c r="Z14" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="AA14" s="22"/>
       <c r="AL14" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AM14" s="3"/>
       <c r="AN14" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AO14" s="3"/>
       <c r="AP14" s="3"/>
       <c r="AQ14" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="AR14" s="6"/>
-      <c r="AS14" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="AT14" s="22"/>
+        <v>383</v>
+      </c>
+      <c r="AR14" s="10"/>
+      <c r="AS14" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="AT14" s="20"/>
       <c r="AV14" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AW14" s="3"/>
       <c r="AX14" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AY14" s="3"/>
-      <c r="AZ14" s="15" t="s">
-        <v>428</v>
+      <c r="AZ14" s="13" t="s">
+        <v>427</v>
       </c>
       <c r="BA14" s="10"/>
-      <c r="BB14" s="21" t="s">
-        <v>573</v>
-      </c>
-      <c r="BC14" s="22"/>
+      <c r="BB14" s="19" t="s">
+        <v>572</v>
+      </c>
+      <c r="BC14" s="20"/>
       <c r="BD14" s="1"/>
       <c r="BE14" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="BF14" s="3"/>
       <c r="BG14" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BH14" s="3"/>
       <c r="BI14" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BJ14" s="6"/>
-      <c r="BK14" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="BL14" s="22"/>
+      <c r="BK14" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL14" s="20"/>
     </row>
     <row r="15" spans="2:76" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
@@ -3959,13 +3972,13 @@
         <v>3</v>
       </c>
       <c r="G15" s="11"/>
-      <c r="H15" s="23" t="s">
-        <v>576</v>
-      </c>
-      <c r="I15" s="24"/>
+      <c r="H15" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="I15" s="22"/>
       <c r="J15" s="1"/>
       <c r="K15" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
@@ -3976,13 +3989,13 @@
         <v>170</v>
       </c>
       <c r="P15" s="11"/>
-      <c r="Q15" s="30" t="s">
-        <v>580</v>
-      </c>
-      <c r="R15" s="31"/>
+      <c r="Q15" s="28" t="s">
+        <v>579</v>
+      </c>
+      <c r="R15" s="29"/>
       <c r="S15" s="8"/>
       <c r="T15" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="U15" s="2"/>
       <c r="V15" s="2" t="s">
@@ -3990,63 +4003,63 @@
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Y15" s="10"/>
-      <c r="Z15" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA15" s="31"/>
+      <c r="Z15" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="AA15" s="29"/>
       <c r="AL15" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AM15" s="3"/>
       <c r="AN15" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AO15" s="3"/>
       <c r="AP15" s="3"/>
       <c r="AQ15" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="AR15" s="6"/>
-      <c r="AS15" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="AT15" s="22"/>
+        <v>383</v>
+      </c>
+      <c r="AR15" s="10"/>
+      <c r="AS15" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="AT15" s="20"/>
       <c r="AV15" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AW15" s="4"/>
       <c r="AX15" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AY15" s="4"/>
-      <c r="AZ15" s="16" t="s">
-        <v>428</v>
+      <c r="AZ15" s="14" t="s">
+        <v>427</v>
       </c>
       <c r="BA15" s="6"/>
-      <c r="BB15" s="23" t="s">
-        <v>571</v>
-      </c>
-      <c r="BC15" s="24"/>
+      <c r="BB15" s="21" t="s">
+        <v>570</v>
+      </c>
+      <c r="BC15" s="22"/>
       <c r="BD15" s="1"/>
       <c r="BE15" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="BF15" s="3"/>
       <c r="BG15" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="BH15" s="3"/>
       <c r="BI15" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BJ15" s="6"/>
-      <c r="BK15" s="21" t="s">
-        <v>581</v>
-      </c>
-      <c r="BL15" s="22"/>
+      <c r="BK15" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="BL15" s="20"/>
     </row>
     <row r="16" spans="2:76" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
@@ -4061,13 +4074,13 @@
         <v>3</v>
       </c>
       <c r="G16" s="11"/>
-      <c r="H16" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="I16" s="24"/>
+      <c r="H16" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="I16" s="22"/>
       <c r="J16" s="1"/>
       <c r="K16" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2" t="s">
@@ -4078,13 +4091,13 @@
         <v>170</v>
       </c>
       <c r="P16" s="11"/>
-      <c r="Q16" s="30" t="s">
-        <v>577</v>
-      </c>
-      <c r="R16" s="31"/>
+      <c r="Q16" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="R16" s="29"/>
       <c r="S16" s="8"/>
       <c r="T16" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="U16" s="2"/>
       <c r="V16" s="2" t="s">
@@ -4092,63 +4105,63 @@
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Y16" s="10"/>
-      <c r="Z16" s="30" t="s">
-        <v>577</v>
-      </c>
-      <c r="AA16" s="31"/>
+      <c r="Z16" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA16" s="29"/>
       <c r="AL16" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AM16" s="5"/>
       <c r="AN16" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AO16" s="5"/>
       <c r="AP16" s="5"/>
       <c r="AQ16" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="AR16" s="6"/>
-      <c r="AS16" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="AT16" s="24"/>
+        <v>383</v>
+      </c>
+      <c r="AR16" s="10"/>
+      <c r="AS16" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="AT16" s="22"/>
       <c r="AV16" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AW16" s="4"/>
       <c r="AX16" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AY16" s="4"/>
-      <c r="AZ16" s="16" t="s">
-        <v>428</v>
+      <c r="AZ16" s="14" t="s">
+        <v>427</v>
       </c>
       <c r="BA16" s="6"/>
-      <c r="BB16" s="23" t="s">
-        <v>571</v>
-      </c>
-      <c r="BC16" s="24"/>
+      <c r="BB16" s="21" t="s">
+        <v>570</v>
+      </c>
+      <c r="BC16" s="22"/>
       <c r="BD16" s="1"/>
       <c r="BE16" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="BF16" s="3"/>
       <c r="BG16" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="BH16" s="3"/>
       <c r="BI16" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BJ16" s="6"/>
-      <c r="BK16" s="21" t="s">
-        <v>581</v>
-      </c>
-      <c r="BL16" s="22"/>
+      <c r="BK16" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="BL16" s="20"/>
     </row>
     <row r="17" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
@@ -4163,13 +4176,13 @@
         <v>3</v>
       </c>
       <c r="G17" s="11"/>
-      <c r="H17" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="I17" s="22"/>
+      <c r="H17" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="I17" s="20"/>
       <c r="J17" s="1"/>
       <c r="K17" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3" t="s">
@@ -4180,13 +4193,13 @@
         <v>170</v>
       </c>
       <c r="P17" s="11"/>
-      <c r="Q17" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="R17" s="22"/>
+      <c r="Q17" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="R17" s="20"/>
       <c r="S17" s="8"/>
       <c r="T17" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="U17" s="3"/>
       <c r="V17" s="3" t="s">
@@ -4194,61 +4207,61 @@
       </c>
       <c r="W17" s="3"/>
       <c r="X17" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Y17" s="10"/>
-      <c r="Z17" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="AA17" s="22"/>
+      <c r="Z17" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA17" s="20"/>
       <c r="AL17" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AM17" s="5"/>
       <c r="AN17" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AO17" s="5"/>
       <c r="AP17" s="5"/>
       <c r="AQ17" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="AR17" s="6"/>
-      <c r="AS17" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="AT17" s="24"/>
+        <v>383</v>
+      </c>
+      <c r="AR17" s="10"/>
+      <c r="AS17" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="AT17" s="22"/>
       <c r="AV17" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW17" s="2"/>
       <c r="AX17" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AY17" s="2"/>
-      <c r="AZ17" s="17" t="s">
-        <v>428</v>
+      <c r="AZ17" s="15" t="s">
+        <v>427</v>
       </c>
       <c r="BA17" s="6"/>
-      <c r="BB17" s="27"/>
-      <c r="BC17" s="26"/>
+      <c r="BB17" s="25"/>
+      <c r="BC17" s="24"/>
       <c r="BD17" s="1"/>
       <c r="BE17" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="BF17" s="3"/>
       <c r="BG17" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="BH17" s="3"/>
       <c r="BI17" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BJ17" s="6"/>
-      <c r="BK17" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="BL17" s="22"/>
+      <c r="BK17" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL17" s="20"/>
     </row>
     <row r="18" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
@@ -4259,98 +4272,98 @@
         <v>41</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="38" t="s">
+      <c r="F18" s="35" t="s">
         <v>3</v>
       </c>
       <c r="G18" s="11"/>
-      <c r="H18" s="21" t="s">
-        <v>585</v>
-      </c>
-      <c r="I18" s="22"/>
+      <c r="H18" s="19" t="s">
+        <v>584</v>
+      </c>
+      <c r="I18" s="20"/>
       <c r="J18" s="1"/>
       <c r="K18" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N18" s="3"/>
-      <c r="O18" s="38" t="s">
+      <c r="O18" s="35" t="s">
         <v>170</v>
       </c>
       <c r="P18" s="11"/>
-      <c r="Q18" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="R18" s="22"/>
+      <c r="Q18" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="R18" s="20"/>
       <c r="S18" s="8"/>
       <c r="T18" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="U18" s="3"/>
       <c r="V18" s="3" t="s">
         <v>41</v>
       </c>
       <c r="W18" s="3"/>
-      <c r="X18" s="38" t="s">
-        <v>237</v>
+      <c r="X18" s="35" t="s">
+        <v>236</v>
       </c>
       <c r="Y18" s="10"/>
-      <c r="Z18" s="21" t="s">
-        <v>581</v>
-      </c>
-      <c r="AA18" s="22"/>
+      <c r="Z18" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="AA18" s="20"/>
       <c r="AL18" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AM18" s="3"/>
       <c r="AN18" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AO18" s="3"/>
       <c r="AP18" s="3"/>
       <c r="AQ18" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="AR18" s="6"/>
-      <c r="AS18" s="21" t="s">
-        <v>581</v>
-      </c>
-      <c r="AT18" s="22"/>
+        <v>383</v>
+      </c>
+      <c r="AR18" s="10"/>
+      <c r="AS18" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="AT18" s="20"/>
       <c r="AV18" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AW18" s="3"/>
       <c r="AX18" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AY18" s="3"/>
-      <c r="AZ18" s="15" t="s">
-        <v>428</v>
+      <c r="AZ18" s="13" t="s">
+        <v>427</v>
       </c>
       <c r="BA18" s="10"/>
-      <c r="BB18" s="21" t="s">
-        <v>575</v>
-      </c>
-      <c r="BC18" s="22"/>
+      <c r="BB18" s="19" t="s">
+        <v>574</v>
+      </c>
+      <c r="BC18" s="20"/>
       <c r="BD18" s="1"/>
       <c r="BE18" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="BF18" s="2"/>
       <c r="BG18" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="BH18" s="2"/>
       <c r="BI18" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BJ18" s="6"/>
-      <c r="BK18" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL18" s="31"/>
+      <c r="BK18" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="BL18" s="29"/>
     </row>
     <row r="19" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
@@ -4361,98 +4374,98 @@
         <v>42</v>
       </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="38" t="s">
+      <c r="F19" s="35" t="s">
         <v>3</v>
       </c>
       <c r="G19" s="11"/>
-      <c r="H19" s="21" t="s">
-        <v>572</v>
-      </c>
-      <c r="I19" s="22"/>
+      <c r="H19" s="19" t="s">
+        <v>571</v>
+      </c>
+      <c r="I19" s="20"/>
       <c r="J19" s="1"/>
       <c r="K19" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N19" s="3"/>
-      <c r="O19" s="38" t="s">
+      <c r="O19" s="35" t="s">
         <v>170</v>
       </c>
       <c r="P19" s="11"/>
-      <c r="Q19" s="21" t="s">
-        <v>585</v>
-      </c>
-      <c r="R19" s="22"/>
+      <c r="Q19" s="19" t="s">
+        <v>584</v>
+      </c>
+      <c r="R19" s="20"/>
       <c r="S19" s="8"/>
       <c r="T19" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="U19" s="3"/>
       <c r="V19" s="3" t="s">
         <v>42</v>
       </c>
       <c r="W19" s="3"/>
-      <c r="X19" s="38" t="s">
-        <v>237</v>
+      <c r="X19" s="35" t="s">
+        <v>236</v>
       </c>
       <c r="Y19" s="10"/>
-      <c r="Z19" s="21" t="s">
-        <v>585</v>
-      </c>
-      <c r="AA19" s="22"/>
+      <c r="Z19" s="19" t="s">
+        <v>584</v>
+      </c>
+      <c r="AA19" s="20"/>
       <c r="AL19" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AM19" s="2"/>
       <c r="AN19" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="AR19" s="6"/>
-      <c r="AS19" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="AT19" s="26"/>
+        <v>383</v>
+      </c>
+      <c r="AR19" s="10"/>
+      <c r="AS19" s="25" t="s">
+        <v>575</v>
+      </c>
+      <c r="AT19" s="24"/>
       <c r="AV19" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AW19" s="3"/>
       <c r="AX19" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AY19" s="3"/>
-      <c r="AZ19" s="15" t="s">
-        <v>428</v>
+      <c r="AZ19" s="13" t="s">
+        <v>427</v>
       </c>
       <c r="BA19" s="10"/>
-      <c r="BB19" s="21" t="s">
-        <v>571</v>
-      </c>
-      <c r="BC19" s="22"/>
+      <c r="BB19" s="19" t="s">
+        <v>570</v>
+      </c>
+      <c r="BC19" s="20"/>
       <c r="BD19" s="1"/>
       <c r="BE19" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="BF19" s="2"/>
       <c r="BG19" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="BH19" s="2"/>
       <c r="BI19" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BJ19" s="6"/>
-      <c r="BK19" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL19" s="31"/>
+      <c r="BK19" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="BL19" s="29"/>
     </row>
     <row r="20" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
@@ -4463,98 +4476,98 @@
         <v>43</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="38" t="s">
+      <c r="F20" s="35" t="s">
         <v>3</v>
       </c>
       <c r="G20" s="11"/>
-      <c r="H20" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="I20" s="24"/>
+      <c r="H20" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="I20" s="22"/>
       <c r="J20" s="1"/>
       <c r="K20" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L20" s="4"/>
       <c r="M20" s="4" t="s">
         <v>43</v>
       </c>
       <c r="N20" s="4"/>
-      <c r="O20" s="38" t="s">
+      <c r="O20" s="35" t="s">
         <v>170</v>
       </c>
       <c r="P20" s="11"/>
-      <c r="Q20" s="23" t="s">
-        <v>581</v>
-      </c>
-      <c r="R20" s="24"/>
+      <c r="Q20" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="R20" s="22"/>
       <c r="S20" s="8"/>
       <c r="T20" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="U20" s="4"/>
       <c r="V20" s="4" t="s">
         <v>43</v>
       </c>
       <c r="W20" s="4"/>
-      <c r="X20" s="38" t="s">
-        <v>237</v>
+      <c r="X20" s="35" t="s">
+        <v>236</v>
       </c>
       <c r="Y20" s="10"/>
-      <c r="Z20" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="AA20" s="24"/>
+      <c r="Z20" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA20" s="22"/>
       <c r="AL20" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AM20" s="4"/>
       <c r="AN20" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AO20" s="4"/>
       <c r="AP20" s="4"/>
       <c r="AQ20" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="AR20" s="6"/>
-      <c r="AS20" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="AT20" s="24"/>
+        <v>383</v>
+      </c>
+      <c r="AR20" s="10"/>
+      <c r="AS20" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="AT20" s="22"/>
       <c r="AV20" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW20" s="3"/>
       <c r="AX20" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AY20" s="3"/>
-      <c r="AZ20" s="15" t="s">
-        <v>428</v>
+      <c r="AZ20" s="13" t="s">
+        <v>427</v>
       </c>
       <c r="BA20" s="6"/>
-      <c r="BB20" s="21" t="s">
-        <v>571</v>
-      </c>
-      <c r="BC20" s="22"/>
+      <c r="BB20" s="19" t="s">
+        <v>570</v>
+      </c>
+      <c r="BC20" s="20"/>
       <c r="BD20" s="1"/>
       <c r="BE20" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="BF20" s="2"/>
       <c r="BG20" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="BH20" s="2"/>
       <c r="BI20" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BJ20" s="6"/>
-      <c r="BK20" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL20" s="31"/>
+      <c r="BK20" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="BL20" s="29"/>
     </row>
     <row r="21" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
@@ -4565,100 +4578,100 @@
         <v>44</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="35" t="s">
         <v>3</v>
       </c>
       <c r="G21" s="11"/>
-      <c r="H21" s="27" t="s">
-        <v>585</v>
-      </c>
-      <c r="I21" s="26"/>
+      <c r="H21" s="25" t="s">
+        <v>584</v>
+      </c>
+      <c r="I21" s="24"/>
       <c r="J21" s="1"/>
       <c r="K21" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N21" s="3"/>
-      <c r="O21" s="38" t="s">
+      <c r="O21" s="35" t="s">
         <v>170</v>
       </c>
       <c r="P21" s="11"/>
-      <c r="Q21" s="21" t="s">
-        <v>582</v>
-      </c>
-      <c r="R21" s="22"/>
+      <c r="Q21" s="19" t="s">
+        <v>581</v>
+      </c>
+      <c r="R21" s="20"/>
       <c r="S21" s="8"/>
       <c r="T21" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="U21" s="3"/>
       <c r="V21" s="3" t="s">
         <v>44</v>
       </c>
       <c r="W21" s="3"/>
-      <c r="X21" s="38" t="s">
-        <v>237</v>
+      <c r="X21" s="35" t="s">
+        <v>236</v>
       </c>
       <c r="Y21" s="10"/>
-      <c r="Z21" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="AA21" s="22"/>
+      <c r="Z21" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA21" s="20"/>
       <c r="AL21" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AM21" s="4"/>
       <c r="AN21" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AO21" s="4"/>
       <c r="AP21" s="4"/>
       <c r="AQ21" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="AR21" s="6"/>
-      <c r="AS21" s="23" t="s">
-        <v>578</v>
-      </c>
-      <c r="AT21" s="24"/>
+        <v>383</v>
+      </c>
+      <c r="AR21" s="10"/>
+      <c r="AS21" s="21" t="s">
+        <v>577</v>
+      </c>
+      <c r="AT21" s="22"/>
       <c r="AV21" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AW21" s="3"/>
       <c r="AX21" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AY21" s="3"/>
-      <c r="AZ21" s="15" t="s">
-        <v>428</v>
+      <c r="AZ21" s="13" t="s">
+        <v>427</v>
       </c>
       <c r="BA21" s="10"/>
-      <c r="BB21" s="21" t="s">
-        <v>571</v>
-      </c>
-      <c r="BC21" s="22"/>
+      <c r="BB21" s="19" t="s">
+        <v>570</v>
+      </c>
+      <c r="BC21" s="20"/>
       <c r="BD21" s="1"/>
       <c r="BE21" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="BF21" s="2"/>
       <c r="BG21" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="BH21" s="2"/>
       <c r="BI21" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BJ21" s="6"/>
-      <c r="BK21" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL21" s="31"/>
+      <c r="BK21" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="BL21" s="29"/>
       <c r="BN21" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="22" spans="2:66" x14ac:dyDescent="0.25">
@@ -4673,14 +4686,14 @@
       <c r="F22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="27" t="s">
-        <v>577</v>
-      </c>
-      <c r="I22" s="26"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="I22" s="24"/>
       <c r="J22" s="1"/>
       <c r="K22" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2" t="s">
@@ -4690,14 +4703,14 @@
       <c r="O22" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="R22" s="31"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="R22" s="29"/>
       <c r="S22" s="8"/>
       <c r="T22" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="U22" s="2"/>
       <c r="V22" s="2" t="s">
@@ -4705,63 +4718,63 @@
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="30" t="s">
-        <v>577</v>
-      </c>
-      <c r="AA22" s="31"/>
+        <v>236</v>
+      </c>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA22" s="29"/>
       <c r="AL22" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AM22" s="4"/>
       <c r="AN22" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AO22" s="4"/>
       <c r="AP22" s="4"/>
       <c r="AQ22" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="AR22" s="6"/>
-      <c r="AS22" s="23" t="s">
-        <v>578</v>
-      </c>
-      <c r="AT22" s="24"/>
+        <v>383</v>
+      </c>
+      <c r="AR22" s="10"/>
+      <c r="AS22" s="21" t="s">
+        <v>577</v>
+      </c>
+      <c r="AT22" s="22"/>
       <c r="AV22" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AW22" s="3"/>
       <c r="AX22" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AY22" s="3"/>
-      <c r="AZ22" s="15" t="s">
-        <v>428</v>
+      <c r="AZ22" s="13" t="s">
+        <v>427</v>
       </c>
       <c r="BA22" s="10"/>
-      <c r="BB22" s="21" t="s">
-        <v>571</v>
-      </c>
-      <c r="BC22" s="22"/>
+      <c r="BB22" s="19" t="s">
+        <v>570</v>
+      </c>
+      <c r="BC22" s="20"/>
       <c r="BD22" s="1"/>
       <c r="BE22" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="BF22" s="2"/>
       <c r="BG22" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="BH22" s="2"/>
       <c r="BI22" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BJ22" s="6"/>
-      <c r="BK22" s="30" t="s">
-        <v>577</v>
-      </c>
-      <c r="BL22" s="31"/>
+      <c r="BK22" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL22" s="29"/>
     </row>
     <row r="23" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
@@ -4776,10 +4789,10 @@
         <v>3</v>
       </c>
       <c r="G23" s="11"/>
-      <c r="H23" s="21" t="s">
-        <v>581</v>
-      </c>
-      <c r="I23" s="22"/>
+      <c r="H23" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="I23" s="20"/>
       <c r="J23" s="1"/>
       <c r="K23" s="3" t="s">
         <v>181</v>
@@ -4793,13 +4806,13 @@
         <v>170</v>
       </c>
       <c r="P23" s="11"/>
-      <c r="Q23" s="21" t="s">
-        <v>581</v>
-      </c>
-      <c r="R23" s="22"/>
+      <c r="Q23" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="R23" s="20"/>
       <c r="S23" s="8"/>
       <c r="T23" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="U23" s="3"/>
       <c r="V23" s="3" t="s">
@@ -4807,67 +4820,67 @@
       </c>
       <c r="W23" s="3"/>
       <c r="X23" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Y23" s="10"/>
-      <c r="Z23" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="AA23" s="22"/>
+      <c r="Z23" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA23" s="20"/>
       <c r="AL23" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AM23" s="4"/>
       <c r="AN23" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AO23" s="4"/>
       <c r="AP23" s="4"/>
       <c r="AQ23" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="AR23" s="6"/>
-      <c r="AS23" s="23" t="s">
-        <v>578</v>
-      </c>
-      <c r="AT23" s="24"/>
+        <v>383</v>
+      </c>
+      <c r="AR23" s="10"/>
+      <c r="AS23" s="21" t="s">
+        <v>577</v>
+      </c>
+      <c r="AT23" s="22"/>
       <c r="AV23" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AW23" s="3"/>
       <c r="AX23" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AY23" s="3"/>
-      <c r="AZ23" s="15" t="s">
-        <v>428</v>
+      <c r="AZ23" s="13" t="s">
+        <v>427</v>
       </c>
       <c r="BA23" s="6"/>
-      <c r="BB23" s="21" t="s">
-        <v>571</v>
-      </c>
-      <c r="BC23" s="22"/>
+      <c r="BB23" s="19" t="s">
+        <v>570</v>
+      </c>
+      <c r="BC23" s="20"/>
       <c r="BD23" s="1"/>
       <c r="BE23" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="BF23" s="2"/>
       <c r="BG23" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="BH23" s="2"/>
       <c r="BI23" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BJ23" s="6"/>
-      <c r="BK23" s="30" t="s">
-        <v>577</v>
-      </c>
-      <c r="BL23" s="31"/>
+      <c r="BK23" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL23" s="29"/>
     </row>
     <row r="24" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
@@ -4878,13 +4891,13 @@
         <v>3</v>
       </c>
       <c r="G24" s="11"/>
-      <c r="H24" s="21" t="s">
-        <v>581</v>
-      </c>
-      <c r="I24" s="22"/>
+      <c r="H24" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="I24" s="20"/>
       <c r="J24" s="1"/>
       <c r="K24" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3" t="s">
@@ -4895,13 +4908,13 @@
         <v>170</v>
       </c>
       <c r="P24" s="11"/>
-      <c r="Q24" s="21" t="s">
-        <v>582</v>
-      </c>
-      <c r="R24" s="22"/>
+      <c r="Q24" s="19" t="s">
+        <v>581</v>
+      </c>
+      <c r="R24" s="20"/>
       <c r="S24" s="8"/>
       <c r="T24" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="U24" s="3"/>
       <c r="V24" s="3" t="s">
@@ -4909,63 +4922,63 @@
       </c>
       <c r="W24" s="3"/>
       <c r="X24" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Y24" s="10"/>
-      <c r="Z24" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="AA24" s="22"/>
+      <c r="Z24" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA24" s="20"/>
       <c r="AL24" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AM24" s="4"/>
       <c r="AN24" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AO24" s="4"/>
       <c r="AP24" s="4"/>
       <c r="AQ24" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="AR24" s="6"/>
-      <c r="AS24" s="23" t="s">
-        <v>578</v>
-      </c>
-      <c r="AT24" s="24"/>
+        <v>383</v>
+      </c>
+      <c r="AR24" s="10"/>
+      <c r="AS24" s="21" t="s">
+        <v>577</v>
+      </c>
+      <c r="AT24" s="22"/>
       <c r="AV24" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AW24" s="3"/>
       <c r="AX24" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AY24" s="3"/>
-      <c r="AZ24" s="15" t="s">
-        <v>428</v>
+      <c r="AZ24" s="13" t="s">
+        <v>427</v>
       </c>
       <c r="BA24" s="10"/>
-      <c r="BB24" s="21" t="s">
-        <v>573</v>
-      </c>
-      <c r="BC24" s="22"/>
+      <c r="BB24" s="19" t="s">
+        <v>572</v>
+      </c>
+      <c r="BC24" s="20"/>
       <c r="BD24" s="1"/>
       <c r="BE24" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="BF24" s="2"/>
       <c r="BG24" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="BH24" s="2"/>
       <c r="BI24" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BJ24" s="6"/>
-      <c r="BK24" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL24" s="31"/>
+      <c r="BK24" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="BL24" s="29"/>
     </row>
     <row r="25" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
@@ -4976,98 +4989,98 @@
         <v>48</v>
       </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="38" t="s">
+      <c r="F25" s="35" t="s">
         <v>3</v>
       </c>
       <c r="G25" s="11"/>
-      <c r="H25" s="27" t="s">
-        <v>577</v>
-      </c>
-      <c r="I25" s="26"/>
+      <c r="H25" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="I25" s="24"/>
       <c r="J25" s="1"/>
       <c r="K25" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2" t="s">
         <v>48</v>
       </c>
       <c r="N25" s="2"/>
-      <c r="O25" s="38" t="s">
+      <c r="O25" s="35" t="s">
         <v>170</v>
       </c>
       <c r="P25" s="11"/>
-      <c r="Q25" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="R25" s="31"/>
+      <c r="Q25" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="R25" s="29"/>
       <c r="S25" s="8"/>
       <c r="T25" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="U25" s="2"/>
       <c r="V25" s="2" t="s">
         <v>48</v>
       </c>
       <c r="W25" s="2"/>
-      <c r="X25" s="38" t="s">
-        <v>237</v>
+      <c r="X25" s="35" t="s">
+        <v>236</v>
       </c>
       <c r="Y25" s="10"/>
-      <c r="Z25" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA25" s="31"/>
+      <c r="Z25" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="AA25" s="29"/>
       <c r="AL25" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AM25" s="4"/>
       <c r="AN25" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AO25" s="4"/>
       <c r="AP25" s="4"/>
       <c r="AQ25" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="AR25" s="6"/>
-      <c r="AS25" s="23" t="s">
-        <v>578</v>
-      </c>
-      <c r="AT25" s="24"/>
+        <v>383</v>
+      </c>
+      <c r="AR25" s="10"/>
+      <c r="AS25" s="21" t="s">
+        <v>577</v>
+      </c>
+      <c r="AT25" s="22"/>
       <c r="AV25" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AW25" s="3"/>
       <c r="AX25" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AY25" s="3"/>
-      <c r="AZ25" s="15" t="s">
-        <v>428</v>
+      <c r="AZ25" s="13" t="s">
+        <v>427</v>
       </c>
       <c r="BA25" s="10"/>
-      <c r="BB25" s="21" t="s">
-        <v>573</v>
-      </c>
-      <c r="BC25" s="22"/>
+      <c r="BB25" s="19" t="s">
+        <v>572</v>
+      </c>
+      <c r="BC25" s="20"/>
       <c r="BD25" s="1"/>
       <c r="BE25" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="BF25" s="2"/>
       <c r="BG25" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="BH25" s="2"/>
       <c r="BI25" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BJ25" s="6"/>
-      <c r="BK25" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL25" s="31"/>
+      <c r="BK25" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="BL25" s="29"/>
     </row>
     <row r="26" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
@@ -5078,98 +5091,98 @@
         <v>49</v>
       </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="38" t="s">
+      <c r="F26" s="35" t="s">
         <v>3</v>
       </c>
       <c r="G26" s="11"/>
-      <c r="H26" s="27" t="s">
-        <v>577</v>
-      </c>
-      <c r="I26" s="26"/>
+      <c r="H26" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="I26" s="24"/>
       <c r="J26" s="1"/>
       <c r="K26" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2" t="s">
         <v>49</v>
       </c>
       <c r="N26" s="2"/>
-      <c r="O26" s="38" t="s">
+      <c r="O26" s="35" t="s">
         <v>170</v>
       </c>
       <c r="P26" s="11"/>
-      <c r="Q26" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="R26" s="31"/>
+      <c r="Q26" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="R26" s="29"/>
       <c r="S26" s="8"/>
       <c r="T26" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="U26" s="2"/>
       <c r="V26" s="2" t="s">
         <v>49</v>
       </c>
       <c r="W26" s="2"/>
-      <c r="X26" s="38" t="s">
-        <v>237</v>
+      <c r="X26" s="35" t="s">
+        <v>236</v>
       </c>
       <c r="Y26" s="10"/>
-      <c r="Z26" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA26" s="31"/>
+      <c r="Z26" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="AA26" s="29"/>
       <c r="AL26" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AM26" s="2"/>
       <c r="AN26" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
       <c r="AQ26" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="AR26" s="6"/>
-      <c r="AS26" s="23" t="s">
-        <v>576</v>
-      </c>
-      <c r="AT26" s="24"/>
+        <v>383</v>
+      </c>
+      <c r="AR26" s="10"/>
+      <c r="AS26" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="AT26" s="22"/>
       <c r="AV26" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AW26" s="2"/>
       <c r="AX26" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AY26" s="2"/>
-      <c r="AZ26" s="17" t="s">
-        <v>428</v>
+      <c r="AZ26" s="15" t="s">
+        <v>427</v>
       </c>
       <c r="BA26" s="6"/>
-      <c r="BB26" s="27" t="s">
-        <v>573</v>
-      </c>
-      <c r="BC26" s="26"/>
+      <c r="BB26" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="BC26" s="24"/>
       <c r="BD26" s="1"/>
       <c r="BE26" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="BF26" s="2"/>
       <c r="BG26" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="BH26" s="2"/>
       <c r="BI26" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BJ26" s="6"/>
-      <c r="BK26" s="30" t="s">
-        <v>577</v>
-      </c>
-      <c r="BL26" s="31"/>
+      <c r="BK26" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL26" s="29"/>
     </row>
     <row r="27" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
@@ -5180,98 +5193,98 @@
         <v>50</v>
       </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="38" t="s">
+      <c r="F27" s="35" t="s">
         <v>3</v>
       </c>
       <c r="G27" s="11"/>
-      <c r="H27" s="21" t="s">
-        <v>572</v>
-      </c>
-      <c r="I27" s="22"/>
+      <c r="H27" s="19" t="s">
+        <v>571</v>
+      </c>
+      <c r="I27" s="20"/>
       <c r="J27" s="1"/>
       <c r="K27" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N27" s="3"/>
-      <c r="O27" s="38" t="s">
+      <c r="O27" s="35" t="s">
         <v>170</v>
       </c>
       <c r="P27" s="11"/>
-      <c r="Q27" s="21" t="s">
-        <v>585</v>
-      </c>
-      <c r="R27" s="22"/>
+      <c r="Q27" s="19" t="s">
+        <v>584</v>
+      </c>
+      <c r="R27" s="20"/>
       <c r="S27" s="8"/>
       <c r="T27" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U27" s="3"/>
       <c r="V27" s="3" t="s">
         <v>50</v>
       </c>
       <c r="W27" s="3"/>
-      <c r="X27" s="38" t="s">
-        <v>237</v>
+      <c r="X27" s="35" t="s">
+        <v>236</v>
       </c>
       <c r="Y27" s="10"/>
-      <c r="Z27" s="21" t="s">
-        <v>585</v>
-      </c>
-      <c r="AA27" s="22"/>
+      <c r="Z27" s="19" t="s">
+        <v>584</v>
+      </c>
+      <c r="AA27" s="20"/>
       <c r="AL27" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AM27" s="3"/>
       <c r="AN27" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AO27" s="3"/>
       <c r="AP27" s="3"/>
       <c r="AQ27" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="AR27" s="6"/>
-      <c r="AS27" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="AT27" s="22"/>
-      <c r="AV27" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="AW27" s="2"/>
-      <c r="AX27" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="AY27" s="2"/>
-      <c r="AZ27" s="17" t="s">
-        <v>428</v>
-      </c>
-      <c r="BA27" s="6"/>
-      <c r="BB27" s="27" t="s">
-        <v>573</v>
-      </c>
-      <c r="BC27" s="26"/>
+        <v>383</v>
+      </c>
+      <c r="AR27" s="10"/>
+      <c r="AS27" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="AT27" s="20"/>
+      <c r="AV27" s="39" t="s">
+        <v>495</v>
+      </c>
+      <c r="AW27" s="39"/>
+      <c r="AX27" s="39" t="s">
+        <v>501</v>
+      </c>
+      <c r="AY27" s="39"/>
+      <c r="AZ27" s="31" t="s">
+        <v>427</v>
+      </c>
+      <c r="BA27" s="34"/>
+      <c r="BB27" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="BC27" s="24"/>
       <c r="BD27" s="1"/>
       <c r="BE27" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="BF27" s="2"/>
       <c r="BG27" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="BH27" s="2"/>
       <c r="BI27" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BJ27" s="6"/>
-      <c r="BK27" s="30" t="s">
-        <v>577</v>
-      </c>
-      <c r="BL27" s="31"/>
+      <c r="BK27" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL27" s="29"/>
     </row>
     <row r="28" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
@@ -5282,98 +5295,98 @@
         <v>51</v>
       </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="38" t="s">
+      <c r="F28" s="35" t="s">
         <v>3</v>
       </c>
       <c r="G28" s="11"/>
-      <c r="H28" s="27" t="s">
-        <v>585</v>
-      </c>
-      <c r="I28" s="26"/>
+      <c r="H28" s="25" t="s">
+        <v>584</v>
+      </c>
+      <c r="I28" s="24"/>
       <c r="J28" s="1"/>
       <c r="K28" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2" t="s">
         <v>51</v>
       </c>
       <c r="N28" s="2"/>
-      <c r="O28" s="38" t="s">
+      <c r="O28" s="35" t="s">
         <v>170</v>
       </c>
       <c r="P28" s="11"/>
-      <c r="Q28" s="30" t="s">
-        <v>582</v>
-      </c>
-      <c r="R28" s="31"/>
+      <c r="Q28" s="28" t="s">
+        <v>581</v>
+      </c>
+      <c r="R28" s="29"/>
       <c r="S28" s="8"/>
       <c r="T28" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="U28" s="2"/>
       <c r="V28" s="2" t="s">
         <v>51</v>
       </c>
       <c r="W28" s="2"/>
-      <c r="X28" s="38" t="s">
-        <v>237</v>
+      <c r="X28" s="35" t="s">
+        <v>236</v>
       </c>
       <c r="Y28" s="10"/>
-      <c r="Z28" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA28" s="31"/>
+      <c r="Z28" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="AA28" s="29"/>
       <c r="AL28" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AM28" s="3"/>
       <c r="AN28" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AO28" s="3"/>
       <c r="AP28" s="3"/>
       <c r="AQ28" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="AR28" s="6"/>
-      <c r="AS28" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="AT28" s="22"/>
+        <v>383</v>
+      </c>
+      <c r="AR28" s="10"/>
+      <c r="AS28" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="AT28" s="20"/>
       <c r="AV28" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AW28" s="3"/>
       <c r="AX28" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AY28" s="3"/>
-      <c r="AZ28" s="15" t="s">
-        <v>428</v>
+      <c r="AZ28" s="3" t="s">
+        <v>427</v>
       </c>
       <c r="BA28" s="6"/>
-      <c r="BB28" s="21" t="s">
-        <v>572</v>
-      </c>
-      <c r="BC28" s="22"/>
+      <c r="BB28" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="BC28" s="3"/>
       <c r="BD28" s="1"/>
       <c r="BE28" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="BF28" s="2"/>
       <c r="BG28" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="BH28" s="2"/>
       <c r="BI28" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BJ28" s="6"/>
-      <c r="BK28" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL28" s="31"/>
+      <c r="BK28" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="BL28" s="29"/>
     </row>
     <row r="29" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
@@ -5387,14 +5400,14 @@
       <c r="F29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="I29" s="22"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="I29" s="20"/>
       <c r="J29" s="1"/>
       <c r="K29" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L29" s="3"/>
       <c r="M29" s="3" t="s">
@@ -5404,14 +5417,14 @@
       <c r="O29" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="21" t="s">
-        <v>581</v>
-      </c>
-      <c r="R29" s="22"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="R29" s="20"/>
       <c r="S29" s="8"/>
       <c r="T29" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="U29" s="3"/>
       <c r="V29" s="3" t="s">
@@ -5419,63 +5432,63 @@
       </c>
       <c r="W29" s="3"/>
       <c r="X29" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y29" s="6"/>
-      <c r="Z29" s="21" t="s">
-        <v>581</v>
-      </c>
-      <c r="AA29" s="22"/>
+        <v>236</v>
+      </c>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="AA29" s="20"/>
       <c r="AL29" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AM29" s="3"/>
       <c r="AN29" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AO29" s="3"/>
       <c r="AP29" s="3"/>
       <c r="AQ29" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="AR29" s="6"/>
-      <c r="AS29" s="21" t="s">
-        <v>581</v>
-      </c>
-      <c r="AT29" s="22"/>
+        <v>383</v>
+      </c>
+      <c r="AR29" s="10"/>
+      <c r="AS29" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="AT29" s="20"/>
       <c r="AV29" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AW29" s="3"/>
       <c r="AX29" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AY29" s="3"/>
-      <c r="AZ29" s="15" t="s">
-        <v>428</v>
+      <c r="AZ29" s="3" t="s">
+        <v>427</v>
       </c>
       <c r="BA29" s="6"/>
-      <c r="BB29" s="21" t="s">
-        <v>575</v>
-      </c>
-      <c r="BC29" s="22"/>
+      <c r="BB29" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="BC29" s="3"/>
       <c r="BD29" s="1"/>
       <c r="BE29" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="BF29" s="2"/>
       <c r="BG29" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="BH29" s="2"/>
       <c r="BI29" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BJ29" s="6"/>
-      <c r="BK29" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL29" s="31"/>
+      <c r="BK29" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="BL29" s="29"/>
     </row>
     <row r="30" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
@@ -5486,98 +5499,98 @@
         <v>53</v>
       </c>
       <c r="E30" s="3"/>
-      <c r="F30" s="38" t="s">
+      <c r="F30" s="35" t="s">
         <v>3</v>
       </c>
       <c r="G30" s="11"/>
-      <c r="H30" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="I30" s="22"/>
+      <c r="H30" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="I30" s="20"/>
       <c r="J30" s="1"/>
       <c r="K30" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L30" s="3"/>
       <c r="M30" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N30" s="3"/>
-      <c r="O30" s="38" t="s">
+      <c r="O30" s="35" t="s">
         <v>170</v>
       </c>
       <c r="P30" s="11"/>
-      <c r="Q30" s="21" t="s">
-        <v>581</v>
-      </c>
-      <c r="R30" s="22"/>
+      <c r="Q30" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="R30" s="20"/>
       <c r="S30" s="8"/>
       <c r="T30" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="U30" s="3"/>
       <c r="V30" s="3" t="s">
         <v>53</v>
       </c>
       <c r="W30" s="3"/>
-      <c r="X30" s="38" t="s">
-        <v>237</v>
+      <c r="X30" s="35" t="s">
+        <v>236</v>
       </c>
       <c r="Y30" s="10"/>
-      <c r="Z30" s="21" t="s">
-        <v>581</v>
-      </c>
-      <c r="AA30" s="22"/>
+      <c r="Z30" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="AA30" s="20"/>
       <c r="AL30" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AM30" s="3"/>
       <c r="AN30" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AO30" s="3"/>
       <c r="AP30" s="3"/>
       <c r="AQ30" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="AR30" s="6"/>
-      <c r="AS30" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="AT30" s="22"/>
+        <v>383</v>
+      </c>
+      <c r="AR30" s="10"/>
+      <c r="AS30" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="AT30" s="20"/>
       <c r="AV30" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AW30" s="3"/>
       <c r="AX30" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AY30" s="3"/>
-      <c r="AZ30" s="18" t="s">
-        <v>427</v>
+      <c r="AZ30" s="40" t="s">
+        <v>426</v>
       </c>
       <c r="BA30" s="10"/>
-      <c r="BB30" s="21" t="s">
-        <v>571</v>
-      </c>
-      <c r="BC30" s="22"/>
+      <c r="BB30" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="BC30" s="3"/>
       <c r="BD30" s="1"/>
       <c r="BE30" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="BF30" s="2"/>
       <c r="BG30" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="BH30" s="2"/>
       <c r="BI30" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BJ30" s="6"/>
-      <c r="BK30" s="30" t="s">
-        <v>577</v>
-      </c>
-      <c r="BL30" s="31"/>
+      <c r="BK30" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL30" s="29"/>
     </row>
     <row r="31" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
@@ -5588,98 +5601,98 @@
         <v>69</v>
       </c>
       <c r="E31" s="3"/>
-      <c r="F31" s="38" t="s">
+      <c r="F31" s="35" t="s">
         <v>3</v>
       </c>
       <c r="G31" s="11"/>
-      <c r="H31" s="21" t="s">
-        <v>581</v>
-      </c>
-      <c r="I31" s="22"/>
+      <c r="H31" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="I31" s="20"/>
       <c r="J31" s="1"/>
       <c r="K31" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L31" s="3"/>
       <c r="M31" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N31" s="3"/>
-      <c r="O31" s="38" t="s">
+      <c r="O31" s="35" t="s">
         <v>170</v>
       </c>
       <c r="P31" s="11"/>
-      <c r="Q31" s="21" t="s">
-        <v>583</v>
-      </c>
-      <c r="R31" s="22"/>
+      <c r="Q31" s="19" t="s">
+        <v>582</v>
+      </c>
+      <c r="R31" s="20"/>
       <c r="S31" s="8"/>
       <c r="T31" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="U31" s="3"/>
       <c r="V31" s="3" t="s">
         <v>69</v>
       </c>
       <c r="W31" s="3"/>
-      <c r="X31" s="38" t="s">
-        <v>237</v>
+      <c r="X31" s="35" t="s">
+        <v>236</v>
       </c>
       <c r="Y31" s="10"/>
-      <c r="Z31" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="AA31" s="22"/>
+      <c r="Z31" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA31" s="20"/>
       <c r="AL31" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AM31" s="3"/>
       <c r="AN31" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AO31" s="3"/>
       <c r="AP31" s="3"/>
       <c r="AQ31" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="AR31" s="6"/>
-      <c r="AS31" s="21" t="s">
-        <v>581</v>
-      </c>
-      <c r="AT31" s="22"/>
-      <c r="AV31" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="AR31" s="10"/>
+      <c r="AS31" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="AT31" s="20"/>
+      <c r="AV31" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="AW31" s="3"/>
+      <c r="AX31" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="AW31" s="36"/>
-      <c r="AX31" s="36" t="s">
-        <v>556</v>
-      </c>
-      <c r="AY31" s="36"/>
-      <c r="AZ31" s="19" t="s">
-        <v>428</v>
-      </c>
-      <c r="BA31" s="37"/>
-      <c r="BB31" s="21" t="s">
-        <v>573</v>
-      </c>
-      <c r="BC31" s="22"/>
+      <c r="AY31" s="3"/>
+      <c r="AZ31" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="BA31" s="6"/>
+      <c r="BB31" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="BC31" s="3"/>
       <c r="BD31" s="1"/>
       <c r="BE31" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="BF31" s="2"/>
       <c r="BG31" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="BH31" s="2"/>
       <c r="BI31" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BJ31" s="6"/>
-      <c r="BK31" s="30" t="s">
-        <v>577</v>
-      </c>
-      <c r="BL31" s="31"/>
+      <c r="BK31" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL31" s="29"/>
     </row>
     <row r="32" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
@@ -5690,98 +5703,98 @@
         <v>70</v>
       </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="38" t="s">
+      <c r="F32" s="35" t="s">
         <v>3</v>
       </c>
       <c r="G32" s="11"/>
-      <c r="H32" s="27" t="s">
-        <v>581</v>
-      </c>
-      <c r="I32" s="26"/>
+      <c r="H32" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="I32" s="24"/>
       <c r="J32" s="1"/>
       <c r="K32" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2" t="s">
         <v>70</v>
       </c>
       <c r="N32" s="2"/>
-      <c r="O32" s="38" t="s">
+      <c r="O32" s="35" t="s">
         <v>170</v>
       </c>
       <c r="P32" s="11"/>
-      <c r="Q32" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="R32" s="31"/>
+      <c r="Q32" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="R32" s="29"/>
       <c r="S32" s="8"/>
       <c r="T32" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="U32" s="2"/>
       <c r="V32" s="2" t="s">
         <v>70</v>
       </c>
       <c r="W32" s="2"/>
-      <c r="X32" s="38" t="s">
-        <v>237</v>
+      <c r="X32" s="35" t="s">
+        <v>236</v>
       </c>
       <c r="Y32" s="10"/>
-      <c r="Z32" s="30" t="s">
-        <v>577</v>
-      </c>
-      <c r="AA32" s="31"/>
+      <c r="Z32" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA32" s="29"/>
       <c r="AL32" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AM32" s="3"/>
       <c r="AN32" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AO32" s="3"/>
       <c r="AP32" s="3"/>
       <c r="AQ32" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="AR32" s="6"/>
-      <c r="AS32" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="AT32" s="22"/>
+        <v>383</v>
+      </c>
+      <c r="AR32" s="10"/>
+      <c r="AS32" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="AT32" s="20"/>
       <c r="AV32" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AW32" s="3"/>
       <c r="AX32" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AY32" s="3"/>
       <c r="AZ32" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BA32" s="6"/>
       <c r="BB32" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="BC32" s="3"/>
       <c r="BD32" s="1"/>
       <c r="BE32" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="BF32" s="2"/>
       <c r="BG32" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="BH32" s="2"/>
       <c r="BI32" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BJ32" s="6"/>
-      <c r="BK32" s="30" t="s">
-        <v>577</v>
-      </c>
-      <c r="BL32" s="31"/>
+      <c r="BK32" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL32" s="29"/>
     </row>
     <row r="33" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
@@ -5792,98 +5805,98 @@
         <v>71</v>
       </c>
       <c r="E33" s="2"/>
-      <c r="F33" s="38" t="s">
+      <c r="F33" s="35" t="s">
         <v>3</v>
       </c>
       <c r="G33" s="11"/>
-      <c r="H33" s="27" t="s">
-        <v>581</v>
-      </c>
-      <c r="I33" s="26"/>
+      <c r="H33" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="I33" s="24"/>
       <c r="J33" s="1"/>
       <c r="K33" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2" t="s">
         <v>71</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" s="38" t="s">
+      <c r="O33" s="35" t="s">
         <v>170</v>
       </c>
       <c r="P33" s="11"/>
-      <c r="Q33" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="R33" s="31"/>
+      <c r="Q33" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="R33" s="29"/>
       <c r="S33" s="8"/>
       <c r="T33" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="U33" s="2"/>
       <c r="V33" s="2" t="s">
         <v>71</v>
       </c>
       <c r="W33" s="2"/>
-      <c r="X33" s="38" t="s">
-        <v>237</v>
+      <c r="X33" s="35" t="s">
+        <v>236</v>
       </c>
       <c r="Y33" s="10"/>
-      <c r="Z33" s="30" t="s">
-        <v>577</v>
-      </c>
-      <c r="AA33" s="31"/>
+      <c r="Z33" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA33" s="29"/>
       <c r="AL33" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AM33" s="3"/>
       <c r="AN33" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AO33" s="3"/>
       <c r="AP33" s="3"/>
       <c r="AQ33" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="AR33" s="6"/>
-      <c r="AS33" s="21" t="s">
-        <v>581</v>
-      </c>
-      <c r="AT33" s="22"/>
+        <v>383</v>
+      </c>
+      <c r="AR33" s="10"/>
+      <c r="AS33" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="AT33" s="20"/>
       <c r="AV33" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AW33" s="3"/>
       <c r="AX33" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AY33" s="3"/>
       <c r="AZ33" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BA33" s="10"/>
       <c r="BB33" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="BC33" s="3"/>
       <c r="BD33" s="1"/>
       <c r="BE33" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="BF33" s="2"/>
       <c r="BG33" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="BH33" s="2"/>
       <c r="BI33" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BJ33" s="6"/>
-      <c r="BK33" s="30" t="s">
-        <v>577</v>
-      </c>
-      <c r="BL33" s="31"/>
+      <c r="BK33" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL33" s="29"/>
     </row>
     <row r="34" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
@@ -5894,96 +5907,97 @@
         <v>74</v>
       </c>
       <c r="E34" s="3"/>
-      <c r="F34" s="38" t="s">
+      <c r="F34" s="35" t="s">
         <v>3</v>
       </c>
       <c r="G34" s="11"/>
-      <c r="H34" s="21" t="s">
-        <v>581</v>
-      </c>
-      <c r="I34" s="22"/>
+      <c r="H34" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="I34" s="20"/>
       <c r="J34" s="1"/>
       <c r="K34" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L34" s="3"/>
       <c r="M34" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N34" s="3"/>
-      <c r="O34" s="38" t="s">
+      <c r="O34" s="35" t="s">
         <v>170</v>
       </c>
       <c r="P34" s="11"/>
-      <c r="Q34" s="21" t="s">
-        <v>584</v>
-      </c>
-      <c r="R34" s="22"/>
+      <c r="Q34" s="19" t="s">
+        <v>583</v>
+      </c>
+      <c r="R34" s="20"/>
       <c r="S34" s="8"/>
       <c r="T34" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="U34" s="3"/>
       <c r="V34" s="3" t="s">
         <v>74</v>
       </c>
       <c r="W34" s="3"/>
-      <c r="X34" s="38" t="s">
-        <v>237</v>
+      <c r="X34" s="35" t="s">
+        <v>236</v>
       </c>
       <c r="Y34" s="10"/>
-      <c r="Z34" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="AA34" s="22"/>
+      <c r="Z34" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA34" s="20"/>
       <c r="AL34" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AM34" s="3"/>
       <c r="AN34" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AO34" s="3"/>
       <c r="AP34" s="3"/>
       <c r="AQ34" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="AR34" s="6"/>
-      <c r="AS34" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="AT34" s="22"/>
-      <c r="AV34" s="42" t="s">
+        <v>383</v>
+      </c>
+      <c r="AR34" s="10"/>
+      <c r="AS34" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="AT34" s="20"/>
+      <c r="AV34" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="AW34" s="4"/>
+      <c r="AX34" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="AW34" s="43"/>
-      <c r="AX34" s="42" t="s">
-        <v>607</v>
-      </c>
-      <c r="AY34" s="43"/>
+      <c r="AY34" s="4"/>
       <c r="AZ34" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="BB34" s="23" t="s">
-        <v>571</v>
-      </c>
-      <c r="BC34" s="43"/>
+        <v>427</v>
+      </c>
+      <c r="BA34" s="6"/>
+      <c r="BB34" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="BC34" s="4"/>
       <c r="BE34" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="BF34" s="2"/>
       <c r="BG34" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="BH34" s="2"/>
       <c r="BI34" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BJ34" s="6"/>
-      <c r="BK34" s="30" t="s">
-        <v>577</v>
-      </c>
-      <c r="BL34" s="31"/>
+      <c r="BK34" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL34" s="29"/>
     </row>
     <row r="35" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
@@ -5998,13 +6012,13 @@
         <v>3</v>
       </c>
       <c r="G35" s="11"/>
-      <c r="H35" s="21" t="s">
-        <v>571</v>
-      </c>
-      <c r="I35" s="22"/>
+      <c r="H35" s="19" t="s">
+        <v>570</v>
+      </c>
+      <c r="I35" s="20"/>
       <c r="J35" s="1"/>
       <c r="K35" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3" t="s">
@@ -6015,13 +6029,13 @@
         <v>170</v>
       </c>
       <c r="P35" s="11"/>
-      <c r="Q35" s="21" t="s">
-        <v>571</v>
-      </c>
-      <c r="R35" s="22"/>
+      <c r="Q35" s="19" t="s">
+        <v>570</v>
+      </c>
+      <c r="R35" s="20"/>
       <c r="S35" s="8"/>
       <c r="T35" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="U35" s="3"/>
       <c r="V35" s="3" t="s">
@@ -6029,61 +6043,62 @@
       </c>
       <c r="W35" s="3"/>
       <c r="X35" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Y35" s="10"/>
-      <c r="Z35" s="21" t="s">
-        <v>588</v>
-      </c>
-      <c r="AA35" s="22"/>
+      <c r="Z35" s="19" t="s">
+        <v>587</v>
+      </c>
+      <c r="AA35" s="20"/>
       <c r="AL35" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AM35" s="3"/>
       <c r="AN35" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AO35" s="3"/>
       <c r="AP35" s="3"/>
       <c r="AQ35" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="AR35" s="6"/>
-      <c r="AS35" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="AT35" s="22"/>
-      <c r="AV35" s="44" t="s">
+        <v>383</v>
+      </c>
+      <c r="AR35" s="10"/>
+      <c r="AS35" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="AT35" s="20"/>
+      <c r="AV35" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="AW35" s="3"/>
+      <c r="AX35" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="AW35" s="45"/>
-      <c r="AX35" s="44" t="s">
-        <v>609</v>
-      </c>
-      <c r="AY35" s="45"/>
-      <c r="AZ35" s="44" t="s">
-        <v>428</v>
-      </c>
-      <c r="BB35" s="46" t="s">
-        <v>571</v>
-      </c>
-      <c r="BC35" s="45"/>
+      <c r="AY35" s="3"/>
+      <c r="AZ35" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="BA35" s="6"/>
+      <c r="BB35" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="BC35" s="3"/>
       <c r="BE35" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="BF35" s="2"/>
       <c r="BG35" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="BH35" s="2"/>
       <c r="BI35" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BJ35" s="6"/>
-      <c r="BK35" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL35" s="31"/>
+      <c r="BK35" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="BL35" s="29"/>
     </row>
     <row r="36" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
@@ -6098,13 +6113,13 @@
         <v>3</v>
       </c>
       <c r="G36" s="11"/>
-      <c r="H36" s="21" t="s">
-        <v>571</v>
-      </c>
-      <c r="I36" s="22"/>
+      <c r="H36" s="19" t="s">
+        <v>570</v>
+      </c>
+      <c r="I36" s="20"/>
       <c r="J36" s="1"/>
       <c r="K36" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3" t="s">
@@ -6115,13 +6130,13 @@
         <v>170</v>
       </c>
       <c r="P36" s="11"/>
-      <c r="Q36" s="21" t="s">
-        <v>571</v>
-      </c>
-      <c r="R36" s="22"/>
+      <c r="Q36" s="19" t="s">
+        <v>570</v>
+      </c>
+      <c r="R36" s="20"/>
       <c r="S36" s="8"/>
       <c r="T36" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="U36" s="3"/>
       <c r="V36" s="3" t="s">
@@ -6129,61 +6144,62 @@
       </c>
       <c r="W36" s="3"/>
       <c r="X36" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Y36" s="10"/>
-      <c r="Z36" s="21" t="s">
-        <v>588</v>
-      </c>
-      <c r="AA36" s="22"/>
+      <c r="Z36" s="19" t="s">
+        <v>587</v>
+      </c>
+      <c r="AA36" s="20"/>
       <c r="AL36" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AM36" s="3"/>
       <c r="AN36" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AO36" s="3"/>
       <c r="AP36" s="3"/>
       <c r="AQ36" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="AR36" s="6"/>
-      <c r="AS36" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="AT36" s="22"/>
-      <c r="AV36" s="44" t="s">
+        <v>383</v>
+      </c>
+      <c r="AR36" s="10"/>
+      <c r="AS36" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="AT36" s="20"/>
+      <c r="AV36" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="AW36" s="3"/>
+      <c r="AX36" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="AW36" s="45"/>
-      <c r="AX36" s="44" t="s">
-        <v>612</v>
-      </c>
-      <c r="AY36" s="45"/>
-      <c r="AZ36" s="44" t="s">
-        <v>428</v>
-      </c>
-      <c r="BB36" s="46" t="s">
-        <v>572</v>
-      </c>
-      <c r="BC36" s="45"/>
+      <c r="AY36" s="3"/>
+      <c r="AZ36" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="BA36" s="6"/>
+      <c r="BB36" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="BC36" s="3"/>
       <c r="BE36" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="BF36" s="2"/>
       <c r="BG36" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="BH36" s="2"/>
       <c r="BI36" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BJ36" s="6"/>
-      <c r="BK36" s="30" t="s">
-        <v>577</v>
-      </c>
-      <c r="BL36" s="31"/>
+      <c r="BK36" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL36" s="29"/>
     </row>
     <row r="37" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
@@ -6194,81 +6210,97 @@
         <v>77</v>
       </c>
       <c r="E37" s="3"/>
-      <c r="F37" s="38" t="s">
+      <c r="F37" s="35" t="s">
         <v>3</v>
       </c>
       <c r="G37" s="11"/>
-      <c r="H37" s="21" t="s">
-        <v>571</v>
-      </c>
-      <c r="I37" s="22"/>
+      <c r="H37" s="19" t="s">
+        <v>570</v>
+      </c>
+      <c r="I37" s="20"/>
       <c r="J37" s="1"/>
       <c r="K37" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L37" s="3"/>
       <c r="M37" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N37" s="3"/>
-      <c r="O37" s="38" t="s">
+      <c r="O37" s="35" t="s">
         <v>170</v>
       </c>
       <c r="P37" s="11"/>
-      <c r="Q37" s="21" t="s">
-        <v>572</v>
-      </c>
-      <c r="R37" s="22"/>
+      <c r="Q37" s="19" t="s">
+        <v>571</v>
+      </c>
+      <c r="R37" s="20"/>
       <c r="S37" s="8"/>
       <c r="T37" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U37" s="3"/>
       <c r="V37" s="3" t="s">
         <v>77</v>
       </c>
       <c r="W37" s="3"/>
-      <c r="X37" s="38" t="s">
-        <v>237</v>
+      <c r="X37" s="35" t="s">
+        <v>236</v>
       </c>
       <c r="Y37" s="10"/>
-      <c r="Z37" s="21" t="s">
-        <v>581</v>
-      </c>
-      <c r="AA37" s="22"/>
+      <c r="Z37" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="AA37" s="20"/>
       <c r="AL37" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AM37" s="3"/>
       <c r="AN37" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AO37" s="3"/>
       <c r="AP37" s="3"/>
       <c r="AQ37" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="AR37" s="6"/>
-      <c r="AS37" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="AT37" s="22"/>
+        <v>383</v>
+      </c>
+      <c r="AR37" s="10"/>
+      <c r="AS37" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="AT37" s="20"/>
+      <c r="AV37" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="AW37" s="3"/>
+      <c r="AX37" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="AY37" s="3"/>
+      <c r="AZ37" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="BA37" s="6"/>
+      <c r="BB37" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="BC37" s="3"/>
       <c r="BE37" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="BF37" s="2"/>
       <c r="BG37" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="BH37" s="2"/>
       <c r="BI37" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BJ37" s="6"/>
-      <c r="BK37" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL37" s="31"/>
+      <c r="BK37" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="BL37" s="29"/>
     </row>
     <row r="38" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
@@ -6283,13 +6315,13 @@
         <v>3</v>
       </c>
       <c r="G38" s="11"/>
-      <c r="H38" s="27" t="s">
-        <v>581</v>
-      </c>
-      <c r="I38" s="26"/>
+      <c r="H38" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="I38" s="24"/>
       <c r="J38" s="1"/>
       <c r="K38" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2" t="s">
@@ -6300,13 +6332,13 @@
         <v>170</v>
       </c>
       <c r="P38" s="11"/>
-      <c r="Q38" s="30" t="s">
-        <v>572</v>
-      </c>
-      <c r="R38" s="31"/>
+      <c r="Q38" s="28" t="s">
+        <v>571</v>
+      </c>
+      <c r="R38" s="29"/>
       <c r="S38" s="8"/>
       <c r="T38" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="U38" s="2"/>
       <c r="V38" s="2" t="s">
@@ -6314,46 +6346,46 @@
       </c>
       <c r="W38" s="2"/>
       <c r="X38" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Y38" s="10"/>
-      <c r="Z38" s="30" t="s">
-        <v>581</v>
-      </c>
-      <c r="AA38" s="31"/>
+      <c r="Z38" s="28" t="s">
+        <v>580</v>
+      </c>
+      <c r="AA38" s="29"/>
       <c r="AL38" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AM38" s="3"/>
       <c r="AN38" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AO38" s="3"/>
       <c r="AP38" s="3"/>
       <c r="AQ38" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="AR38" s="6"/>
-      <c r="AS38" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="AT38" s="22"/>
+        <v>383</v>
+      </c>
+      <c r="AR38" s="10"/>
+      <c r="AS38" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="AT38" s="20"/>
       <c r="BE38" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="BF38" s="2"/>
       <c r="BG38" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="BH38" s="2"/>
       <c r="BI38" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BJ38" s="6"/>
-      <c r="BK38" s="30" t="s">
-        <v>577</v>
-      </c>
-      <c r="BL38" s="31"/>
+      <c r="BK38" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL38" s="29"/>
     </row>
     <row r="39" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
@@ -6368,13 +6400,13 @@
         <v>3</v>
       </c>
       <c r="G39" s="11"/>
-      <c r="H39" s="21" t="s">
-        <v>581</v>
-      </c>
-      <c r="I39" s="22"/>
+      <c r="H39" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="I39" s="20"/>
       <c r="J39" s="1"/>
       <c r="K39" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3" t="s">
@@ -6385,13 +6417,13 @@
         <v>170</v>
       </c>
       <c r="P39" s="11"/>
-      <c r="Q39" s="21" t="s">
-        <v>572</v>
-      </c>
-      <c r="R39" s="22"/>
+      <c r="Q39" s="19" t="s">
+        <v>571</v>
+      </c>
+      <c r="R39" s="20"/>
       <c r="S39" s="8"/>
       <c r="T39" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="U39" s="3"/>
       <c r="V39" s="3" t="s">
@@ -6399,46 +6431,46 @@
       </c>
       <c r="W39" s="3"/>
       <c r="X39" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Y39" s="10"/>
-      <c r="Z39" s="21" t="s">
-        <v>581</v>
-      </c>
-      <c r="AA39" s="22"/>
+      <c r="Z39" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="AA39" s="20"/>
       <c r="AL39" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AM39" s="2"/>
       <c r="AN39" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AO39" s="2"/>
       <c r="AP39" s="2"/>
       <c r="AQ39" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AR39" s="6"/>
-      <c r="AS39" s="27" t="s">
-        <v>581</v>
-      </c>
-      <c r="AT39" s="26"/>
+      <c r="AS39" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="AT39" s="24"/>
       <c r="BE39" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="BF39" s="2"/>
       <c r="BG39" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="BH39" s="2"/>
       <c r="BI39" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BJ39" s="6"/>
-      <c r="BK39" s="30" t="s">
-        <v>577</v>
-      </c>
-      <c r="BL39" s="31"/>
+      <c r="BK39" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL39" s="29"/>
     </row>
     <row r="40" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
@@ -6453,13 +6485,13 @@
         <v>3</v>
       </c>
       <c r="G40" s="11"/>
-      <c r="H40" s="21" t="s">
-        <v>581</v>
-      </c>
-      <c r="I40" s="22"/>
+      <c r="H40" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="I40" s="20"/>
       <c r="J40" s="1"/>
       <c r="K40" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L40" s="3"/>
       <c r="M40" s="3" t="s">
@@ -6470,13 +6502,13 @@
         <v>170</v>
       </c>
       <c r="P40" s="11"/>
-      <c r="Q40" s="21" t="s">
-        <v>585</v>
-      </c>
-      <c r="R40" s="22"/>
+      <c r="Q40" s="19" t="s">
+        <v>584</v>
+      </c>
+      <c r="R40" s="20"/>
       <c r="S40" s="8"/>
       <c r="T40" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="U40" s="3"/>
       <c r="V40" s="3" t="s">
@@ -6484,46 +6516,46 @@
       </c>
       <c r="W40" s="3"/>
       <c r="X40" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Y40" s="10"/>
-      <c r="Z40" s="21" t="s">
-        <v>585</v>
-      </c>
-      <c r="AA40" s="22"/>
+      <c r="Z40" s="19" t="s">
+        <v>584</v>
+      </c>
+      <c r="AA40" s="20"/>
       <c r="AL40" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AM40" s="2"/>
       <c r="AN40" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AO40" s="2"/>
       <c r="AP40" s="2"/>
       <c r="AQ40" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AR40" s="6"/>
-      <c r="AS40" s="27" t="s">
-        <v>581</v>
-      </c>
-      <c r="AT40" s="32"/>
+      <c r="AS40" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="AT40" s="30"/>
       <c r="BE40" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="BF40" s="2"/>
       <c r="BG40" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="BH40" s="2"/>
       <c r="BI40" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BJ40" s="6"/>
-      <c r="BK40" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL40" s="31"/>
+      <c r="BK40" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="BL40" s="29"/>
     </row>
     <row r="41" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
@@ -6538,13 +6570,13 @@
         <v>3</v>
       </c>
       <c r="G41" s="11"/>
-      <c r="H41" s="27" t="s">
-        <v>581</v>
-      </c>
-      <c r="I41" s="26"/>
+      <c r="H41" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="I41" s="24"/>
       <c r="J41" s="1"/>
       <c r="K41" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L41" s="2"/>
       <c r="M41" s="2" t="s">
@@ -6555,13 +6587,13 @@
         <v>170</v>
       </c>
       <c r="P41" s="11"/>
-      <c r="Q41" s="30" t="s">
-        <v>584</v>
-      </c>
-      <c r="R41" s="31"/>
+      <c r="Q41" s="28" t="s">
+        <v>583</v>
+      </c>
+      <c r="R41" s="29"/>
       <c r="S41" s="8"/>
       <c r="T41" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="U41" s="2"/>
       <c r="V41" s="2" t="s">
@@ -6569,29 +6601,29 @@
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Y41" s="10"/>
-      <c r="Z41" s="30" t="s">
-        <v>577</v>
-      </c>
-      <c r="AA41" s="31"/>
+      <c r="Z41" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA41" s="29"/>
       <c r="BE41" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="BF41" s="2"/>
       <c r="BG41" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="BH41" s="2"/>
       <c r="BI41" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BJ41" s="6"/>
-      <c r="BK41" s="30" t="s">
-        <v>577</v>
-      </c>
-      <c r="BL41" s="31"/>
+      <c r="BK41" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL41" s="29"/>
     </row>
     <row r="42" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
@@ -6602,64 +6634,64 @@
         <v>82</v>
       </c>
       <c r="E42" s="3"/>
-      <c r="F42" s="38" t="s">
+      <c r="F42" s="35" t="s">
         <v>3</v>
       </c>
       <c r="G42" s="11"/>
-      <c r="H42" s="21" t="s">
-        <v>571</v>
-      </c>
-      <c r="I42" s="22"/>
+      <c r="H42" s="19" t="s">
+        <v>570</v>
+      </c>
+      <c r="I42" s="20"/>
       <c r="J42" s="1"/>
       <c r="K42" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L42" s="3"/>
       <c r="M42" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N42" s="3"/>
-      <c r="O42" s="38" t="s">
+      <c r="O42" s="35" t="s">
         <v>170</v>
       </c>
       <c r="P42" s="11"/>
-      <c r="Q42" s="21" t="s">
-        <v>571</v>
-      </c>
-      <c r="R42" s="22"/>
+      <c r="Q42" s="19" t="s">
+        <v>570</v>
+      </c>
+      <c r="R42" s="20"/>
       <c r="S42" s="8"/>
       <c r="T42" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="U42" s="3"/>
       <c r="V42" s="3" t="s">
         <v>82</v>
       </c>
       <c r="W42" s="3"/>
-      <c r="X42" s="38" t="s">
-        <v>237</v>
+      <c r="X42" s="35" t="s">
+        <v>236</v>
       </c>
       <c r="Y42" s="10"/>
-      <c r="Z42" s="21" t="s">
-        <v>588</v>
-      </c>
-      <c r="AA42" s="22"/>
+      <c r="Z42" s="19" t="s">
+        <v>587</v>
+      </c>
+      <c r="AA42" s="20"/>
       <c r="BE42" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="BF42" s="2"/>
       <c r="BG42" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="BH42" s="2"/>
       <c r="BI42" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BJ42" s="6"/>
-      <c r="BK42" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL42" s="31"/>
+      <c r="BK42" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="BL42" s="29"/>
     </row>
     <row r="43" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
@@ -6673,14 +6705,14 @@
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="12"/>
-      <c r="H43" s="21" t="s">
-        <v>571</v>
-      </c>
-      <c r="I43" s="22"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="19" t="s">
+        <v>570</v>
+      </c>
+      <c r="I43" s="20"/>
       <c r="J43" s="1"/>
       <c r="K43" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="3" t="s">
@@ -6690,14 +6722,14 @@
       <c r="O43" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="21" t="s">
-        <v>571</v>
-      </c>
-      <c r="R43" s="22"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="19" t="s">
+        <v>570</v>
+      </c>
+      <c r="R43" s="20"/>
       <c r="S43" s="8"/>
       <c r="T43" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="U43" s="3"/>
       <c r="V43" s="3" t="s">
@@ -6705,29 +6737,29 @@
       </c>
       <c r="W43" s="3"/>
       <c r="X43" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y43" s="6"/>
-      <c r="Z43" s="21" t="s">
-        <v>588</v>
-      </c>
-      <c r="AA43" s="22"/>
+        <v>236</v>
+      </c>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="19" t="s">
+        <v>587</v>
+      </c>
+      <c r="AA43" s="20"/>
       <c r="BE43" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="BF43" s="2"/>
       <c r="BG43" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="BH43" s="2"/>
       <c r="BI43" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BJ43" s="6"/>
-      <c r="BK43" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL43" s="31"/>
+      <c r="BK43" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="BL43" s="29"/>
     </row>
     <row r="44" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
@@ -6741,14 +6773,14 @@
       <c r="F44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G44" s="12"/>
-      <c r="H44" s="21" t="s">
-        <v>571</v>
-      </c>
-      <c r="I44" s="22"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="19" t="s">
+        <v>570</v>
+      </c>
+      <c r="I44" s="20"/>
       <c r="J44" s="1"/>
       <c r="K44" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3" t="s">
@@ -6758,14 +6790,14 @@
       <c r="O44" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="21" t="s">
-        <v>571</v>
-      </c>
-      <c r="R44" s="22"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="19" t="s">
+        <v>570</v>
+      </c>
+      <c r="R44" s="20"/>
       <c r="S44" s="8"/>
       <c r="T44" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="U44" s="3"/>
       <c r="V44" s="3" t="s">
@@ -6773,29 +6805,29 @@
       </c>
       <c r="W44" s="3"/>
       <c r="X44" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y44" s="6"/>
-      <c r="Z44" s="21" t="s">
-        <v>588</v>
-      </c>
-      <c r="AA44" s="22"/>
+        <v>236</v>
+      </c>
+      <c r="Y44" s="10"/>
+      <c r="Z44" s="19" t="s">
+        <v>587</v>
+      </c>
+      <c r="AA44" s="20"/>
       <c r="BE44" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="BF44" s="2"/>
       <c r="BG44" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="BH44" s="2"/>
       <c r="BI44" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BJ44" s="6"/>
-      <c r="BK44" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL44" s="31"/>
+      <c r="BK44" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="BL44" s="29"/>
     </row>
     <row r="45" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
@@ -6809,14 +6841,14 @@
       <c r="F45" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G45" s="12"/>
-      <c r="H45" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="I45" s="24"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="I45" s="22"/>
       <c r="J45" s="1"/>
       <c r="K45" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L45" s="4"/>
       <c r="M45" s="4" t="s">
@@ -6826,14 +6858,14 @@
       <c r="O45" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="P45" s="12"/>
-      <c r="Q45" s="23" t="s">
-        <v>584</v>
-      </c>
-      <c r="R45" s="24"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="21" t="s">
+        <v>583</v>
+      </c>
+      <c r="R45" s="22"/>
       <c r="S45" s="8"/>
       <c r="T45" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U45" s="4"/>
       <c r="V45" s="4" t="s">
@@ -6841,29 +6873,29 @@
       </c>
       <c r="W45" s="4"/>
       <c r="X45" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y45" s="6"/>
-      <c r="Z45" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="AA45" s="24"/>
+        <v>236</v>
+      </c>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA45" s="22"/>
       <c r="BE45" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="BF45" s="2"/>
       <c r="BG45" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="BH45" s="2"/>
       <c r="BI45" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BJ45" s="6"/>
-      <c r="BK45" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL45" s="31"/>
+      <c r="BK45" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="BL45" s="29"/>
     </row>
     <row r="46" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
@@ -6878,60 +6910,60 @@
         <v>3</v>
       </c>
       <c r="G46" s="11"/>
-      <c r="H46" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="I46" s="22"/>
+      <c r="H46" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="I46" s="20"/>
       <c r="J46" s="1"/>
       <c r="K46" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L46" s="3"/>
       <c r="M46" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N46" s="3"/>
-      <c r="O46" s="38" t="s">
+      <c r="O46" s="35" t="s">
         <v>170</v>
       </c>
       <c r="P46" s="11"/>
-      <c r="Q46" s="21" t="s">
-        <v>584</v>
-      </c>
-      <c r="R46" s="22"/>
+      <c r="Q46" s="19" t="s">
+        <v>583</v>
+      </c>
+      <c r="R46" s="20"/>
       <c r="S46" s="8"/>
       <c r="T46" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U46" s="3"/>
       <c r="V46" s="3" t="s">
         <v>86</v>
       </c>
       <c r="W46" s="3"/>
-      <c r="X46" s="38" t="s">
-        <v>237</v>
+      <c r="X46" s="35" t="s">
+        <v>236</v>
       </c>
       <c r="Y46" s="10"/>
-      <c r="Z46" s="21" t="s">
-        <v>581</v>
-      </c>
-      <c r="AA46" s="22"/>
+      <c r="Z46" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="AA46" s="20"/>
       <c r="BE46" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="BF46" s="2"/>
       <c r="BG46" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="BH46" s="2"/>
       <c r="BI46" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BJ46" s="6"/>
-      <c r="BK46" s="30" t="s">
-        <v>577</v>
-      </c>
-      <c r="BL46" s="31"/>
+      <c r="BK46" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL46" s="29"/>
     </row>
     <row r="47" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
@@ -6946,13 +6978,13 @@
         <v>3</v>
       </c>
       <c r="G47" s="11"/>
-      <c r="H47" s="21" t="s">
-        <v>572</v>
-      </c>
-      <c r="I47" s="22"/>
+      <c r="H47" s="19" t="s">
+        <v>571</v>
+      </c>
+      <c r="I47" s="20"/>
       <c r="J47" s="1"/>
       <c r="K47" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="3" t="s">
@@ -6963,13 +6995,13 @@
         <v>170</v>
       </c>
       <c r="P47" s="11"/>
-      <c r="Q47" s="21" t="s">
-        <v>585</v>
-      </c>
-      <c r="R47" s="22"/>
+      <c r="Q47" s="19" t="s">
+        <v>584</v>
+      </c>
+      <c r="R47" s="20"/>
       <c r="S47" s="8"/>
       <c r="T47" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="U47" s="3"/>
       <c r="V47" s="3" t="s">
@@ -6977,29 +7009,29 @@
       </c>
       <c r="W47" s="3"/>
       <c r="X47" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Y47" s="10"/>
-      <c r="Z47" s="21" t="s">
-        <v>585</v>
-      </c>
-      <c r="AA47" s="22"/>
+      <c r="Z47" s="19" t="s">
+        <v>584</v>
+      </c>
+      <c r="AA47" s="20"/>
       <c r="BE47" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="BF47" s="2"/>
       <c r="BG47" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="BH47" s="2"/>
       <c r="BI47" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="BJ47" s="6"/>
-      <c r="BK47" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL47" s="31"/>
+      <c r="BK47" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="BL47" s="29"/>
     </row>
     <row r="48" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
@@ -7007,67 +7039,67 @@
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G48" s="12"/>
-      <c r="H48" s="21" t="s">
-        <v>581</v>
-      </c>
-      <c r="I48" s="22"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="I48" s="20"/>
       <c r="J48" s="1"/>
       <c r="K48" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L48" s="3"/>
       <c r="M48" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N48" s="3"/>
       <c r="O48" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="P48" s="12"/>
-      <c r="Q48" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="R48" s="31"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="R48" s="29"/>
       <c r="S48" s="8"/>
       <c r="T48" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="U48" s="3"/>
       <c r="V48" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="W48" s="3"/>
       <c r="X48" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y48" s="14"/>
-      <c r="Z48" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="AA48" s="22"/>
+        <v>236</v>
+      </c>
+      <c r="Y48" s="11"/>
+      <c r="Z48" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA48" s="20"/>
       <c r="BE48" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="BF48" s="2"/>
       <c r="BG48" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="BH48" s="2"/>
       <c r="BI48" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="BJ48" s="6"/>
-      <c r="BK48" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL48" s="31"/>
+      <c r="BK48" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="BL48" s="29"/>
     </row>
     <row r="49" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
@@ -7081,14 +7113,14 @@
       <c r="F49" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G49" s="12"/>
-      <c r="H49" s="27" t="s">
-        <v>577</v>
-      </c>
-      <c r="I49" s="26"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="I49" s="24"/>
       <c r="J49" s="1"/>
       <c r="K49" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2" t="s">
@@ -7098,14 +7130,14 @@
       <c r="O49" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="P49" s="12"/>
-      <c r="Q49" s="30" t="s">
-        <v>577</v>
-      </c>
-      <c r="R49" s="31"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="R49" s="29"/>
       <c r="S49" s="8"/>
       <c r="T49" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U49" s="2"/>
       <c r="V49" s="2" t="s">
@@ -7113,29 +7145,29 @@
       </c>
       <c r="W49" s="2"/>
       <c r="X49" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y49" s="6"/>
-      <c r="Z49" s="30" t="s">
-        <v>577</v>
-      </c>
-      <c r="AA49" s="31"/>
+        <v>236</v>
+      </c>
+      <c r="Y49" s="11"/>
+      <c r="Z49" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA49" s="29"/>
       <c r="BE49" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="BF49" s="2"/>
       <c r="BG49" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="BH49" s="2"/>
       <c r="BI49" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="BJ49" s="6"/>
-      <c r="BK49" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL49" s="31"/>
+      <c r="BK49" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="BL49" s="29"/>
     </row>
     <row r="50" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
@@ -7149,14 +7181,14 @@
       <c r="F50" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G50" s="12"/>
-      <c r="H50" s="27" t="s">
-        <v>585</v>
-      </c>
-      <c r="I50" s="26"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="25" t="s">
+        <v>584</v>
+      </c>
+      <c r="I50" s="24"/>
       <c r="J50" s="1"/>
       <c r="K50" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="2" t="s">
@@ -7166,14 +7198,14 @@
       <c r="O50" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="30" t="s">
-        <v>577</v>
-      </c>
-      <c r="R50" s="31"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="R50" s="29"/>
       <c r="S50" s="8"/>
       <c r="T50" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="U50" s="2"/>
       <c r="V50" s="2" t="s">
@@ -7181,29 +7213,29 @@
       </c>
       <c r="W50" s="2"/>
       <c r="X50" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y50" s="6"/>
-      <c r="Z50" s="30" t="s">
-        <v>577</v>
-      </c>
-      <c r="AA50" s="31"/>
+        <v>236</v>
+      </c>
+      <c r="Y50" s="11"/>
+      <c r="Z50" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA50" s="29"/>
       <c r="BE50" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="BF50" s="2"/>
       <c r="BG50" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="BH50" s="2"/>
       <c r="BI50" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="BJ50" s="6"/>
-      <c r="BK50" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL50" s="31"/>
+      <c r="BK50" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="BL50" s="29"/>
     </row>
     <row r="51" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
@@ -7217,14 +7249,14 @@
       <c r="F51" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G51" s="12"/>
-      <c r="H51" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="I51" s="24"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="I51" s="22"/>
       <c r="J51" s="1"/>
       <c r="K51" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L51" s="4"/>
       <c r="M51" s="4" t="s">
@@ -7234,14 +7266,14 @@
       <c r="O51" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="P51" s="12"/>
-      <c r="Q51" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="R51" s="24"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="R51" s="22"/>
       <c r="S51" s="8"/>
       <c r="T51" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="U51" s="4"/>
       <c r="V51" s="4" t="s">
@@ -7249,29 +7281,29 @@
       </c>
       <c r="W51" s="4"/>
       <c r="X51" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y51" s="6"/>
-      <c r="Z51" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="AA51" s="24"/>
+        <v>236</v>
+      </c>
+      <c r="Y51" s="11"/>
+      <c r="Z51" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA51" s="22"/>
       <c r="BE51" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="BF51" s="2"/>
       <c r="BG51" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="BH51" s="2"/>
       <c r="BI51" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="BJ51" s="6"/>
-      <c r="BK51" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL51" s="31"/>
+      <c r="BK51" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="BL51" s="29"/>
     </row>
     <row r="52" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
@@ -7285,14 +7317,14 @@
       <c r="F52" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="12"/>
-      <c r="H52" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="I52" s="24"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="I52" s="22"/>
       <c r="J52" s="1"/>
       <c r="K52" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L52" s="4"/>
       <c r="M52" s="4" t="s">
@@ -7302,14 +7334,14 @@
       <c r="O52" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="P52" s="12"/>
-      <c r="Q52" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="R52" s="24"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="R52" s="22"/>
       <c r="S52" s="8"/>
       <c r="T52" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="U52" s="4"/>
       <c r="V52" s="4" t="s">
@@ -7317,29 +7349,29 @@
       </c>
       <c r="W52" s="4"/>
       <c r="X52" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y52" s="6"/>
-      <c r="Z52" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="AA52" s="24"/>
+        <v>236</v>
+      </c>
+      <c r="Y52" s="11"/>
+      <c r="Z52" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA52" s="22"/>
       <c r="BE52" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="BF52" s="2"/>
       <c r="BG52" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="BH52" s="2"/>
       <c r="BI52" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="BJ52" s="6"/>
-      <c r="BK52" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL52" s="31"/>
+      <c r="BK52" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="BL52" s="29"/>
     </row>
     <row r="53" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
@@ -7353,14 +7385,14 @@
       <c r="F53" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G53" s="12"/>
-      <c r="H53" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="I53" s="24"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="I53" s="22"/>
       <c r="J53" s="1"/>
       <c r="K53" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L53" s="4"/>
       <c r="M53" s="4" t="s">
@@ -7370,14 +7402,14 @@
       <c r="O53" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="P53" s="12"/>
-      <c r="Q53" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="R53" s="24"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="R53" s="22"/>
       <c r="S53" s="8"/>
       <c r="T53" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="U53" s="4"/>
       <c r="V53" s="4" t="s">
@@ -7385,29 +7417,29 @@
       </c>
       <c r="W53" s="4"/>
       <c r="X53" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y53" s="6"/>
-      <c r="Z53" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="AA53" s="24"/>
+        <v>236</v>
+      </c>
+      <c r="Y53" s="11"/>
+      <c r="Z53" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA53" s="22"/>
       <c r="BE53" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="BF53" s="2"/>
       <c r="BG53" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="BH53" s="2"/>
       <c r="BI53" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="BJ53" s="6"/>
-      <c r="BK53" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL53" s="35"/>
+      <c r="BK53" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="BL53" s="33"/>
     </row>
     <row r="54" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
@@ -7421,14 +7453,14 @@
       <c r="F54" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G54" s="12"/>
-      <c r="H54" s="23" t="s">
-        <v>581</v>
-      </c>
-      <c r="I54" s="24"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="I54" s="22"/>
       <c r="J54" s="1"/>
       <c r="K54" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L54" s="4"/>
       <c r="M54" s="4" t="s">
@@ -7438,14 +7470,14 @@
       <c r="O54" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="P54" s="12"/>
-      <c r="Q54" s="23" t="s">
-        <v>581</v>
-      </c>
-      <c r="R54" s="24"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="R54" s="22"/>
       <c r="S54" s="8"/>
       <c r="T54" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="U54" s="4"/>
       <c r="V54" s="4" t="s">
@@ -7453,13 +7485,13 @@
       </c>
       <c r="W54" s="4"/>
       <c r="X54" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y54" s="6"/>
-      <c r="Z54" s="23" t="s">
-        <v>581</v>
-      </c>
-      <c r="AA54" s="24"/>
+        <v>236</v>
+      </c>
+      <c r="Y54" s="11"/>
+      <c r="Z54" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="AA54" s="22"/>
     </row>
     <row r="55" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
@@ -7473,14 +7505,14 @@
       <c r="F55" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G55" s="12"/>
-      <c r="H55" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="I55" s="24"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="I55" s="22"/>
       <c r="J55" s="1"/>
       <c r="K55" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L55" s="4"/>
       <c r="M55" s="4" t="s">
@@ -7490,14 +7522,14 @@
       <c r="O55" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="P55" s="12"/>
-      <c r="Q55" s="23" t="s">
-        <v>581</v>
-      </c>
-      <c r="R55" s="24"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="R55" s="22"/>
       <c r="S55" s="8"/>
       <c r="T55" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="U55" s="4"/>
       <c r="V55" s="4" t="s">
@@ -7505,13 +7537,13 @@
       </c>
       <c r="W55" s="4"/>
       <c r="X55" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y55" s="6"/>
-      <c r="Z55" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="AA55" s="24"/>
+        <v>236</v>
+      </c>
+      <c r="Y55" s="11"/>
+      <c r="Z55" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA55" s="22"/>
     </row>
     <row r="56" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
@@ -7525,14 +7557,14 @@
       <c r="F56" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G56" s="12"/>
-      <c r="H56" s="23" t="s">
-        <v>581</v>
-      </c>
-      <c r="I56" s="24"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="I56" s="22"/>
       <c r="J56" s="1"/>
       <c r="K56" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L56" s="4"/>
       <c r="M56" s="4" t="s">
@@ -7542,14 +7574,14 @@
       <c r="O56" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="P56" s="12"/>
-      <c r="Q56" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="R56" s="24"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="R56" s="22"/>
       <c r="S56" s="8"/>
       <c r="T56" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="U56" s="4"/>
       <c r="V56" s="4" t="s">
@@ -7557,13 +7589,13 @@
       </c>
       <c r="W56" s="4"/>
       <c r="X56" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y56" s="6"/>
-      <c r="Z56" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="AA56" s="24"/>
+        <v>236</v>
+      </c>
+      <c r="Y56" s="11"/>
+      <c r="Z56" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA56" s="22"/>
     </row>
     <row r="57" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
@@ -7577,14 +7609,14 @@
       <c r="F57" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G57" s="12"/>
-      <c r="H57" s="23" t="s">
-        <v>581</v>
-      </c>
-      <c r="I57" s="24"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="I57" s="22"/>
       <c r="J57" s="1"/>
       <c r="K57" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L57" s="4"/>
       <c r="M57" s="4" t="s">
@@ -7594,14 +7626,14 @@
       <c r="O57" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="P57" s="12"/>
-      <c r="Q57" s="23" t="s">
-        <v>581</v>
-      </c>
-      <c r="R57" s="24"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="R57" s="22"/>
       <c r="S57" s="8"/>
       <c r="T57" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="U57" s="4"/>
       <c r="V57" s="4" t="s">
@@ -7609,13 +7641,13 @@
       </c>
       <c r="W57" s="4"/>
       <c r="X57" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y57" s="6"/>
-      <c r="Z57" s="23" t="s">
-        <v>581</v>
-      </c>
-      <c r="AA57" s="24"/>
+        <v>236</v>
+      </c>
+      <c r="Y57" s="10"/>
+      <c r="Z57" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="AA57" s="22"/>
     </row>
     <row r="58" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
@@ -7629,14 +7661,14 @@
       <c r="F58" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="12"/>
-      <c r="H58" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="I58" s="24"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="I58" s="22"/>
       <c r="J58" s="1"/>
       <c r="K58" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L58" s="4"/>
       <c r="M58" s="4" t="s">
@@ -7646,14 +7678,14 @@
       <c r="O58" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="P58" s="12"/>
-      <c r="Q58" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="R58" s="24"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="R58" s="22"/>
       <c r="S58" s="8"/>
       <c r="T58" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U58" s="4"/>
       <c r="V58" s="4" t="s">
@@ -7661,13 +7693,13 @@
       </c>
       <c r="W58" s="4"/>
       <c r="X58" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y58" s="6"/>
-      <c r="Z58" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="AA58" s="24"/>
+        <v>236</v>
+      </c>
+      <c r="Y58" s="10"/>
+      <c r="Z58" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA58" s="22"/>
     </row>
     <row r="59" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B59" s="4" t="s">
@@ -7681,14 +7713,14 @@
       <c r="F59" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G59" s="12"/>
-      <c r="H59" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="I59" s="24"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="I59" s="22"/>
       <c r="J59" s="1"/>
       <c r="K59" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L59" s="4"/>
       <c r="M59" s="4" t="s">
@@ -7698,14 +7730,14 @@
       <c r="O59" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="P59" s="12"/>
-      <c r="Q59" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="R59" s="24"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="R59" s="22"/>
       <c r="S59" s="8"/>
       <c r="T59" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="U59" s="4"/>
       <c r="V59" s="4" t="s">
@@ -7713,13 +7745,13 @@
       </c>
       <c r="W59" s="4"/>
       <c r="X59" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y59" s="6"/>
-      <c r="Z59" s="23" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA59" s="24"/>
+        <v>236</v>
+      </c>
+      <c r="Y59" s="10"/>
+      <c r="Z59" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="AA59" s="22"/>
     </row>
     <row r="60" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B60" s="4" t="s">
@@ -7733,14 +7765,14 @@
       <c r="F60" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G60" s="12"/>
-      <c r="H60" s="23" t="s">
-        <v>581</v>
-      </c>
-      <c r="I60" s="24"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="I60" s="22"/>
       <c r="J60" s="1"/>
       <c r="K60" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L60" s="4"/>
       <c r="M60" s="4" t="s">
@@ -7750,14 +7782,14 @@
       <c r="O60" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="P60" s="12"/>
-      <c r="Q60" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="R60" s="24"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="R60" s="22"/>
       <c r="S60" s="8"/>
       <c r="T60" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="U60" s="4"/>
       <c r="V60" s="4" t="s">
@@ -7765,13 +7797,13 @@
       </c>
       <c r="W60" s="4"/>
       <c r="X60" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y60" s="6"/>
-      <c r="Z60" s="23" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA60" s="24"/>
+        <v>236</v>
+      </c>
+      <c r="Y60" s="11"/>
+      <c r="Z60" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="AA60" s="22"/>
     </row>
     <row r="61" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
@@ -7785,14 +7817,14 @@
       <c r="F61" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G61" s="12"/>
-      <c r="H61" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="I61" s="24"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="I61" s="22"/>
       <c r="J61" s="1"/>
       <c r="K61" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L61" s="4"/>
       <c r="M61" s="4" t="s">
@@ -7802,14 +7834,14 @@
       <c r="O61" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="P61" s="12"/>
-      <c r="Q61" s="23" t="s">
-        <v>581</v>
-      </c>
-      <c r="R61" s="24"/>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="R61" s="22"/>
       <c r="S61" s="8"/>
       <c r="T61" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="U61" s="4"/>
       <c r="V61" s="4" t="s">
@@ -7817,17 +7849,17 @@
       </c>
       <c r="W61" s="4"/>
       <c r="X61" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y61" s="6"/>
-      <c r="Z61" s="23" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA61" s="24"/>
+        <v>236</v>
+      </c>
+      <c r="Y61" s="10"/>
+      <c r="Z61" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="AA61" s="22"/>
     </row>
     <row r="62" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
-        <v>102</v>
+        <v>621</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4" t="s">
@@ -7837,14 +7869,14 @@
       <c r="F62" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G62" s="12"/>
-      <c r="H62" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="I62" s="24"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="I62" s="22"/>
       <c r="J62" s="1"/>
       <c r="K62" s="4" t="s">
-        <v>233</v>
+        <v>620</v>
       </c>
       <c r="L62" s="4"/>
       <c r="M62" s="4" t="s">
@@ -7854,13 +7886,13 @@
       <c r="O62" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="P62" s="12"/>
-      <c r="Q62" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="R62" s="24"/>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="R62" s="22"/>
       <c r="T62" s="4" t="s">
-        <v>300</v>
+        <v>622</v>
       </c>
       <c r="U62" s="4"/>
       <c r="V62" s="4" t="s">
@@ -7868,17 +7900,17 @@
       </c>
       <c r="W62" s="4"/>
       <c r="X62" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y62" s="6"/>
-      <c r="Z62" s="23" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA62" s="24"/>
+        <v>236</v>
+      </c>
+      <c r="Y62" s="10"/>
+      <c r="Z62" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="AA62" s="22"/>
     </row>
     <row r="63" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
@@ -7888,14 +7920,14 @@
       <c r="F63" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G63" s="12"/>
-      <c r="H63" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="I63" s="24"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="I63" s="22"/>
       <c r="J63" s="1"/>
       <c r="K63" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="L63" s="4"/>
       <c r="M63" s="4" t="s">
@@ -7905,32 +7937,32 @@
       <c r="O63" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="P63" s="12"/>
-      <c r="Q63" s="23" t="s">
-        <v>581</v>
-      </c>
-      <c r="R63" s="24"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="R63" s="22"/>
       <c r="S63" s="8"/>
       <c r="T63" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="U63" s="4"/>
       <c r="V63" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="W63" s="4"/>
       <c r="X63" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y63" s="6"/>
-      <c r="Z63" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="AA63" s="24"/>
+        <v>236</v>
+      </c>
+      <c r="Y63" s="11"/>
+      <c r="Z63" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA63" s="22"/>
     </row>
     <row r="64" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4" t="s">
@@ -7940,14 +7972,14 @@
       <c r="F64" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G64" s="12"/>
-      <c r="H64" s="23" t="s">
-        <v>581</v>
-      </c>
-      <c r="I64" s="24"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="I64" s="22"/>
       <c r="J64" s="1"/>
       <c r="K64" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L64" s="4"/>
       <c r="M64" s="4" t="s">
@@ -7957,98 +7989,98 @@
       <c r="O64" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="P64" s="12"/>
-      <c r="Q64" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="R64" s="24"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="R64" s="22"/>
       <c r="S64" s="8"/>
       <c r="T64" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="U64" s="4"/>
       <c r="V64" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="W64" s="4"/>
       <c r="X64" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y64" s="6"/>
-      <c r="Z64" s="23" t="s">
-        <v>581</v>
-      </c>
-      <c r="AA64" s="24"/>
+        <v>236</v>
+      </c>
+      <c r="Y64" s="11"/>
+      <c r="Z64" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="AA64" s="22"/>
     </row>
     <row r="65" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B65" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C65" s="2"/>
+      <c r="B65" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C65" s="4"/>
       <c r="D65" s="2" t="s">
         <v>126</v>
       </c>
       <c r="E65" s="2"/>
-      <c r="F65" s="38" t="s">
+      <c r="F65" s="35" t="s">
         <v>3</v>
       </c>
       <c r="G65" s="11"/>
-      <c r="H65" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="I65" s="26"/>
+      <c r="H65" s="25" t="s">
+        <v>575</v>
+      </c>
+      <c r="I65" s="24"/>
       <c r="J65" s="1"/>
       <c r="K65" s="2" t="s">
-        <v>187</v>
+        <v>234</v>
       </c>
       <c r="L65" s="2"/>
       <c r="M65" s="2" t="s">
         <v>126</v>
       </c>
       <c r="N65" s="2"/>
-      <c r="O65" s="38" t="s">
+      <c r="O65" s="35" t="s">
         <v>170</v>
       </c>
       <c r="P65" s="11"/>
-      <c r="Q65" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="R65" s="31"/>
+      <c r="Q65" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="R65" s="29"/>
       <c r="S65" s="8"/>
       <c r="T65" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="U65" s="2"/>
       <c r="V65" s="2" t="s">
         <v>126</v>
       </c>
       <c r="W65" s="2"/>
-      <c r="X65" s="38" t="s">
-        <v>237</v>
+      <c r="X65" s="35" t="s">
+        <v>236</v>
       </c>
       <c r="Y65" s="10"/>
-      <c r="Z65" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA65" s="31"/>
+      <c r="Z65" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="AA65" s="29"/>
     </row>
     <row r="66" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B66" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C66" s="4"/>
+      <c r="B66" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C66" s="2"/>
       <c r="D66" s="4" t="s">
         <v>127</v>
       </c>
       <c r="E66" s="4"/>
-      <c r="F66" s="38" t="s">
+      <c r="F66" s="35" t="s">
         <v>3</v>
       </c>
       <c r="G66" s="11"/>
-      <c r="H66" s="23" t="s">
-        <v>576</v>
-      </c>
-      <c r="I66" s="24"/>
+      <c r="H66" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="I66" s="22"/>
       <c r="J66" s="1"/>
       <c r="K66" s="4" t="s">
         <v>186</v>
@@ -8058,83 +8090,83 @@
         <v>127</v>
       </c>
       <c r="N66" s="4"/>
-      <c r="O66" s="38" t="s">
+      <c r="O66" s="35" t="s">
         <v>170</v>
       </c>
       <c r="P66" s="11"/>
-      <c r="Q66" s="23" t="s">
-        <v>576</v>
-      </c>
-      <c r="R66" s="24"/>
+      <c r="Q66" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="R66" s="22"/>
       <c r="S66" s="8"/>
       <c r="T66" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U66" s="4"/>
       <c r="V66" s="4" t="s">
         <v>127</v>
       </c>
       <c r="W66" s="4"/>
-      <c r="X66" s="38" t="s">
-        <v>237</v>
+      <c r="X66" s="35" t="s">
+        <v>236</v>
       </c>
       <c r="Y66" s="10"/>
-      <c r="Z66" s="23" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA66" s="24"/>
+      <c r="Z66" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="AA66" s="22"/>
     </row>
     <row r="67" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B67" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4" t="s">
         <v>128</v>
       </c>
       <c r="E67" s="4"/>
-      <c r="F67" s="38" t="s">
+      <c r="F67" s="35" t="s">
         <v>3</v>
       </c>
       <c r="G67" s="11"/>
-      <c r="H67" s="23" t="s">
-        <v>576</v>
-      </c>
-      <c r="I67" s="24"/>
+      <c r="H67" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="I67" s="22"/>
       <c r="J67" s="1"/>
       <c r="K67" s="4" t="s">
-        <v>185</v>
+        <v>619</v>
       </c>
       <c r="L67" s="4"/>
       <c r="M67" s="4" t="s">
         <v>128</v>
       </c>
       <c r="N67" s="4"/>
-      <c r="O67" s="38" t="s">
+      <c r="O67" s="35" t="s">
         <v>170</v>
       </c>
       <c r="P67" s="11"/>
-      <c r="Q67" s="23" t="s">
-        <v>576</v>
-      </c>
-      <c r="R67" s="24"/>
+      <c r="Q67" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="R67" s="22"/>
       <c r="S67" s="8"/>
       <c r="T67" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="U67" s="4"/>
       <c r="V67" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="W67" s="4"/>
-      <c r="X67" s="38" t="s">
-        <v>237</v>
+      <c r="X67" s="35" t="s">
+        <v>236</v>
       </c>
       <c r="Y67" s="10"/>
-      <c r="Z67" s="23" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA67" s="24"/>
+      <c r="Z67" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="AA67" s="22"/>
     </row>
     <row r="68" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B68" s="4" t="s">
@@ -8142,51 +8174,51 @@
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G68" s="12"/>
-      <c r="H68" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="I68" s="24"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="I68" s="22"/>
       <c r="J68" s="1"/>
       <c r="K68" s="4" t="s">
         <v>185</v>
       </c>
       <c r="L68" s="4"/>
       <c r="M68" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="N68" s="4"/>
       <c r="O68" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="P68" s="12"/>
-      <c r="Q68" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="R68" s="24"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="R68" s="22"/>
       <c r="S68" s="8"/>
       <c r="T68" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="U68" s="4"/>
       <c r="V68" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="W68" s="4"/>
       <c r="X68" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y68" s="7"/>
-      <c r="Z68" s="23" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA68" s="24"/>
+        <v>236</v>
+      </c>
+      <c r="Y68" s="10"/>
+      <c r="Z68" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="AA68" s="22"/>
     </row>
     <row r="69" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B69" s="3" t="s">
@@ -8200,11 +8232,11 @@
       <c r="F69" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G69" s="12"/>
-      <c r="H69" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="I69" s="22"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="I69" s="20"/>
       <c r="J69" s="1"/>
       <c r="K69" s="3" t="s">
         <v>184</v>
@@ -8217,14 +8249,14 @@
       <c r="O69" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="P69" s="12"/>
-      <c r="Q69" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="R69" s="22"/>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="R69" s="20"/>
       <c r="S69" s="8"/>
       <c r="T69" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U69" s="3"/>
       <c r="V69" s="3" t="s">
@@ -8232,13 +8264,13 @@
       </c>
       <c r="W69" s="3"/>
       <c r="X69" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y69" s="6"/>
-      <c r="Z69" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA69" s="22"/>
+        <v>236</v>
+      </c>
+      <c r="Y69" s="10"/>
+      <c r="Z69" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="AA69" s="20"/>
     </row>
     <row r="70" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
@@ -8252,11 +8284,11 @@
       <c r="F70" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G70" s="12"/>
-      <c r="H70" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="I70" s="22"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="I70" s="20"/>
       <c r="J70" s="1"/>
       <c r="K70" s="3" t="s">
         <v>183</v>
@@ -8269,14 +8301,14 @@
       <c r="O70" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="P70" s="12"/>
-      <c r="Q70" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="R70" s="22"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="R70" s="20"/>
       <c r="S70" s="8"/>
       <c r="T70" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="U70" s="3"/>
       <c r="V70" s="3" t="s">
@@ -8284,13 +8316,13 @@
       </c>
       <c r="W70" s="3"/>
       <c r="X70" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y70" s="6"/>
-      <c r="Z70" s="21" t="s">
-        <v>581</v>
-      </c>
-      <c r="AA70" s="22"/>
+        <v>236</v>
+      </c>
+      <c r="Y70" s="10"/>
+      <c r="Z70" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="AA70" s="20"/>
     </row>
     <row r="71" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B71" s="4" t="s">
@@ -8304,11 +8336,11 @@
       <c r="F71" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G71" s="12"/>
-      <c r="H71" s="23" t="s">
-        <v>571</v>
-      </c>
-      <c r="I71" s="24"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="21" t="s">
+        <v>570</v>
+      </c>
+      <c r="I71" s="22"/>
       <c r="J71" s="1"/>
       <c r="K71" s="4" t="s">
         <v>182</v>
@@ -8321,14 +8353,14 @@
       <c r="O71" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="P71" s="12"/>
-      <c r="Q71" s="23" t="s">
-        <v>571</v>
-      </c>
-      <c r="R71" s="24"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="21" t="s">
+        <v>570</v>
+      </c>
+      <c r="R71" s="22"/>
       <c r="S71" s="8"/>
       <c r="T71" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="U71" s="4"/>
       <c r="V71" s="4" t="s">
@@ -8336,487 +8368,535 @@
       </c>
       <c r="W71" s="4"/>
       <c r="X71" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y71" s="6"/>
-      <c r="Z71" s="23" t="s">
-        <v>588</v>
-      </c>
-      <c r="AA71" s="24"/>
+        <v>236</v>
+      </c>
+      <c r="Y71" s="11"/>
+      <c r="Z71" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="AA71" s="22"/>
     </row>
     <row r="72" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B72" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E72" s="4"/>
-      <c r="F72" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="12"/>
-      <c r="H72" s="23" t="s">
-        <v>571</v>
-      </c>
-      <c r="I72" s="24"/>
+      <c r="F72" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="11"/>
+      <c r="H72" s="21" t="s">
+        <v>570</v>
+      </c>
+      <c r="I72" s="22"/>
       <c r="J72" s="1"/>
       <c r="K72" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="L72" s="4"/>
       <c r="M72" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="N72" s="4"/>
-      <c r="O72" s="38" t="s">
+      <c r="O72" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="P72" s="13"/>
-      <c r="Q72" s="23" t="s">
-        <v>586</v>
-      </c>
-      <c r="R72" s="24"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="21" t="s">
+        <v>585</v>
+      </c>
+      <c r="R72" s="22"/>
       <c r="T72" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="U72" s="4"/>
       <c r="V72" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="W72" s="4"/>
-      <c r="X72" s="38" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y72" s="6"/>
-      <c r="Z72" s="23" t="s">
-        <v>573</v>
-      </c>
-      <c r="AA72" s="24"/>
+      <c r="X72" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y72" s="10"/>
+      <c r="Z72" s="21" t="s">
+        <v>572</v>
+      </c>
+      <c r="AA72" s="22"/>
     </row>
     <row r="73" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G73" s="12"/>
-      <c r="H73" s="21" t="s">
-        <v>573</v>
-      </c>
-      <c r="I73" s="22"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="19" t="s">
+        <v>572</v>
+      </c>
+      <c r="I73" s="20"/>
       <c r="J73" s="1"/>
       <c r="K73" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L73" s="3"/>
       <c r="M73" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="N73" s="3"/>
       <c r="O73" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="P73" s="13"/>
-      <c r="Q73" s="28" t="s">
-        <v>573</v>
-      </c>
-      <c r="R73" s="29"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="26" t="s">
+        <v>572</v>
+      </c>
+      <c r="R73" s="27"/>
       <c r="T73" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="U73" s="3"/>
       <c r="V73" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="W73" s="3"/>
       <c r="X73" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y73" s="6"/>
-      <c r="Z73" s="21" t="s">
-        <v>581</v>
-      </c>
-      <c r="AA73" s="29"/>
+        <v>236</v>
+      </c>
+      <c r="Y73" s="10"/>
+      <c r="Z73" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="AA73" s="27"/>
     </row>
     <row r="74" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B74" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G74" s="11"/>
-      <c r="H74" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="I74" s="24"/>
+      <c r="H74" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="I74" s="22"/>
       <c r="J74" s="1"/>
       <c r="K74" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="L74" s="4"/>
       <c r="M74" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="N74" s="4"/>
       <c r="O74" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="P74" s="40"/>
-      <c r="Q74" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="R74" s="24"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="R74" s="22"/>
       <c r="T74" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="U74" s="4"/>
       <c r="V74" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="W74" s="4"/>
       <c r="X74" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y74" s="40"/>
-      <c r="Z74" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="AA74" s="24"/>
+        <v>236</v>
+      </c>
+      <c r="Y74" s="10"/>
+      <c r="Z74" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA74" s="22"/>
     </row>
     <row r="75" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B75" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E75" s="4"/>
-      <c r="F75" s="38" t="s">
+      <c r="B75" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G75" s="11"/>
-      <c r="H75" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="I75" s="24"/>
-      <c r="P75" s="41"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="38" t="s">
+        <v>617</v>
+      </c>
+      <c r="L75" s="38"/>
+      <c r="M75" s="38" t="s">
+        <v>616</v>
+      </c>
+      <c r="N75" s="38"/>
+      <c r="O75" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="38"/>
+      <c r="R75" s="38"/>
+      <c r="T75" s="38" t="s">
+        <v>618</v>
+      </c>
+      <c r="U75" s="38"/>
+      <c r="V75" s="38" t="s">
+        <v>616</v>
+      </c>
+      <c r="W75" s="38"/>
+      <c r="X75" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y75" s="11"/>
+      <c r="Z75" s="38"/>
+      <c r="AA75" s="38"/>
     </row>
     <row r="76" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B76" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E76" s="4"/>
-      <c r="F76" s="38" t="s">
+      <c r="F76" s="35" t="s">
         <v>3</v>
       </c>
       <c r="G76" s="11"/>
-      <c r="H76" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="I76" s="24"/>
+      <c r="H76" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="I76" s="22"/>
+      <c r="P76" s="37"/>
     </row>
     <row r="77" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B77" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E77" s="4"/>
-      <c r="F77" s="38" t="s">
+      <c r="F77" s="35" t="s">
         <v>3</v>
       </c>
       <c r="G77" s="11"/>
-      <c r="H77" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="I77" s="24"/>
+      <c r="H77" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="I77" s="22"/>
     </row>
     <row r="78" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B78" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E78" s="4"/>
-      <c r="F78" s="38" t="s">
+      <c r="F78" s="35" t="s">
         <v>3</v>
       </c>
       <c r="G78" s="11"/>
-      <c r="H78" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="I78" s="24"/>
+      <c r="H78" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="I78" s="22"/>
     </row>
     <row r="79" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B79" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E79" s="4"/>
-      <c r="F79" s="38" t="s">
+      <c r="F79" s="35" t="s">
         <v>3</v>
       </c>
       <c r="G79" s="11"/>
-      <c r="H79" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="I79" s="24"/>
+      <c r="H79" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="I79" s="22"/>
     </row>
     <row r="80" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B80" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E80" s="4"/>
-      <c r="F80" s="38" t="s">
+      <c r="F80" s="35" t="s">
         <v>3</v>
       </c>
       <c r="G80" s="11"/>
-      <c r="H80" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="I80" s="24"/>
+      <c r="H80" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="I80" s="22"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E81" s="4"/>
+      <c r="F81" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="G81" s="11"/>
+      <c r="H81" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="I81" s="22"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G81" s="13"/>
-      <c r="H81" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="I81" s="26"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="2" t="s">
+      <c r="E82" s="4"/>
+      <c r="F82" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G82" s="12"/>
+      <c r="H82" s="25" t="s">
+        <v>575</v>
+      </c>
+      <c r="I82" s="24"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B83" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2" t="s">
+      <c r="C83" s="2"/>
+      <c r="D83" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G82" s="13"/>
-      <c r="H82" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="I82" s="24"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" s="13"/>
-      <c r="H83" s="23" t="s">
-        <v>581</v>
-      </c>
-      <c r="I83" s="24"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="12"/>
+      <c r="H83" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="I83" s="22"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G84" s="13"/>
-      <c r="H84" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="I84" s="24"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="I84" s="22"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G85" s="13"/>
-      <c r="H85" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="I85" s="24"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="I85" s="22"/>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G86" s="13"/>
-      <c r="H86" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="I86" s="24"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="I86" s="22"/>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G87" s="13"/>
-      <c r="H87" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="I87" s="24"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="I87" s="22"/>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G88" s="13"/>
-      <c r="H88" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="I88" s="24"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="I88" s="22"/>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G89" s="13"/>
-      <c r="H89" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="I89" s="24"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="I89" s="22"/>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G90" s="13"/>
-      <c r="H90" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="I90" s="24"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="I90" s="22"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G91" s="13"/>
-      <c r="H91" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="I91" s="25"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="I91" s="22"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G92" s="13"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="I92" s="23"/>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B93" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G93" s="12"/>
+      <c r="H93" s="21" t="s">
+        <v>576</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Planning/Assetlist.xlsx
+++ b/Planning/Assetlist.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="633">
   <si>
     <t>2D</t>
   </si>
@@ -1860,9 +1860,6 @@
     <t>1 dag</t>
   </si>
   <si>
-    <t>`</t>
-  </si>
-  <si>
     <t>2D_TNT_001</t>
   </si>
   <si>
@@ -1927,6 +1924,39 @@
   </si>
   <si>
     <t>4U_ENVNS_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Env Falling </t>
+  </si>
+  <si>
+    <t>Rocks</t>
+  </si>
+  <si>
+    <t>Rock Fall</t>
+  </si>
+  <si>
+    <t>6A_ELD_001</t>
+  </si>
+  <si>
+    <t>Worm Dead</t>
+  </si>
+  <si>
+    <t>6A_EAD_001</t>
+  </si>
+  <si>
+    <t>Ant Dead</t>
+  </si>
+  <si>
+    <t>6A_EDFD_001</t>
+  </si>
+  <si>
+    <t>Dragonfly Dead</t>
+  </si>
+  <si>
+    <t>6A_EGD_001</t>
+  </si>
+  <si>
+    <t>GrassHopper Dead</t>
   </si>
 </sst>
 </file>
@@ -2143,7 +2173,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2168,6 +2197,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -2450,8 +2480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BX93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+    <sheetView tabSelected="1" topLeftCell="AK2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AK20" sqref="AK20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2616,14 +2646,14 @@
         <v>4</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="11"/>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="I3" s="18"/>
+      <c r="I3" s="17"/>
       <c r="J3" s="1"/>
       <c r="K3" s="3" t="s">
         <v>171</v>
@@ -2633,14 +2663,14 @@
         <v>4</v>
       </c>
       <c r="N3" s="3"/>
-      <c r="O3" s="35" t="s">
+      <c r="O3" s="34" t="s">
         <v>170</v>
       </c>
       <c r="P3" s="11"/>
-      <c r="Q3" s="17" t="s">
+      <c r="Q3" s="16" t="s">
         <v>569</v>
       </c>
-      <c r="R3" s="18"/>
+      <c r="R3" s="17"/>
       <c r="S3" s="8"/>
       <c r="T3" s="3" t="s">
         <v>237</v>
@@ -2650,14 +2680,14 @@
         <v>4</v>
       </c>
       <c r="W3" s="3"/>
-      <c r="X3" s="35" t="s">
+      <c r="X3" s="34" t="s">
         <v>236</v>
       </c>
       <c r="Y3" s="10"/>
-      <c r="Z3" s="17" t="s">
+      <c r="Z3" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="AA3" s="18"/>
+      <c r="AA3" s="17"/>
       <c r="AC3" s="3" t="s">
         <v>303</v>
       </c>
@@ -2670,10 +2700,10 @@
         <v>319</v>
       </c>
       <c r="AH3" s="10"/>
-      <c r="AI3" s="17" t="s">
+      <c r="AI3" s="16" t="s">
         <v>572</v>
       </c>
-      <c r="AJ3" s="18"/>
+      <c r="AJ3" s="17"/>
       <c r="AL3" s="3" t="s">
         <v>321</v>
       </c>
@@ -2687,10 +2717,10 @@
         <v>383</v>
       </c>
       <c r="AR3" s="10"/>
-      <c r="AS3" s="17" t="s">
+      <c r="AS3" s="16" t="s">
         <v>588</v>
       </c>
-      <c r="AT3" s="18"/>
+      <c r="AT3" s="17"/>
       <c r="AV3" s="3" t="s">
         <v>385</v>
       </c>
@@ -2699,14 +2729,14 @@
         <v>406</v>
       </c>
       <c r="AY3" s="3"/>
-      <c r="AZ3" s="16" t="s">
+      <c r="AZ3" s="13" t="s">
         <v>426</v>
       </c>
       <c r="BA3" s="10"/>
-      <c r="BB3" s="17" t="s">
+      <c r="BB3" s="16" t="s">
         <v>571</v>
       </c>
-      <c r="BC3" s="18"/>
+      <c r="BC3" s="17"/>
       <c r="BD3" s="1"/>
       <c r="BE3" s="2" t="s">
         <v>429</v>
@@ -2720,10 +2750,10 @@
         <v>479</v>
       </c>
       <c r="BJ3" s="6"/>
-      <c r="BK3" s="31" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL3" s="32"/>
+      <c r="BK3" s="30" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL3" s="31"/>
     </row>
     <row r="4" spans="2:76" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
@@ -2734,14 +2764,14 @@
         <v>26</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="11"/>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="18" t="s">
         <v>575</v>
       </c>
-      <c r="I4" s="20"/>
+      <c r="I4" s="19"/>
       <c r="J4" s="1"/>
       <c r="K4" s="3" t="s">
         <v>172</v>
@@ -2751,14 +2781,14 @@
         <v>26</v>
       </c>
       <c r="N4" s="3"/>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="34" t="s">
         <v>170</v>
       </c>
       <c r="P4" s="11"/>
-      <c r="Q4" s="19" t="s">
+      <c r="Q4" s="18" t="s">
         <v>575</v>
       </c>
-      <c r="R4" s="20"/>
+      <c r="R4" s="19"/>
       <c r="S4" s="8"/>
       <c r="T4" s="3" t="s">
         <v>238</v>
@@ -2768,14 +2798,14 @@
         <v>26</v>
       </c>
       <c r="W4" s="3"/>
-      <c r="X4" s="3" t="s">
+      <c r="X4" s="34" t="s">
         <v>236</v>
       </c>
       <c r="Y4" s="10"/>
-      <c r="Z4" s="19" t="s">
+      <c r="Z4" s="18" t="s">
         <v>575</v>
       </c>
-      <c r="AA4" s="20"/>
+      <c r="AA4" s="19"/>
       <c r="AC4" s="3" t="s">
         <v>304</v>
       </c>
@@ -2784,14 +2814,14 @@
         <v>308</v>
       </c>
       <c r="AF4" s="3"/>
-      <c r="AG4" s="3" t="s">
+      <c r="AG4" s="34" t="s">
         <v>319</v>
       </c>
       <c r="AH4" s="10"/>
-      <c r="AI4" s="19" t="s">
+      <c r="AI4" s="18" t="s">
         <v>574</v>
       </c>
-      <c r="AJ4" s="20"/>
+      <c r="AJ4" s="19"/>
       <c r="AL4" s="2" t="s">
         <v>323</v>
       </c>
@@ -2805,10 +2835,10 @@
         <v>383</v>
       </c>
       <c r="AR4" s="10"/>
-      <c r="AS4" s="25" t="s">
+      <c r="AS4" s="24" t="s">
         <v>578</v>
       </c>
-      <c r="AT4" s="24"/>
+      <c r="AT4" s="23"/>
       <c r="AV4" s="3" t="s">
         <v>386</v>
       </c>
@@ -2817,14 +2847,14 @@
         <v>407</v>
       </c>
       <c r="AY4" s="3"/>
-      <c r="AZ4" s="13" t="s">
+      <c r="AZ4" s="35" t="s">
         <v>427</v>
       </c>
       <c r="BA4" s="10"/>
-      <c r="BB4" s="19" t="s">
+      <c r="BB4" s="18" t="s">
         <v>569</v>
       </c>
-      <c r="BC4" s="20"/>
+      <c r="BC4" s="19"/>
       <c r="BD4" s="1"/>
       <c r="BE4" s="2" t="s">
         <v>430</v>
@@ -2838,10 +2868,10 @@
         <v>479</v>
       </c>
       <c r="BJ4" s="6"/>
-      <c r="BK4" s="31" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL4" s="29"/>
+      <c r="BK4" s="30" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL4" s="28"/>
     </row>
     <row r="5" spans="2:76" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -2852,14 +2882,14 @@
         <v>27</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="11"/>
-      <c r="H5" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="I5" s="20"/>
+      <c r="H5" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="I5" s="19"/>
       <c r="J5" s="1"/>
       <c r="K5" s="3" t="s">
         <v>173</v>
@@ -2869,14 +2899,14 @@
         <v>27</v>
       </c>
       <c r="N5" s="3"/>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="34" t="s">
         <v>170</v>
       </c>
       <c r="P5" s="11"/>
-      <c r="Q5" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="R5" s="20"/>
+      <c r="Q5" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="R5" s="19"/>
       <c r="S5" s="8"/>
       <c r="T5" s="3" t="s">
         <v>245</v>
@@ -2886,14 +2916,14 @@
         <v>27</v>
       </c>
       <c r="W5" s="3"/>
-      <c r="X5" s="3" t="s">
+      <c r="X5" s="34" t="s">
         <v>236</v>
       </c>
       <c r="Y5" s="10"/>
-      <c r="Z5" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA5" s="20"/>
+      <c r="Z5" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA5" s="19"/>
       <c r="AC5" s="3" t="s">
         <v>305</v>
       </c>
@@ -2902,14 +2932,14 @@
         <v>309</v>
       </c>
       <c r="AF5" s="3"/>
-      <c r="AG5" s="3" t="s">
+      <c r="AG5" s="34" t="s">
         <v>319</v>
       </c>
       <c r="AH5" s="10"/>
-      <c r="AI5" s="19" t="s">
+      <c r="AI5" s="18" t="s">
         <v>574</v>
       </c>
-      <c r="AJ5" s="20"/>
+      <c r="AJ5" s="19"/>
       <c r="AL5" s="4" t="s">
         <v>325</v>
       </c>
@@ -2923,10 +2953,10 @@
         <v>383</v>
       </c>
       <c r="AR5" s="10"/>
-      <c r="AS5" s="21" t="s">
+      <c r="AS5" s="20" t="s">
         <v>579</v>
       </c>
-      <c r="AT5" s="22"/>
+      <c r="AT5" s="21"/>
       <c r="AV5" s="3" t="s">
         <v>387</v>
       </c>
@@ -2938,11 +2968,11 @@
       <c r="AZ5" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="BA5" s="6"/>
-      <c r="BB5" s="19" t="s">
+      <c r="BA5" s="10"/>
+      <c r="BB5" s="18" t="s">
         <v>570</v>
       </c>
-      <c r="BC5" s="20"/>
+      <c r="BC5" s="19"/>
       <c r="BD5" s="1"/>
       <c r="BE5" s="2" t="s">
         <v>431</v>
@@ -2956,10 +2986,10 @@
         <v>479</v>
       </c>
       <c r="BJ5" s="6"/>
-      <c r="BK5" s="31" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL5" s="29"/>
+      <c r="BK5" s="30" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL5" s="28"/>
     </row>
     <row r="6" spans="2:76" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
@@ -2974,10 +3004,10 @@
         <v>3</v>
       </c>
       <c r="G6" s="11"/>
-      <c r="H6" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="I6" s="22"/>
+      <c r="H6" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="I6" s="21"/>
       <c r="J6" s="1"/>
       <c r="K6" s="4" t="s">
         <v>174</v>
@@ -2991,10 +3021,10 @@
         <v>170</v>
       </c>
       <c r="P6" s="11"/>
-      <c r="Q6" s="21" t="s">
+      <c r="Q6" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="R6" s="22"/>
+      <c r="R6" s="21"/>
       <c r="S6" s="8"/>
       <c r="T6" s="4" t="s">
         <v>246</v>
@@ -3008,10 +3038,10 @@
         <v>236</v>
       </c>
       <c r="Y6" s="11"/>
-      <c r="Z6" s="21" t="s">
+      <c r="Z6" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="AA6" s="22"/>
+      <c r="AA6" s="21"/>
       <c r="AC6" s="3" t="s">
         <v>306</v>
       </c>
@@ -3020,14 +3050,14 @@
         <v>315</v>
       </c>
       <c r="AF6" s="3"/>
-      <c r="AG6" s="3" t="s">
+      <c r="AG6" s="34" t="s">
         <v>319</v>
       </c>
       <c r="AH6" s="6"/>
-      <c r="AI6" s="19" t="s">
+      <c r="AI6" s="18" t="s">
         <v>574</v>
       </c>
-      <c r="AJ6" s="20"/>
+      <c r="AJ6" s="19"/>
       <c r="AL6" s="3" t="s">
         <v>327</v>
       </c>
@@ -3041,10 +3071,10 @@
         <v>383</v>
       </c>
       <c r="AR6" s="10"/>
-      <c r="AS6" s="19" t="s">
+      <c r="AS6" s="18" t="s">
         <v>589</v>
       </c>
-      <c r="AT6" s="20"/>
+      <c r="AT6" s="19"/>
       <c r="AV6" s="3" t="s">
         <v>388</v>
       </c>
@@ -3053,14 +3083,14 @@
         <v>409</v>
       </c>
       <c r="AY6" s="3"/>
-      <c r="AZ6" s="13" t="s">
+      <c r="AZ6" s="35" t="s">
         <v>427</v>
       </c>
       <c r="BA6" s="10"/>
-      <c r="BB6" s="19" t="s">
+      <c r="BB6" s="18" t="s">
         <v>571</v>
       </c>
-      <c r="BC6" s="20"/>
+      <c r="BC6" s="19"/>
       <c r="BD6" s="1"/>
       <c r="BE6" s="3" t="s">
         <v>432</v>
@@ -3074,10 +3104,10 @@
         <v>479</v>
       </c>
       <c r="BJ6" s="6"/>
-      <c r="BK6" s="19" t="s">
+      <c r="BK6" s="18" t="s">
         <v>584</v>
       </c>
-      <c r="BL6" s="20"/>
+      <c r="BL6" s="19"/>
     </row>
     <row r="7" spans="2:76" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
@@ -3092,10 +3122,10 @@
         <v>3</v>
       </c>
       <c r="G7" s="11"/>
-      <c r="H7" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="I7" s="22"/>
+      <c r="H7" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="I7" s="21"/>
       <c r="J7" s="1"/>
       <c r="K7" s="4" t="s">
         <v>175</v>
@@ -3109,10 +3139,10 @@
         <v>170</v>
       </c>
       <c r="P7" s="11"/>
-      <c r="Q7" s="21" t="s">
+      <c r="Q7" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="R7" s="22"/>
+      <c r="R7" s="21"/>
       <c r="S7" s="8"/>
       <c r="T7" s="4" t="s">
         <v>247</v>
@@ -3126,10 +3156,10 @@
         <v>236</v>
       </c>
       <c r="Y7" s="11"/>
-      <c r="Z7" s="21" t="s">
+      <c r="Z7" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="AA7" s="22"/>
+      <c r="AA7" s="21"/>
       <c r="AC7" s="3" t="s">
         <v>311</v>
       </c>
@@ -3138,14 +3168,14 @@
         <v>316</v>
       </c>
       <c r="AF7" s="3"/>
-      <c r="AG7" s="3" t="s">
+      <c r="AG7" s="34" t="s">
         <v>319</v>
       </c>
       <c r="AH7" s="6"/>
-      <c r="AI7" s="19" t="s">
+      <c r="AI7" s="18" t="s">
         <v>574</v>
       </c>
-      <c r="AJ7" s="20"/>
+      <c r="AJ7" s="19"/>
       <c r="AL7" s="3" t="s">
         <v>329</v>
       </c>
@@ -3159,10 +3189,10 @@
         <v>383</v>
       </c>
       <c r="AR7" s="10"/>
-      <c r="AS7" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="AT7" s="20"/>
+      <c r="AS7" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AT7" s="19"/>
       <c r="AV7" s="3" t="s">
         <v>389</v>
       </c>
@@ -3174,11 +3204,11 @@
       <c r="AZ7" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="BA7" s="6"/>
-      <c r="BB7" s="19" t="s">
+      <c r="BA7" s="10"/>
+      <c r="BB7" s="18" t="s">
         <v>571</v>
       </c>
-      <c r="BC7" s="20"/>
+      <c r="BC7" s="19"/>
       <c r="BD7" s="1"/>
       <c r="BE7" s="3" t="s">
         <v>433</v>
@@ -3192,10 +3222,10 @@
         <v>479</v>
       </c>
       <c r="BJ7" s="6"/>
-      <c r="BK7" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL7" s="20"/>
+      <c r="BK7" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL7" s="19"/>
     </row>
     <row r="8" spans="2:76" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -3206,14 +3236,14 @@
         <v>30</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="11"/>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="I8" s="22"/>
+      <c r="I8" s="21"/>
       <c r="J8" s="1"/>
       <c r="K8" s="2" t="s">
         <v>176</v>
@@ -3223,14 +3253,14 @@
         <v>30</v>
       </c>
       <c r="N8" s="2"/>
-      <c r="O8" s="35" t="s">
+      <c r="O8" s="34" t="s">
         <v>170</v>
       </c>
       <c r="P8" s="11"/>
-      <c r="Q8" s="28" t="s">
-        <v>576</v>
-      </c>
-      <c r="R8" s="29"/>
+      <c r="Q8" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="R8" s="28"/>
       <c r="S8" s="8"/>
       <c r="T8" s="2" t="s">
         <v>248</v>
@@ -3240,14 +3270,14 @@
         <v>30</v>
       </c>
       <c r="W8" s="2"/>
-      <c r="X8" s="35" t="s">
+      <c r="X8" s="34" t="s">
         <v>236</v>
       </c>
       <c r="Y8" s="10"/>
-      <c r="Z8" s="28" t="s">
+      <c r="Z8" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="AA8" s="29"/>
+      <c r="AA8" s="28"/>
       <c r="AC8" s="3" t="s">
         <v>312</v>
       </c>
@@ -3256,14 +3286,14 @@
         <v>310</v>
       </c>
       <c r="AF8" s="3"/>
-      <c r="AG8" s="35" t="s">
+      <c r="AG8" s="34" t="s">
         <v>319</v>
       </c>
-      <c r="AH8" s="6"/>
-      <c r="AI8" s="17" t="s">
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="16" t="s">
         <v>571</v>
       </c>
-      <c r="AJ8" s="20"/>
+      <c r="AJ8" s="19"/>
       <c r="AL8" s="4" t="s">
         <v>330</v>
       </c>
@@ -3277,10 +3307,10 @@
         <v>383</v>
       </c>
       <c r="AR8" s="10"/>
-      <c r="AS8" s="21" t="s">
+      <c r="AS8" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="AT8" s="22"/>
+      <c r="AT8" s="21"/>
       <c r="AV8" s="3" t="s">
         <v>390</v>
       </c>
@@ -3289,14 +3319,14 @@
         <v>411</v>
       </c>
       <c r="AY8" s="3"/>
-      <c r="AZ8" s="13" t="s">
+      <c r="AZ8" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="BA8" s="6"/>
-      <c r="BB8" s="19" t="s">
+      <c r="BA8" s="10"/>
+      <c r="BB8" s="18" t="s">
         <v>572</v>
       </c>
-      <c r="BC8" s="20"/>
+      <c r="BC8" s="19"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="3" t="s">
         <v>434</v>
@@ -3310,10 +3340,10 @@
         <v>479</v>
       </c>
       <c r="BJ8" s="6"/>
-      <c r="BK8" s="19" t="s">
+      <c r="BK8" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="BL8" s="20"/>
+      <c r="BL8" s="19"/>
     </row>
     <row r="9" spans="2:76" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
@@ -3324,14 +3354,14 @@
         <v>31</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G9" s="11"/>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="I9" s="22"/>
+      <c r="I9" s="21"/>
       <c r="J9" s="1"/>
       <c r="K9" s="4" t="s">
         <v>177</v>
@@ -3341,14 +3371,14 @@
         <v>31</v>
       </c>
       <c r="N9" s="4"/>
-      <c r="O9" s="35" t="s">
+      <c r="O9" s="34" t="s">
         <v>170</v>
       </c>
       <c r="P9" s="11"/>
-      <c r="Q9" s="21" t="s">
+      <c r="Q9" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="R9" s="22"/>
+      <c r="R9" s="21"/>
       <c r="S9" s="8"/>
       <c r="T9" s="4" t="s">
         <v>249</v>
@@ -3358,14 +3388,14 @@
         <v>31</v>
       </c>
       <c r="W9" s="4"/>
-      <c r="X9" s="35" t="s">
+      <c r="X9" s="34" t="s">
         <v>236</v>
       </c>
       <c r="Y9" s="10"/>
-      <c r="Z9" s="21" t="s">
+      <c r="Z9" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="AA9" s="22"/>
+      <c r="AA9" s="21"/>
       <c r="AC9" s="3" t="s">
         <v>313</v>
       </c>
@@ -3378,10 +3408,10 @@
         <v>319</v>
       </c>
       <c r="AH9" s="6"/>
-      <c r="AI9" s="17" t="s">
+      <c r="AI9" s="16" t="s">
         <v>572</v>
       </c>
-      <c r="AJ9" s="20"/>
+      <c r="AJ9" s="19"/>
       <c r="AL9" s="3" t="s">
         <v>331</v>
       </c>
@@ -3395,10 +3425,10 @@
         <v>383</v>
       </c>
       <c r="AR9" s="10"/>
-      <c r="AS9" s="19" t="s">
+      <c r="AS9" s="18" t="s">
         <v>575</v>
       </c>
-      <c r="AT9" s="20"/>
+      <c r="AT9" s="19"/>
       <c r="AV9" s="3" t="s">
         <v>391</v>
       </c>
@@ -3407,14 +3437,14 @@
         <v>412</v>
       </c>
       <c r="AY9" s="3"/>
-      <c r="AZ9" s="13" t="s">
+      <c r="AZ9" s="35" t="s">
         <v>427</v>
       </c>
       <c r="BA9" s="10"/>
-      <c r="BB9" s="19" t="s">
+      <c r="BB9" s="18" t="s">
         <v>573</v>
       </c>
-      <c r="BC9" s="20"/>
+      <c r="BC9" s="19"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="3" t="s">
         <v>435</v>
@@ -3428,10 +3458,10 @@
         <v>479</v>
       </c>
       <c r="BJ9" s="6"/>
-      <c r="BK9" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL9" s="20"/>
+      <c r="BK9" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL9" s="19"/>
     </row>
     <row r="10" spans="2:76" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
@@ -3442,14 +3472,14 @@
         <v>482</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="11"/>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="I10" s="22"/>
+      <c r="I10" s="21"/>
       <c r="J10" s="1"/>
       <c r="K10" s="2" t="s">
         <v>178</v>
@@ -3459,14 +3489,14 @@
         <v>32</v>
       </c>
       <c r="N10" s="2"/>
-      <c r="O10" s="35" t="s">
+      <c r="O10" s="34" t="s">
         <v>170</v>
       </c>
       <c r="P10" s="11"/>
-      <c r="Q10" s="28" t="s">
+      <c r="Q10" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="R10" s="29"/>
+      <c r="R10" s="28"/>
       <c r="S10" s="8"/>
       <c r="T10" s="2" t="s">
         <v>250</v>
@@ -3476,14 +3506,14 @@
         <v>32</v>
       </c>
       <c r="W10" s="2"/>
-      <c r="X10" s="35" t="s">
+      <c r="X10" s="34" t="s">
         <v>236</v>
       </c>
       <c r="Y10" s="10"/>
-      <c r="Z10" s="19" t="s">
+      <c r="Z10" s="18" t="s">
         <v>575</v>
       </c>
-      <c r="AA10" s="20"/>
+      <c r="AA10" s="19"/>
       <c r="AC10" s="3" t="s">
         <v>314</v>
       </c>
@@ -3496,10 +3526,10 @@
         <v>319</v>
       </c>
       <c r="AH10" s="10"/>
-      <c r="AI10" s="17" t="s">
+      <c r="AI10" s="16" t="s">
         <v>572</v>
       </c>
-      <c r="AJ10" s="27"/>
+      <c r="AJ10" s="26"/>
       <c r="AL10" s="3" t="s">
         <v>332</v>
       </c>
@@ -3513,10 +3543,10 @@
         <v>383</v>
       </c>
       <c r="AR10" s="10"/>
-      <c r="AS10" s="19" t="s">
+      <c r="AS10" s="18" t="s">
         <v>575</v>
       </c>
-      <c r="AT10" s="20"/>
+      <c r="AT10" s="19"/>
       <c r="AV10" s="3" t="s">
         <v>392</v>
       </c>
@@ -3525,14 +3555,14 @@
         <v>413</v>
       </c>
       <c r="AY10" s="3"/>
-      <c r="AZ10" s="36" t="s">
+      <c r="AZ10" s="35" t="s">
         <v>427</v>
       </c>
       <c r="BA10" s="10"/>
-      <c r="BB10" s="19" t="s">
+      <c r="BB10" s="18" t="s">
         <v>571</v>
       </c>
-      <c r="BC10" s="20"/>
+      <c r="BC10" s="19"/>
       <c r="BD10" s="1"/>
       <c r="BE10" s="3" t="s">
         <v>436</v>
@@ -3546,10 +3576,10 @@
         <v>479</v>
       </c>
       <c r="BJ10" s="6"/>
-      <c r="BK10" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL10" s="20"/>
+      <c r="BK10" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL10" s="19"/>
     </row>
     <row r="11" spans="2:76" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
@@ -3560,14 +3590,14 @@
         <v>33</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G11" s="11"/>
-      <c r="H11" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="I11" s="20"/>
+      <c r="H11" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="I11" s="19"/>
       <c r="J11" s="1"/>
       <c r="K11" s="3" t="s">
         <v>179</v>
@@ -3577,14 +3607,14 @@
         <v>33</v>
       </c>
       <c r="N11" s="3"/>
-      <c r="O11" s="35" t="s">
+      <c r="O11" s="34" t="s">
         <v>170</v>
       </c>
       <c r="P11" s="11"/>
-      <c r="Q11" s="19" t="s">
+      <c r="Q11" s="18" t="s">
         <v>578</v>
       </c>
-      <c r="R11" s="20"/>
+      <c r="R11" s="19"/>
       <c r="S11" s="8"/>
       <c r="T11" s="3" t="s">
         <v>251</v>
@@ -3594,14 +3624,14 @@
         <v>33</v>
       </c>
       <c r="W11" s="3"/>
-      <c r="X11" s="35" t="s">
+      <c r="X11" s="34" t="s">
         <v>236</v>
       </c>
       <c r="Y11" s="10"/>
-      <c r="Z11" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA11" s="20"/>
+      <c r="Z11" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA11" s="19"/>
       <c r="AL11" s="3" t="s">
         <v>333</v>
       </c>
@@ -3615,10 +3645,10 @@
         <v>383</v>
       </c>
       <c r="AR11" s="10"/>
-      <c r="AS11" s="19" t="s">
+      <c r="AS11" s="18" t="s">
         <v>575</v>
       </c>
-      <c r="AT11" s="20"/>
+      <c r="AT11" s="19"/>
       <c r="AV11" s="3" t="s">
         <v>393</v>
       </c>
@@ -3627,14 +3657,14 @@
         <v>414</v>
       </c>
       <c r="AY11" s="3"/>
-      <c r="AZ11" s="36" t="s">
+      <c r="AZ11" s="35" t="s">
         <v>427</v>
       </c>
       <c r="BA11" s="10"/>
-      <c r="BB11" s="19" t="s">
+      <c r="BB11" s="18" t="s">
         <v>571</v>
       </c>
-      <c r="BC11" s="20"/>
+      <c r="BC11" s="19"/>
       <c r="BD11" s="1"/>
       <c r="BE11" s="2" t="s">
         <v>437</v>
@@ -3648,10 +3678,10 @@
         <v>479</v>
       </c>
       <c r="BJ11" s="6"/>
-      <c r="BK11" s="28" t="s">
+      <c r="BK11" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="BL11" s="29"/>
+      <c r="BL11" s="28"/>
     </row>
     <row r="12" spans="2:76" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
@@ -3662,14 +3692,14 @@
         <v>34</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G12" s="11"/>
-      <c r="H12" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="I12" s="20"/>
+      <c r="H12" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="I12" s="19"/>
       <c r="J12" s="1"/>
       <c r="K12" s="3" t="s">
         <v>180</v>
@@ -3679,14 +3709,14 @@
         <v>34</v>
       </c>
       <c r="N12" s="3"/>
-      <c r="O12" s="35" t="s">
-        <v>3</v>
+      <c r="O12" s="34" t="s">
+        <v>170</v>
       </c>
       <c r="P12" s="11"/>
-      <c r="Q12" s="19" t="s">
+      <c r="Q12" s="18" t="s">
         <v>578</v>
       </c>
-      <c r="R12" s="20"/>
+      <c r="R12" s="19"/>
       <c r="S12" s="8"/>
       <c r="T12" s="3" t="s">
         <v>252</v>
@@ -3696,14 +3726,14 @@
         <v>34</v>
       </c>
       <c r="W12" s="3"/>
-      <c r="X12" s="35" t="s">
+      <c r="X12" s="34" t="s">
         <v>3</v>
       </c>
       <c r="Y12" s="10"/>
-      <c r="Z12" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA12" s="20"/>
+      <c r="Z12" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA12" s="19"/>
       <c r="AL12" s="3" t="s">
         <v>334</v>
       </c>
@@ -3717,10 +3747,10 @@
         <v>383</v>
       </c>
       <c r="AR12" s="10"/>
-      <c r="AS12" s="19" t="s">
+      <c r="AS12" s="18" t="s">
         <v>575</v>
       </c>
-      <c r="AT12" s="20"/>
+      <c r="AT12" s="19"/>
       <c r="AV12" s="3" t="s">
         <v>394</v>
       </c>
@@ -3729,14 +3759,14 @@
         <v>415</v>
       </c>
       <c r="AY12" s="3"/>
-      <c r="AZ12" s="36" t="s">
+      <c r="AZ12" s="35" t="s">
         <v>427</v>
       </c>
       <c r="BA12" s="10"/>
-      <c r="BB12" s="19" t="s">
+      <c r="BB12" s="18" t="s">
         <v>574</v>
       </c>
-      <c r="BC12" s="20"/>
+      <c r="BC12" s="19"/>
       <c r="BD12" s="1"/>
       <c r="BE12" s="3" t="s">
         <v>438</v>
@@ -3750,10 +3780,10 @@
         <v>479</v>
       </c>
       <c r="BJ12" s="6"/>
-      <c r="BK12" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL12" s="20"/>
+      <c r="BK12" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL12" s="19"/>
     </row>
     <row r="13" spans="2:76" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
@@ -3764,14 +3794,14 @@
         <v>36</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G13" s="11"/>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="18" t="s">
         <v>575</v>
       </c>
-      <c r="I13" s="20"/>
+      <c r="I13" s="19"/>
       <c r="J13" s="1"/>
       <c r="K13" s="3" t="s">
         <v>561</v>
@@ -3781,14 +3811,14 @@
         <v>36</v>
       </c>
       <c r="N13" s="3"/>
-      <c r="O13" s="3" t="s">
+      <c r="O13" s="34" t="s">
         <v>170</v>
       </c>
       <c r="P13" s="11"/>
-      <c r="Q13" s="19" t="s">
+      <c r="Q13" s="18" t="s">
         <v>579</v>
       </c>
-      <c r="R13" s="20"/>
+      <c r="R13" s="19"/>
       <c r="S13" s="8"/>
       <c r="T13" s="3" t="s">
         <v>560</v>
@@ -3798,14 +3828,14 @@
         <v>36</v>
       </c>
       <c r="W13" s="3"/>
-      <c r="X13" s="3" t="s">
+      <c r="X13" s="34" t="s">
         <v>236</v>
       </c>
       <c r="Y13" s="10"/>
-      <c r="Z13" s="19" t="s">
+      <c r="Z13" s="18" t="s">
         <v>575</v>
       </c>
-      <c r="AA13" s="20"/>
+      <c r="AA13" s="19"/>
       <c r="AL13" s="3" t="s">
         <v>335</v>
       </c>
@@ -3819,26 +3849,26 @@
         <v>383</v>
       </c>
       <c r="AR13" s="10"/>
-      <c r="AS13" s="19" t="s">
+      <c r="AS13" s="18" t="s">
         <v>575</v>
       </c>
-      <c r="AT13" s="20"/>
+      <c r="AT13" s="19"/>
       <c r="AV13" s="3" t="s">
         <v>395</v>
       </c>
       <c r="AW13" s="3"/>
       <c r="AX13" s="3" t="s">
-        <v>600</v>
+        <v>624</v>
       </c>
       <c r="AY13" s="3"/>
-      <c r="AZ13" s="13" t="s">
+      <c r="AZ13" s="35" t="s">
         <v>427</v>
       </c>
       <c r="BA13" s="10"/>
-      <c r="BB13" s="19" t="s">
+      <c r="BB13" s="18" t="s">
         <v>572</v>
       </c>
-      <c r="BC13" s="20"/>
+      <c r="BC13" s="19"/>
       <c r="BD13" s="1"/>
       <c r="BE13" s="3" t="s">
         <v>439</v>
@@ -3852,10 +3882,10 @@
         <v>479</v>
       </c>
       <c r="BJ13" s="6"/>
-      <c r="BK13" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL13" s="20"/>
+      <c r="BK13" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL13" s="19"/>
     </row>
     <row r="14" spans="2:76" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
@@ -3866,14 +3896,14 @@
         <v>37</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="11"/>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="18" t="s">
         <v>575</v>
       </c>
-      <c r="I14" s="20"/>
+      <c r="I14" s="19"/>
       <c r="J14" s="1"/>
       <c r="K14" s="4" t="s">
         <v>562</v>
@@ -3883,14 +3913,14 @@
         <v>37</v>
       </c>
       <c r="N14" s="4"/>
-      <c r="O14" s="4" t="s">
+      <c r="O14" s="34" t="s">
         <v>170</v>
       </c>
       <c r="P14" s="11"/>
-      <c r="Q14" s="21" t="s">
+      <c r="Q14" s="20" t="s">
         <v>579</v>
       </c>
-      <c r="R14" s="22"/>
+      <c r="R14" s="21"/>
       <c r="S14" s="8"/>
       <c r="T14" s="4" t="s">
         <v>558</v>
@@ -3900,14 +3930,14 @@
         <v>37</v>
       </c>
       <c r="W14" s="4"/>
-      <c r="X14" s="4" t="s">
+      <c r="X14" s="34" t="s">
         <v>236</v>
       </c>
       <c r="Y14" s="10"/>
-      <c r="Z14" s="21" t="s">
+      <c r="Z14" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="AA14" s="22"/>
+      <c r="AA14" s="21"/>
       <c r="AL14" s="3" t="s">
         <v>336</v>
       </c>
@@ -3921,10 +3951,10 @@
         <v>383</v>
       </c>
       <c r="AR14" s="10"/>
-      <c r="AS14" s="19" t="s">
+      <c r="AS14" s="18" t="s">
         <v>575</v>
       </c>
-      <c r="AT14" s="20"/>
+      <c r="AT14" s="19"/>
       <c r="AV14" s="3" t="s">
         <v>396</v>
       </c>
@@ -3936,11 +3966,11 @@
       <c r="AZ14" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="BA14" s="10"/>
-      <c r="BB14" s="19" t="s">
+      <c r="BA14" s="40"/>
+      <c r="BB14" s="18" t="s">
         <v>572</v>
       </c>
-      <c r="BC14" s="20"/>
+      <c r="BC14" s="19"/>
       <c r="BD14" s="1"/>
       <c r="BE14" s="3" t="s">
         <v>440</v>
@@ -3954,10 +3984,10 @@
         <v>479</v>
       </c>
       <c r="BJ14" s="6"/>
-      <c r="BK14" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL14" s="20"/>
+      <c r="BK14" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL14" s="19"/>
     </row>
     <row r="15" spans="2:76" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
@@ -3972,10 +4002,10 @@
         <v>3</v>
       </c>
       <c r="G15" s="11"/>
-      <c r="H15" s="21" t="s">
+      <c r="H15" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="I15" s="22"/>
+      <c r="I15" s="21"/>
       <c r="J15" s="1"/>
       <c r="K15" s="2" t="s">
         <v>563</v>
@@ -3989,10 +4019,10 @@
         <v>170</v>
       </c>
       <c r="P15" s="11"/>
-      <c r="Q15" s="28" t="s">
+      <c r="Q15" s="27" t="s">
         <v>579</v>
       </c>
-      <c r="R15" s="29"/>
+      <c r="R15" s="28"/>
       <c r="S15" s="8"/>
       <c r="T15" s="2" t="s">
         <v>559</v>
@@ -4006,10 +4036,10 @@
         <v>236</v>
       </c>
       <c r="Y15" s="10"/>
-      <c r="Z15" s="28" t="s">
+      <c r="Z15" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="AA15" s="29"/>
+      <c r="AA15" s="28"/>
       <c r="AL15" s="3" t="s">
         <v>337</v>
       </c>
@@ -4023,10 +4053,10 @@
         <v>383</v>
       </c>
       <c r="AR15" s="10"/>
-      <c r="AS15" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="AT15" s="20"/>
+      <c r="AS15" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AT15" s="19"/>
       <c r="AV15" s="4" t="s">
         <v>397</v>
       </c>
@@ -4039,10 +4069,10 @@
         <v>427</v>
       </c>
       <c r="BA15" s="6"/>
-      <c r="BB15" s="21" t="s">
+      <c r="BB15" s="20" t="s">
         <v>570</v>
       </c>
-      <c r="BC15" s="22"/>
+      <c r="BC15" s="21"/>
       <c r="BD15" s="1"/>
       <c r="BE15" s="3" t="s">
         <v>441</v>
@@ -4056,10 +4086,10 @@
         <v>479</v>
       </c>
       <c r="BJ15" s="6"/>
-      <c r="BK15" s="19" t="s">
+      <c r="BK15" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="BL15" s="20"/>
+      <c r="BL15" s="19"/>
     </row>
     <row r="16" spans="2:76" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
@@ -4070,14 +4100,14 @@
         <v>39</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
-        <v>3</v>
+      <c r="F16" s="34" t="s">
+        <v>170</v>
       </c>
       <c r="G16" s="11"/>
-      <c r="H16" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="I16" s="22"/>
+      <c r="H16" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="I16" s="21"/>
       <c r="J16" s="1"/>
       <c r="K16" s="2" t="s">
         <v>187</v>
@@ -4087,14 +4117,14 @@
         <v>39</v>
       </c>
       <c r="N16" s="2"/>
-      <c r="O16" s="2" t="s">
+      <c r="O16" s="34" t="s">
         <v>170</v>
       </c>
       <c r="P16" s="11"/>
-      <c r="Q16" s="28" t="s">
-        <v>576</v>
-      </c>
-      <c r="R16" s="29"/>
+      <c r="Q16" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="R16" s="28"/>
       <c r="S16" s="8"/>
       <c r="T16" s="2" t="s">
         <v>254</v>
@@ -4104,14 +4134,14 @@
         <v>39</v>
       </c>
       <c r="W16" s="2"/>
-      <c r="X16" s="2" t="s">
+      <c r="X16" s="34" t="s">
         <v>236</v>
       </c>
       <c r="Y16" s="10"/>
-      <c r="Z16" s="28" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA16" s="29"/>
+      <c r="Z16" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA16" s="28"/>
       <c r="AL16" s="5" t="s">
         <v>338</v>
       </c>
@@ -4125,10 +4155,10 @@
         <v>383</v>
       </c>
       <c r="AR16" s="10"/>
-      <c r="AS16" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="AT16" s="22"/>
+      <c r="AS16" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="AT16" s="21"/>
       <c r="AV16" s="4" t="s">
         <v>398</v>
       </c>
@@ -4141,10 +4171,10 @@
         <v>427</v>
       </c>
       <c r="BA16" s="6"/>
-      <c r="BB16" s="21" t="s">
+      <c r="BB16" s="20" t="s">
         <v>570</v>
       </c>
-      <c r="BC16" s="22"/>
+      <c r="BC16" s="21"/>
       <c r="BD16" s="1"/>
       <c r="BE16" s="3" t="s">
         <v>442</v>
@@ -4158,10 +4188,10 @@
         <v>479</v>
       </c>
       <c r="BJ16" s="6"/>
-      <c r="BK16" s="19" t="s">
+      <c r="BK16" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="BL16" s="20"/>
+      <c r="BL16" s="19"/>
     </row>
     <row r="17" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
@@ -4172,14 +4202,14 @@
         <v>40</v>
       </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G17" s="11"/>
-      <c r="H17" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="I17" s="20"/>
+      <c r="H17" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="I17" s="19"/>
       <c r="J17" s="1"/>
       <c r="K17" s="3" t="s">
         <v>188</v>
@@ -4189,14 +4219,14 @@
         <v>40</v>
       </c>
       <c r="N17" s="3"/>
-      <c r="O17" s="3" t="s">
+      <c r="O17" s="34" t="s">
         <v>170</v>
       </c>
       <c r="P17" s="11"/>
-      <c r="Q17" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="R17" s="20"/>
+      <c r="Q17" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="R17" s="19"/>
       <c r="S17" s="8"/>
       <c r="T17" s="3" t="s">
         <v>255</v>
@@ -4206,14 +4236,14 @@
         <v>40</v>
       </c>
       <c r="W17" s="3"/>
-      <c r="X17" s="3" t="s">
+      <c r="X17" s="34" t="s">
         <v>236</v>
       </c>
       <c r="Y17" s="10"/>
-      <c r="Z17" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA17" s="20"/>
+      <c r="Z17" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA17" s="19"/>
       <c r="AL17" s="5" t="s">
         <v>339</v>
       </c>
@@ -4227,10 +4257,10 @@
         <v>383</v>
       </c>
       <c r="AR17" s="10"/>
-      <c r="AS17" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="AT17" s="22"/>
+      <c r="AS17" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="AT17" s="21"/>
       <c r="AV17" s="2" t="s">
         <v>399</v>
       </c>
@@ -4243,8 +4273,8 @@
         <v>427</v>
       </c>
       <c r="BA17" s="6"/>
-      <c r="BB17" s="25"/>
-      <c r="BC17" s="24"/>
+      <c r="BB17" s="24"/>
+      <c r="BC17" s="23"/>
       <c r="BD17" s="1"/>
       <c r="BE17" s="3" t="s">
         <v>443</v>
@@ -4258,10 +4288,10 @@
         <v>479</v>
       </c>
       <c r="BJ17" s="6"/>
-      <c r="BK17" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL17" s="20"/>
+      <c r="BK17" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL17" s="19"/>
     </row>
     <row r="18" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
@@ -4272,14 +4302,14 @@
         <v>41</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="35" t="s">
+      <c r="F18" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G18" s="11"/>
-      <c r="H18" s="19" t="s">
+      <c r="H18" s="18" t="s">
         <v>584</v>
       </c>
-      <c r="I18" s="20"/>
+      <c r="I18" s="19"/>
       <c r="J18" s="1"/>
       <c r="K18" s="3" t="s">
         <v>189</v>
@@ -4289,14 +4319,14 @@
         <v>41</v>
       </c>
       <c r="N18" s="3"/>
-      <c r="O18" s="35" t="s">
+      <c r="O18" s="34" t="s">
         <v>170</v>
       </c>
       <c r="P18" s="11"/>
-      <c r="Q18" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="R18" s="20"/>
+      <c r="Q18" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="R18" s="19"/>
       <c r="S18" s="8"/>
       <c r="T18" s="3" t="s">
         <v>256</v>
@@ -4306,14 +4336,14 @@
         <v>41</v>
       </c>
       <c r="W18" s="3"/>
-      <c r="X18" s="35" t="s">
+      <c r="X18" s="34" t="s">
         <v>236</v>
       </c>
       <c r="Y18" s="10"/>
-      <c r="Z18" s="19" t="s">
+      <c r="Z18" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="AA18" s="20"/>
+      <c r="AA18" s="19"/>
       <c r="AL18" s="3" t="s">
         <v>340</v>
       </c>
@@ -4327,10 +4357,10 @@
         <v>383</v>
       </c>
       <c r="AR18" s="10"/>
-      <c r="AS18" s="19" t="s">
+      <c r="AS18" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="AT18" s="20"/>
+      <c r="AT18" s="19"/>
       <c r="AV18" s="3" t="s">
         <v>400</v>
       </c>
@@ -4343,10 +4373,10 @@
         <v>427</v>
       </c>
       <c r="BA18" s="10"/>
-      <c r="BB18" s="19" t="s">
+      <c r="BB18" s="18" t="s">
         <v>574</v>
       </c>
-      <c r="BC18" s="20"/>
+      <c r="BC18" s="19"/>
       <c r="BD18" s="1"/>
       <c r="BE18" s="2" t="s">
         <v>444</v>
@@ -4360,10 +4390,10 @@
         <v>480</v>
       </c>
       <c r="BJ18" s="6"/>
-      <c r="BK18" s="28" t="s">
+      <c r="BK18" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="BL18" s="29"/>
+      <c r="BL18" s="28"/>
     </row>
     <row r="19" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
@@ -4374,14 +4404,14 @@
         <v>42</v>
       </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="35" t="s">
+      <c r="F19" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G19" s="11"/>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="18" t="s">
         <v>571</v>
       </c>
-      <c r="I19" s="20"/>
+      <c r="I19" s="19"/>
       <c r="J19" s="1"/>
       <c r="K19" s="3" t="s">
         <v>190</v>
@@ -4391,14 +4421,14 @@
         <v>42</v>
       </c>
       <c r="N19" s="3"/>
-      <c r="O19" s="35" t="s">
+      <c r="O19" s="34" t="s">
         <v>170</v>
       </c>
       <c r="P19" s="11"/>
-      <c r="Q19" s="19" t="s">
+      <c r="Q19" s="18" t="s">
         <v>584</v>
       </c>
-      <c r="R19" s="20"/>
+      <c r="R19" s="19"/>
       <c r="S19" s="8"/>
       <c r="T19" s="3" t="s">
         <v>257</v>
@@ -4408,14 +4438,14 @@
         <v>42</v>
       </c>
       <c r="W19" s="3"/>
-      <c r="X19" s="35" t="s">
+      <c r="X19" s="34" t="s">
         <v>236</v>
       </c>
       <c r="Y19" s="10"/>
-      <c r="Z19" s="19" t="s">
+      <c r="Z19" s="18" t="s">
         <v>584</v>
       </c>
-      <c r="AA19" s="20"/>
+      <c r="AA19" s="19"/>
       <c r="AL19" s="2" t="s">
         <v>341</v>
       </c>
@@ -4429,10 +4459,10 @@
         <v>383</v>
       </c>
       <c r="AR19" s="10"/>
-      <c r="AS19" s="25" t="s">
+      <c r="AS19" s="24" t="s">
         <v>575</v>
       </c>
-      <c r="AT19" s="24"/>
+      <c r="AT19" s="23"/>
       <c r="AV19" s="3" t="s">
         <v>401</v>
       </c>
@@ -4445,10 +4475,10 @@
         <v>427</v>
       </c>
       <c r="BA19" s="10"/>
-      <c r="BB19" s="19" t="s">
+      <c r="BB19" s="18" t="s">
         <v>570</v>
       </c>
-      <c r="BC19" s="20"/>
+      <c r="BC19" s="19"/>
       <c r="BD19" s="1"/>
       <c r="BE19" s="2" t="s">
         <v>445</v>
@@ -4462,10 +4492,10 @@
         <v>480</v>
       </c>
       <c r="BJ19" s="6"/>
-      <c r="BK19" s="28" t="s">
+      <c r="BK19" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="BL19" s="29"/>
+      <c r="BL19" s="28"/>
     </row>
     <row r="20" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
@@ -4476,14 +4506,14 @@
         <v>43</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="35" t="s">
+      <c r="F20" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G20" s="11"/>
-      <c r="H20" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="I20" s="22"/>
+      <c r="H20" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="I20" s="21"/>
       <c r="J20" s="1"/>
       <c r="K20" s="4" t="s">
         <v>191</v>
@@ -4493,14 +4523,14 @@
         <v>43</v>
       </c>
       <c r="N20" s="4"/>
-      <c r="O20" s="35" t="s">
+      <c r="O20" s="34" t="s">
         <v>170</v>
       </c>
       <c r="P20" s="11"/>
-      <c r="Q20" s="21" t="s">
+      <c r="Q20" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="R20" s="22"/>
+      <c r="R20" s="21"/>
       <c r="S20" s="8"/>
       <c r="T20" s="4" t="s">
         <v>258</v>
@@ -4510,14 +4540,14 @@
         <v>43</v>
       </c>
       <c r="W20" s="4"/>
-      <c r="X20" s="35" t="s">
+      <c r="X20" s="34" t="s">
         <v>236</v>
       </c>
       <c r="Y20" s="10"/>
-      <c r="Z20" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA20" s="22"/>
+      <c r="Z20" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA20" s="21"/>
       <c r="AL20" s="4" t="s">
         <v>489</v>
       </c>
@@ -4531,10 +4561,10 @@
         <v>383</v>
       </c>
       <c r="AR20" s="10"/>
-      <c r="AS20" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="AT20" s="22"/>
+      <c r="AS20" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="AT20" s="21"/>
       <c r="AV20" s="3" t="s">
         <v>402</v>
       </c>
@@ -4546,11 +4576,11 @@
       <c r="AZ20" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="BA20" s="6"/>
-      <c r="BB20" s="19" t="s">
+      <c r="BA20" s="10"/>
+      <c r="BB20" s="18" t="s">
         <v>570</v>
       </c>
-      <c r="BC20" s="20"/>
+      <c r="BC20" s="19"/>
       <c r="BD20" s="1"/>
       <c r="BE20" s="2" t="s">
         <v>446</v>
@@ -4564,10 +4594,10 @@
         <v>480</v>
       </c>
       <c r="BJ20" s="6"/>
-      <c r="BK20" s="28" t="s">
+      <c r="BK20" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="BL20" s="29"/>
+      <c r="BL20" s="28"/>
     </row>
     <row r="21" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
@@ -4578,14 +4608,14 @@
         <v>44</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="35" t="s">
+      <c r="F21" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G21" s="11"/>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="24" t="s">
         <v>584</v>
       </c>
-      <c r="I21" s="24"/>
+      <c r="I21" s="23"/>
       <c r="J21" s="1"/>
       <c r="K21" s="3" t="s">
         <v>192</v>
@@ -4595,14 +4625,14 @@
         <v>44</v>
       </c>
       <c r="N21" s="3"/>
-      <c r="O21" s="35" t="s">
+      <c r="O21" s="34" t="s">
         <v>170</v>
       </c>
       <c r="P21" s="11"/>
-      <c r="Q21" s="19" t="s">
+      <c r="Q21" s="18" t="s">
         <v>581</v>
       </c>
-      <c r="R21" s="20"/>
+      <c r="R21" s="19"/>
       <c r="S21" s="8"/>
       <c r="T21" s="3" t="s">
         <v>259</v>
@@ -4612,14 +4642,14 @@
         <v>44</v>
       </c>
       <c r="W21" s="3"/>
-      <c r="X21" s="35" t="s">
+      <c r="X21" s="34" t="s">
         <v>236</v>
       </c>
       <c r="Y21" s="10"/>
-      <c r="Z21" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA21" s="20"/>
+      <c r="Z21" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA21" s="19"/>
       <c r="AL21" s="4" t="s">
         <v>342</v>
       </c>
@@ -4633,10 +4663,10 @@
         <v>383</v>
       </c>
       <c r="AR21" s="10"/>
-      <c r="AS21" s="21" t="s">
+      <c r="AS21" s="20" t="s">
         <v>577</v>
       </c>
-      <c r="AT21" s="22"/>
+      <c r="AT21" s="21"/>
       <c r="AV21" s="3" t="s">
         <v>403</v>
       </c>
@@ -4649,10 +4679,10 @@
         <v>427</v>
       </c>
       <c r="BA21" s="10"/>
-      <c r="BB21" s="19" t="s">
+      <c r="BB21" s="18" t="s">
         <v>570</v>
       </c>
-      <c r="BC21" s="20"/>
+      <c r="BC21" s="19"/>
       <c r="BD21" s="1"/>
       <c r="BE21" s="2" t="s">
         <v>447</v>
@@ -4666,10 +4696,10 @@
         <v>480</v>
       </c>
       <c r="BJ21" s="6"/>
-      <c r="BK21" s="28" t="s">
+      <c r="BK21" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="BL21" s="29"/>
+      <c r="BL21" s="28"/>
       <c r="BN21" t="s">
         <v>596</v>
       </c>
@@ -4683,14 +4713,14 @@
         <v>45</v>
       </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G22" s="11"/>
-      <c r="H22" s="25" t="s">
-        <v>576</v>
-      </c>
-      <c r="I22" s="24"/>
+      <c r="H22" s="24" t="s">
+        <v>576</v>
+      </c>
+      <c r="I22" s="23"/>
       <c r="J22" s="1"/>
       <c r="K22" s="2" t="s">
         <v>193</v>
@@ -4700,14 +4730,14 @@
         <v>45</v>
       </c>
       <c r="N22" s="2"/>
-      <c r="O22" s="2" t="s">
+      <c r="O22" s="34" t="s">
         <v>170</v>
       </c>
       <c r="P22" s="10"/>
-      <c r="Q22" s="28" t="s">
+      <c r="Q22" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="R22" s="29"/>
+      <c r="R22" s="28"/>
       <c r="S22" s="8"/>
       <c r="T22" s="2" t="s">
         <v>260</v>
@@ -4717,14 +4747,14 @@
         <v>45</v>
       </c>
       <c r="W22" s="2"/>
-      <c r="X22" s="2" t="s">
+      <c r="X22" s="34" t="s">
         <v>236</v>
       </c>
       <c r="Y22" s="10"/>
-      <c r="Z22" s="28" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA22" s="29"/>
+      <c r="Z22" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA22" s="28"/>
       <c r="AL22" s="4" t="s">
         <v>343</v>
       </c>
@@ -4738,10 +4768,10 @@
         <v>383</v>
       </c>
       <c r="AR22" s="10"/>
-      <c r="AS22" s="21" t="s">
+      <c r="AS22" s="20" t="s">
         <v>577</v>
       </c>
-      <c r="AT22" s="22"/>
+      <c r="AT22" s="21"/>
       <c r="AV22" s="3" t="s">
         <v>404</v>
       </c>
@@ -4754,10 +4784,10 @@
         <v>427</v>
       </c>
       <c r="BA22" s="10"/>
-      <c r="BB22" s="19" t="s">
+      <c r="BB22" s="18" t="s">
         <v>570</v>
       </c>
-      <c r="BC22" s="20"/>
+      <c r="BC22" s="19"/>
       <c r="BD22" s="1"/>
       <c r="BE22" s="2" t="s">
         <v>448</v>
@@ -4771,10 +4801,10 @@
         <v>480</v>
       </c>
       <c r="BJ22" s="6"/>
-      <c r="BK22" s="28" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL22" s="29"/>
+      <c r="BK22" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL22" s="28"/>
     </row>
     <row r="23" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
@@ -4785,14 +4815,14 @@
         <v>46</v>
       </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G23" s="11"/>
-      <c r="H23" s="19" t="s">
+      <c r="H23" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="I23" s="20"/>
+      <c r="I23" s="19"/>
       <c r="J23" s="1"/>
       <c r="K23" s="3" t="s">
         <v>181</v>
@@ -4802,14 +4832,14 @@
         <v>46</v>
       </c>
       <c r="N23" s="3"/>
-      <c r="O23" s="3" t="s">
+      <c r="O23" s="34" t="s">
         <v>170</v>
       </c>
       <c r="P23" s="11"/>
-      <c r="Q23" s="19" t="s">
+      <c r="Q23" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="R23" s="20"/>
+      <c r="R23" s="19"/>
       <c r="S23" s="8"/>
       <c r="T23" s="3" t="s">
         <v>253</v>
@@ -4819,14 +4849,14 @@
         <v>46</v>
       </c>
       <c r="W23" s="3"/>
-      <c r="X23" s="3" t="s">
+      <c r="X23" s="34" t="s">
         <v>236</v>
       </c>
       <c r="Y23" s="10"/>
-      <c r="Z23" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA23" s="20"/>
+      <c r="Z23" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA23" s="19"/>
       <c r="AL23" s="4" t="s">
         <v>344</v>
       </c>
@@ -4840,10 +4870,10 @@
         <v>383</v>
       </c>
       <c r="AR23" s="10"/>
-      <c r="AS23" s="21" t="s">
+      <c r="AS23" s="20" t="s">
         <v>577</v>
       </c>
-      <c r="AT23" s="22"/>
+      <c r="AT23" s="21"/>
       <c r="AV23" s="3" t="s">
         <v>405</v>
       </c>
@@ -4856,10 +4886,10 @@
         <v>427</v>
       </c>
       <c r="BA23" s="6"/>
-      <c r="BB23" s="19" t="s">
+      <c r="BB23" s="18" t="s">
         <v>570</v>
       </c>
-      <c r="BC23" s="20"/>
+      <c r="BC23" s="19"/>
       <c r="BD23" s="1"/>
       <c r="BE23" s="2" t="s">
         <v>449</v>
@@ -4873,14 +4903,14 @@
         <v>480</v>
       </c>
       <c r="BJ23" s="6"/>
-      <c r="BK23" s="28" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL23" s="29"/>
+      <c r="BK23" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL23" s="28"/>
     </row>
     <row r="24" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
@@ -4891,10 +4921,10 @@
         <v>3</v>
       </c>
       <c r="G24" s="11"/>
-      <c r="H24" s="19" t="s">
+      <c r="H24" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="I24" s="20"/>
+      <c r="I24" s="19"/>
       <c r="J24" s="1"/>
       <c r="K24" s="3" t="s">
         <v>194</v>
@@ -4908,10 +4938,10 @@
         <v>170</v>
       </c>
       <c r="P24" s="11"/>
-      <c r="Q24" s="19" t="s">
+      <c r="Q24" s="18" t="s">
         <v>581</v>
       </c>
-      <c r="R24" s="20"/>
+      <c r="R24" s="19"/>
       <c r="S24" s="8"/>
       <c r="T24" s="3" t="s">
         <v>261</v>
@@ -4925,10 +4955,10 @@
         <v>236</v>
       </c>
       <c r="Y24" s="10"/>
-      <c r="Z24" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA24" s="20"/>
+      <c r="Z24" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA24" s="19"/>
       <c r="AL24" s="4" t="s">
         <v>345</v>
       </c>
@@ -4942,10 +4972,10 @@
         <v>383</v>
       </c>
       <c r="AR24" s="10"/>
-      <c r="AS24" s="21" t="s">
+      <c r="AS24" s="20" t="s">
         <v>577</v>
       </c>
-      <c r="AT24" s="22"/>
+      <c r="AT24" s="21"/>
       <c r="AV24" s="3" t="s">
         <v>492</v>
       </c>
@@ -4958,10 +4988,10 @@
         <v>427</v>
       </c>
       <c r="BA24" s="10"/>
-      <c r="BB24" s="19" t="s">
+      <c r="BB24" s="18" t="s">
         <v>572</v>
       </c>
-      <c r="BC24" s="20"/>
+      <c r="BC24" s="19"/>
       <c r="BD24" s="1"/>
       <c r="BE24" s="2" t="s">
         <v>450</v>
@@ -4975,10 +5005,10 @@
         <v>480</v>
       </c>
       <c r="BJ24" s="6"/>
-      <c r="BK24" s="28" t="s">
+      <c r="BK24" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="BL24" s="29"/>
+      <c r="BL24" s="28"/>
     </row>
     <row r="25" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
@@ -4989,14 +5019,14 @@
         <v>48</v>
       </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="35" t="s">
+      <c r="F25" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G25" s="11"/>
-      <c r="H25" s="25" t="s">
-        <v>576</v>
-      </c>
-      <c r="I25" s="24"/>
+      <c r="H25" s="24" t="s">
+        <v>576</v>
+      </c>
+      <c r="I25" s="23"/>
       <c r="J25" s="1"/>
       <c r="K25" s="2" t="s">
         <v>195</v>
@@ -5006,14 +5036,14 @@
         <v>48</v>
       </c>
       <c r="N25" s="2"/>
-      <c r="O25" s="35" t="s">
+      <c r="O25" s="34" t="s">
         <v>170</v>
       </c>
       <c r="P25" s="11"/>
-      <c r="Q25" s="28" t="s">
+      <c r="Q25" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="R25" s="29"/>
+      <c r="R25" s="28"/>
       <c r="S25" s="8"/>
       <c r="T25" s="2" t="s">
         <v>262</v>
@@ -5023,14 +5053,14 @@
         <v>48</v>
       </c>
       <c r="W25" s="2"/>
-      <c r="X25" s="35" t="s">
+      <c r="X25" s="34" t="s">
         <v>236</v>
       </c>
       <c r="Y25" s="10"/>
-      <c r="Z25" s="28" t="s">
+      <c r="Z25" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="AA25" s="29"/>
+      <c r="AA25" s="28"/>
       <c r="AL25" s="4" t="s">
         <v>487</v>
       </c>
@@ -5044,10 +5074,10 @@
         <v>383</v>
       </c>
       <c r="AR25" s="10"/>
-      <c r="AS25" s="21" t="s">
+      <c r="AS25" s="20" t="s">
         <v>577</v>
       </c>
-      <c r="AT25" s="22"/>
+      <c r="AT25" s="21"/>
       <c r="AV25" s="3" t="s">
         <v>493</v>
       </c>
@@ -5060,10 +5090,10 @@
         <v>427</v>
       </c>
       <c r="BA25" s="10"/>
-      <c r="BB25" s="19" t="s">
+      <c r="BB25" s="18" t="s">
         <v>572</v>
       </c>
-      <c r="BC25" s="20"/>
+      <c r="BC25" s="19"/>
       <c r="BD25" s="1"/>
       <c r="BE25" s="2" t="s">
         <v>451</v>
@@ -5077,10 +5107,10 @@
         <v>480</v>
       </c>
       <c r="BJ25" s="6"/>
-      <c r="BK25" s="28" t="s">
+      <c r="BK25" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="BL25" s="29"/>
+      <c r="BL25" s="28"/>
     </row>
     <row r="26" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
@@ -5091,14 +5121,14 @@
         <v>49</v>
       </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="35" t="s">
+      <c r="F26" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G26" s="11"/>
-      <c r="H26" s="25" t="s">
-        <v>576</v>
-      </c>
-      <c r="I26" s="24"/>
+      <c r="H26" s="24" t="s">
+        <v>576</v>
+      </c>
+      <c r="I26" s="23"/>
       <c r="J26" s="1"/>
       <c r="K26" s="2" t="s">
         <v>196</v>
@@ -5108,14 +5138,14 @@
         <v>49</v>
       </c>
       <c r="N26" s="2"/>
-      <c r="O26" s="35" t="s">
+      <c r="O26" s="34" t="s">
         <v>170</v>
       </c>
       <c r="P26" s="11"/>
-      <c r="Q26" s="28" t="s">
+      <c r="Q26" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="R26" s="29"/>
+      <c r="R26" s="28"/>
       <c r="S26" s="8"/>
       <c r="T26" s="2" t="s">
         <v>263</v>
@@ -5125,14 +5155,14 @@
         <v>49</v>
       </c>
       <c r="W26" s="2"/>
-      <c r="X26" s="35" t="s">
+      <c r="X26" s="34" t="s">
         <v>236</v>
       </c>
       <c r="Y26" s="10"/>
-      <c r="Z26" s="28" t="s">
+      <c r="Z26" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="AA26" s="29"/>
+      <c r="AA26" s="28"/>
       <c r="AL26" s="2" t="s">
         <v>347</v>
       </c>
@@ -5146,10 +5176,10 @@
         <v>383</v>
       </c>
       <c r="AR26" s="10"/>
-      <c r="AS26" s="21" t="s">
+      <c r="AS26" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="AT26" s="22"/>
+      <c r="AT26" s="21"/>
       <c r="AV26" s="2" t="s">
         <v>494</v>
       </c>
@@ -5162,10 +5192,10 @@
         <v>427</v>
       </c>
       <c r="BA26" s="6"/>
-      <c r="BB26" s="25" t="s">
+      <c r="BB26" s="24" t="s">
         <v>572</v>
       </c>
-      <c r="BC26" s="24"/>
+      <c r="BC26" s="23"/>
       <c r="BD26" s="1"/>
       <c r="BE26" s="2" t="s">
         <v>452</v>
@@ -5179,10 +5209,10 @@
         <v>480</v>
       </c>
       <c r="BJ26" s="6"/>
-      <c r="BK26" s="28" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL26" s="29"/>
+      <c r="BK26" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL26" s="28"/>
     </row>
     <row r="27" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
@@ -5193,14 +5223,14 @@
         <v>50</v>
       </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="35" t="s">
+      <c r="F27" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G27" s="11"/>
-      <c r="H27" s="19" t="s">
+      <c r="H27" s="18" t="s">
         <v>571</v>
       </c>
-      <c r="I27" s="20"/>
+      <c r="I27" s="19"/>
       <c r="J27" s="1"/>
       <c r="K27" s="3" t="s">
         <v>197</v>
@@ -5210,14 +5240,14 @@
         <v>50</v>
       </c>
       <c r="N27" s="3"/>
-      <c r="O27" s="35" t="s">
+      <c r="O27" s="34" t="s">
         <v>170</v>
       </c>
       <c r="P27" s="11"/>
-      <c r="Q27" s="19" t="s">
+      <c r="Q27" s="18" t="s">
         <v>584</v>
       </c>
-      <c r="R27" s="20"/>
+      <c r="R27" s="19"/>
       <c r="S27" s="8"/>
       <c r="T27" s="3" t="s">
         <v>264</v>
@@ -5227,14 +5257,14 @@
         <v>50</v>
       </c>
       <c r="W27" s="3"/>
-      <c r="X27" s="35" t="s">
+      <c r="X27" s="34" t="s">
         <v>236</v>
       </c>
       <c r="Y27" s="10"/>
-      <c r="Z27" s="19" t="s">
+      <c r="Z27" s="18" t="s">
         <v>584</v>
       </c>
-      <c r="AA27" s="20"/>
+      <c r="AA27" s="19"/>
       <c r="AL27" s="3" t="s">
         <v>346</v>
       </c>
@@ -5248,26 +5278,26 @@
         <v>383</v>
       </c>
       <c r="AR27" s="10"/>
-      <c r="AS27" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="AT27" s="20"/>
-      <c r="AV27" s="39" t="s">
+      <c r="AS27" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AT27" s="19"/>
+      <c r="AV27" s="38" t="s">
         <v>495</v>
       </c>
-      <c r="AW27" s="39"/>
-      <c r="AX27" s="39" t="s">
+      <c r="AW27" s="38"/>
+      <c r="AX27" s="38" t="s">
         <v>501</v>
       </c>
-      <c r="AY27" s="39"/>
-      <c r="AZ27" s="31" t="s">
+      <c r="AY27" s="38"/>
+      <c r="AZ27" s="30" t="s">
         <v>427</v>
       </c>
-      <c r="BA27" s="34"/>
-      <c r="BB27" s="25" t="s">
+      <c r="BA27" s="33"/>
+      <c r="BB27" s="24" t="s">
         <v>572</v>
       </c>
-      <c r="BC27" s="24"/>
+      <c r="BC27" s="23"/>
       <c r="BD27" s="1"/>
       <c r="BE27" s="2" t="s">
         <v>453</v>
@@ -5281,10 +5311,10 @@
         <v>480</v>
       </c>
       <c r="BJ27" s="6"/>
-      <c r="BK27" s="28" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL27" s="29"/>
+      <c r="BK27" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL27" s="28"/>
     </row>
     <row r="28" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
@@ -5295,14 +5325,14 @@
         <v>51</v>
       </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="35" t="s">
+      <c r="F28" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G28" s="11"/>
-      <c r="H28" s="25" t="s">
+      <c r="H28" s="24" t="s">
         <v>584</v>
       </c>
-      <c r="I28" s="24"/>
+      <c r="I28" s="23"/>
       <c r="J28" s="1"/>
       <c r="K28" s="2" t="s">
         <v>198</v>
@@ -5312,14 +5342,14 @@
         <v>51</v>
       </c>
       <c r="N28" s="2"/>
-      <c r="O28" s="35" t="s">
+      <c r="O28" s="34" t="s">
         <v>170</v>
       </c>
       <c r="P28" s="11"/>
-      <c r="Q28" s="28" t="s">
+      <c r="Q28" s="27" t="s">
         <v>581</v>
       </c>
-      <c r="R28" s="29"/>
+      <c r="R28" s="28"/>
       <c r="S28" s="8"/>
       <c r="T28" s="2" t="s">
         <v>265</v>
@@ -5329,14 +5359,14 @@
         <v>51</v>
       </c>
       <c r="W28" s="2"/>
-      <c r="X28" s="35" t="s">
+      <c r="X28" s="34" t="s">
         <v>236</v>
       </c>
       <c r="Y28" s="10"/>
-      <c r="Z28" s="28" t="s">
+      <c r="Z28" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="AA28" s="29"/>
+      <c r="AA28" s="28"/>
       <c r="AL28" s="3" t="s">
         <v>348</v>
       </c>
@@ -5350,10 +5380,10 @@
         <v>383</v>
       </c>
       <c r="AR28" s="10"/>
-      <c r="AS28" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="AT28" s="20"/>
+      <c r="AS28" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AT28" s="19"/>
       <c r="AV28" s="3" t="s">
         <v>496</v>
       </c>
@@ -5383,10 +5413,10 @@
         <v>480</v>
       </c>
       <c r="BJ28" s="6"/>
-      <c r="BK28" s="28" t="s">
+      <c r="BK28" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="BL28" s="29"/>
+      <c r="BL28" s="28"/>
     </row>
     <row r="29" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
@@ -5397,14 +5427,14 @@
         <v>52</v>
       </c>
       <c r="E29" s="3"/>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G29" s="11"/>
-      <c r="H29" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="I29" s="20"/>
+      <c r="H29" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="I29" s="19"/>
       <c r="J29" s="1"/>
       <c r="K29" s="3" t="s">
         <v>199</v>
@@ -5414,14 +5444,14 @@
         <v>52</v>
       </c>
       <c r="N29" s="3"/>
-      <c r="O29" s="3" t="s">
+      <c r="O29" s="34" t="s">
         <v>170</v>
       </c>
       <c r="P29" s="10"/>
-      <c r="Q29" s="19" t="s">
+      <c r="Q29" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="R29" s="20"/>
+      <c r="R29" s="19"/>
       <c r="S29" s="8"/>
       <c r="T29" s="3" t="s">
         <v>266</v>
@@ -5431,14 +5461,14 @@
         <v>52</v>
       </c>
       <c r="W29" s="3"/>
-      <c r="X29" s="3" t="s">
+      <c r="X29" s="34" t="s">
         <v>236</v>
       </c>
       <c r="Y29" s="10"/>
-      <c r="Z29" s="19" t="s">
+      <c r="Z29" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="AA29" s="20"/>
+      <c r="AA29" s="19"/>
       <c r="AL29" s="3" t="s">
         <v>349</v>
       </c>
@@ -5452,10 +5482,10 @@
         <v>383</v>
       </c>
       <c r="AR29" s="10"/>
-      <c r="AS29" s="19" t="s">
+      <c r="AS29" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="AT29" s="20"/>
+      <c r="AT29" s="19"/>
       <c r="AV29" s="3" t="s">
         <v>497</v>
       </c>
@@ -5485,10 +5515,10 @@
         <v>480</v>
       </c>
       <c r="BJ29" s="6"/>
-      <c r="BK29" s="28" t="s">
+      <c r="BK29" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="BL29" s="29"/>
+      <c r="BL29" s="28"/>
     </row>
     <row r="30" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
@@ -5499,14 +5529,14 @@
         <v>53</v>
       </c>
       <c r="E30" s="3"/>
-      <c r="F30" s="35" t="s">
+      <c r="F30" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G30" s="11"/>
-      <c r="H30" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="I30" s="20"/>
+      <c r="H30" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="I30" s="19"/>
       <c r="J30" s="1"/>
       <c r="K30" s="3" t="s">
         <v>200</v>
@@ -5516,14 +5546,14 @@
         <v>53</v>
       </c>
       <c r="N30" s="3"/>
-      <c r="O30" s="35" t="s">
+      <c r="O30" s="34" t="s">
         <v>170</v>
       </c>
       <c r="P30" s="11"/>
-      <c r="Q30" s="19" t="s">
+      <c r="Q30" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="R30" s="20"/>
+      <c r="R30" s="19"/>
       <c r="S30" s="8"/>
       <c r="T30" s="3" t="s">
         <v>267</v>
@@ -5533,14 +5563,14 @@
         <v>53</v>
       </c>
       <c r="W30" s="3"/>
-      <c r="X30" s="35" t="s">
+      <c r="X30" s="34" t="s">
         <v>236</v>
       </c>
       <c r="Y30" s="10"/>
-      <c r="Z30" s="19" t="s">
+      <c r="Z30" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="AA30" s="20"/>
+      <c r="AA30" s="19"/>
       <c r="AL30" s="3" t="s">
         <v>350</v>
       </c>
@@ -5554,10 +5584,10 @@
         <v>383</v>
       </c>
       <c r="AR30" s="10"/>
-      <c r="AS30" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="AT30" s="20"/>
+      <c r="AS30" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AT30" s="19"/>
       <c r="AV30" s="3" t="s">
         <v>544</v>
       </c>
@@ -5566,7 +5596,7 @@
         <v>545</v>
       </c>
       <c r="AY30" s="3"/>
-      <c r="AZ30" s="40" t="s">
+      <c r="AZ30" s="39" t="s">
         <v>426</v>
       </c>
       <c r="BA30" s="10"/>
@@ -5587,10 +5617,10 @@
         <v>480</v>
       </c>
       <c r="BJ30" s="6"/>
-      <c r="BK30" s="28" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL30" s="29"/>
+      <c r="BK30" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL30" s="28"/>
     </row>
     <row r="31" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
@@ -5601,14 +5631,14 @@
         <v>69</v>
       </c>
       <c r="E31" s="3"/>
-      <c r="F31" s="35" t="s">
+      <c r="F31" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G31" s="11"/>
-      <c r="H31" s="19" t="s">
+      <c r="H31" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="I31" s="20"/>
+      <c r="I31" s="19"/>
       <c r="J31" s="1"/>
       <c r="K31" s="3" t="s">
         <v>201</v>
@@ -5618,14 +5648,14 @@
         <v>69</v>
       </c>
       <c r="N31" s="3"/>
-      <c r="O31" s="35" t="s">
+      <c r="O31" s="34" t="s">
         <v>170</v>
       </c>
       <c r="P31" s="11"/>
-      <c r="Q31" s="19" t="s">
+      <c r="Q31" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="R31" s="20"/>
+      <c r="R31" s="19"/>
       <c r="S31" s="8"/>
       <c r="T31" s="3" t="s">
         <v>268</v>
@@ -5635,20 +5665,20 @@
         <v>69</v>
       </c>
       <c r="W31" s="3"/>
-      <c r="X31" s="35" t="s">
+      <c r="X31" s="34" t="s">
         <v>236</v>
       </c>
       <c r="Y31" s="10"/>
-      <c r="Z31" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA31" s="20"/>
+      <c r="Z31" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA31" s="19"/>
       <c r="AL31" s="3" t="s">
-        <v>351</v>
+        <v>631</v>
       </c>
       <c r="AM31" s="3"/>
       <c r="AN31" s="3" t="s">
-        <v>374</v>
+        <v>632</v>
       </c>
       <c r="AO31" s="3"/>
       <c r="AP31" s="3"/>
@@ -5656,10 +5686,10 @@
         <v>383</v>
       </c>
       <c r="AR31" s="10"/>
-      <c r="AS31" s="19" t="s">
+      <c r="AS31" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="AT31" s="20"/>
+      <c r="AT31" s="19"/>
       <c r="AV31" s="3" t="s">
         <v>554</v>
       </c>
@@ -5689,10 +5719,10 @@
         <v>480</v>
       </c>
       <c r="BJ31" s="6"/>
-      <c r="BK31" s="28" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL31" s="29"/>
+      <c r="BK31" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL31" s="28"/>
     </row>
     <row r="32" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
@@ -5703,14 +5733,14 @@
         <v>70</v>
       </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="35" t="s">
+      <c r="F32" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G32" s="11"/>
-      <c r="H32" s="25" t="s">
+      <c r="H32" s="24" t="s">
         <v>580</v>
       </c>
-      <c r="I32" s="24"/>
+      <c r="I32" s="23"/>
       <c r="J32" s="1"/>
       <c r="K32" s="2" t="s">
         <v>202</v>
@@ -5720,14 +5750,14 @@
         <v>70</v>
       </c>
       <c r="N32" s="2"/>
-      <c r="O32" s="35" t="s">
+      <c r="O32" s="34" t="s">
         <v>170</v>
       </c>
       <c r="P32" s="11"/>
-      <c r="Q32" s="28" t="s">
+      <c r="Q32" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="R32" s="29"/>
+      <c r="R32" s="28"/>
       <c r="S32" s="8"/>
       <c r="T32" s="2" t="s">
         <v>269</v>
@@ -5737,20 +5767,20 @@
         <v>70</v>
       </c>
       <c r="W32" s="2"/>
-      <c r="X32" s="35" t="s">
+      <c r="X32" s="34" t="s">
         <v>236</v>
       </c>
       <c r="Y32" s="10"/>
-      <c r="Z32" s="28" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA32" s="29"/>
+      <c r="Z32" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA32" s="28"/>
       <c r="AL32" s="3" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="AM32" s="3"/>
       <c r="AN32" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AO32" s="3"/>
       <c r="AP32" s="3"/>
@@ -5758,10 +5788,10 @@
         <v>383</v>
       </c>
       <c r="AR32" s="10"/>
-      <c r="AS32" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="AT32" s="20"/>
+      <c r="AS32" s="18" t="s">
+        <v>580</v>
+      </c>
+      <c r="AT32" s="19"/>
       <c r="AV32" s="3" t="s">
         <v>556</v>
       </c>
@@ -5791,10 +5821,10 @@
         <v>480</v>
       </c>
       <c r="BJ32" s="6"/>
-      <c r="BK32" s="28" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL32" s="29"/>
+      <c r="BK32" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL32" s="28"/>
     </row>
     <row r="33" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
@@ -5805,14 +5835,14 @@
         <v>71</v>
       </c>
       <c r="E33" s="2"/>
-      <c r="F33" s="35" t="s">
+      <c r="F33" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G33" s="11"/>
-      <c r="H33" s="25" t="s">
+      <c r="H33" s="24" t="s">
         <v>580</v>
       </c>
-      <c r="I33" s="24"/>
+      <c r="I33" s="23"/>
       <c r="J33" s="1"/>
       <c r="K33" s="2" t="s">
         <v>203</v>
@@ -5822,14 +5852,14 @@
         <v>71</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" s="35" t="s">
+      <c r="O33" s="34" t="s">
         <v>170</v>
       </c>
       <c r="P33" s="11"/>
-      <c r="Q33" s="28" t="s">
+      <c r="Q33" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="R33" s="29"/>
+      <c r="R33" s="28"/>
       <c r="S33" s="8"/>
       <c r="T33" s="2" t="s">
         <v>270</v>
@@ -5839,20 +5869,20 @@
         <v>71</v>
       </c>
       <c r="W33" s="2"/>
-      <c r="X33" s="35" t="s">
+      <c r="X33" s="34" t="s">
         <v>236</v>
       </c>
       <c r="Y33" s="10"/>
-      <c r="Z33" s="28" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA33" s="29"/>
+      <c r="Z33" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA33" s="28"/>
       <c r="AL33" s="3" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="AM33" s="3"/>
       <c r="AN33" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AO33" s="3"/>
       <c r="AP33" s="3"/>
@@ -5860,10 +5890,10 @@
         <v>383</v>
       </c>
       <c r="AR33" s="10"/>
-      <c r="AS33" s="19" t="s">
-        <v>580</v>
-      </c>
-      <c r="AT33" s="20"/>
+      <c r="AS33" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AT33" s="19"/>
       <c r="AV33" s="3" t="s">
         <v>597</v>
       </c>
@@ -5872,7 +5902,7 @@
         <v>598</v>
       </c>
       <c r="AY33" s="3"/>
-      <c r="AZ33" s="3" t="s">
+      <c r="AZ33" s="35" t="s">
         <v>427</v>
       </c>
       <c r="BA33" s="10"/>
@@ -5893,10 +5923,10 @@
         <v>480</v>
       </c>
       <c r="BJ33" s="6"/>
-      <c r="BK33" s="28" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL33" s="29"/>
+      <c r="BK33" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL33" s="28"/>
     </row>
     <row r="34" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
@@ -5907,14 +5937,14 @@
         <v>74</v>
       </c>
       <c r="E34" s="3"/>
-      <c r="F34" s="35" t="s">
+      <c r="F34" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G34" s="11"/>
-      <c r="H34" s="19" t="s">
+      <c r="H34" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="I34" s="20"/>
+      <c r="I34" s="19"/>
       <c r="J34" s="1"/>
       <c r="K34" s="3" t="s">
         <v>204</v>
@@ -5924,14 +5954,14 @@
         <v>74</v>
       </c>
       <c r="N34" s="3"/>
-      <c r="O34" s="35" t="s">
+      <c r="O34" s="34" t="s">
         <v>170</v>
       </c>
       <c r="P34" s="11"/>
-      <c r="Q34" s="19" t="s">
+      <c r="Q34" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="R34" s="20"/>
+      <c r="R34" s="19"/>
       <c r="S34" s="8"/>
       <c r="T34" s="3" t="s">
         <v>271</v>
@@ -5941,20 +5971,20 @@
         <v>74</v>
       </c>
       <c r="W34" s="3"/>
-      <c r="X34" s="35" t="s">
+      <c r="X34" s="34" t="s">
         <v>236</v>
       </c>
       <c r="Y34" s="10"/>
-      <c r="Z34" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA34" s="20"/>
+      <c r="Z34" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA34" s="19"/>
       <c r="AL34" s="3" t="s">
-        <v>353</v>
+        <v>629</v>
       </c>
       <c r="AM34" s="3"/>
       <c r="AN34" s="3" t="s">
-        <v>378</v>
+        <v>630</v>
       </c>
       <c r="AO34" s="3"/>
       <c r="AP34" s="3"/>
@@ -5962,16 +5992,16 @@
         <v>383</v>
       </c>
       <c r="AR34" s="10"/>
-      <c r="AS34" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="AT34" s="20"/>
+      <c r="AS34" s="18" t="s">
+        <v>580</v>
+      </c>
+      <c r="AT34" s="19"/>
       <c r="AV34" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AW34" s="4"/>
       <c r="AX34" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AY34" s="4"/>
       <c r="AZ34" s="4" t="s">
@@ -5994,10 +6024,10 @@
         <v>480</v>
       </c>
       <c r="BJ34" s="6"/>
-      <c r="BK34" s="28" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL34" s="29"/>
+      <c r="BK34" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL34" s="28"/>
     </row>
     <row r="35" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
@@ -6008,14 +6038,14 @@
         <v>75</v>
       </c>
       <c r="E35" s="3"/>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G35" s="11"/>
-      <c r="H35" s="19" t="s">
+      <c r="H35" s="18" t="s">
         <v>570</v>
       </c>
-      <c r="I35" s="20"/>
+      <c r="I35" s="19"/>
       <c r="J35" s="1"/>
       <c r="K35" s="3" t="s">
         <v>205</v>
@@ -6025,14 +6055,14 @@
         <v>75</v>
       </c>
       <c r="N35" s="3"/>
-      <c r="O35" s="3" t="s">
+      <c r="O35" s="34" t="s">
         <v>170</v>
       </c>
       <c r="P35" s="11"/>
-      <c r="Q35" s="19" t="s">
+      <c r="Q35" s="18" t="s">
         <v>570</v>
       </c>
-      <c r="R35" s="20"/>
+      <c r="R35" s="19"/>
       <c r="S35" s="8"/>
       <c r="T35" s="3" t="s">
         <v>272</v>
@@ -6042,20 +6072,20 @@
         <v>75</v>
       </c>
       <c r="W35" s="3"/>
-      <c r="X35" s="3" t="s">
+      <c r="X35" s="34" t="s">
         <v>236</v>
       </c>
       <c r="Y35" s="10"/>
-      <c r="Z35" s="19" t="s">
+      <c r="Z35" s="18" t="s">
         <v>587</v>
       </c>
-      <c r="AA35" s="20"/>
+      <c r="AA35" s="19"/>
       <c r="AL35" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AM35" s="3"/>
       <c r="AN35" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AO35" s="3"/>
       <c r="AP35" s="3"/>
@@ -6063,22 +6093,22 @@
         <v>383</v>
       </c>
       <c r="AR35" s="10"/>
-      <c r="AS35" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="AT35" s="20"/>
+      <c r="AS35" s="18" t="s">
+        <v>580</v>
+      </c>
+      <c r="AT35" s="19"/>
       <c r="AV35" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AW35" s="3"/>
       <c r="AX35" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AY35" s="3"/>
       <c r="AZ35" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="BA35" s="6"/>
+      <c r="BA35" s="10"/>
       <c r="BB35" s="3" t="s">
         <v>570</v>
       </c>
@@ -6095,10 +6125,10 @@
         <v>480</v>
       </c>
       <c r="BJ35" s="6"/>
-      <c r="BK35" s="28" t="s">
+      <c r="BK35" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="BL35" s="29"/>
+      <c r="BL35" s="28"/>
     </row>
     <row r="36" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
@@ -6113,10 +6143,10 @@
         <v>3</v>
       </c>
       <c r="G36" s="11"/>
-      <c r="H36" s="19" t="s">
+      <c r="H36" s="18" t="s">
         <v>570</v>
       </c>
-      <c r="I36" s="20"/>
+      <c r="I36" s="19"/>
       <c r="J36" s="1"/>
       <c r="K36" s="3" t="s">
         <v>206</v>
@@ -6126,14 +6156,14 @@
         <v>76</v>
       </c>
       <c r="N36" s="3"/>
-      <c r="O36" s="3" t="s">
+      <c r="O36" s="34" t="s">
         <v>170</v>
       </c>
       <c r="P36" s="11"/>
-      <c r="Q36" s="19" t="s">
+      <c r="Q36" s="18" t="s">
         <v>570</v>
       </c>
-      <c r="R36" s="20"/>
+      <c r="R36" s="19"/>
       <c r="S36" s="8"/>
       <c r="T36" s="3" t="s">
         <v>273</v>
@@ -6143,20 +6173,20 @@
         <v>76</v>
       </c>
       <c r="W36" s="3"/>
-      <c r="X36" s="3" t="s">
+      <c r="X36" s="34" t="s">
         <v>236</v>
       </c>
       <c r="Y36" s="10"/>
-      <c r="Z36" s="19" t="s">
+      <c r="Z36" s="18" t="s">
         <v>587</v>
       </c>
-      <c r="AA36" s="20"/>
+      <c r="AA36" s="19"/>
       <c r="AL36" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AM36" s="3"/>
       <c r="AN36" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AO36" s="3"/>
       <c r="AP36" s="3"/>
@@ -6164,22 +6194,22 @@
         <v>383</v>
       </c>
       <c r="AR36" s="10"/>
-      <c r="AS36" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="AT36" s="20"/>
+      <c r="AS36" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AT36" s="19"/>
       <c r="AV36" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AW36" s="3"/>
       <c r="AX36" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AY36" s="3"/>
       <c r="AZ36" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="BA36" s="6"/>
+      <c r="BA36" s="10"/>
       <c r="BB36" s="3" t="s">
         <v>571</v>
       </c>
@@ -6196,10 +6226,10 @@
         <v>480</v>
       </c>
       <c r="BJ36" s="6"/>
-      <c r="BK36" s="28" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL36" s="29"/>
+      <c r="BK36" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL36" s="28"/>
     </row>
     <row r="37" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
@@ -6210,14 +6240,14 @@
         <v>77</v>
       </c>
       <c r="E37" s="3"/>
-      <c r="F37" s="35" t="s">
+      <c r="F37" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G37" s="11"/>
-      <c r="H37" s="19" t="s">
+      <c r="H37" s="18" t="s">
         <v>570</v>
       </c>
-      <c r="I37" s="20"/>
+      <c r="I37" s="19"/>
       <c r="J37" s="1"/>
       <c r="K37" s="3" t="s">
         <v>207</v>
@@ -6227,14 +6257,14 @@
         <v>77</v>
       </c>
       <c r="N37" s="3"/>
-      <c r="O37" s="35" t="s">
+      <c r="O37" s="34" t="s">
         <v>170</v>
       </c>
       <c r="P37" s="11"/>
-      <c r="Q37" s="19" t="s">
+      <c r="Q37" s="18" t="s">
         <v>571</v>
       </c>
-      <c r="R37" s="20"/>
+      <c r="R37" s="19"/>
       <c r="S37" s="8"/>
       <c r="T37" s="3" t="s">
         <v>274</v>
@@ -6244,45 +6274,45 @@
         <v>77</v>
       </c>
       <c r="W37" s="3"/>
-      <c r="X37" s="35" t="s">
+      <c r="X37" s="34" t="s">
         <v>236</v>
       </c>
       <c r="Y37" s="10"/>
-      <c r="Z37" s="19" t="s">
+      <c r="Z37" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="AA37" s="20"/>
+      <c r="AA37" s="19"/>
       <c r="AL37" s="3" t="s">
-        <v>356</v>
+        <v>627</v>
       </c>
       <c r="AM37" s="3"/>
       <c r="AN37" s="3" t="s">
-        <v>381</v>
+        <v>628</v>
       </c>
       <c r="AO37" s="3"/>
       <c r="AP37" s="3"/>
-      <c r="AQ37" s="3" t="s">
+      <c r="AQ37" s="34" t="s">
         <v>383</v>
       </c>
       <c r="AR37" s="10"/>
-      <c r="AS37" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="AT37" s="20"/>
+      <c r="AS37" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AT37" s="19"/>
       <c r="AV37" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AW37" s="3"/>
       <c r="AX37" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AY37" s="3"/>
       <c r="AZ37" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="BA37" s="6"/>
+      <c r="BA37" s="10"/>
       <c r="BB37" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="BC37" s="3"/>
       <c r="BE37" s="2" t="s">
@@ -6297,28 +6327,30 @@
         <v>480</v>
       </c>
       <c r="BJ37" s="6"/>
-      <c r="BK37" s="28" t="s">
+      <c r="BK37" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="BL37" s="29"/>
+      <c r="BL37" s="28"/>
     </row>
     <row r="38" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C38" s="2"/>
-      <c r="D38" s="2">
-        <v>2</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2" t="s">
+      <c r="D38" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="F38" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G38" s="11"/>
-      <c r="H38" s="25" t="s">
+      <c r="H38" s="24" t="s">
         <v>580</v>
       </c>
-      <c r="I38" s="24"/>
+      <c r="I38" s="23"/>
       <c r="J38" s="1"/>
       <c r="K38" s="2" t="s">
         <v>208</v>
@@ -6328,14 +6360,14 @@
         <v>78</v>
       </c>
       <c r="N38" s="2"/>
-      <c r="O38" s="2" t="s">
+      <c r="O38" s="34" t="s">
         <v>170</v>
       </c>
       <c r="P38" s="11"/>
-      <c r="Q38" s="28" t="s">
+      <c r="Q38" s="27" t="s">
         <v>571</v>
       </c>
-      <c r="R38" s="29"/>
+      <c r="R38" s="28"/>
       <c r="S38" s="8"/>
       <c r="T38" s="2" t="s">
         <v>275</v>
@@ -6345,31 +6377,31 @@
         <v>78</v>
       </c>
       <c r="W38" s="2"/>
-      <c r="X38" s="2" t="s">
+      <c r="X38" s="34" t="s">
         <v>236</v>
       </c>
       <c r="Y38" s="10"/>
-      <c r="Z38" s="28" t="s">
+      <c r="Z38" s="27" t="s">
         <v>580</v>
       </c>
-      <c r="AA38" s="29"/>
+      <c r="AA38" s="28"/>
       <c r="AL38" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AM38" s="3"/>
       <c r="AN38" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="AO38" s="3"/>
       <c r="AP38" s="3"/>
-      <c r="AQ38" s="3" t="s">
+      <c r="AQ38" s="34" t="s">
         <v>383</v>
       </c>
       <c r="AR38" s="10"/>
-      <c r="AS38" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="AT38" s="20"/>
+      <c r="AS38" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AT38" s="19"/>
       <c r="BE38" s="2" t="s">
         <v>464</v>
       </c>
@@ -6382,10 +6414,10 @@
         <v>480</v>
       </c>
       <c r="BJ38" s="6"/>
-      <c r="BK38" s="28" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL38" s="29"/>
+      <c r="BK38" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL38" s="28"/>
     </row>
     <row r="39" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
@@ -6396,14 +6428,14 @@
         <v>79</v>
       </c>
       <c r="E39" s="3"/>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G39" s="11"/>
-      <c r="H39" s="19" t="s">
+      <c r="H39" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="I39" s="20"/>
+      <c r="I39" s="19"/>
       <c r="J39" s="1"/>
       <c r="K39" s="3" t="s">
         <v>209</v>
@@ -6413,14 +6445,14 @@
         <v>79</v>
       </c>
       <c r="N39" s="3"/>
-      <c r="O39" s="3" t="s">
+      <c r="O39" s="34" t="s">
         <v>170</v>
       </c>
       <c r="P39" s="11"/>
-      <c r="Q39" s="19" t="s">
+      <c r="Q39" s="18" t="s">
         <v>571</v>
       </c>
-      <c r="R39" s="20"/>
+      <c r="R39" s="19"/>
       <c r="S39" s="8"/>
       <c r="T39" s="3" t="s">
         <v>276</v>
@@ -6430,31 +6462,31 @@
         <v>79</v>
       </c>
       <c r="W39" s="3"/>
-      <c r="X39" s="3" t="s">
+      <c r="X39" s="34" t="s">
         <v>236</v>
       </c>
       <c r="Y39" s="10"/>
-      <c r="Z39" s="19" t="s">
+      <c r="Z39" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="AA39" s="20"/>
-      <c r="AL39" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="AM39" s="2"/>
-      <c r="AN39" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="AO39" s="2"/>
-      <c r="AP39" s="2"/>
-      <c r="AQ39" s="2" t="s">
+      <c r="AA39" s="19"/>
+      <c r="AL39" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="AM39" s="3"/>
+      <c r="AN39" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="AO39" s="3"/>
+      <c r="AP39" s="3"/>
+      <c r="AQ39" s="34" t="s">
         <v>383</v>
       </c>
-      <c r="AR39" s="6"/>
-      <c r="AS39" s="25" t="s">
-        <v>580</v>
-      </c>
-      <c r="AT39" s="24"/>
+      <c r="AR39" s="10"/>
+      <c r="AS39" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AT39" s="19"/>
       <c r="BE39" s="2" t="s">
         <v>465</v>
       </c>
@@ -6467,10 +6499,10 @@
         <v>480</v>
       </c>
       <c r="BJ39" s="6"/>
-      <c r="BK39" s="28" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL39" s="29"/>
+      <c r="BK39" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL39" s="28"/>
     </row>
     <row r="40" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
@@ -6481,14 +6513,14 @@
         <v>80</v>
       </c>
       <c r="E40" s="3"/>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G40" s="11"/>
-      <c r="H40" s="19" t="s">
+      <c r="H40" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="I40" s="20"/>
+      <c r="I40" s="19"/>
       <c r="J40" s="1"/>
       <c r="K40" s="3" t="s">
         <v>210</v>
@@ -6498,14 +6530,14 @@
         <v>80</v>
       </c>
       <c r="N40" s="3"/>
-      <c r="O40" s="3" t="s">
+      <c r="O40" s="34" t="s">
         <v>170</v>
       </c>
       <c r="P40" s="11"/>
-      <c r="Q40" s="19" t="s">
+      <c r="Q40" s="18" t="s">
         <v>584</v>
       </c>
-      <c r="R40" s="20"/>
+      <c r="R40" s="19"/>
       <c r="S40" s="8"/>
       <c r="T40" s="3" t="s">
         <v>277</v>
@@ -6515,31 +6547,31 @@
         <v>80</v>
       </c>
       <c r="W40" s="3"/>
-      <c r="X40" s="3" t="s">
+      <c r="X40" s="34" t="s">
         <v>236</v>
       </c>
       <c r="Y40" s="10"/>
-      <c r="Z40" s="19" t="s">
+      <c r="Z40" s="18" t="s">
         <v>584</v>
       </c>
-      <c r="AA40" s="20"/>
-      <c r="AL40" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="AM40" s="2"/>
-      <c r="AN40" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="AO40" s="2"/>
-      <c r="AP40" s="2"/>
-      <c r="AQ40" s="2" t="s">
+      <c r="AA40" s="19"/>
+      <c r="AL40" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="AM40" s="3"/>
+      <c r="AN40" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="AO40" s="3"/>
+      <c r="AP40" s="3"/>
+      <c r="AQ40" s="34" t="s">
         <v>383</v>
       </c>
-      <c r="AR40" s="6"/>
-      <c r="AS40" s="25" t="s">
-        <v>580</v>
-      </c>
-      <c r="AT40" s="30"/>
+      <c r="AR40" s="10"/>
+      <c r="AS40" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AT40" s="19"/>
       <c r="BE40" s="2" t="s">
         <v>466</v>
       </c>
@@ -6552,10 +6584,10 @@
         <v>480</v>
       </c>
       <c r="BJ40" s="6"/>
-      <c r="BK40" s="28" t="s">
+      <c r="BK40" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="BL40" s="29"/>
+      <c r="BL40" s="28"/>
     </row>
     <row r="41" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
@@ -6570,10 +6602,10 @@
         <v>3</v>
       </c>
       <c r="G41" s="11"/>
-      <c r="H41" s="25" t="s">
+      <c r="H41" s="24" t="s">
         <v>580</v>
       </c>
-      <c r="I41" s="24"/>
+      <c r="I41" s="23"/>
       <c r="J41" s="1"/>
       <c r="K41" s="2" t="s">
         <v>211</v>
@@ -6587,10 +6619,10 @@
         <v>170</v>
       </c>
       <c r="P41" s="11"/>
-      <c r="Q41" s="28" t="s">
+      <c r="Q41" s="27" t="s">
         <v>583</v>
       </c>
-      <c r="R41" s="29"/>
+      <c r="R41" s="28"/>
       <c r="S41" s="8"/>
       <c r="T41" s="2" t="s">
         <v>278</v>
@@ -6604,10 +6636,27 @@
         <v>236</v>
       </c>
       <c r="Y41" s="10"/>
-      <c r="Z41" s="28" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA41" s="29"/>
+      <c r="Z41" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA41" s="28"/>
+      <c r="AL41" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="AM41" s="3"/>
+      <c r="AN41" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="AO41" s="3"/>
+      <c r="AP41" s="3"/>
+      <c r="AQ41" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="AR41" s="10"/>
+      <c r="AS41" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AT41" s="19"/>
       <c r="BE41" s="2" t="s">
         <v>467</v>
       </c>
@@ -6620,10 +6669,10 @@
         <v>480</v>
       </c>
       <c r="BJ41" s="6"/>
-      <c r="BK41" s="28" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL41" s="29"/>
+      <c r="BK41" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL41" s="28"/>
     </row>
     <row r="42" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
@@ -6634,14 +6683,14 @@
         <v>82</v>
       </c>
       <c r="E42" s="3"/>
-      <c r="F42" s="35" t="s">
+      <c r="F42" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G42" s="11"/>
-      <c r="H42" s="19" t="s">
+      <c r="H42" s="18" t="s">
         <v>570</v>
       </c>
-      <c r="I42" s="20"/>
+      <c r="I42" s="19"/>
       <c r="J42" s="1"/>
       <c r="K42" s="3" t="s">
         <v>212</v>
@@ -6651,14 +6700,14 @@
         <v>82</v>
       </c>
       <c r="N42" s="3"/>
-      <c r="O42" s="35" t="s">
+      <c r="O42" s="34" t="s">
         <v>170</v>
       </c>
       <c r="P42" s="11"/>
-      <c r="Q42" s="19" t="s">
+      <c r="Q42" s="18" t="s">
         <v>570</v>
       </c>
-      <c r="R42" s="20"/>
+      <c r="R42" s="19"/>
       <c r="S42" s="8"/>
       <c r="T42" s="3" t="s">
         <v>279</v>
@@ -6668,14 +6717,31 @@
         <v>82</v>
       </c>
       <c r="W42" s="3"/>
-      <c r="X42" s="35" t="s">
+      <c r="X42" s="34" t="s">
         <v>236</v>
       </c>
       <c r="Y42" s="10"/>
-      <c r="Z42" s="19" t="s">
+      <c r="Z42" s="18" t="s">
         <v>587</v>
       </c>
-      <c r="AA42" s="20"/>
+      <c r="AA42" s="19"/>
+      <c r="AL42" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="AM42" s="3"/>
+      <c r="AN42" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="AO42" s="3"/>
+      <c r="AP42" s="3"/>
+      <c r="AQ42" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="AR42" s="10"/>
+      <c r="AS42" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AT42" s="19"/>
       <c r="BE42" s="2" t="s">
         <v>468</v>
       </c>
@@ -6688,10 +6754,10 @@
         <v>480</v>
       </c>
       <c r="BJ42" s="6"/>
-      <c r="BK42" s="28" t="s">
+      <c r="BK42" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="BL42" s="29"/>
+      <c r="BL42" s="28"/>
     </row>
     <row r="43" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
@@ -6702,14 +6768,14 @@
         <v>83</v>
       </c>
       <c r="E43" s="3"/>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G43" s="10"/>
-      <c r="H43" s="19" t="s">
+      <c r="H43" s="18" t="s">
         <v>570</v>
       </c>
-      <c r="I43" s="20"/>
+      <c r="I43" s="19"/>
       <c r="J43" s="1"/>
       <c r="K43" s="3" t="s">
         <v>213</v>
@@ -6719,14 +6785,14 @@
         <v>83</v>
       </c>
       <c r="N43" s="3"/>
-      <c r="O43" s="3" t="s">
+      <c r="O43" s="34" t="s">
         <v>170</v>
       </c>
       <c r="P43" s="10"/>
-      <c r="Q43" s="19" t="s">
+      <c r="Q43" s="18" t="s">
         <v>570</v>
       </c>
-      <c r="R43" s="20"/>
+      <c r="R43" s="19"/>
       <c r="S43" s="8"/>
       <c r="T43" s="3" t="s">
         <v>280</v>
@@ -6736,14 +6802,31 @@
         <v>83</v>
       </c>
       <c r="W43" s="3"/>
-      <c r="X43" s="3" t="s">
+      <c r="X43" s="34" t="s">
         <v>236</v>
       </c>
       <c r="Y43" s="10"/>
-      <c r="Z43" s="19" t="s">
+      <c r="Z43" s="18" t="s">
         <v>587</v>
       </c>
-      <c r="AA43" s="20"/>
+      <c r="AA43" s="19"/>
+      <c r="AL43" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="AM43" s="3"/>
+      <c r="AN43" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="AO43" s="3"/>
+      <c r="AP43" s="3"/>
+      <c r="AQ43" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="AR43" s="6"/>
+      <c r="AS43" s="18" t="s">
+        <v>580</v>
+      </c>
+      <c r="AT43" s="19"/>
       <c r="BE43" s="2" t="s">
         <v>469</v>
       </c>
@@ -6756,10 +6839,10 @@
         <v>480</v>
       </c>
       <c r="BJ43" s="6"/>
-      <c r="BK43" s="28" t="s">
+      <c r="BK43" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="BL43" s="29"/>
+      <c r="BL43" s="28"/>
     </row>
     <row r="44" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
@@ -6774,10 +6857,10 @@
         <v>3</v>
       </c>
       <c r="G44" s="10"/>
-      <c r="H44" s="19" t="s">
+      <c r="H44" s="18" t="s">
         <v>570</v>
       </c>
-      <c r="I44" s="20"/>
+      <c r="I44" s="19"/>
       <c r="J44" s="1"/>
       <c r="K44" s="3" t="s">
         <v>214</v>
@@ -6791,10 +6874,10 @@
         <v>170</v>
       </c>
       <c r="P44" s="10"/>
-      <c r="Q44" s="19" t="s">
+      <c r="Q44" s="18" t="s">
         <v>570</v>
       </c>
-      <c r="R44" s="20"/>
+      <c r="R44" s="19"/>
       <c r="S44" s="8"/>
       <c r="T44" s="3" t="s">
         <v>281</v>
@@ -6808,10 +6891,27 @@
         <v>236</v>
       </c>
       <c r="Y44" s="10"/>
-      <c r="Z44" s="19" t="s">
+      <c r="Z44" s="18" t="s">
         <v>587</v>
       </c>
-      <c r="AA44" s="20"/>
+      <c r="AA44" s="19"/>
+      <c r="AL44" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="AM44" s="2"/>
+      <c r="AN44" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="AO44" s="2"/>
+      <c r="AP44" s="2"/>
+      <c r="AQ44" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="AR44" s="6"/>
+      <c r="AS44" s="24" t="s">
+        <v>580</v>
+      </c>
+      <c r="AT44" s="23"/>
       <c r="BE44" s="2" t="s">
         <v>470</v>
       </c>
@@ -6824,10 +6924,10 @@
         <v>480</v>
       </c>
       <c r="BJ44" s="6"/>
-      <c r="BK44" s="28" t="s">
+      <c r="BK44" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="BL44" s="29"/>
+      <c r="BL44" s="28"/>
     </row>
     <row r="45" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
@@ -6842,10 +6942,10 @@
         <v>3</v>
       </c>
       <c r="G45" s="11"/>
-      <c r="H45" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="I45" s="22"/>
+      <c r="H45" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="I45" s="21"/>
       <c r="J45" s="1"/>
       <c r="K45" s="4" t="s">
         <v>215</v>
@@ -6859,10 +6959,10 @@
         <v>170</v>
       </c>
       <c r="P45" s="11"/>
-      <c r="Q45" s="21" t="s">
+      <c r="Q45" s="20" t="s">
         <v>583</v>
       </c>
-      <c r="R45" s="22"/>
+      <c r="R45" s="21"/>
       <c r="S45" s="8"/>
       <c r="T45" s="4" t="s">
         <v>282</v>
@@ -6876,10 +6976,27 @@
         <v>236</v>
       </c>
       <c r="Y45" s="11"/>
-      <c r="Z45" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA45" s="22"/>
+      <c r="Z45" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA45" s="21"/>
+      <c r="AL45" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="AM45" s="2"/>
+      <c r="AN45" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="AO45" s="2"/>
+      <c r="AP45" s="2"/>
+      <c r="AQ45" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="AR45" s="6"/>
+      <c r="AS45" s="24" t="s">
+        <v>580</v>
+      </c>
+      <c r="AT45" s="29"/>
       <c r="BE45" s="2" t="s">
         <v>471</v>
       </c>
@@ -6892,10 +7009,10 @@
         <v>480</v>
       </c>
       <c r="BJ45" s="6"/>
-      <c r="BK45" s="28" t="s">
+      <c r="BK45" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="BL45" s="29"/>
+      <c r="BL45" s="28"/>
     </row>
     <row r="46" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
@@ -6906,14 +7023,14 @@
         <v>86</v>
       </c>
       <c r="E46" s="3"/>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G46" s="11"/>
-      <c r="H46" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="I46" s="20"/>
+      <c r="H46" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="I46" s="19"/>
       <c r="J46" s="1"/>
       <c r="K46" s="3" t="s">
         <v>216</v>
@@ -6923,14 +7040,14 @@
         <v>86</v>
       </c>
       <c r="N46" s="3"/>
-      <c r="O46" s="35" t="s">
+      <c r="O46" s="34" t="s">
         <v>170</v>
       </c>
       <c r="P46" s="11"/>
-      <c r="Q46" s="19" t="s">
+      <c r="Q46" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="R46" s="20"/>
+      <c r="R46" s="19"/>
       <c r="S46" s="8"/>
       <c r="T46" s="3" t="s">
         <v>283</v>
@@ -6940,14 +7057,14 @@
         <v>86</v>
       </c>
       <c r="W46" s="3"/>
-      <c r="X46" s="35" t="s">
+      <c r="X46" s="34" t="s">
         <v>236</v>
       </c>
       <c r="Y46" s="10"/>
-      <c r="Z46" s="19" t="s">
+      <c r="Z46" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="AA46" s="20"/>
+      <c r="AA46" s="19"/>
       <c r="BE46" s="2" t="s">
         <v>472</v>
       </c>
@@ -6960,10 +7077,10 @@
         <v>480</v>
       </c>
       <c r="BJ46" s="6"/>
-      <c r="BK46" s="28" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL46" s="29"/>
+      <c r="BK46" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL46" s="28"/>
     </row>
     <row r="47" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
@@ -6974,14 +7091,14 @@
         <v>87</v>
       </c>
       <c r="E47" s="3"/>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+      <c r="F47" s="34" t="s">
+        <v>170</v>
       </c>
       <c r="G47" s="11"/>
-      <c r="H47" s="19" t="s">
+      <c r="H47" s="18" t="s">
         <v>571</v>
       </c>
-      <c r="I47" s="20"/>
+      <c r="I47" s="19"/>
       <c r="J47" s="1"/>
       <c r="K47" s="3" t="s">
         <v>217</v>
@@ -6991,14 +7108,14 @@
         <v>87</v>
       </c>
       <c r="N47" s="3"/>
-      <c r="O47" s="3" t="s">
+      <c r="O47" s="34" t="s">
         <v>170</v>
       </c>
       <c r="P47" s="11"/>
-      <c r="Q47" s="19" t="s">
+      <c r="Q47" s="18" t="s">
         <v>584</v>
       </c>
-      <c r="R47" s="20"/>
+      <c r="R47" s="19"/>
       <c r="S47" s="8"/>
       <c r="T47" s="3" t="s">
         <v>284</v>
@@ -7008,14 +7125,14 @@
         <v>87</v>
       </c>
       <c r="W47" s="3"/>
-      <c r="X47" s="3" t="s">
+      <c r="X47" s="34" t="s">
         <v>236</v>
       </c>
       <c r="Y47" s="10"/>
-      <c r="Z47" s="19" t="s">
+      <c r="Z47" s="18" t="s">
         <v>584</v>
       </c>
-      <c r="AA47" s="20"/>
+      <c r="AA47" s="19"/>
       <c r="BE47" s="2" t="s">
         <v>473</v>
       </c>
@@ -7028,10 +7145,10 @@
         <v>481</v>
       </c>
       <c r="BJ47" s="6"/>
-      <c r="BK47" s="28" t="s">
+      <c r="BK47" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="BL47" s="29"/>
+      <c r="BL47" s="28"/>
     </row>
     <row r="48" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
@@ -7042,14 +7159,14 @@
         <v>483</v>
       </c>
       <c r="E48" s="3"/>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G48" s="11"/>
-      <c r="H48" s="19" t="s">
+      <c r="H48" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="I48" s="20"/>
+      <c r="I48" s="19"/>
       <c r="J48" s="1"/>
       <c r="K48" s="3" t="s">
         <v>218</v>
@@ -7059,14 +7176,14 @@
         <v>483</v>
       </c>
       <c r="N48" s="3"/>
-      <c r="O48" s="3" t="s">
+      <c r="O48" s="34" t="s">
         <v>170</v>
       </c>
       <c r="P48" s="11"/>
-      <c r="Q48" s="28" t="s">
+      <c r="Q48" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="R48" s="29"/>
+      <c r="R48" s="28"/>
       <c r="S48" s="8"/>
       <c r="T48" s="3" t="s">
         <v>285</v>
@@ -7076,14 +7193,14 @@
         <v>483</v>
       </c>
       <c r="W48" s="3"/>
-      <c r="X48" s="3" t="s">
+      <c r="X48" s="34" t="s">
         <v>236</v>
       </c>
       <c r="Y48" s="11"/>
-      <c r="Z48" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA48" s="20"/>
+      <c r="Z48" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA48" s="19"/>
       <c r="BE48" s="2" t="s">
         <v>474</v>
       </c>
@@ -7096,10 +7213,10 @@
         <v>481</v>
       </c>
       <c r="BJ48" s="6"/>
-      <c r="BK48" s="28" t="s">
+      <c r="BK48" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="BL48" s="29"/>
+      <c r="BL48" s="28"/>
     </row>
     <row r="49" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
@@ -7114,10 +7231,10 @@
         <v>3</v>
       </c>
       <c r="G49" s="11"/>
-      <c r="H49" s="25" t="s">
-        <v>576</v>
-      </c>
-      <c r="I49" s="24"/>
+      <c r="H49" s="24" t="s">
+        <v>576</v>
+      </c>
+      <c r="I49" s="23"/>
       <c r="J49" s="1"/>
       <c r="K49" s="2" t="s">
         <v>219</v>
@@ -7131,10 +7248,10 @@
         <v>170</v>
       </c>
       <c r="P49" s="11"/>
-      <c r="Q49" s="28" t="s">
-        <v>576</v>
-      </c>
-      <c r="R49" s="29"/>
+      <c r="Q49" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="R49" s="28"/>
       <c r="S49" s="8"/>
       <c r="T49" s="2" t="s">
         <v>286</v>
@@ -7148,10 +7265,10 @@
         <v>236</v>
       </c>
       <c r="Y49" s="11"/>
-      <c r="Z49" s="28" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA49" s="29"/>
+      <c r="Z49" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA49" s="28"/>
       <c r="BE49" s="2" t="s">
         <v>475</v>
       </c>
@@ -7164,10 +7281,10 @@
         <v>481</v>
       </c>
       <c r="BJ49" s="6"/>
-      <c r="BK49" s="28" t="s">
+      <c r="BK49" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="BL49" s="29"/>
+      <c r="BL49" s="28"/>
     </row>
     <row r="50" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
@@ -7182,10 +7299,10 @@
         <v>3</v>
       </c>
       <c r="G50" s="11"/>
-      <c r="H50" s="25" t="s">
+      <c r="H50" s="24" t="s">
         <v>584</v>
       </c>
-      <c r="I50" s="24"/>
+      <c r="I50" s="23"/>
       <c r="J50" s="1"/>
       <c r="K50" s="2" t="s">
         <v>220</v>
@@ -7199,10 +7316,10 @@
         <v>170</v>
       </c>
       <c r="P50" s="11"/>
-      <c r="Q50" s="28" t="s">
-        <v>576</v>
-      </c>
-      <c r="R50" s="29"/>
+      <c r="Q50" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="R50" s="28"/>
       <c r="S50" s="8"/>
       <c r="T50" s="2" t="s">
         <v>287</v>
@@ -7216,10 +7333,10 @@
         <v>236</v>
       </c>
       <c r="Y50" s="11"/>
-      <c r="Z50" s="28" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA50" s="29"/>
+      <c r="Z50" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA50" s="28"/>
       <c r="BE50" s="2" t="s">
         <v>476</v>
       </c>
@@ -7232,10 +7349,10 @@
         <v>481</v>
       </c>
       <c r="BJ50" s="6"/>
-      <c r="BK50" s="28" t="s">
+      <c r="BK50" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="BL50" s="29"/>
+      <c r="BL50" s="28"/>
     </row>
     <row r="51" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
@@ -7250,10 +7367,10 @@
         <v>3</v>
       </c>
       <c r="G51" s="11"/>
-      <c r="H51" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="I51" s="22"/>
+      <c r="H51" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="I51" s="21"/>
       <c r="J51" s="1"/>
       <c r="K51" s="4" t="s">
         <v>221</v>
@@ -7267,10 +7384,10 @@
         <v>170</v>
       </c>
       <c r="P51" s="11"/>
-      <c r="Q51" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="R51" s="22"/>
+      <c r="Q51" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="R51" s="21"/>
       <c r="S51" s="8"/>
       <c r="T51" s="4" t="s">
         <v>288</v>
@@ -7284,10 +7401,10 @@
         <v>236</v>
       </c>
       <c r="Y51" s="11"/>
-      <c r="Z51" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA51" s="22"/>
+      <c r="Z51" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA51" s="21"/>
       <c r="BE51" s="2" t="s">
         <v>477</v>
       </c>
@@ -7300,10 +7417,10 @@
         <v>481</v>
       </c>
       <c r="BJ51" s="6"/>
-      <c r="BK51" s="28" t="s">
+      <c r="BK51" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="BL51" s="29"/>
+      <c r="BL51" s="28"/>
     </row>
     <row r="52" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
@@ -7318,10 +7435,10 @@
         <v>3</v>
       </c>
       <c r="G52" s="11"/>
-      <c r="H52" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="I52" s="22"/>
+      <c r="H52" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="I52" s="21"/>
       <c r="J52" s="1"/>
       <c r="K52" s="4" t="s">
         <v>222</v>
@@ -7335,10 +7452,10 @@
         <v>170</v>
       </c>
       <c r="P52" s="11"/>
-      <c r="Q52" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="R52" s="22"/>
+      <c r="Q52" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="R52" s="21"/>
       <c r="S52" s="8"/>
       <c r="T52" s="4" t="s">
         <v>289</v>
@@ -7352,10 +7469,10 @@
         <v>236</v>
       </c>
       <c r="Y52" s="11"/>
-      <c r="Z52" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA52" s="22"/>
+      <c r="Z52" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA52" s="21"/>
       <c r="BE52" s="2" t="s">
         <v>478</v>
       </c>
@@ -7368,10 +7485,10 @@
         <v>481</v>
       </c>
       <c r="BJ52" s="6"/>
-      <c r="BK52" s="28" t="s">
+      <c r="BK52" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="BL52" s="29"/>
+      <c r="BL52" s="28"/>
     </row>
     <row r="53" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
@@ -7386,10 +7503,10 @@
         <v>3</v>
       </c>
       <c r="G53" s="11"/>
-      <c r="H53" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="I53" s="22"/>
+      <c r="H53" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="I53" s="21"/>
       <c r="J53" s="1"/>
       <c r="K53" s="4" t="s">
         <v>223</v>
@@ -7403,10 +7520,10 @@
         <v>170</v>
       </c>
       <c r="P53" s="11"/>
-      <c r="Q53" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="R53" s="22"/>
+      <c r="Q53" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="R53" s="21"/>
       <c r="S53" s="8"/>
       <c r="T53" s="4" t="s">
         <v>290</v>
@@ -7420,10 +7537,10 @@
         <v>236</v>
       </c>
       <c r="Y53" s="11"/>
-      <c r="Z53" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA53" s="22"/>
+      <c r="Z53" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA53" s="21"/>
       <c r="BE53" s="2" t="s">
         <v>512</v>
       </c>
@@ -7436,10 +7553,10 @@
         <v>501</v>
       </c>
       <c r="BJ53" s="6"/>
-      <c r="BK53" s="28" t="s">
+      <c r="BK53" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="BL53" s="33"/>
+      <c r="BL53" s="32"/>
     </row>
     <row r="54" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
@@ -7454,10 +7571,10 @@
         <v>3</v>
       </c>
       <c r="G54" s="11"/>
-      <c r="H54" s="21" t="s">
+      <c r="H54" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="I54" s="22"/>
+      <c r="I54" s="21"/>
       <c r="J54" s="1"/>
       <c r="K54" s="4" t="s">
         <v>225</v>
@@ -7471,10 +7588,10 @@
         <v>170</v>
       </c>
       <c r="P54" s="11"/>
-      <c r="Q54" s="21" t="s">
+      <c r="Q54" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="R54" s="22"/>
+      <c r="R54" s="21"/>
       <c r="S54" s="8"/>
       <c r="T54" s="4" t="s">
         <v>291</v>
@@ -7488,10 +7605,10 @@
         <v>236</v>
       </c>
       <c r="Y54" s="11"/>
-      <c r="Z54" s="21" t="s">
+      <c r="Z54" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="AA54" s="22"/>
+      <c r="AA54" s="21"/>
     </row>
     <row r="55" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
@@ -7506,10 +7623,10 @@
         <v>3</v>
       </c>
       <c r="G55" s="11"/>
-      <c r="H55" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="I55" s="22"/>
+      <c r="H55" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="I55" s="21"/>
       <c r="J55" s="1"/>
       <c r="K55" s="4" t="s">
         <v>224</v>
@@ -7523,10 +7640,10 @@
         <v>170</v>
       </c>
       <c r="P55" s="11"/>
-      <c r="Q55" s="21" t="s">
+      <c r="Q55" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="R55" s="22"/>
+      <c r="R55" s="21"/>
       <c r="S55" s="8"/>
       <c r="T55" s="4" t="s">
         <v>292</v>
@@ -7540,10 +7657,10 @@
         <v>236</v>
       </c>
       <c r="Y55" s="11"/>
-      <c r="Z55" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA55" s="22"/>
+      <c r="Z55" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA55" s="21"/>
     </row>
     <row r="56" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
@@ -7558,10 +7675,10 @@
         <v>3</v>
       </c>
       <c r="G56" s="11"/>
-      <c r="H56" s="21" t="s">
+      <c r="H56" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="I56" s="22"/>
+      <c r="I56" s="21"/>
       <c r="J56" s="1"/>
       <c r="K56" s="4" t="s">
         <v>226</v>
@@ -7575,10 +7692,10 @@
         <v>170</v>
       </c>
       <c r="P56" s="11"/>
-      <c r="Q56" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="R56" s="22"/>
+      <c r="Q56" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="R56" s="21"/>
       <c r="S56" s="8"/>
       <c r="T56" s="4" t="s">
         <v>293</v>
@@ -7592,10 +7709,10 @@
         <v>236</v>
       </c>
       <c r="Y56" s="11"/>
-      <c r="Z56" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA56" s="22"/>
+      <c r="Z56" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA56" s="21"/>
     </row>
     <row r="57" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
@@ -7610,10 +7727,10 @@
         <v>3</v>
       </c>
       <c r="G57" s="10"/>
-      <c r="H57" s="21" t="s">
+      <c r="H57" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="I57" s="22"/>
+      <c r="I57" s="21"/>
       <c r="J57" s="1"/>
       <c r="K57" s="4" t="s">
         <v>227</v>
@@ -7627,10 +7744,10 @@
         <v>170</v>
       </c>
       <c r="P57" s="10"/>
-      <c r="Q57" s="21" t="s">
+      <c r="Q57" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="R57" s="22"/>
+      <c r="R57" s="21"/>
       <c r="S57" s="8"/>
       <c r="T57" s="4" t="s">
         <v>294</v>
@@ -7644,10 +7761,10 @@
         <v>236</v>
       </c>
       <c r="Y57" s="10"/>
-      <c r="Z57" s="21" t="s">
+      <c r="Z57" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="AA57" s="22"/>
+      <c r="AA57" s="21"/>
     </row>
     <row r="58" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
@@ -7662,10 +7779,10 @@
         <v>3</v>
       </c>
       <c r="G58" s="10"/>
-      <c r="H58" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="I58" s="22"/>
+      <c r="H58" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="I58" s="21"/>
       <c r="J58" s="1"/>
       <c r="K58" s="4" t="s">
         <v>228</v>
@@ -7679,10 +7796,10 @@
         <v>170</v>
       </c>
       <c r="P58" s="10"/>
-      <c r="Q58" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="R58" s="22"/>
+      <c r="Q58" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="R58" s="21"/>
       <c r="S58" s="8"/>
       <c r="T58" s="4" t="s">
         <v>295</v>
@@ -7696,10 +7813,10 @@
         <v>236</v>
       </c>
       <c r="Y58" s="10"/>
-      <c r="Z58" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA58" s="22"/>
+      <c r="Z58" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA58" s="21"/>
     </row>
     <row r="59" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B59" s="4" t="s">
@@ -7714,10 +7831,10 @@
         <v>3</v>
       </c>
       <c r="G59" s="10"/>
-      <c r="H59" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="I59" s="22"/>
+      <c r="H59" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="I59" s="21"/>
       <c r="J59" s="1"/>
       <c r="K59" s="4" t="s">
         <v>229</v>
@@ -7731,10 +7848,10 @@
         <v>170</v>
       </c>
       <c r="P59" s="10"/>
-      <c r="Q59" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="R59" s="22"/>
+      <c r="Q59" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="R59" s="21"/>
       <c r="S59" s="8"/>
       <c r="T59" s="4" t="s">
         <v>296</v>
@@ -7748,10 +7865,10 @@
         <v>236</v>
       </c>
       <c r="Y59" s="10"/>
-      <c r="Z59" s="21" t="s">
+      <c r="Z59" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="AA59" s="22"/>
+      <c r="AA59" s="21"/>
     </row>
     <row r="60" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B60" s="4" t="s">
@@ -7766,10 +7883,10 @@
         <v>3</v>
       </c>
       <c r="G60" s="11"/>
-      <c r="H60" s="21" t="s">
+      <c r="H60" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="I60" s="22"/>
+      <c r="I60" s="21"/>
       <c r="J60" s="1"/>
       <c r="K60" s="4" t="s">
         <v>230</v>
@@ -7783,10 +7900,10 @@
         <v>170</v>
       </c>
       <c r="P60" s="11"/>
-      <c r="Q60" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="R60" s="22"/>
+      <c r="Q60" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="R60" s="21"/>
       <c r="S60" s="8"/>
       <c r="T60" s="4" t="s">
         <v>297</v>
@@ -7800,10 +7917,10 @@
         <v>236</v>
       </c>
       <c r="Y60" s="11"/>
-      <c r="Z60" s="21" t="s">
+      <c r="Z60" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="AA60" s="22"/>
+      <c r="AA60" s="21"/>
     </row>
     <row r="61" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
@@ -7818,10 +7935,10 @@
         <v>3</v>
       </c>
       <c r="G61" s="10"/>
-      <c r="H61" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="I61" s="22"/>
+      <c r="H61" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="I61" s="21"/>
       <c r="J61" s="1"/>
       <c r="K61" s="4" t="s">
         <v>231</v>
@@ -7835,10 +7952,10 @@
         <v>170</v>
       </c>
       <c r="P61" s="10"/>
-      <c r="Q61" s="21" t="s">
+      <c r="Q61" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="R61" s="22"/>
+      <c r="R61" s="21"/>
       <c r="S61" s="8"/>
       <c r="T61" s="4" t="s">
         <v>298</v>
@@ -7852,14 +7969,14 @@
         <v>236</v>
       </c>
       <c r="Y61" s="10"/>
-      <c r="Z61" s="21" t="s">
+      <c r="Z61" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="AA61" s="22"/>
+      <c r="AA61" s="21"/>
     </row>
     <row r="62" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4" t="s">
@@ -7870,13 +7987,13 @@
         <v>3</v>
       </c>
       <c r="G62" s="10"/>
-      <c r="H62" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="I62" s="22"/>
+      <c r="H62" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="I62" s="21"/>
       <c r="J62" s="1"/>
       <c r="K62" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="L62" s="4"/>
       <c r="M62" s="4" t="s">
@@ -7887,12 +8004,12 @@
         <v>170</v>
       </c>
       <c r="P62" s="10"/>
-      <c r="Q62" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="R62" s="22"/>
+      <c r="Q62" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="R62" s="21"/>
       <c r="T62" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="U62" s="4"/>
       <c r="V62" s="4" t="s">
@@ -7903,10 +8020,10 @@
         <v>236</v>
       </c>
       <c r="Y62" s="10"/>
-      <c r="Z62" s="21" t="s">
+      <c r="Z62" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="AA62" s="22"/>
+      <c r="AA62" s="21"/>
     </row>
     <row r="63" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
@@ -7921,10 +8038,10 @@
         <v>3</v>
       </c>
       <c r="G63" s="11"/>
-      <c r="H63" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="I63" s="22"/>
+      <c r="H63" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="I63" s="21"/>
       <c r="J63" s="1"/>
       <c r="K63" s="4" t="s">
         <v>232</v>
@@ -7938,10 +8055,10 @@
         <v>170</v>
       </c>
       <c r="P63" s="11"/>
-      <c r="Q63" s="21" t="s">
+      <c r="Q63" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="R63" s="22"/>
+      <c r="R63" s="21"/>
       <c r="S63" s="8"/>
       <c r="T63" s="4" t="s">
         <v>299</v>
@@ -7955,10 +8072,10 @@
         <v>236</v>
       </c>
       <c r="Y63" s="11"/>
-      <c r="Z63" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA63" s="22"/>
+      <c r="Z63" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA63" s="21"/>
     </row>
     <row r="64" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
@@ -7973,10 +8090,10 @@
         <v>3</v>
       </c>
       <c r="G64" s="11"/>
-      <c r="H64" s="21" t="s">
+      <c r="H64" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="I64" s="22"/>
+      <c r="I64" s="21"/>
       <c r="J64" s="1"/>
       <c r="K64" s="4" t="s">
         <v>233</v>
@@ -7990,10 +8107,10 @@
         <v>170</v>
       </c>
       <c r="P64" s="11"/>
-      <c r="Q64" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="R64" s="22"/>
+      <c r="Q64" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="R64" s="21"/>
       <c r="S64" s="8"/>
       <c r="T64" s="4" t="s">
         <v>300</v>
@@ -8007,10 +8124,10 @@
         <v>236</v>
       </c>
       <c r="Y64" s="11"/>
-      <c r="Z64" s="21" t="s">
+      <c r="Z64" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="AA64" s="22"/>
+      <c r="AA64" s="21"/>
     </row>
     <row r="65" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
@@ -8021,14 +8138,14 @@
         <v>126</v>
       </c>
       <c r="E65" s="2"/>
-      <c r="F65" s="35" t="s">
+      <c r="F65" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G65" s="11"/>
-      <c r="H65" s="25" t="s">
+      <c r="H65" s="24" t="s">
         <v>575</v>
       </c>
-      <c r="I65" s="24"/>
+      <c r="I65" s="23"/>
       <c r="J65" s="1"/>
       <c r="K65" s="2" t="s">
         <v>234</v>
@@ -8038,14 +8155,14 @@
         <v>126</v>
       </c>
       <c r="N65" s="2"/>
-      <c r="O65" s="35" t="s">
+      <c r="O65" s="34" t="s">
         <v>170</v>
       </c>
       <c r="P65" s="11"/>
-      <c r="Q65" s="28" t="s">
+      <c r="Q65" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="R65" s="29"/>
+      <c r="R65" s="28"/>
       <c r="S65" s="8"/>
       <c r="T65" s="2" t="s">
         <v>301</v>
@@ -8055,14 +8172,14 @@
         <v>126</v>
       </c>
       <c r="W65" s="2"/>
-      <c r="X65" s="35" t="s">
+      <c r="X65" s="34" t="s">
         <v>236</v>
       </c>
       <c r="Y65" s="10"/>
-      <c r="Z65" s="28" t="s">
+      <c r="Z65" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="AA65" s="29"/>
+      <c r="AA65" s="28"/>
     </row>
     <row r="66" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
@@ -8073,14 +8190,14 @@
         <v>127</v>
       </c>
       <c r="E66" s="4"/>
-      <c r="F66" s="35" t="s">
+      <c r="F66" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G66" s="11"/>
-      <c r="H66" s="21" t="s">
+      <c r="H66" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="I66" s="22"/>
+      <c r="I66" s="21"/>
       <c r="J66" s="1"/>
       <c r="K66" s="4" t="s">
         <v>186</v>
@@ -8090,14 +8207,14 @@
         <v>127</v>
       </c>
       <c r="N66" s="4"/>
-      <c r="O66" s="35" t="s">
+      <c r="O66" s="34" t="s">
         <v>170</v>
       </c>
       <c r="P66" s="11"/>
-      <c r="Q66" s="21" t="s">
+      <c r="Q66" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="R66" s="22"/>
+      <c r="R66" s="21"/>
       <c r="S66" s="8"/>
       <c r="T66" s="4" t="s">
         <v>244</v>
@@ -8107,14 +8224,14 @@
         <v>127</v>
       </c>
       <c r="W66" s="4"/>
-      <c r="X66" s="35" t="s">
+      <c r="X66" s="34" t="s">
         <v>236</v>
       </c>
       <c r="Y66" s="10"/>
-      <c r="Z66" s="21" t="s">
+      <c r="Z66" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="AA66" s="22"/>
+      <c r="AA66" s="21"/>
     </row>
     <row r="67" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B67" s="4" t="s">
@@ -8125,31 +8242,31 @@
         <v>128</v>
       </c>
       <c r="E67" s="4"/>
-      <c r="F67" s="35" t="s">
+      <c r="F67" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G67" s="11"/>
-      <c r="H67" s="21" t="s">
+      <c r="H67" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="I67" s="22"/>
+      <c r="I67" s="21"/>
       <c r="J67" s="1"/>
       <c r="K67" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L67" s="4"/>
       <c r="M67" s="4" t="s">
         <v>128</v>
       </c>
       <c r="N67" s="4"/>
-      <c r="O67" s="35" t="s">
+      <c r="O67" s="34" t="s">
         <v>170</v>
       </c>
       <c r="P67" s="11"/>
-      <c r="Q67" s="21" t="s">
+      <c r="Q67" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="R67" s="22"/>
+      <c r="R67" s="21"/>
       <c r="S67" s="8"/>
       <c r="T67" s="4" t="s">
         <v>243</v>
@@ -8159,14 +8276,14 @@
         <v>540</v>
       </c>
       <c r="W67" s="4"/>
-      <c r="X67" s="35" t="s">
+      <c r="X67" s="34" t="s">
         <v>236</v>
       </c>
       <c r="Y67" s="10"/>
-      <c r="Z67" s="21" t="s">
+      <c r="Z67" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="AA67" s="22"/>
+      <c r="AA67" s="21"/>
     </row>
     <row r="68" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B68" s="4" t="s">
@@ -8181,10 +8298,10 @@
         <v>3</v>
       </c>
       <c r="G68" s="11"/>
-      <c r="H68" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="I68" s="22"/>
+      <c r="H68" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="I68" s="21"/>
       <c r="J68" s="1"/>
       <c r="K68" s="4" t="s">
         <v>185</v>
@@ -8198,10 +8315,10 @@
         <v>170</v>
       </c>
       <c r="P68" s="11"/>
-      <c r="Q68" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="R68" s="22"/>
+      <c r="Q68" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="R68" s="21"/>
       <c r="S68" s="8"/>
       <c r="T68" s="4" t="s">
         <v>242</v>
@@ -8215,10 +8332,10 @@
         <v>236</v>
       </c>
       <c r="Y68" s="10"/>
-      <c r="Z68" s="21" t="s">
+      <c r="Z68" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="AA68" s="22"/>
+      <c r="AA68" s="21"/>
     </row>
     <row r="69" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B69" s="3" t="s">
@@ -8233,10 +8350,10 @@
         <v>3</v>
       </c>
       <c r="G69" s="11"/>
-      <c r="H69" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="I69" s="20"/>
+      <c r="H69" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="I69" s="19"/>
       <c r="J69" s="1"/>
       <c r="K69" s="3" t="s">
         <v>184</v>
@@ -8250,10 +8367,10 @@
         <v>170</v>
       </c>
       <c r="P69" s="11"/>
-      <c r="Q69" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="R69" s="20"/>
+      <c r="Q69" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="R69" s="19"/>
       <c r="S69" s="8"/>
       <c r="T69" s="3" t="s">
         <v>241</v>
@@ -8267,10 +8384,10 @@
         <v>236</v>
       </c>
       <c r="Y69" s="10"/>
-      <c r="Z69" s="19" t="s">
+      <c r="Z69" s="18" t="s">
         <v>575</v>
       </c>
-      <c r="AA69" s="20"/>
+      <c r="AA69" s="19"/>
     </row>
     <row r="70" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
@@ -8285,10 +8402,10 @@
         <v>3</v>
       </c>
       <c r="G70" s="11"/>
-      <c r="H70" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="I70" s="20"/>
+      <c r="H70" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="I70" s="19"/>
       <c r="J70" s="1"/>
       <c r="K70" s="3" t="s">
         <v>183</v>
@@ -8298,14 +8415,14 @@
         <v>130</v>
       </c>
       <c r="N70" s="3"/>
-      <c r="O70" s="3" t="s">
+      <c r="O70" s="34" t="s">
         <v>170</v>
       </c>
       <c r="P70" s="11"/>
-      <c r="Q70" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="R70" s="20"/>
+      <c r="Q70" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="R70" s="19"/>
       <c r="S70" s="8"/>
       <c r="T70" s="3" t="s">
         <v>240</v>
@@ -8315,14 +8432,14 @@
         <v>130</v>
       </c>
       <c r="W70" s="3"/>
-      <c r="X70" s="3" t="s">
+      <c r="X70" s="34" t="s">
         <v>236</v>
       </c>
       <c r="Y70" s="10"/>
-      <c r="Z70" s="19" t="s">
+      <c r="Z70" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="AA70" s="20"/>
+      <c r="AA70" s="19"/>
     </row>
     <row r="71" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B71" s="4" t="s">
@@ -8337,10 +8454,10 @@
         <v>3</v>
       </c>
       <c r="G71" s="11"/>
-      <c r="H71" s="21" t="s">
+      <c r="H71" s="20" t="s">
         <v>570</v>
       </c>
-      <c r="I71" s="22"/>
+      <c r="I71" s="21"/>
       <c r="J71" s="1"/>
       <c r="K71" s="4" t="s">
         <v>182</v>
@@ -8354,10 +8471,10 @@
         <v>170</v>
       </c>
       <c r="P71" s="11"/>
-      <c r="Q71" s="21" t="s">
+      <c r="Q71" s="20" t="s">
         <v>570</v>
       </c>
-      <c r="R71" s="22"/>
+      <c r="R71" s="21"/>
       <c r="S71" s="8"/>
       <c r="T71" s="4" t="s">
         <v>239</v>
@@ -8371,10 +8488,10 @@
         <v>236</v>
       </c>
       <c r="Y71" s="11"/>
-      <c r="Z71" s="21" t="s">
+      <c r="Z71" s="20" t="s">
         <v>587</v>
       </c>
-      <c r="AA71" s="22"/>
+      <c r="AA71" s="21"/>
     </row>
     <row r="72" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B72" s="4" t="s">
@@ -8385,14 +8502,14 @@
         <v>547</v>
       </c>
       <c r="E72" s="4"/>
-      <c r="F72" s="35" t="s">
+      <c r="F72" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G72" s="11"/>
-      <c r="H72" s="21" t="s">
+      <c r="H72" s="20" t="s">
         <v>570</v>
       </c>
-      <c r="I72" s="22"/>
+      <c r="I72" s="21"/>
       <c r="J72" s="1"/>
       <c r="K72" s="4" t="s">
         <v>548</v>
@@ -8402,14 +8519,14 @@
         <v>547</v>
       </c>
       <c r="N72" s="4"/>
-      <c r="O72" s="35" t="s">
+      <c r="O72" s="34" t="s">
         <v>170</v>
       </c>
       <c r="P72" s="11"/>
-      <c r="Q72" s="21" t="s">
+      <c r="Q72" s="20" t="s">
         <v>585</v>
       </c>
-      <c r="R72" s="22"/>
+      <c r="R72" s="21"/>
       <c r="T72" s="4" t="s">
         <v>549</v>
       </c>
@@ -8418,14 +8535,14 @@
         <v>547</v>
       </c>
       <c r="W72" s="4"/>
-      <c r="X72" s="35" t="s">
+      <c r="X72" s="34" t="s">
         <v>236</v>
       </c>
       <c r="Y72" s="10"/>
-      <c r="Z72" s="21" t="s">
+      <c r="Z72" s="20" t="s">
         <v>572</v>
       </c>
-      <c r="AA72" s="22"/>
+      <c r="AA72" s="21"/>
     </row>
     <row r="73" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="s">
@@ -8436,14 +8553,14 @@
         <v>551</v>
       </c>
       <c r="E73" s="3"/>
-      <c r="F73" s="3" t="s">
+      <c r="F73" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G73" s="11"/>
-      <c r="H73" s="19" t="s">
+      <c r="H73" s="18" t="s">
         <v>572</v>
       </c>
-      <c r="I73" s="20"/>
+      <c r="I73" s="19"/>
       <c r="J73" s="1"/>
       <c r="K73" s="3" t="s">
         <v>552</v>
@@ -8453,14 +8570,14 @@
         <v>551</v>
       </c>
       <c r="N73" s="3"/>
-      <c r="O73" s="3" t="s">
+      <c r="O73" s="34" t="s">
         <v>170</v>
       </c>
       <c r="P73" s="11"/>
-      <c r="Q73" s="26" t="s">
+      <c r="Q73" s="25" t="s">
         <v>572</v>
       </c>
-      <c r="R73" s="27"/>
+      <c r="R73" s="26"/>
       <c r="T73" s="3" t="s">
         <v>553</v>
       </c>
@@ -8469,110 +8586,110 @@
         <v>551</v>
       </c>
       <c r="W73" s="3"/>
-      <c r="X73" s="3" t="s">
+      <c r="X73" s="34" t="s">
         <v>236</v>
       </c>
       <c r="Y73" s="10"/>
-      <c r="Z73" s="19" t="s">
+      <c r="Z73" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="AA73" s="27"/>
+      <c r="AA73" s="26"/>
     </row>
     <row r="74" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B74" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G74" s="11"/>
-      <c r="H74" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="I74" s="22"/>
+      <c r="H74" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="I74" s="21"/>
       <c r="J74" s="1"/>
       <c r="K74" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="L74" s="4"/>
       <c r="M74" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="N74" s="4"/>
       <c r="O74" s="4" t="s">
         <v>170</v>
       </c>
       <c r="P74" s="11"/>
-      <c r="Q74" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="R74" s="22"/>
+      <c r="Q74" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="R74" s="21"/>
       <c r="T74" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="U74" s="4"/>
       <c r="V74" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="W74" s="4"/>
       <c r="X74" s="4" t="s">
         <v>236</v>
       </c>
       <c r="Y74" s="10"/>
-      <c r="Z74" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA74" s="22"/>
+      <c r="Z74" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA74" s="21"/>
     </row>
     <row r="75" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G75" s="11"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="20"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="19"/>
       <c r="J75" s="1"/>
-      <c r="K75" s="38" t="s">
+      <c r="K75" s="37" t="s">
+        <v>616</v>
+      </c>
+      <c r="L75" s="37"/>
+      <c r="M75" s="37" t="s">
+        <v>615</v>
+      </c>
+      <c r="N75" s="37"/>
+      <c r="O75" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="37"/>
+      <c r="R75" s="37"/>
+      <c r="T75" s="37" t="s">
         <v>617</v>
       </c>
-      <c r="L75" s="38"/>
-      <c r="M75" s="38" t="s">
-        <v>616</v>
-      </c>
-      <c r="N75" s="38"/>
-      <c r="O75" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="P75" s="11"/>
-      <c r="Q75" s="38"/>
-      <c r="R75" s="38"/>
-      <c r="T75" s="38" t="s">
-        <v>618</v>
-      </c>
-      <c r="U75" s="38"/>
-      <c r="V75" s="38" t="s">
-        <v>616</v>
-      </c>
-      <c r="W75" s="38"/>
-      <c r="X75" s="38" t="s">
+      <c r="U75" s="37"/>
+      <c r="V75" s="37" t="s">
+        <v>615</v>
+      </c>
+      <c r="W75" s="37"/>
+      <c r="X75" s="37" t="s">
         <v>236</v>
       </c>
       <c r="Y75" s="11"/>
-      <c r="Z75" s="38"/>
-      <c r="AA75" s="38"/>
+      <c r="Z75" s="37"/>
+      <c r="AA75" s="37"/>
     </row>
     <row r="76" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B76" s="4" t="s">
@@ -8583,15 +8700,15 @@
         <v>150</v>
       </c>
       <c r="E76" s="4"/>
-      <c r="F76" s="35" t="s">
+      <c r="F76" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G76" s="11"/>
-      <c r="H76" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="I76" s="22"/>
-      <c r="P76" s="37"/>
+      <c r="H76" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="I76" s="21"/>
+      <c r="P76" s="36"/>
     </row>
     <row r="77" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B77" s="4" t="s">
@@ -8602,14 +8719,14 @@
         <v>151</v>
       </c>
       <c r="E77" s="4"/>
-      <c r="F77" s="35" t="s">
+      <c r="F77" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G77" s="11"/>
-      <c r="H77" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="I77" s="22"/>
+      <c r="H77" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="I77" s="21"/>
     </row>
     <row r="78" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B78" s="4" t="s">
@@ -8620,14 +8737,14 @@
         <v>152</v>
       </c>
       <c r="E78" s="4"/>
-      <c r="F78" s="35" t="s">
+      <c r="F78" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G78" s="11"/>
-      <c r="H78" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="I78" s="22"/>
+      <c r="H78" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="I78" s="21"/>
     </row>
     <row r="79" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B79" s="4" t="s">
@@ -8638,14 +8755,14 @@
         <v>153</v>
       </c>
       <c r="E79" s="4"/>
-      <c r="F79" s="35" t="s">
+      <c r="F79" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G79" s="11"/>
-      <c r="H79" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="I79" s="22"/>
+      <c r="H79" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="I79" s="21"/>
     </row>
     <row r="80" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B80" s="4" t="s">
@@ -8656,14 +8773,14 @@
         <v>154</v>
       </c>
       <c r="E80" s="4"/>
-      <c r="F80" s="35" t="s">
+      <c r="F80" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G80" s="11"/>
-      <c r="H80" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="I80" s="22"/>
+      <c r="H80" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="I80" s="21"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="4" t="s">
@@ -8674,14 +8791,14 @@
         <v>155</v>
       </c>
       <c r="E81" s="4"/>
-      <c r="F81" s="35" t="s">
+      <c r="F81" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G81" s="11"/>
-      <c r="H81" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="I81" s="22"/>
+      <c r="H81" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="I81" s="21"/>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="4" t="s">
@@ -8696,10 +8813,10 @@
         <v>3</v>
       </c>
       <c r="G82" s="12"/>
-      <c r="H82" s="25" t="s">
+      <c r="H82" s="24" t="s">
         <v>575</v>
       </c>
-      <c r="I82" s="24"/>
+      <c r="I82" s="23"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
@@ -8714,10 +8831,10 @@
         <v>3</v>
       </c>
       <c r="G83" s="12"/>
-      <c r="H83" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="I83" s="22"/>
+      <c r="H83" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="I83" s="21"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="4" t="s">
@@ -8732,10 +8849,10 @@
         <v>3</v>
       </c>
       <c r="G84" s="12"/>
-      <c r="H84" s="21" t="s">
+      <c r="H84" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="I84" s="22"/>
+      <c r="I84" s="21"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="4" t="s">
@@ -8750,10 +8867,10 @@
         <v>3</v>
       </c>
       <c r="G85" s="12"/>
-      <c r="H85" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="I85" s="22"/>
+      <c r="H85" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="I85" s="21"/>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="4" t="s">
@@ -8768,10 +8885,10 @@
         <v>3</v>
       </c>
       <c r="G86" s="12"/>
-      <c r="H86" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="I86" s="22"/>
+      <c r="H86" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="I86" s="21"/>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="4" t="s">
@@ -8786,10 +8903,10 @@
         <v>3</v>
       </c>
       <c r="G87" s="12"/>
-      <c r="H87" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="I87" s="22"/>
+      <c r="H87" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="I87" s="21"/>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="4" t="s">
@@ -8804,10 +8921,10 @@
         <v>3</v>
       </c>
       <c r="G88" s="12"/>
-      <c r="H88" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="I88" s="22"/>
+      <c r="H88" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="I88" s="21"/>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="4" t="s">
@@ -8822,10 +8939,10 @@
         <v>3</v>
       </c>
       <c r="G89" s="12"/>
-      <c r="H89" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="I89" s="22"/>
+      <c r="H89" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="I89" s="21"/>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="4" t="s">
@@ -8840,10 +8957,10 @@
         <v>3</v>
       </c>
       <c r="G90" s="12"/>
-      <c r="H90" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="I90" s="22"/>
+      <c r="H90" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="I90" s="21"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="4" t="s">
@@ -8858,10 +8975,10 @@
         <v>3</v>
       </c>
       <c r="G91" s="12"/>
-      <c r="H91" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="I91" s="22"/>
+      <c r="H91" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="I91" s="21"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="4" t="s">
@@ -8876,10 +8993,10 @@
         <v>3</v>
       </c>
       <c r="G92" s="12"/>
-      <c r="H92" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="I92" s="23"/>
+      <c r="H92" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="I92" s="22"/>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="4" t="s">
@@ -8894,7 +9011,7 @@
         <v>3</v>
       </c>
       <c r="G93" s="12"/>
-      <c r="H93" s="21" t="s">
+      <c r="H93" s="20" t="s">
         <v>576</v>
       </c>
     </row>

--- a/Planning/Assetlist.xlsx
+++ b/Planning/Assetlist.xlsx
@@ -1884,9 +1884,6 @@
     <t>Pickup Ability</t>
   </si>
   <si>
-    <t>j</t>
-  </si>
-  <si>
     <t>7S_TTA_001</t>
   </si>
   <si>
@@ -1957,6 +1954,9 @@
   </si>
   <si>
     <t>GrassHopper Dead</t>
+  </si>
+  <si>
+    <t>2D_ENVFB_001</t>
   </si>
 </sst>
 </file>
@@ -1985,7 +1985,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2019,12 +2019,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2156,7 +2150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2191,13 +2185,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -2478,21 +2471,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:BX93"/>
+  <dimension ref="B1:CD93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AK20" sqref="AK20"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
+      <selection activeCell="BI3" sqref="BI3:BI37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="9" width="9.140625" style="1"/>
-    <col min="17" max="18" width="9.5703125" style="1" customWidth="1"/>
-    <col min="26" max="27" width="9.140625" style="1"/>
-    <col min="35" max="36" width="9.140625" style="1" customWidth="1"/>
+    <col min="8" max="10" width="9.140625" style="1"/>
+    <col min="18" max="20" width="9.5703125" style="1" customWidth="1"/>
+    <col min="28" max="30" width="9.140625" style="1"/>
+    <col min="38" max="40" width="9.140625" style="1" customWidth="1"/>
+    <col min="51" max="51" width="9.140625" style="1"/>
+    <col min="61" max="61" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:76" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2509,126 +2504,126 @@
         <v>567</v>
       </c>
       <c r="I1" s="7"/>
-      <c r="K1" s="7" t="s">
+      <c r="J1" s="8"/>
+      <c r="L1" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="7"/>
+      <c r="N1" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="N1" s="7"/>
       <c r="O1" s="7"/>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="T1" s="6" t="s">
+      <c r="S1" s="7"/>
+      <c r="T1" s="8"/>
+      <c r="V1" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6"/>
+      <c r="X1" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="7" t="s">
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="AA1" s="7"/>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="8"/>
+      <c r="AF1" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6" t="s">
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="7" t="s">
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AL1" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="AJ1" s="7"/>
-      <c r="AL1" s="6" t="s">
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="8"/>
+      <c r="AP1" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6" t="s">
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="6"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="7" t="s">
+      <c r="AS1" s="6"/>
+      <c r="AT1" s="6"/>
+      <c r="AU1" s="6"/>
+      <c r="AV1" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="AS1" s="7" t="s">
+      <c r="AW1" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="AT1" s="7"/>
-      <c r="AV1" s="6" t="s">
+      <c r="AX1" s="7"/>
+      <c r="AY1" s="8"/>
+      <c r="BA1" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="AW1" s="6"/>
-      <c r="AX1" s="6" t="s">
+      <c r="BB1" s="6"/>
+      <c r="BC1" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="AY1" s="6"/>
-      <c r="AZ1" s="6"/>
-      <c r="BA1" s="7" t="s">
+      <c r="BD1" s="6"/>
+      <c r="BE1" s="6"/>
+      <c r="BF1" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="BB1" s="7" t="s">
+      <c r="BG1" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="BC1" s="7"/>
-      <c r="BE1" s="6" t="s">
+      <c r="BH1" s="7"/>
+      <c r="BI1" s="8"/>
+      <c r="BK1" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="BF1" s="6"/>
-      <c r="BG1" s="6" t="s">
+      <c r="BL1" s="6"/>
+      <c r="BM1" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="BH1" s="6"/>
-      <c r="BI1" s="6"/>
-      <c r="BJ1" s="7" t="s">
+      <c r="BN1" s="6"/>
+      <c r="BO1" s="6"/>
+      <c r="BP1" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="BK1" s="7" t="s">
+      <c r="BQ1" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="BL1" s="7"/>
-      <c r="BM1" s="9"/>
-      <c r="BN1" s="9"/>
-      <c r="BO1" s="9"/>
-      <c r="BP1" s="9"/>
-      <c r="BQ1" s="9"/>
-      <c r="BR1" s="9"/>
+      <c r="BR1" s="7"/>
       <c r="BS1" s="9"/>
       <c r="BT1" s="9"/>
       <c r="BU1" s="9"/>
       <c r="BV1" s="9"/>
       <c r="BW1" s="9"/>
       <c r="BX1" s="9"/>
+      <c r="BY1" s="9"/>
+      <c r="BZ1" s="9"/>
+      <c r="CA1" s="9"/>
+      <c r="CB1" s="9"/>
+      <c r="CC1" s="9"/>
+      <c r="CD1" s="9"/>
     </row>
-    <row r="2" spans="2:76" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:82" x14ac:dyDescent="0.25">
       <c r="G2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="BL2" s="9"/>
-      <c r="BM2" s="9"/>
-      <c r="BN2" s="9"/>
-      <c r="BO2" s="9"/>
-      <c r="BP2" s="9"/>
-      <c r="BQ2" s="9"/>
+      <c r="K2" s="1"/>
+      <c r="Q2" s="1"/>
       <c r="BR2" s="9"/>
       <c r="BS2" s="9"/>
       <c r="BT2" s="9"/>
@@ -2636,8 +2631,14 @@
       <c r="BV2" s="9"/>
       <c r="BW2" s="9"/>
       <c r="BX2" s="9"/>
+      <c r="BY2" s="9"/>
+      <c r="BZ2" s="9"/>
+      <c r="CA2" s="9"/>
+      <c r="CB2" s="9"/>
+      <c r="CC2" s="9"/>
+      <c r="CD2" s="9"/>
     </row>
-    <row r="3" spans="2:76" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2654,108 +2655,114 @@
         <v>586</v>
       </c>
       <c r="I3" s="17"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="3" t="s">
+      <c r="J3" s="17"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="3"/>
+      <c r="N3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="34" t="s">
+      <c r="O3" s="3"/>
+      <c r="P3" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="16" t="s">
+      <c r="Q3" s="11"/>
+      <c r="R3" s="16" t="s">
         <v>569</v>
       </c>
-      <c r="R3" s="17"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="3" t="s">
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3" t="s">
+      <c r="W3" s="3"/>
+      <c r="X3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W3" s="3"/>
-      <c r="X3" s="34" t="s">
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="16" t="s">
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="AA3" s="17"/>
-      <c r="AC3" s="3" t="s">
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="17"/>
+      <c r="AF3" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3" t="s">
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3" t="s">
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="16" t="s">
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="16" t="s">
         <v>572</v>
       </c>
-      <c r="AJ3" s="17"/>
-      <c r="AL3" s="3" t="s">
+      <c r="AM3" s="17"/>
+      <c r="AN3" s="19"/>
+      <c r="AP3" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3" t="s">
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="AO3" s="3"/>
-      <c r="AP3" s="3"/>
-      <c r="AQ3" s="3" t="s">
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="AR3" s="10"/>
-      <c r="AS3" s="16" t="s">
+      <c r="AV3" s="10"/>
+      <c r="AW3" s="16" t="s">
         <v>588</v>
       </c>
-      <c r="AT3" s="17"/>
-      <c r="AV3" s="3" t="s">
+      <c r="AX3" s="17"/>
+      <c r="AY3" s="8"/>
+      <c r="BA3" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="AW3" s="3"/>
-      <c r="AX3" s="3" t="s">
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="AY3" s="3"/>
-      <c r="AZ3" s="13" t="s">
+      <c r="BD3" s="3"/>
+      <c r="BE3" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="BA3" s="10"/>
-      <c r="BB3" s="16" t="s">
+      <c r="BF3" s="10"/>
+      <c r="BG3" s="16" t="s">
         <v>571</v>
       </c>
-      <c r="BC3" s="17"/>
-      <c r="BD3" s="1"/>
-      <c r="BE3" s="2" t="s">
+      <c r="BH3" s="17"/>
+      <c r="BI3" s="17"/>
+      <c r="BJ3" s="1"/>
+      <c r="BK3" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="BF3" s="2"/>
-      <c r="BG3" s="2" t="s">
+      <c r="BL3" s="2"/>
+      <c r="BM3" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="BH3" s="2"/>
-      <c r="BI3" s="2" t="s">
+      <c r="BN3" s="2"/>
+      <c r="BO3" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="BJ3" s="6"/>
-      <c r="BK3" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL3" s="31"/>
+      <c r="BP3" s="6"/>
+      <c r="BQ3" s="30" t="s">
+        <v>576</v>
+      </c>
+      <c r="BR3" s="31"/>
     </row>
-    <row r="4" spans="2:76" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -2772,108 +2779,114 @@
         <v>575</v>
       </c>
       <c r="I4" s="19"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="3" t="s">
+      <c r="J4" s="19"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="3"/>
+      <c r="N4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="34" t="s">
+      <c r="O4" s="3"/>
+      <c r="P4" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="18" t="s">
+      <c r="Q4" s="11"/>
+      <c r="R4" s="18" t="s">
         <v>575</v>
       </c>
-      <c r="R4" s="19"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="3" t="s">
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3"/>
+      <c r="X4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="W4" s="3"/>
-      <c r="X4" s="34" t="s">
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="18" t="s">
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="18" t="s">
         <v>575</v>
       </c>
-      <c r="AA4" s="19"/>
-      <c r="AC4" s="3" t="s">
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AF4" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3" t="s">
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="34" t="s">
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="34" t="s">
         <v>319</v>
       </c>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="18" t="s">
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="18" t="s">
         <v>574</v>
       </c>
-      <c r="AJ4" s="19"/>
-      <c r="AL4" s="2" t="s">
+      <c r="AM4" s="19"/>
+      <c r="AN4" s="19"/>
+      <c r="AP4" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="2" t="s">
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="AO4" s="2"/>
-      <c r="AP4" s="2"/>
-      <c r="AQ4" s="2" t="s">
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="AR4" s="10"/>
-      <c r="AS4" s="24" t="s">
+      <c r="AV4" s="10"/>
+      <c r="AW4" s="24" t="s">
         <v>578</v>
       </c>
-      <c r="AT4" s="23"/>
-      <c r="AV4" s="3" t="s">
+      <c r="AX4" s="23"/>
+      <c r="AY4" s="8"/>
+      <c r="BA4" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="AW4" s="3"/>
-      <c r="AX4" s="3" t="s">
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="AY4" s="3"/>
-      <c r="AZ4" s="35" t="s">
+      <c r="BD4" s="3"/>
+      <c r="BE4" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="BA4" s="10"/>
-      <c r="BB4" s="18" t="s">
+      <c r="BF4" s="10"/>
+      <c r="BG4" s="18" t="s">
         <v>569</v>
       </c>
-      <c r="BC4" s="19"/>
-      <c r="BD4" s="1"/>
-      <c r="BE4" s="2" t="s">
+      <c r="BH4" s="19"/>
+      <c r="BI4" s="19"/>
+      <c r="BJ4" s="1"/>
+      <c r="BK4" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="BF4" s="2"/>
-      <c r="BG4" s="2" t="s">
+      <c r="BL4" s="2"/>
+      <c r="BM4" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="BH4" s="2"/>
-      <c r="BI4" s="2" t="s">
+      <c r="BN4" s="2"/>
+      <c r="BO4" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="BJ4" s="6"/>
-      <c r="BK4" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL4" s="28"/>
+      <c r="BP4" s="6"/>
+      <c r="BQ4" s="30" t="s">
+        <v>576</v>
+      </c>
+      <c r="BR4" s="28"/>
     </row>
-    <row r="5" spans="2:76" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2890,108 +2903,114 @@
         <v>576</v>
       </c>
       <c r="I5" s="19"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="3" t="s">
+      <c r="J5" s="19"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="3"/>
+      <c r="N5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="34" t="s">
+      <c r="O5" s="3"/>
+      <c r="P5" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="R5" s="19"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="3" t="s">
+      <c r="Q5" s="11"/>
+      <c r="R5" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3" t="s">
+      <c r="W5" s="3"/>
+      <c r="X5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="W5" s="3"/>
-      <c r="X5" s="34" t="s">
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA5" s="19"/>
-      <c r="AC5" s="3" t="s">
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AF5" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3" t="s">
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="34" t="s">
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="34" t="s">
         <v>319</v>
       </c>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="18" t="s">
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="18" t="s">
         <v>574</v>
       </c>
-      <c r="AJ5" s="19"/>
-      <c r="AL5" s="4" t="s">
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="19"/>
+      <c r="AP5" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="AM5" s="4"/>
-      <c r="AN5" s="4" t="s">
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="AO5" s="4"/>
-      <c r="AP5" s="4"/>
-      <c r="AQ5" s="4" t="s">
+      <c r="AS5" s="4"/>
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="AR5" s="10"/>
-      <c r="AS5" s="20" t="s">
+      <c r="AV5" s="10"/>
+      <c r="AW5" s="20" t="s">
         <v>579</v>
       </c>
-      <c r="AT5" s="21"/>
-      <c r="AV5" s="3" t="s">
+      <c r="AX5" s="21"/>
+      <c r="AY5" s="8"/>
+      <c r="BA5" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="AW5" s="3"/>
-      <c r="AX5" s="3" t="s">
+      <c r="BB5" s="3"/>
+      <c r="BC5" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="AY5" s="3"/>
-      <c r="AZ5" s="13" t="s">
+      <c r="BD5" s="3"/>
+      <c r="BE5" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="BA5" s="10"/>
-      <c r="BB5" s="18" t="s">
+      <c r="BF5" s="10"/>
+      <c r="BG5" s="18" t="s">
         <v>570</v>
       </c>
-      <c r="BC5" s="19"/>
-      <c r="BD5" s="1"/>
-      <c r="BE5" s="2" t="s">
+      <c r="BH5" s="19"/>
+      <c r="BI5" s="19"/>
+      <c r="BJ5" s="1"/>
+      <c r="BK5" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="BF5" s="2"/>
-      <c r="BG5" s="2" t="s">
+      <c r="BL5" s="2"/>
+      <c r="BM5" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="BH5" s="2"/>
-      <c r="BI5" s="2" t="s">
+      <c r="BN5" s="2"/>
+      <c r="BO5" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="BJ5" s="6"/>
-      <c r="BK5" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL5" s="28"/>
+      <c r="BP5" s="6"/>
+      <c r="BQ5" s="30" t="s">
+        <v>576</v>
+      </c>
+      <c r="BR5" s="28"/>
     </row>
-    <row r="6" spans="2:76" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
@@ -3008,108 +3027,114 @@
         <v>576</v>
       </c>
       <c r="I6" s="21"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="4" t="s">
+      <c r="J6" s="21"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="4"/>
+      <c r="N6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="4"/>
+      <c r="P6" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="20" t="s">
+      <c r="Q6" s="11"/>
+      <c r="R6" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="R6" s="21"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="4" t="s">
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="W6" s="4"/>
       <c r="X6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="20" t="s">
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="AA6" s="21"/>
-      <c r="AC6" s="3" t="s">
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="21"/>
+      <c r="AF6" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3" t="s">
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="34" t="s">
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="AH6" s="6"/>
-      <c r="AI6" s="18" t="s">
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="18" t="s">
         <v>574</v>
       </c>
-      <c r="AJ6" s="19"/>
-      <c r="AL6" s="3" t="s">
+      <c r="AM6" s="19"/>
+      <c r="AN6" s="19"/>
+      <c r="AP6" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="3" t="s">
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="AO6" s="3"/>
-      <c r="AP6" s="3"/>
-      <c r="AQ6" s="3" t="s">
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="AR6" s="10"/>
-      <c r="AS6" s="18" t="s">
+      <c r="AV6" s="10"/>
+      <c r="AW6" s="18" t="s">
         <v>589</v>
       </c>
-      <c r="AT6" s="19"/>
-      <c r="AV6" s="3" t="s">
+      <c r="AX6" s="19"/>
+      <c r="AY6" s="8"/>
+      <c r="BA6" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="AW6" s="3"/>
-      <c r="AX6" s="3" t="s">
+      <c r="BB6" s="3"/>
+      <c r="BC6" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="AY6" s="3"/>
-      <c r="AZ6" s="35" t="s">
+      <c r="BD6" s="3"/>
+      <c r="BE6" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="BA6" s="10"/>
-      <c r="BB6" s="18" t="s">
+      <c r="BF6" s="10"/>
+      <c r="BG6" s="18" t="s">
         <v>571</v>
       </c>
-      <c r="BC6" s="19"/>
-      <c r="BD6" s="1"/>
-      <c r="BE6" s="3" t="s">
+      <c r="BH6" s="19"/>
+      <c r="BI6" s="19"/>
+      <c r="BJ6" s="1"/>
+      <c r="BK6" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="BF6" s="3"/>
-      <c r="BG6" s="3" t="s">
+      <c r="BL6" s="3"/>
+      <c r="BM6" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="BH6" s="3"/>
-      <c r="BI6" s="3" t="s">
+      <c r="BN6" s="3"/>
+      <c r="BO6" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="BJ6" s="6"/>
-      <c r="BK6" s="18" t="s">
+      <c r="BP6" s="6"/>
+      <c r="BQ6" s="18" t="s">
         <v>584</v>
       </c>
-      <c r="BL6" s="19"/>
+      <c r="BR6" s="19"/>
     </row>
-    <row r="7" spans="2:76" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
@@ -3126,108 +3151,114 @@
         <v>576</v>
       </c>
       <c r="I7" s="21"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="4" t="s">
+      <c r="J7" s="21"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="4"/>
+      <c r="N7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="4"/>
+      <c r="P7" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="20" t="s">
+      <c r="Q7" s="11"/>
+      <c r="R7" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="R7" s="21"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="4" t="s">
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="4" t="s">
         <v>247</v>
-      </c>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="W7" s="4"/>
       <c r="X7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="20" t="s">
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="AA7" s="21"/>
-      <c r="AC7" s="3" t="s">
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AF7" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3" t="s">
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="34" t="s">
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="18" t="s">
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="18" t="s">
         <v>574</v>
       </c>
-      <c r="AJ7" s="19"/>
-      <c r="AL7" s="3" t="s">
+      <c r="AM7" s="19"/>
+      <c r="AN7" s="19"/>
+      <c r="AP7" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3" t="s">
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
-      <c r="AQ7" s="3" t="s">
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="AR7" s="10"/>
-      <c r="AS7" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="AT7" s="19"/>
-      <c r="AV7" s="3" t="s">
+      <c r="AV7" s="10"/>
+      <c r="AW7" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AX7" s="19"/>
+      <c r="AY7" s="8"/>
+      <c r="BA7" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="AW7" s="3"/>
-      <c r="AX7" s="3" t="s">
+      <c r="BB7" s="3"/>
+      <c r="BC7" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="AY7" s="3"/>
-      <c r="AZ7" s="13" t="s">
+      <c r="BD7" s="3"/>
+      <c r="BE7" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="BA7" s="10"/>
-      <c r="BB7" s="18" t="s">
+      <c r="BF7" s="10"/>
+      <c r="BG7" s="18" t="s">
         <v>571</v>
       </c>
-      <c r="BC7" s="19"/>
-      <c r="BD7" s="1"/>
-      <c r="BE7" s="3" t="s">
+      <c r="BH7" s="19"/>
+      <c r="BI7" s="19"/>
+      <c r="BJ7" s="1"/>
+      <c r="BK7" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="BF7" s="3"/>
-      <c r="BG7" s="3" t="s">
+      <c r="BL7" s="3"/>
+      <c r="BM7" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="BH7" s="3"/>
-      <c r="BI7" s="3" t="s">
+      <c r="BN7" s="3"/>
+      <c r="BO7" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="BJ7" s="6"/>
-      <c r="BK7" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL7" s="19"/>
+      <c r="BP7" s="6"/>
+      <c r="BQ7" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="BR7" s="19"/>
     </row>
-    <row r="8" spans="2:76" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
@@ -3244,108 +3275,114 @@
         <v>575</v>
       </c>
       <c r="I8" s="21"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="21"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="2"/>
+      <c r="N8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="34" t="s">
+      <c r="O8" s="2"/>
+      <c r="P8" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="R8" s="28"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="2" t="s">
+      <c r="Q8" s="11"/>
+      <c r="R8" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="S8" s="28"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2" t="s">
+      <c r="W8" s="2"/>
+      <c r="X8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="W8" s="2"/>
-      <c r="X8" s="34" t="s">
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="27" t="s">
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="AA8" s="28"/>
-      <c r="AC8" s="3" t="s">
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="21"/>
+      <c r="AF8" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3" t="s">
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="34" t="s">
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="34" t="s">
         <v>319</v>
       </c>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="16" t="s">
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="16" t="s">
         <v>571</v>
       </c>
-      <c r="AJ8" s="19"/>
-      <c r="AL8" s="4" t="s">
+      <c r="AM8" s="19"/>
+      <c r="AN8" s="19"/>
+      <c r="AP8" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="AM8" s="4"/>
-      <c r="AN8" s="4" t="s">
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="AO8" s="4"/>
-      <c r="AP8" s="4"/>
-      <c r="AQ8" s="4" t="s">
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="AR8" s="10"/>
-      <c r="AS8" s="20" t="s">
+      <c r="AV8" s="10"/>
+      <c r="AW8" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="AT8" s="21"/>
-      <c r="AV8" s="3" t="s">
+      <c r="AX8" s="21"/>
+      <c r="AY8" s="8"/>
+      <c r="BA8" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="AW8" s="3"/>
-      <c r="AX8" s="3" t="s">
+      <c r="BB8" s="3"/>
+      <c r="BC8" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="AY8" s="3"/>
-      <c r="AZ8" s="35" t="s">
+      <c r="BD8" s="3"/>
+      <c r="BE8" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="BA8" s="10"/>
-      <c r="BB8" s="18" t="s">
+      <c r="BF8" s="10"/>
+      <c r="BG8" s="18" t="s">
         <v>572</v>
       </c>
-      <c r="BC8" s="19"/>
-      <c r="BD8" s="1"/>
-      <c r="BE8" s="3" t="s">
+      <c r="BH8" s="19"/>
+      <c r="BI8" s="19"/>
+      <c r="BJ8" s="1"/>
+      <c r="BK8" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="BF8" s="3"/>
-      <c r="BG8" s="3" t="s">
+      <c r="BL8" s="3"/>
+      <c r="BM8" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="BH8" s="3"/>
-      <c r="BI8" s="3" t="s">
+      <c r="BN8" s="3"/>
+      <c r="BO8" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="BJ8" s="6"/>
-      <c r="BK8" s="18" t="s">
+      <c r="BP8" s="6"/>
+      <c r="BQ8" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="BL8" s="19"/>
+      <c r="BR8" s="19"/>
     </row>
-    <row r="9" spans="2:76" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
@@ -3362,108 +3399,114 @@
         <v>575</v>
       </c>
       <c r="I9" s="21"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="4" t="s">
+      <c r="J9" s="21"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="4"/>
+      <c r="N9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="34" t="s">
+      <c r="O9" s="4"/>
+      <c r="P9" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="20" t="s">
+      <c r="Q9" s="11"/>
+      <c r="R9" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="R9" s="21"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="4" t="s">
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4" t="s">
+      <c r="W9" s="4"/>
+      <c r="X9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W9" s="4"/>
-      <c r="X9" s="34" t="s">
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="20" t="s">
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="AA9" s="21"/>
-      <c r="AC9" s="3" t="s">
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AF9" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3" t="s">
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3" t="s">
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="AH9" s="6"/>
-      <c r="AI9" s="16" t="s">
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="16" t="s">
         <v>572</v>
       </c>
-      <c r="AJ9" s="19"/>
-      <c r="AL9" s="3" t="s">
+      <c r="AM9" s="19"/>
+      <c r="AN9" s="26"/>
+      <c r="AP9" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="AM9" s="3"/>
-      <c r="AN9" s="3" t="s">
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="AO9" s="3"/>
-      <c r="AP9" s="3"/>
-      <c r="AQ9" s="3" t="s">
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
+      <c r="AU9" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="AR9" s="10"/>
-      <c r="AS9" s="18" t="s">
+      <c r="AV9" s="10"/>
+      <c r="AW9" s="18" t="s">
         <v>575</v>
       </c>
-      <c r="AT9" s="19"/>
-      <c r="AV9" s="3" t="s">
+      <c r="AX9" s="19"/>
+      <c r="AY9" s="8"/>
+      <c r="BA9" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="AW9" s="3"/>
-      <c r="AX9" s="3" t="s">
+      <c r="BB9" s="3"/>
+      <c r="BC9" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="AY9" s="3"/>
-      <c r="AZ9" s="35" t="s">
+      <c r="BD9" s="3"/>
+      <c r="BE9" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="BA9" s="10"/>
-      <c r="BB9" s="18" t="s">
+      <c r="BF9" s="10"/>
+      <c r="BG9" s="18" t="s">
         <v>573</v>
       </c>
-      <c r="BC9" s="19"/>
-      <c r="BD9" s="1"/>
-      <c r="BE9" s="3" t="s">
+      <c r="BH9" s="19"/>
+      <c r="BI9" s="19"/>
+      <c r="BJ9" s="1"/>
+      <c r="BK9" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="BF9" s="3"/>
-      <c r="BG9" s="3" t="s">
+      <c r="BL9" s="3"/>
+      <c r="BM9" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="BH9" s="3"/>
-      <c r="BI9" s="3" t="s">
+      <c r="BN9" s="3"/>
+      <c r="BO9" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="BJ9" s="6"/>
-      <c r="BK9" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL9" s="19"/>
+      <c r="BP9" s="6"/>
+      <c r="BQ9" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="BR9" s="19"/>
     </row>
-    <row r="10" spans="2:76" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -3480,108 +3523,114 @@
         <v>575</v>
       </c>
       <c r="I10" s="21"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="2" t="s">
+      <c r="J10" s="21"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="2"/>
+      <c r="N10" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="27" t="s">
+        <v>577</v>
+      </c>
+      <c r="S10" s="28"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="27" t="s">
-        <v>577</v>
-      </c>
-      <c r="R10" s="28"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W10" s="2"/>
-      <c r="X10" s="34" t="s">
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="18" t="s">
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="18" t="s">
         <v>575</v>
       </c>
-      <c r="AA10" s="19"/>
-      <c r="AC10" s="3" t="s">
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="21"/>
+      <c r="AF10" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3" t="s">
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3" t="s">
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="AH10" s="10"/>
-      <c r="AI10" s="16" t="s">
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="16" t="s">
         <v>572</v>
       </c>
-      <c r="AJ10" s="26"/>
-      <c r="AL10" s="3" t="s">
+      <c r="AM10" s="26"/>
+      <c r="AN10" s="26"/>
+      <c r="AP10" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="AM10" s="3"/>
-      <c r="AN10" s="3" t="s">
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="AO10" s="3"/>
-      <c r="AP10" s="3"/>
-      <c r="AQ10" s="3" t="s">
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
+      <c r="AU10" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="AR10" s="10"/>
-      <c r="AS10" s="18" t="s">
+      <c r="AV10" s="10"/>
+      <c r="AW10" s="18" t="s">
         <v>575</v>
       </c>
-      <c r="AT10" s="19"/>
-      <c r="AV10" s="3" t="s">
+      <c r="AX10" s="19"/>
+      <c r="AY10" s="8"/>
+      <c r="BA10" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="AW10" s="3"/>
-      <c r="AX10" s="3" t="s">
+      <c r="BB10" s="3"/>
+      <c r="BC10" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="AY10" s="3"/>
-      <c r="AZ10" s="35" t="s">
+      <c r="BD10" s="3"/>
+      <c r="BE10" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="BA10" s="10"/>
-      <c r="BB10" s="18" t="s">
+      <c r="BF10" s="10"/>
+      <c r="BG10" s="18" t="s">
         <v>571</v>
       </c>
-      <c r="BC10" s="19"/>
-      <c r="BD10" s="1"/>
-      <c r="BE10" s="3" t="s">
+      <c r="BH10" s="19"/>
+      <c r="BI10" s="19"/>
+      <c r="BJ10" s="1"/>
+      <c r="BK10" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="BF10" s="3"/>
-      <c r="BG10" s="3" t="s">
+      <c r="BL10" s="3"/>
+      <c r="BM10" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="BH10" s="3"/>
-      <c r="BI10" s="3" t="s">
+      <c r="BN10" s="3"/>
+      <c r="BO10" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="BJ10" s="6"/>
-      <c r="BK10" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL10" s="19"/>
+      <c r="BP10" s="6"/>
+      <c r="BQ10" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="BR10" s="19"/>
     </row>
-    <row r="11" spans="2:76" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>35</v>
       </c>
@@ -3598,92 +3647,97 @@
         <v>576</v>
       </c>
       <c r="I11" s="19"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="3" t="s">
+      <c r="J11" s="19"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="34" t="s">
+      <c r="O11" s="3"/>
+      <c r="P11" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="18" t="s">
+      <c r="Q11" s="11"/>
+      <c r="R11" s="18" t="s">
         <v>578</v>
       </c>
-      <c r="R11" s="19"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="3" t="s">
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3" t="s">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="W11" s="3"/>
-      <c r="X11" s="34" t="s">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA11" s="19"/>
-      <c r="AL11" s="3" t="s">
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
+      <c r="AP11" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="AM11" s="3"/>
-      <c r="AN11" s="3" t="s">
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="AO11" s="3"/>
-      <c r="AP11" s="3"/>
-      <c r="AQ11" s="3" t="s">
+      <c r="AS11" s="3"/>
+      <c r="AT11" s="3"/>
+      <c r="AU11" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="AR11" s="10"/>
-      <c r="AS11" s="18" t="s">
+      <c r="AV11" s="10"/>
+      <c r="AW11" s="18" t="s">
         <v>575</v>
       </c>
-      <c r="AT11" s="19"/>
-      <c r="AV11" s="3" t="s">
+      <c r="AX11" s="19"/>
+      <c r="AY11" s="8"/>
+      <c r="BA11" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="AW11" s="3"/>
-      <c r="AX11" s="3" t="s">
+      <c r="BB11" s="3"/>
+      <c r="BC11" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="AY11" s="3"/>
-      <c r="AZ11" s="35" t="s">
+      <c r="BD11" s="3"/>
+      <c r="BE11" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="BA11" s="10"/>
-      <c r="BB11" s="18" t="s">
+      <c r="BF11" s="10"/>
+      <c r="BG11" s="18" t="s">
         <v>571</v>
       </c>
-      <c r="BC11" s="19"/>
-      <c r="BD11" s="1"/>
-      <c r="BE11" s="2" t="s">
+      <c r="BH11" s="19"/>
+      <c r="BI11" s="19"/>
+      <c r="BJ11" s="1"/>
+      <c r="BK11" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="BF11" s="2"/>
-      <c r="BG11" s="2" t="s">
+      <c r="BL11" s="2"/>
+      <c r="BM11" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="BH11" s="2"/>
-      <c r="BI11" s="2" t="s">
+      <c r="BN11" s="2"/>
+      <c r="BO11" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="BJ11" s="6"/>
-      <c r="BK11" s="27" t="s">
+      <c r="BP11" s="6"/>
+      <c r="BQ11" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="BL11" s="28"/>
+      <c r="BR11" s="28"/>
     </row>
-    <row r="12" spans="2:76" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
@@ -3700,92 +3754,97 @@
         <v>576</v>
       </c>
       <c r="I12" s="19"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="3" t="s">
+      <c r="J12" s="19"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3" t="s">
+      <c r="M12" s="3"/>
+      <c r="N12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="34" t="s">
+      <c r="O12" s="3"/>
+      <c r="P12" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="18" t="s">
+      <c r="Q12" s="11"/>
+      <c r="R12" s="18" t="s">
         <v>578</v>
       </c>
-      <c r="R12" s="19"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="3" t="s">
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3" t="s">
+      <c r="W12" s="3"/>
+      <c r="X12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="W12" s="3"/>
-      <c r="X12" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA12" s="19"/>
-      <c r="AL12" s="3" t="s">
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
+      <c r="AP12" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="3" t="s">
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="AO12" s="3"/>
-      <c r="AP12" s="3"/>
-      <c r="AQ12" s="3" t="s">
+      <c r="AS12" s="3"/>
+      <c r="AT12" s="3"/>
+      <c r="AU12" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="AR12" s="10"/>
-      <c r="AS12" s="18" t="s">
+      <c r="AV12" s="10"/>
+      <c r="AW12" s="18" t="s">
         <v>575</v>
       </c>
-      <c r="AT12" s="19"/>
-      <c r="AV12" s="3" t="s">
+      <c r="AX12" s="19"/>
+      <c r="AY12" s="8"/>
+      <c r="BA12" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="AW12" s="3"/>
-      <c r="AX12" s="3" t="s">
+      <c r="BB12" s="3"/>
+      <c r="BC12" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="AY12" s="3"/>
-      <c r="AZ12" s="35" t="s">
+      <c r="BD12" s="3"/>
+      <c r="BE12" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="BA12" s="10"/>
-      <c r="BB12" s="18" t="s">
+      <c r="BF12" s="10"/>
+      <c r="BG12" s="18" t="s">
         <v>574</v>
       </c>
-      <c r="BC12" s="19"/>
-      <c r="BD12" s="1"/>
-      <c r="BE12" s="3" t="s">
+      <c r="BH12" s="19"/>
+      <c r="BI12" s="19"/>
+      <c r="BJ12" s="1"/>
+      <c r="BK12" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="BF12" s="3"/>
-      <c r="BG12" s="3" t="s">
+      <c r="BL12" s="3"/>
+      <c r="BM12" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="BH12" s="3"/>
-      <c r="BI12" s="3" t="s">
+      <c r="BN12" s="3"/>
+      <c r="BO12" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="BJ12" s="6"/>
-      <c r="BK12" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL12" s="19"/>
+      <c r="BP12" s="6"/>
+      <c r="BQ12" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="BR12" s="19"/>
     </row>
-    <row r="13" spans="2:76" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>564</v>
       </c>
@@ -3802,92 +3861,97 @@
         <v>575</v>
       </c>
       <c r="I13" s="19"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="3" t="s">
+      <c r="J13" s="19"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3" t="s">
+      <c r="M13" s="3"/>
+      <c r="N13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="34" t="s">
+      <c r="O13" s="3"/>
+      <c r="P13" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="18" t="s">
+      <c r="Q13" s="11"/>
+      <c r="R13" s="18" t="s">
         <v>579</v>
       </c>
-      <c r="R13" s="19"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="3" t="s">
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3" t="s">
+      <c r="W13" s="3"/>
+      <c r="X13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W13" s="3"/>
-      <c r="X13" s="34" t="s">
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="18" t="s">
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="18" t="s">
         <v>575</v>
       </c>
-      <c r="AA13" s="19"/>
-      <c r="AL13" s="3" t="s">
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="19"/>
+      <c r="AP13" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="AM13" s="3"/>
-      <c r="AN13" s="3" t="s">
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="AO13" s="3"/>
-      <c r="AP13" s="3"/>
-      <c r="AQ13" s="3" t="s">
+      <c r="AS13" s="3"/>
+      <c r="AT13" s="3"/>
+      <c r="AU13" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="AR13" s="10"/>
-      <c r="AS13" s="18" t="s">
+      <c r="AV13" s="10"/>
+      <c r="AW13" s="18" t="s">
         <v>575</v>
       </c>
-      <c r="AT13" s="19"/>
-      <c r="AV13" s="3" t="s">
+      <c r="AX13" s="19"/>
+      <c r="AY13" s="8"/>
+      <c r="BA13" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="AW13" s="3"/>
-      <c r="AX13" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="AY13" s="3"/>
-      <c r="AZ13" s="35" t="s">
+      <c r="BB13" s="3"/>
+      <c r="BC13" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="BD13" s="3"/>
+      <c r="BE13" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="BA13" s="10"/>
-      <c r="BB13" s="18" t="s">
+      <c r="BF13" s="10"/>
+      <c r="BG13" s="18" t="s">
         <v>572</v>
       </c>
-      <c r="BC13" s="19"/>
-      <c r="BD13" s="1"/>
-      <c r="BE13" s="3" t="s">
+      <c r="BH13" s="19"/>
+      <c r="BI13" s="19"/>
+      <c r="BJ13" s="1"/>
+      <c r="BK13" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="BF13" s="3"/>
-      <c r="BG13" s="3" t="s">
+      <c r="BL13" s="3"/>
+      <c r="BM13" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="BH13" s="3"/>
-      <c r="BI13" s="3" t="s">
+      <c r="BN13" s="3"/>
+      <c r="BO13" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="BJ13" s="6"/>
-      <c r="BK13" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL13" s="19"/>
+      <c r="BP13" s="6"/>
+      <c r="BQ13" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="BR13" s="19"/>
     </row>
-    <row r="14" spans="2:76" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>565</v>
       </c>
@@ -3904,92 +3968,97 @@
         <v>575</v>
       </c>
       <c r="I14" s="19"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="4" t="s">
+      <c r="J14" s="19"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="4"/>
+      <c r="N14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="34" t="s">
+      <c r="O14" s="4"/>
+      <c r="P14" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="20" t="s">
+      <c r="Q14" s="11"/>
+      <c r="R14" s="20" t="s">
         <v>579</v>
       </c>
-      <c r="R14" s="21"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="4" t="s">
+      <c r="S14" s="21"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4" t="s">
+      <c r="W14" s="4"/>
+      <c r="X14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W14" s="4"/>
-      <c r="X14" s="34" t="s">
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="20" t="s">
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="AA14" s="21"/>
-      <c r="AL14" s="3" t="s">
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="19"/>
+      <c r="AP14" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="AM14" s="3"/>
-      <c r="AN14" s="3" t="s">
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="AO14" s="3"/>
-      <c r="AP14" s="3"/>
-      <c r="AQ14" s="3" t="s">
+      <c r="AS14" s="3"/>
+      <c r="AT14" s="3"/>
+      <c r="AU14" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="AR14" s="10"/>
-      <c r="AS14" s="18" t="s">
+      <c r="AV14" s="10"/>
+      <c r="AW14" s="18" t="s">
         <v>575</v>
       </c>
-      <c r="AT14" s="19"/>
-      <c r="AV14" s="3" t="s">
+      <c r="AX14" s="19"/>
+      <c r="AY14" s="8"/>
+      <c r="BA14" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="AW14" s="3"/>
-      <c r="AX14" s="3" t="s">
+      <c r="BB14" s="3"/>
+      <c r="BC14" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="AY14" s="3"/>
-      <c r="AZ14" s="13" t="s">
+      <c r="BD14" s="3"/>
+      <c r="BE14" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="BA14" s="40"/>
-      <c r="BB14" s="18" t="s">
+      <c r="BF14" s="39"/>
+      <c r="BG14" s="18" t="s">
         <v>572</v>
       </c>
-      <c r="BC14" s="19"/>
-      <c r="BD14" s="1"/>
-      <c r="BE14" s="3" t="s">
+      <c r="BH14" s="19"/>
+      <c r="BI14" s="19"/>
+      <c r="BJ14" s="1"/>
+      <c r="BK14" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="BF14" s="3"/>
-      <c r="BG14" s="3" t="s">
+      <c r="BL14" s="3"/>
+      <c r="BM14" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="BH14" s="3"/>
-      <c r="BI14" s="3" t="s">
+      <c r="BN14" s="3"/>
+      <c r="BO14" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="BJ14" s="6"/>
-      <c r="BK14" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL14" s="19"/>
+      <c r="BP14" s="6"/>
+      <c r="BQ14" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="BR14" s="19"/>
     </row>
-    <row r="15" spans="2:76" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>566</v>
       </c>
@@ -4006,92 +4075,97 @@
         <v>575</v>
       </c>
       <c r="I15" s="21"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="2" t="s">
+      <c r="J15" s="21"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="2"/>
+      <c r="N15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2" t="s">
+      <c r="O15" s="2"/>
+      <c r="P15" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="27" t="s">
+      <c r="Q15" s="11"/>
+      <c r="R15" s="27" t="s">
         <v>579</v>
       </c>
-      <c r="R15" s="28"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="2" t="s">
+      <c r="S15" s="28"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="2" t="s">
         <v>559</v>
-      </c>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="27" t="s">
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="AA15" s="28"/>
-      <c r="AL15" s="3" t="s">
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="21"/>
+      <c r="AP15" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="AM15" s="3"/>
-      <c r="AN15" s="3" t="s">
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="AO15" s="3"/>
-      <c r="AP15" s="3"/>
-      <c r="AQ15" s="3" t="s">
+      <c r="AS15" s="3"/>
+      <c r="AT15" s="3"/>
+      <c r="AU15" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="AR15" s="10"/>
-      <c r="AS15" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="AT15" s="19"/>
-      <c r="AV15" s="4" t="s">
+      <c r="AV15" s="10"/>
+      <c r="AW15" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AX15" s="19"/>
+      <c r="AY15" s="8"/>
+      <c r="BA15" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="AW15" s="4"/>
-      <c r="AX15" s="4" t="s">
+      <c r="BB15" s="4"/>
+      <c r="BC15" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="AY15" s="4"/>
-      <c r="AZ15" s="14" t="s">
+      <c r="BD15" s="4"/>
+      <c r="BE15" s="14" t="s">
         <v>427</v>
       </c>
-      <c r="BA15" s="6"/>
-      <c r="BB15" s="20" t="s">
+      <c r="BF15" s="6"/>
+      <c r="BG15" s="20" t="s">
         <v>570</v>
       </c>
-      <c r="BC15" s="21"/>
-      <c r="BD15" s="1"/>
-      <c r="BE15" s="3" t="s">
+      <c r="BH15" s="21"/>
+      <c r="BI15" s="21"/>
+      <c r="BJ15" s="1"/>
+      <c r="BK15" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="BF15" s="3"/>
-      <c r="BG15" s="3" t="s">
+      <c r="BL15" s="3"/>
+      <c r="BM15" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="BH15" s="3"/>
-      <c r="BI15" s="3" t="s">
+      <c r="BN15" s="3"/>
+      <c r="BO15" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="BJ15" s="6"/>
-      <c r="BK15" s="18" t="s">
+      <c r="BP15" s="6"/>
+      <c r="BQ15" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="BL15" s="19"/>
+      <c r="BR15" s="19"/>
     </row>
-    <row r="16" spans="2:76" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
@@ -4108,92 +4182,97 @@
         <v>576</v>
       </c>
       <c r="I16" s="21"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="2" t="s">
+      <c r="J16" s="21"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="2"/>
+      <c r="N16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="34" t="s">
+      <c r="O16" s="2"/>
+      <c r="P16" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="R16" s="28"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="2" t="s">
+      <c r="Q16" s="11"/>
+      <c r="R16" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="S16" s="28"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2" t="s">
+      <c r="W16" s="2"/>
+      <c r="X16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="W16" s="2"/>
-      <c r="X16" s="34" t="s">
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA16" s="28"/>
-      <c r="AL16" s="5" t="s">
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="21"/>
+      <c r="AP16" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="AM16" s="5"/>
-      <c r="AN16" s="5" t="s">
+      <c r="AQ16" s="5"/>
+      <c r="AR16" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="AO16" s="5"/>
-      <c r="AP16" s="5"/>
-      <c r="AQ16" s="5" t="s">
+      <c r="AS16" s="5"/>
+      <c r="AT16" s="5"/>
+      <c r="AU16" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="AR16" s="10"/>
-      <c r="AS16" s="20" t="s">
-        <v>576</v>
-      </c>
-      <c r="AT16" s="21"/>
-      <c r="AV16" s="4" t="s">
+      <c r="AV16" s="10"/>
+      <c r="AW16" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="AX16" s="21"/>
+      <c r="AY16" s="8"/>
+      <c r="BA16" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="AW16" s="4"/>
-      <c r="AX16" s="4" t="s">
+      <c r="BB16" s="4"/>
+      <c r="BC16" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="AY16" s="4"/>
-      <c r="AZ16" s="14" t="s">
+      <c r="BD16" s="4"/>
+      <c r="BE16" s="14" t="s">
         <v>427</v>
       </c>
-      <c r="BA16" s="6"/>
-      <c r="BB16" s="20" t="s">
+      <c r="BF16" s="6"/>
+      <c r="BG16" s="20" t="s">
         <v>570</v>
       </c>
-      <c r="BC16" s="21"/>
-      <c r="BD16" s="1"/>
-      <c r="BE16" s="3" t="s">
+      <c r="BH16" s="21"/>
+      <c r="BI16" s="21"/>
+      <c r="BJ16" s="1"/>
+      <c r="BK16" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="BF16" s="3"/>
-      <c r="BG16" s="3" t="s">
+      <c r="BL16" s="3"/>
+      <c r="BM16" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="BH16" s="3"/>
-      <c r="BI16" s="3" t="s">
+      <c r="BN16" s="3"/>
+      <c r="BO16" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="BJ16" s="6"/>
-      <c r="BK16" s="18" t="s">
+      <c r="BP16" s="6"/>
+      <c r="BQ16" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="BL16" s="19"/>
+      <c r="BR16" s="19"/>
     </row>
-    <row r="17" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
@@ -4210,90 +4289,95 @@
         <v>576</v>
       </c>
       <c r="I17" s="19"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="3" t="s">
+      <c r="J17" s="19"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3" t="s">
+      <c r="M17" s="3"/>
+      <c r="N17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N17" s="3"/>
-      <c r="O17" s="34" t="s">
+      <c r="O17" s="3"/>
+      <c r="P17" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="R17" s="19"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="3" t="s">
+      <c r="Q17" s="11"/>
+      <c r="R17" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3" t="s">
+      <c r="W17" s="3"/>
+      <c r="X17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="W17" s="3"/>
-      <c r="X17" s="34" t="s">
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA17" s="19"/>
-      <c r="AL17" s="5" t="s">
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="19"/>
+      <c r="AP17" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="AM17" s="5"/>
-      <c r="AN17" s="5" t="s">
+      <c r="AQ17" s="5"/>
+      <c r="AR17" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="AO17" s="5"/>
-      <c r="AP17" s="5"/>
-      <c r="AQ17" s="5" t="s">
+      <c r="AS17" s="5"/>
+      <c r="AT17" s="5"/>
+      <c r="AU17" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="AR17" s="10"/>
-      <c r="AS17" s="20" t="s">
-        <v>576</v>
-      </c>
-      <c r="AT17" s="21"/>
-      <c r="AV17" s="2" t="s">
+      <c r="AV17" s="10"/>
+      <c r="AW17" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="AX17" s="21"/>
+      <c r="AY17" s="8"/>
+      <c r="BA17" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="AW17" s="2"/>
-      <c r="AX17" s="2" t="s">
+      <c r="BB17" s="2"/>
+      <c r="BC17" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="AY17" s="2"/>
-      <c r="AZ17" s="15" t="s">
+      <c r="BD17" s="2"/>
+      <c r="BE17" s="15" t="s">
         <v>427</v>
       </c>
-      <c r="BA17" s="6"/>
-      <c r="BB17" s="24"/>
-      <c r="BC17" s="23"/>
-      <c r="BD17" s="1"/>
-      <c r="BE17" s="3" t="s">
+      <c r="BF17" s="6"/>
+      <c r="BG17" s="24"/>
+      <c r="BH17" s="23"/>
+      <c r="BI17" s="23"/>
+      <c r="BJ17" s="1"/>
+      <c r="BK17" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="BF17" s="3"/>
-      <c r="BG17" s="3" t="s">
+      <c r="BL17" s="3"/>
+      <c r="BM17" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="BH17" s="3"/>
-      <c r="BI17" s="3" t="s">
+      <c r="BN17" s="3"/>
+      <c r="BO17" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="BJ17" s="6"/>
-      <c r="BK17" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL17" s="19"/>
+      <c r="BP17" s="6"/>
+      <c r="BQ17" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="BR17" s="19"/>
     </row>
-    <row r="18" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
@@ -4310,92 +4394,97 @@
         <v>584</v>
       </c>
       <c r="I18" s="19"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="3" t="s">
+      <c r="J18" s="19"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3" t="s">
+      <c r="M18" s="3"/>
+      <c r="N18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N18" s="3"/>
-      <c r="O18" s="34" t="s">
+      <c r="O18" s="3"/>
+      <c r="P18" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="R18" s="19"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="3" t="s">
+      <c r="Q18" s="11"/>
+      <c r="R18" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3" t="s">
+      <c r="W18" s="3"/>
+      <c r="X18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="W18" s="3"/>
-      <c r="X18" s="34" t="s">
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="18" t="s">
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="AA18" s="19"/>
-      <c r="AL18" s="3" t="s">
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="19"/>
+      <c r="AP18" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="AM18" s="3"/>
-      <c r="AN18" s="3" t="s">
+      <c r="AQ18" s="3"/>
+      <c r="AR18" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="AO18" s="3"/>
-      <c r="AP18" s="3"/>
-      <c r="AQ18" s="3" t="s">
+      <c r="AS18" s="3"/>
+      <c r="AT18" s="3"/>
+      <c r="AU18" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="AR18" s="10"/>
-      <c r="AS18" s="18" t="s">
+      <c r="AV18" s="10"/>
+      <c r="AW18" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="AT18" s="19"/>
-      <c r="AV18" s="3" t="s">
+      <c r="AX18" s="19"/>
+      <c r="AY18" s="8"/>
+      <c r="BA18" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="AW18" s="3"/>
-      <c r="AX18" s="3" t="s">
+      <c r="BB18" s="3"/>
+      <c r="BC18" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="AY18" s="3"/>
-      <c r="AZ18" s="13" t="s">
+      <c r="BD18" s="3"/>
+      <c r="BE18" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="BA18" s="10"/>
-      <c r="BB18" s="18" t="s">
+      <c r="BF18" s="10"/>
+      <c r="BG18" s="18" t="s">
         <v>574</v>
       </c>
-      <c r="BC18" s="19"/>
-      <c r="BD18" s="1"/>
-      <c r="BE18" s="2" t="s">
+      <c r="BH18" s="19"/>
+      <c r="BI18" s="19"/>
+      <c r="BJ18" s="1"/>
+      <c r="BK18" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="BF18" s="2"/>
-      <c r="BG18" s="2" t="s">
+      <c r="BL18" s="2"/>
+      <c r="BM18" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="BH18" s="2"/>
-      <c r="BI18" s="2" t="s">
+      <c r="BN18" s="2"/>
+      <c r="BO18" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="BJ18" s="6"/>
-      <c r="BK18" s="27" t="s">
+      <c r="BP18" s="6"/>
+      <c r="BQ18" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="BL18" s="28"/>
+      <c r="BR18" s="28"/>
     </row>
-    <row r="19" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
@@ -4412,92 +4501,97 @@
         <v>571</v>
       </c>
       <c r="I19" s="19"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="3" t="s">
+      <c r="J19" s="19"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3" t="s">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N19" s="3"/>
-      <c r="O19" s="34" t="s">
+      <c r="O19" s="3"/>
+      <c r="P19" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="18" t="s">
+      <c r="Q19" s="11"/>
+      <c r="R19" s="18" t="s">
         <v>584</v>
       </c>
-      <c r="R19" s="19"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="3" t="s">
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3" t="s">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="W19" s="3"/>
-      <c r="X19" s="34" t="s">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="18" t="s">
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="18" t="s">
         <v>584</v>
       </c>
-      <c r="AA19" s="19"/>
-      <c r="AL19" s="2" t="s">
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="19"/>
+      <c r="AP19" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="AM19" s="2"/>
-      <c r="AN19" s="2" t="s">
+      <c r="AQ19" s="2"/>
+      <c r="AR19" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="AO19" s="2"/>
-      <c r="AP19" s="2"/>
-      <c r="AQ19" s="2" t="s">
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="2"/>
+      <c r="AU19" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="AR19" s="10"/>
-      <c r="AS19" s="24" t="s">
+      <c r="AV19" s="10"/>
+      <c r="AW19" s="24" t="s">
         <v>575</v>
       </c>
-      <c r="AT19" s="23"/>
-      <c r="AV19" s="3" t="s">
+      <c r="AX19" s="23"/>
+      <c r="AY19" s="8"/>
+      <c r="BA19" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="AW19" s="3"/>
-      <c r="AX19" s="3" t="s">
+      <c r="BB19" s="3"/>
+      <c r="BC19" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="AY19" s="3"/>
-      <c r="AZ19" s="13" t="s">
+      <c r="BD19" s="3"/>
+      <c r="BE19" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="BA19" s="10"/>
-      <c r="BB19" s="18" t="s">
+      <c r="BF19" s="10"/>
+      <c r="BG19" s="18" t="s">
         <v>570</v>
       </c>
-      <c r="BC19" s="19"/>
-      <c r="BD19" s="1"/>
-      <c r="BE19" s="2" t="s">
+      <c r="BH19" s="19"/>
+      <c r="BI19" s="19"/>
+      <c r="BJ19" s="1"/>
+      <c r="BK19" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="BF19" s="2"/>
-      <c r="BG19" s="2" t="s">
+      <c r="BL19" s="2"/>
+      <c r="BM19" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="BH19" s="2"/>
-      <c r="BI19" s="2" t="s">
+      <c r="BN19" s="2"/>
+      <c r="BO19" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="BJ19" s="6"/>
-      <c r="BK19" s="27" t="s">
+      <c r="BP19" s="6"/>
+      <c r="BQ19" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="BL19" s="28"/>
+      <c r="BR19" s="28"/>
     </row>
-    <row r="20" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>17</v>
       </c>
@@ -4514,92 +4608,97 @@
         <v>576</v>
       </c>
       <c r="I20" s="21"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="4" t="s">
+      <c r="J20" s="21"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4" t="s">
+      <c r="M20" s="4"/>
+      <c r="N20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="34" t="s">
+      <c r="O20" s="4"/>
+      <c r="P20" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="20" t="s">
+      <c r="Q20" s="11"/>
+      <c r="R20" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="R20" s="21"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="4" t="s">
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4" t="s">
+      <c r="W20" s="4"/>
+      <c r="X20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="W20" s="4"/>
-      <c r="X20" s="34" t="s">
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="20" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA20" s="21"/>
-      <c r="AL20" s="4" t="s">
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="AC20" s="21"/>
+      <c r="AD20" s="21"/>
+      <c r="AP20" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="AM20" s="4"/>
-      <c r="AN20" s="4" t="s">
+      <c r="AQ20" s="4"/>
+      <c r="AR20" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="AO20" s="4"/>
-      <c r="AP20" s="4"/>
-      <c r="AQ20" s="4" t="s">
+      <c r="AS20" s="4"/>
+      <c r="AT20" s="4"/>
+      <c r="AU20" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="AR20" s="10"/>
-      <c r="AS20" s="20" t="s">
-        <v>576</v>
-      </c>
-      <c r="AT20" s="21"/>
-      <c r="AV20" s="3" t="s">
+      <c r="AV20" s="10"/>
+      <c r="AW20" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="AX20" s="21"/>
+      <c r="AY20" s="8"/>
+      <c r="BA20" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="AW20" s="3"/>
-      <c r="AX20" s="3" t="s">
+      <c r="BB20" s="3"/>
+      <c r="BC20" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="AY20" s="3"/>
-      <c r="AZ20" s="13" t="s">
+      <c r="BD20" s="3"/>
+      <c r="BE20" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="BA20" s="10"/>
-      <c r="BB20" s="18" t="s">
+      <c r="BF20" s="10"/>
+      <c r="BG20" s="18" t="s">
         <v>570</v>
       </c>
-      <c r="BC20" s="19"/>
-      <c r="BD20" s="1"/>
-      <c r="BE20" s="2" t="s">
+      <c r="BH20" s="19"/>
+      <c r="BI20" s="19"/>
+      <c r="BJ20" s="1"/>
+      <c r="BK20" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="BF20" s="2"/>
-      <c r="BG20" s="2" t="s">
+      <c r="BL20" s="2"/>
+      <c r="BM20" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="BH20" s="2"/>
-      <c r="BI20" s="2" t="s">
+      <c r="BN20" s="2"/>
+      <c r="BO20" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="BJ20" s="6"/>
-      <c r="BK20" s="27" t="s">
+      <c r="BP20" s="6"/>
+      <c r="BQ20" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="BL20" s="28"/>
+      <c r="BR20" s="28"/>
     </row>
-    <row r="21" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>18</v>
       </c>
@@ -4616,95 +4715,100 @@
         <v>584</v>
       </c>
       <c r="I21" s="23"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="3" t="s">
+      <c r="J21" s="23"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3" t="s">
+      <c r="M21" s="3"/>
+      <c r="N21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N21" s="3"/>
-      <c r="O21" s="34" t="s">
+      <c r="O21" s="3"/>
+      <c r="P21" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="18" t="s">
+      <c r="Q21" s="11"/>
+      <c r="R21" s="18" t="s">
         <v>581</v>
       </c>
-      <c r="R21" s="19"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="3" t="s">
+      <c r="S21" s="19"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3" t="s">
+      <c r="W21" s="3"/>
+      <c r="X21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="W21" s="3"/>
-      <c r="X21" s="34" t="s">
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA21" s="19"/>
-      <c r="AL21" s="4" t="s">
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AC21" s="19"/>
+      <c r="AD21" s="23"/>
+      <c r="AP21" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="AM21" s="4"/>
-      <c r="AN21" s="4" t="s">
+      <c r="AQ21" s="4"/>
+      <c r="AR21" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="AO21" s="4"/>
-      <c r="AP21" s="4"/>
-      <c r="AQ21" s="4" t="s">
+      <c r="AS21" s="4"/>
+      <c r="AT21" s="4"/>
+      <c r="AU21" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="AR21" s="10"/>
-      <c r="AS21" s="20" t="s">
+      <c r="AV21" s="10"/>
+      <c r="AW21" s="20" t="s">
         <v>577</v>
       </c>
-      <c r="AT21" s="21"/>
-      <c r="AV21" s="3" t="s">
+      <c r="AX21" s="21"/>
+      <c r="AY21" s="8"/>
+      <c r="BA21" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="AW21" s="3"/>
-      <c r="AX21" s="3" t="s">
+      <c r="BB21" s="3"/>
+      <c r="BC21" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="AY21" s="3"/>
-      <c r="AZ21" s="13" t="s">
+      <c r="BD21" s="3"/>
+      <c r="BE21" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="BA21" s="10"/>
-      <c r="BB21" s="18" t="s">
+      <c r="BF21" s="10"/>
+      <c r="BG21" s="18" t="s">
         <v>570</v>
       </c>
-      <c r="BC21" s="19"/>
-      <c r="BD21" s="1"/>
-      <c r="BE21" s="2" t="s">
+      <c r="BH21" s="19"/>
+      <c r="BI21" s="19"/>
+      <c r="BJ21" s="1"/>
+      <c r="BK21" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="BF21" s="2"/>
-      <c r="BG21" s="2" t="s">
+      <c r="BL21" s="2"/>
+      <c r="BM21" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="BH21" s="2"/>
-      <c r="BI21" s="2" t="s">
+      <c r="BN21" s="2"/>
+      <c r="BO21" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="BJ21" s="6"/>
-      <c r="BK21" s="27" t="s">
+      <c r="BP21" s="6"/>
+      <c r="BQ21" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="BL21" s="28"/>
-      <c r="BN21" t="s">
+      <c r="BR21" s="28"/>
+      <c r="BT21" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="22" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>19</v>
       </c>
@@ -4721,92 +4825,97 @@
         <v>576</v>
       </c>
       <c r="I22" s="23"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="2" t="s">
+      <c r="J22" s="23"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="2"/>
+      <c r="N22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="34" t="s">
+      <c r="O22" s="2"/>
+      <c r="P22" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="27" t="s">
+      <c r="Q22" s="10"/>
+      <c r="R22" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="R22" s="28"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="2" t="s">
+      <c r="S22" s="28"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2" t="s">
+      <c r="W22" s="2"/>
+      <c r="X22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="W22" s="2"/>
-      <c r="X22" s="34" t="s">
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA22" s="28"/>
-      <c r="AL22" s="4" t="s">
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="AC22" s="28"/>
+      <c r="AD22" s="23"/>
+      <c r="AP22" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="AM22" s="4"/>
-      <c r="AN22" s="4" t="s">
+      <c r="AQ22" s="4"/>
+      <c r="AR22" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="AO22" s="4"/>
-      <c r="AP22" s="4"/>
-      <c r="AQ22" s="4" t="s">
+      <c r="AS22" s="4"/>
+      <c r="AT22" s="4"/>
+      <c r="AU22" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="AR22" s="10"/>
-      <c r="AS22" s="20" t="s">
+      <c r="AV22" s="10"/>
+      <c r="AW22" s="20" t="s">
         <v>577</v>
       </c>
-      <c r="AT22" s="21"/>
-      <c r="AV22" s="3" t="s">
+      <c r="AX22" s="21"/>
+      <c r="AY22" s="8"/>
+      <c r="BA22" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="AW22" s="3"/>
-      <c r="AX22" s="3" t="s">
+      <c r="BB22" s="3"/>
+      <c r="BC22" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="AY22" s="3"/>
-      <c r="AZ22" s="13" t="s">
+      <c r="BD22" s="3"/>
+      <c r="BE22" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="BA22" s="10"/>
-      <c r="BB22" s="18" t="s">
+      <c r="BF22" s="10"/>
+      <c r="BG22" s="18" t="s">
         <v>570</v>
       </c>
-      <c r="BC22" s="19"/>
-      <c r="BD22" s="1"/>
-      <c r="BE22" s="2" t="s">
+      <c r="BH22" s="19"/>
+      <c r="BI22" s="19"/>
+      <c r="BJ22" s="1"/>
+      <c r="BK22" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="BF22" s="2"/>
-      <c r="BG22" s="2" t="s">
+      <c r="BL22" s="2"/>
+      <c r="BM22" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="BH22" s="2"/>
-      <c r="BI22" s="2" t="s">
+      <c r="BN22" s="2"/>
+      <c r="BO22" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="BJ22" s="6"/>
-      <c r="BK22" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL22" s="28"/>
+      <c r="BP22" s="6"/>
+      <c r="BQ22" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="BR22" s="28"/>
     </row>
-    <row r="23" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>12</v>
       </c>
@@ -4823,94 +4932,99 @@
         <v>580</v>
       </c>
       <c r="I23" s="19"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="3" t="s">
+      <c r="J23" s="19"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3" t="s">
+      <c r="M23" s="3"/>
+      <c r="N23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N23" s="3"/>
-      <c r="O23" s="34" t="s">
+      <c r="O23" s="3"/>
+      <c r="P23" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="18" t="s">
+      <c r="Q23" s="11"/>
+      <c r="R23" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="R23" s="19"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="3" t="s">
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3" t="s">
+      <c r="W23" s="3"/>
+      <c r="X23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="W23" s="3"/>
-      <c r="X23" s="34" t="s">
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="Y23" s="10"/>
-      <c r="Z23" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA23" s="19"/>
-      <c r="AL23" s="4" t="s">
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AC23" s="19"/>
+      <c r="AD23" s="19"/>
+      <c r="AP23" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="AM23" s="4"/>
-      <c r="AN23" s="4" t="s">
+      <c r="AQ23" s="4"/>
+      <c r="AR23" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="AO23" s="4"/>
-      <c r="AP23" s="4"/>
-      <c r="AQ23" s="4" t="s">
+      <c r="AS23" s="4"/>
+      <c r="AT23" s="4"/>
+      <c r="AU23" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="AR23" s="10"/>
-      <c r="AS23" s="20" t="s">
+      <c r="AV23" s="10"/>
+      <c r="AW23" s="20" t="s">
         <v>577</v>
       </c>
-      <c r="AT23" s="21"/>
-      <c r="AV23" s="3" t="s">
+      <c r="AX23" s="21"/>
+      <c r="AY23" s="8"/>
+      <c r="BA23" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="AW23" s="3"/>
-      <c r="AX23" s="3" t="s">
+      <c r="BB23" s="3"/>
+      <c r="BC23" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="AY23" s="3"/>
-      <c r="AZ23" s="13" t="s">
+      <c r="BD23" s="3"/>
+      <c r="BE23" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="BA23" s="6"/>
-      <c r="BB23" s="18" t="s">
+      <c r="BF23" s="6"/>
+      <c r="BG23" s="18" t="s">
         <v>570</v>
       </c>
-      <c r="BC23" s="19"/>
-      <c r="BD23" s="1"/>
-      <c r="BE23" s="2" t="s">
+      <c r="BH23" s="19"/>
+      <c r="BI23" s="19"/>
+      <c r="BJ23" s="1"/>
+      <c r="BK23" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="BF23" s="2"/>
-      <c r="BG23" s="2" t="s">
+      <c r="BL23" s="2"/>
+      <c r="BM23" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="BH23" s="2"/>
-      <c r="BI23" s="2" t="s">
+      <c r="BN23" s="2"/>
+      <c r="BO23" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="BJ23" s="6"/>
-      <c r="BK23" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL23" s="28"/>
+      <c r="BP23" s="6"/>
+      <c r="BQ23" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="BR23" s="28"/>
     </row>
-    <row r="24" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>608</v>
+        <v>632</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
@@ -4925,92 +5039,97 @@
         <v>580</v>
       </c>
       <c r="I24" s="19"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="3" t="s">
+      <c r="J24" s="19"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3" t="s">
+      <c r="M24" s="3"/>
+      <c r="N24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3" t="s">
+      <c r="O24" s="3"/>
+      <c r="P24" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="18" t="s">
+      <c r="Q24" s="11"/>
+      <c r="R24" s="18" t="s">
         <v>581</v>
       </c>
-      <c r="R24" s="19"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="3" t="s">
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="W24" s="3"/>
       <c r="X24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="Y24" s="10"/>
-      <c r="Z24" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA24" s="19"/>
-      <c r="AL24" s="4" t="s">
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AC24" s="19"/>
+      <c r="AD24" s="19"/>
+      <c r="AP24" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="AM24" s="4"/>
-      <c r="AN24" s="4" t="s">
+      <c r="AQ24" s="4"/>
+      <c r="AR24" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="AO24" s="4"/>
-      <c r="AP24" s="4"/>
-      <c r="AQ24" s="4" t="s">
+      <c r="AS24" s="4"/>
+      <c r="AT24" s="4"/>
+      <c r="AU24" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="AR24" s="10"/>
-      <c r="AS24" s="20" t="s">
+      <c r="AV24" s="10"/>
+      <c r="AW24" s="20" t="s">
         <v>577</v>
       </c>
-      <c r="AT24" s="21"/>
-      <c r="AV24" s="3" t="s">
+      <c r="AX24" s="21"/>
+      <c r="AY24" s="8"/>
+      <c r="BA24" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="AW24" s="3"/>
-      <c r="AX24" s="3" t="s">
+      <c r="BB24" s="3"/>
+      <c r="BC24" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="AY24" s="3"/>
-      <c r="AZ24" s="13" t="s">
+      <c r="BD24" s="3"/>
+      <c r="BE24" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="BA24" s="10"/>
-      <c r="BB24" s="18" t="s">
+      <c r="BF24" s="10"/>
+      <c r="BG24" s="18" t="s">
         <v>572</v>
       </c>
-      <c r="BC24" s="19"/>
-      <c r="BD24" s="1"/>
-      <c r="BE24" s="2" t="s">
+      <c r="BH24" s="19"/>
+      <c r="BI24" s="19"/>
+      <c r="BJ24" s="1"/>
+      <c r="BK24" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="BF24" s="2"/>
-      <c r="BG24" s="2" t="s">
+      <c r="BL24" s="2"/>
+      <c r="BM24" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="BH24" s="2"/>
-      <c r="BI24" s="2" t="s">
+      <c r="BN24" s="2"/>
+      <c r="BO24" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="BJ24" s="6"/>
-      <c r="BK24" s="27" t="s">
+      <c r="BP24" s="6"/>
+      <c r="BQ24" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="BL24" s="28"/>
+      <c r="BR24" s="28"/>
     </row>
-    <row r="25" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>20</v>
       </c>
@@ -5027,92 +5146,97 @@
         <v>576</v>
       </c>
       <c r="I25" s="23"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="2" t="s">
+      <c r="J25" s="23"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="2"/>
+      <c r="N25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="34" t="s">
+      <c r="O25" s="2"/>
+      <c r="P25" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="27" t="s">
+      <c r="Q25" s="11"/>
+      <c r="R25" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="R25" s="28"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="2" t="s">
+      <c r="S25" s="28"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2" t="s">
+      <c r="W25" s="2"/>
+      <c r="X25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="W25" s="2"/>
-      <c r="X25" s="34" t="s">
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="Y25" s="10"/>
-      <c r="Z25" s="27" t="s">
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="AA25" s="28"/>
-      <c r="AL25" s="4" t="s">
+      <c r="AC25" s="28"/>
+      <c r="AD25" s="23"/>
+      <c r="AP25" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="AM25" s="4"/>
-      <c r="AN25" s="4" t="s">
+      <c r="AQ25" s="4"/>
+      <c r="AR25" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="AO25" s="4"/>
-      <c r="AP25" s="4"/>
-      <c r="AQ25" s="4" t="s">
+      <c r="AS25" s="4"/>
+      <c r="AT25" s="4"/>
+      <c r="AU25" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="AR25" s="10"/>
-      <c r="AS25" s="20" t="s">
+      <c r="AV25" s="10"/>
+      <c r="AW25" s="20" t="s">
         <v>577</v>
       </c>
-      <c r="AT25" s="21"/>
-      <c r="AV25" s="3" t="s">
+      <c r="AX25" s="21"/>
+      <c r="AY25" s="8"/>
+      <c r="BA25" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="AW25" s="3"/>
-      <c r="AX25" s="3" t="s">
+      <c r="BB25" s="3"/>
+      <c r="BC25" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="AY25" s="3"/>
-      <c r="AZ25" s="13" t="s">
+      <c r="BD25" s="3"/>
+      <c r="BE25" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="BA25" s="10"/>
-      <c r="BB25" s="18" t="s">
+      <c r="BF25" s="10"/>
+      <c r="BG25" s="18" t="s">
         <v>572</v>
       </c>
-      <c r="BC25" s="19"/>
-      <c r="BD25" s="1"/>
-      <c r="BE25" s="2" t="s">
+      <c r="BH25" s="19"/>
+      <c r="BI25" s="19"/>
+      <c r="BJ25" s="1"/>
+      <c r="BK25" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="BF25" s="2"/>
-      <c r="BG25" s="2" t="s">
+      <c r="BL25" s="2"/>
+      <c r="BM25" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="BH25" s="2"/>
-      <c r="BI25" s="2" t="s">
+      <c r="BN25" s="2"/>
+      <c r="BO25" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="BJ25" s="6"/>
-      <c r="BK25" s="27" t="s">
+      <c r="BP25" s="6"/>
+      <c r="BQ25" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="BL25" s="28"/>
+      <c r="BR25" s="28"/>
     </row>
-    <row r="26" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>21</v>
       </c>
@@ -5129,92 +5253,97 @@
         <v>576</v>
       </c>
       <c r="I26" s="23"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="2" t="s">
+      <c r="J26" s="23"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="2"/>
+      <c r="N26" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="34" t="s">
+      <c r="O26" s="2"/>
+      <c r="P26" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="27" t="s">
+      <c r="Q26" s="11"/>
+      <c r="R26" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="R26" s="28"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="2" t="s">
+      <c r="S26" s="28"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2" t="s">
+      <c r="W26" s="2"/>
+      <c r="X26" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="W26" s="2"/>
-      <c r="X26" s="34" t="s">
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="Y26" s="10"/>
-      <c r="Z26" s="27" t="s">
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="AA26" s="28"/>
-      <c r="AL26" s="2" t="s">
+      <c r="AC26" s="28"/>
+      <c r="AD26" s="23"/>
+      <c r="AP26" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="AM26" s="2"/>
-      <c r="AN26" s="2" t="s">
+      <c r="AQ26" s="2"/>
+      <c r="AR26" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="AO26" s="2"/>
-      <c r="AP26" s="2"/>
-      <c r="AQ26" s="2" t="s">
+      <c r="AS26" s="2"/>
+      <c r="AT26" s="2"/>
+      <c r="AU26" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="AR26" s="10"/>
-      <c r="AS26" s="20" t="s">
+      <c r="AV26" s="10"/>
+      <c r="AW26" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="AT26" s="21"/>
-      <c r="AV26" s="2" t="s">
+      <c r="AX26" s="21"/>
+      <c r="AY26" s="8"/>
+      <c r="BA26" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="AW26" s="2"/>
-      <c r="AX26" s="2" t="s">
+      <c r="BB26" s="2"/>
+      <c r="BC26" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="AY26" s="2"/>
-      <c r="AZ26" s="15" t="s">
+      <c r="BD26" s="2"/>
+      <c r="BE26" s="15" t="s">
         <v>427</v>
       </c>
-      <c r="BA26" s="6"/>
-      <c r="BB26" s="24" t="s">
+      <c r="BF26" s="6"/>
+      <c r="BG26" s="24" t="s">
         <v>572</v>
       </c>
-      <c r="BC26" s="23"/>
-      <c r="BD26" s="1"/>
-      <c r="BE26" s="2" t="s">
+      <c r="BH26" s="23"/>
+      <c r="BI26" s="23"/>
+      <c r="BJ26" s="1"/>
+      <c r="BK26" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="BF26" s="2"/>
-      <c r="BG26" s="2" t="s">
+      <c r="BL26" s="2"/>
+      <c r="BM26" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="BH26" s="2"/>
-      <c r="BI26" s="2" t="s">
+      <c r="BN26" s="2"/>
+      <c r="BO26" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="BJ26" s="6"/>
-      <c r="BK26" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL26" s="28"/>
+      <c r="BP26" s="6"/>
+      <c r="BQ26" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="BR26" s="28"/>
     </row>
-    <row r="27" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>22</v>
       </c>
@@ -5231,92 +5360,97 @@
         <v>571</v>
       </c>
       <c r="I27" s="19"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="3" t="s">
+      <c r="J27" s="19"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3" t="s">
+      <c r="M27" s="3"/>
+      <c r="N27" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N27" s="3"/>
-      <c r="O27" s="34" t="s">
+      <c r="O27" s="3"/>
+      <c r="P27" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="18" t="s">
+      <c r="Q27" s="11"/>
+      <c r="R27" s="18" t="s">
         <v>584</v>
       </c>
-      <c r="R27" s="19"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="3" t="s">
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3" t="s">
+      <c r="W27" s="3"/>
+      <c r="X27" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="W27" s="3"/>
-      <c r="X27" s="34" t="s">
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="18" t="s">
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="18" t="s">
         <v>584</v>
       </c>
-      <c r="AA27" s="19"/>
-      <c r="AL27" s="3" t="s">
+      <c r="AC27" s="19"/>
+      <c r="AD27" s="19"/>
+      <c r="AP27" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="AM27" s="3"/>
-      <c r="AN27" s="3" t="s">
+      <c r="AQ27" s="3"/>
+      <c r="AR27" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="AO27" s="3"/>
-      <c r="AP27" s="3"/>
-      <c r="AQ27" s="3" t="s">
+      <c r="AS27" s="3"/>
+      <c r="AT27" s="3"/>
+      <c r="AU27" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="AR27" s="10"/>
-      <c r="AS27" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="AT27" s="19"/>
-      <c r="AV27" s="38" t="s">
+      <c r="AV27" s="10"/>
+      <c r="AW27" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AX27" s="19"/>
+      <c r="AY27" s="8"/>
+      <c r="BA27" s="38" t="s">
         <v>495</v>
       </c>
-      <c r="AW27" s="38"/>
-      <c r="AX27" s="38" t="s">
+      <c r="BB27" s="38"/>
+      <c r="BC27" s="38" t="s">
         <v>501</v>
       </c>
-      <c r="AY27" s="38"/>
-      <c r="AZ27" s="30" t="s">
+      <c r="BD27" s="38"/>
+      <c r="BE27" s="30" t="s">
         <v>427</v>
       </c>
-      <c r="BA27" s="33"/>
-      <c r="BB27" s="24" t="s">
+      <c r="BF27" s="33"/>
+      <c r="BG27" s="24" t="s">
         <v>572</v>
       </c>
-      <c r="BC27" s="23"/>
-      <c r="BD27" s="1"/>
-      <c r="BE27" s="2" t="s">
+      <c r="BH27" s="23"/>
+      <c r="BI27" s="23"/>
+      <c r="BJ27" s="1"/>
+      <c r="BK27" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="BF27" s="2"/>
-      <c r="BG27" s="2" t="s">
+      <c r="BL27" s="2"/>
+      <c r="BM27" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="BH27" s="2"/>
-      <c r="BI27" s="2" t="s">
+      <c r="BN27" s="2"/>
+      <c r="BO27" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="BJ27" s="6"/>
-      <c r="BK27" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL27" s="28"/>
+      <c r="BP27" s="6"/>
+      <c r="BQ27" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="BR27" s="28"/>
     </row>
-    <row r="28" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>23</v>
       </c>
@@ -5333,92 +5467,97 @@
         <v>584</v>
       </c>
       <c r="I28" s="23"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="2" t="s">
+      <c r="J28" s="23"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="2"/>
+      <c r="N28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="34" t="s">
+      <c r="O28" s="2"/>
+      <c r="P28" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="27" t="s">
+      <c r="Q28" s="11"/>
+      <c r="R28" s="27" t="s">
         <v>581</v>
       </c>
-      <c r="R28" s="28"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="2" t="s">
+      <c r="S28" s="28"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2" t="s">
+      <c r="W28" s="2"/>
+      <c r="X28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W28" s="2"/>
-      <c r="X28" s="34" t="s">
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="Y28" s="10"/>
-      <c r="Z28" s="27" t="s">
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="AA28" s="28"/>
-      <c r="AL28" s="3" t="s">
+      <c r="AC28" s="28"/>
+      <c r="AD28" s="23"/>
+      <c r="AP28" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="AM28" s="3"/>
-      <c r="AN28" s="3" t="s">
+      <c r="AQ28" s="3"/>
+      <c r="AR28" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="AO28" s="3"/>
-      <c r="AP28" s="3"/>
-      <c r="AQ28" s="3" t="s">
+      <c r="AS28" s="3"/>
+      <c r="AT28" s="3"/>
+      <c r="AU28" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="AR28" s="10"/>
-      <c r="AS28" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="AT28" s="19"/>
-      <c r="AV28" s="3" t="s">
+      <c r="AV28" s="10"/>
+      <c r="AW28" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AX28" s="19"/>
+      <c r="AY28" s="8"/>
+      <c r="BA28" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="AW28" s="3"/>
-      <c r="AX28" s="3" t="s">
+      <c r="BB28" s="3"/>
+      <c r="BC28" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="AY28" s="3"/>
-      <c r="AZ28" s="3" t="s">
+      <c r="BD28" s="3"/>
+      <c r="BE28" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="BA28" s="6"/>
-      <c r="BB28" s="3" t="s">
+      <c r="BF28" s="6"/>
+      <c r="BG28" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="BC28" s="3"/>
-      <c r="BD28" s="1"/>
-      <c r="BE28" s="2" t="s">
+      <c r="BH28" s="3"/>
+      <c r="BI28" s="3"/>
+      <c r="BJ28" s="1"/>
+      <c r="BK28" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="BF28" s="2"/>
-      <c r="BG28" s="2" t="s">
+      <c r="BL28" s="2"/>
+      <c r="BM28" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="BH28" s="2"/>
-      <c r="BI28" s="2" t="s">
+      <c r="BN28" s="2"/>
+      <c r="BO28" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="BJ28" s="6"/>
-      <c r="BK28" s="27" t="s">
+      <c r="BP28" s="6"/>
+      <c r="BQ28" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="BL28" s="28"/>
+      <c r="BR28" s="28"/>
     </row>
-    <row r="29" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>24</v>
       </c>
@@ -5435,92 +5574,97 @@
         <v>576</v>
       </c>
       <c r="I29" s="19"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="3" t="s">
+      <c r="J29" s="19"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="3"/>
+      <c r="N29" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N29" s="3"/>
-      <c r="O29" s="34" t="s">
+      <c r="O29" s="3"/>
+      <c r="P29" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="18" t="s">
+      <c r="Q29" s="10"/>
+      <c r="R29" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="R29" s="19"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="3" t="s">
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3" t="s">
+      <c r="W29" s="3"/>
+      <c r="X29" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="W29" s="3"/>
-      <c r="X29" s="34" t="s">
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="Y29" s="10"/>
-      <c r="Z29" s="18" t="s">
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="AA29" s="19"/>
-      <c r="AL29" s="3" t="s">
+      <c r="AC29" s="19"/>
+      <c r="AD29" s="19"/>
+      <c r="AP29" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="AM29" s="3"/>
-      <c r="AN29" s="3" t="s">
+      <c r="AQ29" s="3"/>
+      <c r="AR29" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="AO29" s="3"/>
-      <c r="AP29" s="3"/>
-      <c r="AQ29" s="3" t="s">
+      <c r="AS29" s="3"/>
+      <c r="AT29" s="3"/>
+      <c r="AU29" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="AR29" s="10"/>
-      <c r="AS29" s="18" t="s">
+      <c r="AV29" s="10"/>
+      <c r="AW29" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="AT29" s="19"/>
-      <c r="AV29" s="3" t="s">
+      <c r="AX29" s="19"/>
+      <c r="AY29" s="8"/>
+      <c r="BA29" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="AW29" s="3"/>
-      <c r="AX29" s="3" t="s">
+      <c r="BB29" s="3"/>
+      <c r="BC29" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="AY29" s="3"/>
-      <c r="AZ29" s="3" t="s">
+      <c r="BD29" s="3"/>
+      <c r="BE29" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="BA29" s="6"/>
-      <c r="BB29" s="3" t="s">
+      <c r="BF29" s="6"/>
+      <c r="BG29" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="BC29" s="3"/>
-      <c r="BD29" s="1"/>
-      <c r="BE29" s="2" t="s">
+      <c r="BH29" s="3"/>
+      <c r="BI29" s="3"/>
+      <c r="BJ29" s="1"/>
+      <c r="BK29" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="BF29" s="2"/>
-      <c r="BG29" s="2" t="s">
+      <c r="BL29" s="2"/>
+      <c r="BM29" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="BH29" s="2"/>
-      <c r="BI29" s="2" t="s">
+      <c r="BN29" s="2"/>
+      <c r="BO29" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="BJ29" s="6"/>
-      <c r="BK29" s="27" t="s">
+      <c r="BP29" s="6"/>
+      <c r="BQ29" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="BL29" s="28"/>
+      <c r="BR29" s="28"/>
     </row>
-    <row r="30" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>25</v>
       </c>
@@ -5537,92 +5681,97 @@
         <v>576</v>
       </c>
       <c r="I30" s="19"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="3" t="s">
+      <c r="J30" s="19"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3" t="s">
+      <c r="M30" s="3"/>
+      <c r="N30" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="N30" s="3"/>
-      <c r="O30" s="34" t="s">
+      <c r="O30" s="3"/>
+      <c r="P30" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="18" t="s">
+      <c r="Q30" s="11"/>
+      <c r="R30" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="R30" s="19"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="3" t="s">
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3" t="s">
+      <c r="W30" s="3"/>
+      <c r="X30" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="W30" s="3"/>
-      <c r="X30" s="34" t="s">
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="Y30" s="10"/>
-      <c r="Z30" s="18" t="s">
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="AA30" s="19"/>
-      <c r="AL30" s="3" t="s">
+      <c r="AC30" s="19"/>
+      <c r="AD30" s="19"/>
+      <c r="AP30" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="AM30" s="3"/>
-      <c r="AN30" s="3" t="s">
+      <c r="AQ30" s="3"/>
+      <c r="AR30" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="AO30" s="3"/>
-      <c r="AP30" s="3"/>
-      <c r="AQ30" s="3" t="s">
+      <c r="AS30" s="3"/>
+      <c r="AT30" s="3"/>
+      <c r="AU30" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="AR30" s="10"/>
-      <c r="AS30" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="AT30" s="19"/>
-      <c r="AV30" s="3" t="s">
+      <c r="AV30" s="10"/>
+      <c r="AW30" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AX30" s="19"/>
+      <c r="AY30" s="8"/>
+      <c r="BA30" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="AW30" s="3"/>
-      <c r="AX30" s="3" t="s">
+      <c r="BB30" s="3"/>
+      <c r="BC30" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="AY30" s="3"/>
-      <c r="AZ30" s="39" t="s">
-        <v>426</v>
-      </c>
-      <c r="BA30" s="10"/>
-      <c r="BB30" s="3" t="s">
+      <c r="BD30" s="3"/>
+      <c r="BE30" s="35" t="s">
+        <v>427</v>
+      </c>
+      <c r="BF30" s="10"/>
+      <c r="BG30" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="BC30" s="3"/>
-      <c r="BD30" s="1"/>
-      <c r="BE30" s="2" t="s">
+      <c r="BH30" s="3"/>
+      <c r="BI30" s="3"/>
+      <c r="BJ30" s="1"/>
+      <c r="BK30" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="BF30" s="2"/>
-      <c r="BG30" s="2" t="s">
+      <c r="BL30" s="2"/>
+      <c r="BM30" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="BH30" s="2"/>
-      <c r="BI30" s="2" t="s">
+      <c r="BN30" s="2"/>
+      <c r="BO30" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="BJ30" s="6"/>
-      <c r="BK30" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL30" s="28"/>
+      <c r="BP30" s="6"/>
+      <c r="BQ30" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="BR30" s="28"/>
     </row>
-    <row r="31" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>54</v>
       </c>
@@ -5639,92 +5788,97 @@
         <v>580</v>
       </c>
       <c r="I31" s="19"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="3" t="s">
+      <c r="J31" s="19"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3" t="s">
+      <c r="M31" s="3"/>
+      <c r="N31" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="N31" s="3"/>
-      <c r="O31" s="34" t="s">
+      <c r="O31" s="3"/>
+      <c r="P31" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="18" t="s">
+      <c r="Q31" s="11"/>
+      <c r="R31" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="R31" s="19"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="3" t="s">
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3" t="s">
+      <c r="W31" s="3"/>
+      <c r="X31" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="W31" s="3"/>
-      <c r="X31" s="34" t="s">
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="Y31" s="10"/>
-      <c r="Z31" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA31" s="19"/>
-      <c r="AL31" s="3" t="s">
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AC31" s="19"/>
+      <c r="AD31" s="19"/>
+      <c r="AP31" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="AQ31" s="3"/>
+      <c r="AR31" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="AM31" s="3"/>
-      <c r="AN31" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="AO31" s="3"/>
-      <c r="AP31" s="3"/>
-      <c r="AQ31" s="3" t="s">
+      <c r="AS31" s="3"/>
+      <c r="AT31" s="3"/>
+      <c r="AU31" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="AR31" s="10"/>
-      <c r="AS31" s="18" t="s">
+      <c r="AV31" s="10"/>
+      <c r="AW31" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="AT31" s="19"/>
-      <c r="AV31" s="3" t="s">
+      <c r="AX31" s="19"/>
+      <c r="AY31" s="8"/>
+      <c r="BA31" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="AW31" s="3"/>
-      <c r="AX31" s="3" t="s">
+      <c r="BB31" s="3"/>
+      <c r="BC31" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="AY31" s="3"/>
-      <c r="AZ31" s="3" t="s">
+      <c r="BD31" s="3"/>
+      <c r="BE31" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="BA31" s="6"/>
-      <c r="BB31" s="3" t="s">
+      <c r="BF31" s="6"/>
+      <c r="BG31" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="BC31" s="3"/>
-      <c r="BD31" s="1"/>
-      <c r="BE31" s="2" t="s">
+      <c r="BH31" s="3"/>
+      <c r="BI31" s="3"/>
+      <c r="BJ31" s="1"/>
+      <c r="BK31" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="BF31" s="2"/>
-      <c r="BG31" s="2" t="s">
+      <c r="BL31" s="2"/>
+      <c r="BM31" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="BH31" s="2"/>
-      <c r="BI31" s="2" t="s">
+      <c r="BN31" s="2"/>
+      <c r="BO31" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="BJ31" s="6"/>
-      <c r="BK31" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL31" s="28"/>
+      <c r="BP31" s="6"/>
+      <c r="BQ31" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="BR31" s="28"/>
     </row>
-    <row r="32" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>55</v>
       </c>
@@ -5741,92 +5895,97 @@
         <v>580</v>
       </c>
       <c r="I32" s="23"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="2" t="s">
+      <c r="J32" s="23"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="2"/>
+      <c r="N32" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="34" t="s">
+      <c r="O32" s="2"/>
+      <c r="P32" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="27" t="s">
+      <c r="Q32" s="11"/>
+      <c r="R32" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="R32" s="28"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="2" t="s">
+      <c r="S32" s="28"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2" t="s">
+      <c r="W32" s="2"/>
+      <c r="X32" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="W32" s="2"/>
-      <c r="X32" s="34" t="s">
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="Y32" s="10"/>
-      <c r="Z32" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA32" s="28"/>
-      <c r="AL32" s="3" t="s">
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="AC32" s="28"/>
+      <c r="AD32" s="23"/>
+      <c r="AP32" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="AM32" s="3"/>
-      <c r="AN32" s="3" t="s">
+      <c r="AQ32" s="3"/>
+      <c r="AR32" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="AO32" s="3"/>
-      <c r="AP32" s="3"/>
-      <c r="AQ32" s="3" t="s">
+      <c r="AS32" s="3"/>
+      <c r="AT32" s="3"/>
+      <c r="AU32" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="AR32" s="10"/>
-      <c r="AS32" s="18" t="s">
+      <c r="AV32" s="10"/>
+      <c r="AW32" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="AT32" s="19"/>
-      <c r="AV32" s="3" t="s">
+      <c r="AX32" s="19"/>
+      <c r="AY32" s="8"/>
+      <c r="BA32" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="AW32" s="3"/>
-      <c r="AX32" s="3" t="s">
+      <c r="BB32" s="3"/>
+      <c r="BC32" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="AY32" s="3"/>
-      <c r="AZ32" s="3" t="s">
+      <c r="BD32" s="3"/>
+      <c r="BE32" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="BA32" s="6"/>
-      <c r="BB32" s="3" t="s">
+      <c r="BF32" s="6"/>
+      <c r="BG32" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="BC32" s="3"/>
-      <c r="BD32" s="1"/>
-      <c r="BE32" s="2" t="s">
+      <c r="BH32" s="3"/>
+      <c r="BI32" s="3"/>
+      <c r="BJ32" s="1"/>
+      <c r="BK32" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="BF32" s="2"/>
-      <c r="BG32" s="2" t="s">
+      <c r="BL32" s="2"/>
+      <c r="BM32" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="BH32" s="2"/>
-      <c r="BI32" s="2" t="s">
+      <c r="BN32" s="2"/>
+      <c r="BO32" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="BJ32" s="6"/>
-      <c r="BK32" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL32" s="28"/>
+      <c r="BP32" s="6"/>
+      <c r="BQ32" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="BR32" s="28"/>
     </row>
-    <row r="33" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>56</v>
       </c>
@@ -5843,92 +6002,97 @@
         <v>580</v>
       </c>
       <c r="I33" s="23"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="2" t="s">
+      <c r="J33" s="23"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="2"/>
+      <c r="N33" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="34" t="s">
+      <c r="O33" s="2"/>
+      <c r="P33" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="27" t="s">
+      <c r="Q33" s="11"/>
+      <c r="R33" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="R33" s="28"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="2" t="s">
+      <c r="S33" s="28"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2" t="s">
+      <c r="W33" s="2"/>
+      <c r="X33" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="W33" s="2"/>
-      <c r="X33" s="34" t="s">
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="Y33" s="10"/>
-      <c r="Z33" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA33" s="28"/>
-      <c r="AL33" s="3" t="s">
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="AC33" s="28"/>
+      <c r="AD33" s="23"/>
+      <c r="AP33" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="AM33" s="3"/>
-      <c r="AN33" s="3" t="s">
+      <c r="AQ33" s="3"/>
+      <c r="AR33" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="AO33" s="3"/>
-      <c r="AP33" s="3"/>
-      <c r="AQ33" s="3" t="s">
+      <c r="AS33" s="3"/>
+      <c r="AT33" s="3"/>
+      <c r="AU33" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="AR33" s="10"/>
-      <c r="AS33" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="AT33" s="19"/>
-      <c r="AV33" s="3" t="s">
+      <c r="AV33" s="10"/>
+      <c r="AW33" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AX33" s="19"/>
+      <c r="AY33" s="8"/>
+      <c r="BA33" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="AW33" s="3"/>
-      <c r="AX33" s="3" t="s">
+      <c r="BB33" s="3"/>
+      <c r="BC33" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="AY33" s="3"/>
-      <c r="AZ33" s="35" t="s">
+      <c r="BD33" s="3"/>
+      <c r="BE33" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="BA33" s="10"/>
-      <c r="BB33" s="3" t="s">
+      <c r="BF33" s="10"/>
+      <c r="BG33" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="BC33" s="3"/>
-      <c r="BD33" s="1"/>
-      <c r="BE33" s="2" t="s">
+      <c r="BH33" s="3"/>
+      <c r="BI33" s="3"/>
+      <c r="BJ33" s="1"/>
+      <c r="BK33" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="BF33" s="2"/>
-      <c r="BG33" s="2" t="s">
+      <c r="BL33" s="2"/>
+      <c r="BM33" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="BH33" s="2"/>
-      <c r="BI33" s="2" t="s">
+      <c r="BN33" s="2"/>
+      <c r="BO33" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="BJ33" s="6"/>
-      <c r="BK33" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL33" s="28"/>
+      <c r="BP33" s="6"/>
+      <c r="BQ33" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="BR33" s="28"/>
     </row>
-    <row r="34" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>72</v>
       </c>
@@ -5945,91 +6109,96 @@
         <v>580</v>
       </c>
       <c r="I34" s="19"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="3" t="s">
+      <c r="J34" s="19"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3" t="s">
+      <c r="M34" s="3"/>
+      <c r="N34" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="N34" s="3"/>
-      <c r="O34" s="34" t="s">
+      <c r="O34" s="3"/>
+      <c r="P34" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="18" t="s">
+      <c r="Q34" s="11"/>
+      <c r="R34" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="R34" s="19"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="3" t="s">
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3" t="s">
+      <c r="W34" s="3"/>
+      <c r="X34" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="W34" s="3"/>
-      <c r="X34" s="34" t="s">
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="Y34" s="10"/>
-      <c r="Z34" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA34" s="19"/>
-      <c r="AL34" s="3" t="s">
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AC34" s="19"/>
+      <c r="AD34" s="19"/>
+      <c r="AP34" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="AQ34" s="3"/>
+      <c r="AR34" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="AM34" s="3"/>
-      <c r="AN34" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="AO34" s="3"/>
-      <c r="AP34" s="3"/>
-      <c r="AQ34" s="3" t="s">
+      <c r="AS34" s="3"/>
+      <c r="AT34" s="3"/>
+      <c r="AU34" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="AR34" s="10"/>
-      <c r="AS34" s="18" t="s">
+      <c r="AV34" s="10"/>
+      <c r="AW34" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="AT34" s="19"/>
-      <c r="AV34" s="4" t="s">
+      <c r="AX34" s="19"/>
+      <c r="AY34" s="8"/>
+      <c r="BA34" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="AW34" s="4"/>
-      <c r="AX34" s="4" t="s">
+      <c r="BB34" s="4"/>
+      <c r="BC34" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="AY34" s="4"/>
-      <c r="AZ34" s="4" t="s">
+      <c r="BD34" s="4"/>
+      <c r="BE34" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="BA34" s="6"/>
-      <c r="BB34" s="4" t="s">
+      <c r="BF34" s="6"/>
+      <c r="BG34" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="BC34" s="4"/>
-      <c r="BE34" s="2" t="s">
+      <c r="BH34" s="4"/>
+      <c r="BI34" s="4"/>
+      <c r="BK34" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="BF34" s="2"/>
-      <c r="BG34" s="2" t="s">
+      <c r="BL34" s="2"/>
+      <c r="BM34" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="BH34" s="2"/>
-      <c r="BI34" s="2" t="s">
+      <c r="BN34" s="2"/>
+      <c r="BO34" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="BJ34" s="6"/>
-      <c r="BK34" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL34" s="28"/>
+      <c r="BP34" s="6"/>
+      <c r="BQ34" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="BR34" s="28"/>
     </row>
-    <row r="35" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>57</v>
       </c>
@@ -6046,91 +6215,96 @@
         <v>570</v>
       </c>
       <c r="I35" s="19"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="3" t="s">
+      <c r="J35" s="19"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3" t="s">
+      <c r="M35" s="3"/>
+      <c r="N35" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="N35" s="3"/>
-      <c r="O35" s="34" t="s">
+      <c r="O35" s="3"/>
+      <c r="P35" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="18" t="s">
+      <c r="Q35" s="11"/>
+      <c r="R35" s="18" t="s">
         <v>570</v>
       </c>
-      <c r="R35" s="19"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="3" t="s">
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3" t="s">
+      <c r="W35" s="3"/>
+      <c r="X35" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="W35" s="3"/>
-      <c r="X35" s="34" t="s">
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="Y35" s="10"/>
-      <c r="Z35" s="18" t="s">
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="18" t="s">
         <v>587</v>
       </c>
-      <c r="AA35" s="19"/>
-      <c r="AL35" s="3" t="s">
+      <c r="AC35" s="19"/>
+      <c r="AD35" s="19"/>
+      <c r="AP35" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="AM35" s="3"/>
-      <c r="AN35" s="3" t="s">
+      <c r="AQ35" s="3"/>
+      <c r="AR35" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="AO35" s="3"/>
-      <c r="AP35" s="3"/>
-      <c r="AQ35" s="3" t="s">
+      <c r="AS35" s="3"/>
+      <c r="AT35" s="3"/>
+      <c r="AU35" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="AR35" s="10"/>
-      <c r="AS35" s="18" t="s">
+      <c r="AV35" s="10"/>
+      <c r="AW35" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="AT35" s="19"/>
-      <c r="AV35" s="3" t="s">
+      <c r="AX35" s="19"/>
+      <c r="AY35" s="8"/>
+      <c r="BA35" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="AW35" s="3"/>
-      <c r="AX35" s="3" t="s">
+      <c r="BB35" s="3"/>
+      <c r="BC35" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="AY35" s="3"/>
-      <c r="AZ35" s="3" t="s">
+      <c r="BD35" s="3"/>
+      <c r="BE35" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="BA35" s="10"/>
-      <c r="BB35" s="3" t="s">
+      <c r="BF35" s="10"/>
+      <c r="BG35" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="BC35" s="3"/>
-      <c r="BE35" s="2" t="s">
+      <c r="BH35" s="3"/>
+      <c r="BI35" s="3"/>
+      <c r="BK35" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="BF35" s="2"/>
-      <c r="BG35" s="2" t="s">
+      <c r="BL35" s="2"/>
+      <c r="BM35" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="BH35" s="2"/>
-      <c r="BI35" s="2" t="s">
+      <c r="BN35" s="2"/>
+      <c r="BO35" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="BJ35" s="6"/>
-      <c r="BK35" s="27" t="s">
+      <c r="BP35" s="6"/>
+      <c r="BQ35" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="BL35" s="28"/>
+      <c r="BR35" s="28"/>
     </row>
-    <row r="36" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>73</v>
       </c>
@@ -6147,91 +6321,96 @@
         <v>570</v>
       </c>
       <c r="I36" s="19"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="3" t="s">
+      <c r="J36" s="19"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3" t="s">
+      <c r="M36" s="3"/>
+      <c r="N36" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="N36" s="3"/>
-      <c r="O36" s="34" t="s">
+      <c r="O36" s="3"/>
+      <c r="P36" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="18" t="s">
+      <c r="Q36" s="11"/>
+      <c r="R36" s="18" t="s">
         <v>570</v>
       </c>
-      <c r="R36" s="19"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="3" t="s">
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3" t="s">
+      <c r="W36" s="3"/>
+      <c r="X36" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="W36" s="3"/>
-      <c r="X36" s="34" t="s">
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="Y36" s="10"/>
-      <c r="Z36" s="18" t="s">
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="18" t="s">
         <v>587</v>
       </c>
-      <c r="AA36" s="19"/>
-      <c r="AL36" s="3" t="s">
+      <c r="AC36" s="19"/>
+      <c r="AD36" s="19"/>
+      <c r="AP36" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="AM36" s="3"/>
-      <c r="AN36" s="3" t="s">
+      <c r="AQ36" s="3"/>
+      <c r="AR36" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="AO36" s="3"/>
-      <c r="AP36" s="3"/>
-      <c r="AQ36" s="3" t="s">
+      <c r="AS36" s="3"/>
+      <c r="AT36" s="3"/>
+      <c r="AU36" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="AR36" s="10"/>
-      <c r="AS36" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="AT36" s="19"/>
-      <c r="AV36" s="3" t="s">
+      <c r="AV36" s="10"/>
+      <c r="AW36" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AX36" s="19"/>
+      <c r="AY36" s="8"/>
+      <c r="BA36" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="BB36" s="3"/>
+      <c r="BC36" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="AW36" s="3"/>
-      <c r="AX36" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="AY36" s="3"/>
-      <c r="AZ36" s="3" t="s">
+      <c r="BD36" s="3"/>
+      <c r="BE36" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="BA36" s="10"/>
-      <c r="BB36" s="3" t="s">
+      <c r="BF36" s="10"/>
+      <c r="BG36" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="BC36" s="3"/>
-      <c r="BE36" s="2" t="s">
+      <c r="BH36" s="3"/>
+      <c r="BI36" s="3"/>
+      <c r="BK36" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="BF36" s="2"/>
-      <c r="BG36" s="2" t="s">
+      <c r="BL36" s="2"/>
+      <c r="BM36" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="BH36" s="2"/>
-      <c r="BI36" s="2" t="s">
+      <c r="BN36" s="2"/>
+      <c r="BO36" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="BJ36" s="6"/>
-      <c r="BK36" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL36" s="28"/>
+      <c r="BP36" s="6"/>
+      <c r="BQ36" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="BR36" s="28"/>
     </row>
-    <row r="37" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>58</v>
       </c>
@@ -6248,100 +6427,105 @@
         <v>570</v>
       </c>
       <c r="I37" s="19"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="3" t="s">
+      <c r="J37" s="19"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3" t="s">
+      <c r="M37" s="3"/>
+      <c r="N37" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="N37" s="3"/>
-      <c r="O37" s="34" t="s">
+      <c r="O37" s="3"/>
+      <c r="P37" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="18" t="s">
+      <c r="Q37" s="11"/>
+      <c r="R37" s="18" t="s">
         <v>571</v>
       </c>
-      <c r="R37" s="19"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="3" t="s">
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3" t="s">
+      <c r="W37" s="3"/>
+      <c r="X37" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="W37" s="3"/>
-      <c r="X37" s="34" t="s">
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="Y37" s="10"/>
-      <c r="Z37" s="18" t="s">
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="AA37" s="19"/>
-      <c r="AL37" s="3" t="s">
+      <c r="AC37" s="19"/>
+      <c r="AD37" s="19"/>
+      <c r="AP37" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="AQ37" s="3"/>
+      <c r="AR37" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="AM37" s="3"/>
-      <c r="AN37" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="AO37" s="3"/>
-      <c r="AP37" s="3"/>
-      <c r="AQ37" s="34" t="s">
+      <c r="AS37" s="3"/>
+      <c r="AT37" s="3"/>
+      <c r="AU37" s="34" t="s">
         <v>383</v>
       </c>
-      <c r="AR37" s="10"/>
-      <c r="AS37" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="AT37" s="19"/>
-      <c r="AV37" s="3" t="s">
+      <c r="AV37" s="10"/>
+      <c r="AW37" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AX37" s="19"/>
+      <c r="AY37" s="8"/>
+      <c r="BA37" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="BB37" s="3"/>
+      <c r="BC37" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="AW37" s="3"/>
-      <c r="AX37" s="3" t="s">
+      <c r="BD37" s="3"/>
+      <c r="BE37" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="BF37" s="10"/>
+      <c r="BG37" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="AY37" s="3"/>
-      <c r="AZ37" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="BA37" s="10"/>
-      <c r="BB37" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="BC37" s="3"/>
-      <c r="BE37" s="2" t="s">
+      <c r="BH37" s="3"/>
+      <c r="BI37" s="3"/>
+      <c r="BK37" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="BF37" s="2"/>
-      <c r="BG37" s="2" t="s">
+      <c r="BL37" s="2"/>
+      <c r="BM37" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="BH37" s="2"/>
-      <c r="BI37" s="2" t="s">
+      <c r="BN37" s="2"/>
+      <c r="BO37" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="BJ37" s="6"/>
-      <c r="BK37" s="27" t="s">
+      <c r="BP37" s="6"/>
+      <c r="BQ37" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="BL37" s="28"/>
+      <c r="BR37" s="28"/>
     </row>
-    <row r="38" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>622</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>623</v>
       </c>
       <c r="F38" s="34" t="s">
         <v>3</v>
@@ -6351,75 +6535,79 @@
         <v>580</v>
       </c>
       <c r="I38" s="23"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="2" t="s">
+      <c r="J38" s="23"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="2"/>
+      <c r="N38" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="34" t="s">
+      <c r="O38" s="2"/>
+      <c r="P38" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="27" t="s">
+      <c r="Q38" s="11"/>
+      <c r="R38" s="27" t="s">
         <v>571</v>
       </c>
-      <c r="R38" s="28"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="2" t="s">
+      <c r="S38" s="28"/>
+      <c r="T38" s="23"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2" t="s">
+      <c r="W38" s="2"/>
+      <c r="X38" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="W38" s="2"/>
-      <c r="X38" s="34" t="s">
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="Y38" s="10"/>
-      <c r="Z38" s="27" t="s">
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="27" t="s">
         <v>580</v>
       </c>
-      <c r="AA38" s="28"/>
-      <c r="AL38" s="3" t="s">
+      <c r="AC38" s="28"/>
+      <c r="AD38" s="23"/>
+      <c r="AP38" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="AM38" s="3"/>
-      <c r="AN38" s="3" t="s">
+      <c r="AQ38" s="3"/>
+      <c r="AR38" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="AO38" s="3"/>
-      <c r="AP38" s="3"/>
-      <c r="AQ38" s="34" t="s">
+      <c r="AS38" s="3"/>
+      <c r="AT38" s="3"/>
+      <c r="AU38" s="34" t="s">
         <v>383</v>
       </c>
-      <c r="AR38" s="10"/>
-      <c r="AS38" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="AT38" s="19"/>
-      <c r="BE38" s="2" t="s">
+      <c r="AV38" s="10"/>
+      <c r="AW38" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AX38" s="19"/>
+      <c r="AY38" s="8"/>
+      <c r="BK38" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="BF38" s="2"/>
-      <c r="BG38" s="2" t="s">
+      <c r="BL38" s="2"/>
+      <c r="BM38" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="BH38" s="2"/>
-      <c r="BI38" s="2" t="s">
+      <c r="BN38" s="2"/>
+      <c r="BO38" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="BJ38" s="6"/>
-      <c r="BK38" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL38" s="28"/>
+      <c r="BP38" s="6"/>
+      <c r="BQ38" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="BR38" s="28"/>
     </row>
-    <row r="39" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>60</v>
       </c>
@@ -6436,75 +6624,79 @@
         <v>580</v>
       </c>
       <c r="I39" s="19"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="3" t="s">
+      <c r="J39" s="19"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3" t="s">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="N39" s="3"/>
-      <c r="O39" s="34" t="s">
+      <c r="O39" s="3"/>
+      <c r="P39" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="18" t="s">
+      <c r="Q39" s="11"/>
+      <c r="R39" s="18" t="s">
         <v>571</v>
       </c>
-      <c r="R39" s="19"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="3" t="s">
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3" t="s">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="W39" s="3"/>
-      <c r="X39" s="34" t="s">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="Y39" s="10"/>
-      <c r="Z39" s="18" t="s">
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="AA39" s="19"/>
-      <c r="AL39" s="3" t="s">
+      <c r="AC39" s="19"/>
+      <c r="AD39" s="19"/>
+      <c r="AP39" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="AM39" s="3"/>
-      <c r="AN39" s="3" t="s">
+      <c r="AQ39" s="3"/>
+      <c r="AR39" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="AO39" s="3"/>
-      <c r="AP39" s="3"/>
-      <c r="AQ39" s="34" t="s">
+      <c r="AS39" s="3"/>
+      <c r="AT39" s="3"/>
+      <c r="AU39" s="34" t="s">
         <v>383</v>
       </c>
-      <c r="AR39" s="10"/>
-      <c r="AS39" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="AT39" s="19"/>
-      <c r="BE39" s="2" t="s">
+      <c r="AV39" s="10"/>
+      <c r="AW39" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AX39" s="19"/>
+      <c r="AY39" s="8"/>
+      <c r="BK39" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="BF39" s="2"/>
-      <c r="BG39" s="2" t="s">
+      <c r="BL39" s="2"/>
+      <c r="BM39" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="BH39" s="2"/>
-      <c r="BI39" s="2" t="s">
+      <c r="BN39" s="2"/>
+      <c r="BO39" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="BJ39" s="6"/>
-      <c r="BK39" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL39" s="28"/>
+      <c r="BP39" s="6"/>
+      <c r="BQ39" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="BR39" s="28"/>
     </row>
-    <row r="40" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>61</v>
       </c>
@@ -6521,75 +6713,79 @@
         <v>580</v>
       </c>
       <c r="I40" s="19"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="3" t="s">
+      <c r="J40" s="19"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3" t="s">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="N40" s="3"/>
-      <c r="O40" s="34" t="s">
+      <c r="O40" s="3"/>
+      <c r="P40" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="18" t="s">
+      <c r="Q40" s="11"/>
+      <c r="R40" s="18" t="s">
         <v>584</v>
       </c>
-      <c r="R40" s="19"/>
-      <c r="S40" s="8"/>
-      <c r="T40" s="3" t="s">
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3" t="s">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="W40" s="3"/>
-      <c r="X40" s="34" t="s">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="Y40" s="10"/>
-      <c r="Z40" s="18" t="s">
+      <c r="AA40" s="10"/>
+      <c r="AB40" s="18" t="s">
         <v>584</v>
       </c>
-      <c r="AA40" s="19"/>
-      <c r="AL40" s="3" t="s">
+      <c r="AC40" s="19"/>
+      <c r="AD40" s="19"/>
+      <c r="AP40" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="AQ40" s="3"/>
+      <c r="AR40" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="AM40" s="3"/>
-      <c r="AN40" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="AO40" s="3"/>
-      <c r="AP40" s="3"/>
-      <c r="AQ40" s="34" t="s">
+      <c r="AS40" s="3"/>
+      <c r="AT40" s="3"/>
+      <c r="AU40" s="34" t="s">
         <v>383</v>
       </c>
-      <c r="AR40" s="10"/>
-      <c r="AS40" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="AT40" s="19"/>
-      <c r="BE40" s="2" t="s">
+      <c r="AV40" s="10"/>
+      <c r="AW40" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AX40" s="19"/>
+      <c r="AY40" s="8"/>
+      <c r="BK40" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="BF40" s="2"/>
-      <c r="BG40" s="2" t="s">
+      <c r="BL40" s="2"/>
+      <c r="BM40" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="BH40" s="2"/>
-      <c r="BI40" s="2" t="s">
+      <c r="BN40" s="2"/>
+      <c r="BO40" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="BJ40" s="6"/>
-      <c r="BK40" s="27" t="s">
+      <c r="BP40" s="6"/>
+      <c r="BQ40" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="BL40" s="28"/>
+      <c r="BR40" s="28"/>
     </row>
-    <row r="41" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>62</v>
       </c>
@@ -6606,75 +6802,79 @@
         <v>580</v>
       </c>
       <c r="I41" s="23"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="2" t="s">
+      <c r="J41" s="23"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="2"/>
+      <c r="N41" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2" t="s">
+      <c r="O41" s="2"/>
+      <c r="P41" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="27" t="s">
+      <c r="Q41" s="11"/>
+      <c r="R41" s="27" t="s">
         <v>583</v>
       </c>
-      <c r="R41" s="28"/>
-      <c r="S41" s="8"/>
-      <c r="T41" s="2" t="s">
+      <c r="S41" s="28"/>
+      <c r="T41" s="23"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="Y41" s="10"/>
-      <c r="Z41" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA41" s="28"/>
-      <c r="AL41" s="3" t="s">
+      <c r="AA41" s="10"/>
+      <c r="AB41" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="AC41" s="28"/>
+      <c r="AD41" s="23"/>
+      <c r="AP41" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="AM41" s="3"/>
-      <c r="AN41" s="3" t="s">
+      <c r="AQ41" s="3"/>
+      <c r="AR41" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="AO41" s="3"/>
-      <c r="AP41" s="3"/>
-      <c r="AQ41" s="3" t="s">
+      <c r="AS41" s="3"/>
+      <c r="AT41" s="3"/>
+      <c r="AU41" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="AR41" s="10"/>
-      <c r="AS41" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="AT41" s="19"/>
-      <c r="BE41" s="2" t="s">
+      <c r="AV41" s="10"/>
+      <c r="AW41" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AX41" s="19"/>
+      <c r="AY41" s="8"/>
+      <c r="BK41" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="BF41" s="2"/>
-      <c r="BG41" s="2" t="s">
+      <c r="BL41" s="2"/>
+      <c r="BM41" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="BH41" s="2"/>
-      <c r="BI41" s="2" t="s">
+      <c r="BN41" s="2"/>
+      <c r="BO41" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="BJ41" s="6"/>
-      <c r="BK41" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL41" s="28"/>
+      <c r="BP41" s="6"/>
+      <c r="BQ41" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="BR41" s="28"/>
     </row>
-    <row r="42" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>63</v>
       </c>
@@ -6691,75 +6891,79 @@
         <v>570</v>
       </c>
       <c r="I42" s="19"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="3" t="s">
+      <c r="J42" s="19"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3" t="s">
+      <c r="M42" s="3"/>
+      <c r="N42" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="N42" s="3"/>
-      <c r="O42" s="34" t="s">
+      <c r="O42" s="3"/>
+      <c r="P42" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="18" t="s">
+      <c r="Q42" s="11"/>
+      <c r="R42" s="18" t="s">
         <v>570</v>
       </c>
-      <c r="R42" s="19"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="3" t="s">
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="U42" s="3"/>
-      <c r="V42" s="3" t="s">
+      <c r="W42" s="3"/>
+      <c r="X42" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="W42" s="3"/>
-      <c r="X42" s="34" t="s">
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="Y42" s="10"/>
-      <c r="Z42" s="18" t="s">
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="18" t="s">
         <v>587</v>
       </c>
-      <c r="AA42" s="19"/>
-      <c r="AL42" s="3" t="s">
+      <c r="AC42" s="19"/>
+      <c r="AD42" s="19"/>
+      <c r="AP42" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="AM42" s="3"/>
-      <c r="AN42" s="3" t="s">
+      <c r="AQ42" s="3"/>
+      <c r="AR42" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="AO42" s="3"/>
-      <c r="AP42" s="3"/>
-      <c r="AQ42" s="3" t="s">
+      <c r="AS42" s="3"/>
+      <c r="AT42" s="3"/>
+      <c r="AU42" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="AR42" s="10"/>
-      <c r="AS42" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="AT42" s="19"/>
-      <c r="BE42" s="2" t="s">
+      <c r="AV42" s="10"/>
+      <c r="AW42" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AX42" s="19"/>
+      <c r="AY42" s="8"/>
+      <c r="BK42" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="BF42" s="2"/>
-      <c r="BG42" s="2" t="s">
+      <c r="BL42" s="2"/>
+      <c r="BM42" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="BH42" s="2"/>
-      <c r="BI42" s="2" t="s">
+      <c r="BN42" s="2"/>
+      <c r="BO42" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="BJ42" s="6"/>
-      <c r="BK42" s="27" t="s">
+      <c r="BP42" s="6"/>
+      <c r="BQ42" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="BL42" s="28"/>
+      <c r="BR42" s="28"/>
     </row>
-    <row r="43" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
         <v>64</v>
       </c>
@@ -6776,75 +6980,79 @@
         <v>570</v>
       </c>
       <c r="I43" s="19"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="3" t="s">
+      <c r="J43" s="19"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3" t="s">
+      <c r="M43" s="3"/>
+      <c r="N43" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="N43" s="3"/>
-      <c r="O43" s="34" t="s">
+      <c r="O43" s="3"/>
+      <c r="P43" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="18" t="s">
+      <c r="Q43" s="10"/>
+      <c r="R43" s="18" t="s">
         <v>570</v>
       </c>
-      <c r="R43" s="19"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="3" t="s">
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="U43" s="3"/>
-      <c r="V43" s="3" t="s">
+      <c r="W43" s="3"/>
+      <c r="X43" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="W43" s="3"/>
-      <c r="X43" s="34" t="s">
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="Y43" s="10"/>
-      <c r="Z43" s="18" t="s">
+      <c r="AA43" s="10"/>
+      <c r="AB43" s="18" t="s">
         <v>587</v>
       </c>
-      <c r="AA43" s="19"/>
-      <c r="AL43" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="AM43" s="3"/>
-      <c r="AN43" s="3" t="s">
+      <c r="AC43" s="19"/>
+      <c r="AD43" s="19"/>
+      <c r="AP43" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="AQ43" s="3"/>
+      <c r="AR43" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="AO43" s="3"/>
-      <c r="AP43" s="3"/>
-      <c r="AQ43" s="3" t="s">
+      <c r="AS43" s="3"/>
+      <c r="AT43" s="3"/>
+      <c r="AU43" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="AR43" s="6"/>
-      <c r="AS43" s="18" t="s">
+      <c r="AV43" s="6"/>
+      <c r="AW43" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="AT43" s="19"/>
-      <c r="BE43" s="2" t="s">
+      <c r="AX43" s="19"/>
+      <c r="AY43" s="8"/>
+      <c r="BK43" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="BF43" s="2"/>
-      <c r="BG43" s="2" t="s">
+      <c r="BL43" s="2"/>
+      <c r="BM43" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="BH43" s="2"/>
-      <c r="BI43" s="2" t="s">
+      <c r="BN43" s="2"/>
+      <c r="BO43" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="BJ43" s="6"/>
-      <c r="BK43" s="27" t="s">
+      <c r="BP43" s="6"/>
+      <c r="BQ43" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="BL43" s="28"/>
+      <c r="BR43" s="28"/>
     </row>
-    <row r="44" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>65</v>
       </c>
@@ -6861,75 +7069,79 @@
         <v>570</v>
       </c>
       <c r="I44" s="19"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="3" t="s">
+      <c r="J44" s="19"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3" t="s">
+      <c r="M44" s="3"/>
+      <c r="N44" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3" t="s">
+      <c r="O44" s="3"/>
+      <c r="P44" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="18" t="s">
+      <c r="Q44" s="10"/>
+      <c r="R44" s="18" t="s">
         <v>570</v>
       </c>
-      <c r="R44" s="19"/>
-      <c r="S44" s="8"/>
-      <c r="T44" s="3" t="s">
+      <c r="S44" s="19"/>
+      <c r="T44" s="19"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="U44" s="3"/>
-      <c r="V44" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="W44" s="3"/>
       <c r="X44" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="Y44" s="10"/>
-      <c r="Z44" s="18" t="s">
+      <c r="AA44" s="10"/>
+      <c r="AB44" s="18" t="s">
         <v>587</v>
       </c>
-      <c r="AA44" s="19"/>
-      <c r="AL44" s="2" t="s">
+      <c r="AC44" s="19"/>
+      <c r="AD44" s="19"/>
+      <c r="AP44" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="AM44" s="2"/>
-      <c r="AN44" s="2" t="s">
+      <c r="AQ44" s="2"/>
+      <c r="AR44" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="AO44" s="2"/>
-      <c r="AP44" s="2"/>
-      <c r="AQ44" s="2" t="s">
+      <c r="AS44" s="2"/>
+      <c r="AT44" s="2"/>
+      <c r="AU44" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="AR44" s="6"/>
-      <c r="AS44" s="24" t="s">
+      <c r="AV44" s="6"/>
+      <c r="AW44" s="24" t="s">
         <v>580</v>
       </c>
-      <c r="AT44" s="23"/>
-      <c r="BE44" s="2" t="s">
+      <c r="AX44" s="23"/>
+      <c r="AY44" s="8"/>
+      <c r="BK44" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="BF44" s="2"/>
-      <c r="BG44" s="2" t="s">
+      <c r="BL44" s="2"/>
+      <c r="BM44" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="BH44" s="2"/>
-      <c r="BI44" s="2" t="s">
+      <c r="BN44" s="2"/>
+      <c r="BO44" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="BJ44" s="6"/>
-      <c r="BK44" s="27" t="s">
+      <c r="BP44" s="6"/>
+      <c r="BQ44" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="BL44" s="28"/>
+      <c r="BR44" s="28"/>
     </row>
-    <row r="45" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
         <v>66</v>
       </c>
@@ -6946,75 +7158,79 @@
         <v>576</v>
       </c>
       <c r="I45" s="21"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="4" t="s">
+      <c r="J45" s="21"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4" t="s">
+      <c r="M45" s="4"/>
+      <c r="N45" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4" t="s">
+      <c r="O45" s="4"/>
+      <c r="P45" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="20" t="s">
+      <c r="Q45" s="11"/>
+      <c r="R45" s="20" t="s">
         <v>583</v>
       </c>
-      <c r="R45" s="21"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="4" t="s">
+      <c r="S45" s="21"/>
+      <c r="T45" s="21"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="U45" s="4"/>
-      <c r="V45" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="W45" s="4"/>
       <c r="X45" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="Y45" s="11"/>
-      <c r="Z45" s="20" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA45" s="21"/>
-      <c r="AL45" s="2" t="s">
+      <c r="AA45" s="11"/>
+      <c r="AB45" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="AC45" s="21"/>
+      <c r="AD45" s="21"/>
+      <c r="AP45" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="AM45" s="2"/>
-      <c r="AN45" s="2" t="s">
+      <c r="AQ45" s="2"/>
+      <c r="AR45" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="AO45" s="2"/>
-      <c r="AP45" s="2"/>
-      <c r="AQ45" s="2" t="s">
+      <c r="AS45" s="2"/>
+      <c r="AT45" s="2"/>
+      <c r="AU45" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="AR45" s="6"/>
-      <c r="AS45" s="24" t="s">
+      <c r="AV45" s="6"/>
+      <c r="AW45" s="24" t="s">
         <v>580</v>
       </c>
-      <c r="AT45" s="29"/>
-      <c r="BE45" s="2" t="s">
+      <c r="AX45" s="29"/>
+      <c r="AY45" s="8"/>
+      <c r="BK45" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="BF45" s="2"/>
-      <c r="BG45" s="2" t="s">
+      <c r="BL45" s="2"/>
+      <c r="BM45" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="BH45" s="2"/>
-      <c r="BI45" s="2" t="s">
+      <c r="BN45" s="2"/>
+      <c r="BO45" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="BJ45" s="6"/>
-      <c r="BK45" s="27" t="s">
+      <c r="BP45" s="6"/>
+      <c r="BQ45" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="BL45" s="28"/>
+      <c r="BR45" s="28"/>
     </row>
-    <row r="46" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
         <v>67</v>
       </c>
@@ -7031,58 +7247,61 @@
         <v>576</v>
       </c>
       <c r="I46" s="19"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="3" t="s">
+      <c r="J46" s="19"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3" t="s">
+      <c r="M46" s="3"/>
+      <c r="N46" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="N46" s="3"/>
-      <c r="O46" s="34" t="s">
+      <c r="O46" s="3"/>
+      <c r="P46" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="18" t="s">
+      <c r="Q46" s="11"/>
+      <c r="R46" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="R46" s="19"/>
-      <c r="S46" s="8"/>
-      <c r="T46" s="3" t="s">
+      <c r="S46" s="19"/>
+      <c r="T46" s="19"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="U46" s="3"/>
-      <c r="V46" s="3" t="s">
+      <c r="W46" s="3"/>
+      <c r="X46" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="W46" s="3"/>
-      <c r="X46" s="34" t="s">
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="Y46" s="10"/>
-      <c r="Z46" s="18" t="s">
+      <c r="AA46" s="10"/>
+      <c r="AB46" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="AA46" s="19"/>
-      <c r="BE46" s="2" t="s">
+      <c r="AC46" s="19"/>
+      <c r="AD46" s="19"/>
+      <c r="BK46" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="BF46" s="2"/>
-      <c r="BG46" s="2" t="s">
+      <c r="BL46" s="2"/>
+      <c r="BM46" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="BH46" s="2"/>
-      <c r="BI46" s="2" t="s">
+      <c r="BN46" s="2"/>
+      <c r="BO46" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="BJ46" s="6"/>
-      <c r="BK46" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="BL46" s="28"/>
+      <c r="BP46" s="6"/>
+      <c r="BQ46" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="BR46" s="28"/>
     </row>
-    <row r="47" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
         <v>68</v>
       </c>
@@ -7092,65 +7311,68 @@
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="34" t="s">
-        <v>170</v>
+        <v>3</v>
       </c>
       <c r="G47" s="11"/>
       <c r="H47" s="18" t="s">
         <v>571</v>
       </c>
       <c r="I47" s="19"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="3" t="s">
+      <c r="J47" s="19"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3" t="s">
+      <c r="M47" s="3"/>
+      <c r="N47" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="N47" s="3"/>
-      <c r="O47" s="34" t="s">
+      <c r="O47" s="3"/>
+      <c r="P47" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="18" t="s">
+      <c r="Q47" s="11"/>
+      <c r="R47" s="18" t="s">
         <v>584</v>
       </c>
-      <c r="R47" s="19"/>
-      <c r="S47" s="8"/>
-      <c r="T47" s="3" t="s">
+      <c r="S47" s="19"/>
+      <c r="T47" s="19"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="U47" s="3"/>
-      <c r="V47" s="3" t="s">
+      <c r="W47" s="3"/>
+      <c r="X47" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="W47" s="3"/>
-      <c r="X47" s="34" t="s">
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="Y47" s="10"/>
-      <c r="Z47" s="18" t="s">
+      <c r="AA47" s="10"/>
+      <c r="AB47" s="18" t="s">
         <v>584</v>
       </c>
-      <c r="AA47" s="19"/>
-      <c r="BE47" s="2" t="s">
+      <c r="AC47" s="19"/>
+      <c r="AD47" s="19"/>
+      <c r="BK47" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="BF47" s="2"/>
-      <c r="BG47" s="2" t="s">
+      <c r="BL47" s="2"/>
+      <c r="BM47" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="BH47" s="2"/>
-      <c r="BI47" s="2" t="s">
+      <c r="BN47" s="2"/>
+      <c r="BO47" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="BJ47" s="6"/>
-      <c r="BK47" s="27" t="s">
+      <c r="BP47" s="6"/>
+      <c r="BQ47" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="BL47" s="28"/>
+      <c r="BR47" s="28"/>
     </row>
-    <row r="48" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
         <v>88</v>
       </c>
@@ -7167,58 +7389,61 @@
         <v>580</v>
       </c>
       <c r="I48" s="19"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="3" t="s">
+      <c r="J48" s="19"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3" t="s">
+      <c r="M48" s="3"/>
+      <c r="N48" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="N48" s="3"/>
-      <c r="O48" s="34" t="s">
+      <c r="O48" s="3"/>
+      <c r="P48" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="27" t="s">
+      <c r="Q48" s="11"/>
+      <c r="R48" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="R48" s="28"/>
-      <c r="S48" s="8"/>
-      <c r="T48" s="3" t="s">
+      <c r="S48" s="28"/>
+      <c r="T48" s="19"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="U48" s="3"/>
-      <c r="V48" s="3" t="s">
+      <c r="W48" s="3"/>
+      <c r="X48" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="W48" s="3"/>
-      <c r="X48" s="34" t="s">
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="Y48" s="11"/>
-      <c r="Z48" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA48" s="19"/>
-      <c r="BE48" s="2" t="s">
+      <c r="AA48" s="11"/>
+      <c r="AB48" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AC48" s="19"/>
+      <c r="AD48" s="19"/>
+      <c r="BK48" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="BF48" s="2"/>
-      <c r="BG48" s="2" t="s">
+      <c r="BL48" s="2"/>
+      <c r="BM48" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="BH48" s="2"/>
-      <c r="BI48" s="2" t="s">
+      <c r="BN48" s="2"/>
+      <c r="BO48" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="BJ48" s="6"/>
-      <c r="BK48" s="27" t="s">
+      <c r="BP48" s="6"/>
+      <c r="BQ48" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="BL48" s="28"/>
+      <c r="BR48" s="28"/>
     </row>
-    <row r="49" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>89</v>
       </c>
@@ -7235,58 +7460,61 @@
         <v>576</v>
       </c>
       <c r="I49" s="23"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="2" t="s">
+      <c r="J49" s="23"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="2"/>
+      <c r="N49" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2" t="s">
+      <c r="O49" s="2"/>
+      <c r="P49" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="R49" s="28"/>
-      <c r="S49" s="8"/>
-      <c r="T49" s="2" t="s">
+      <c r="Q49" s="11"/>
+      <c r="R49" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="S49" s="28"/>
+      <c r="T49" s="23"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="W49" s="2"/>
       <c r="X49" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="Y49" s="11"/>
-      <c r="Z49" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA49" s="28"/>
-      <c r="BE49" s="2" t="s">
+      <c r="AA49" s="11"/>
+      <c r="AB49" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="AC49" s="28"/>
+      <c r="AD49" s="23"/>
+      <c r="BK49" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="BF49" s="2"/>
-      <c r="BG49" s="2" t="s">
+      <c r="BL49" s="2"/>
+      <c r="BM49" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="BH49" s="2"/>
-      <c r="BI49" s="2" t="s">
+      <c r="BN49" s="2"/>
+      <c r="BO49" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="BJ49" s="6"/>
-      <c r="BK49" s="27" t="s">
+      <c r="BP49" s="6"/>
+      <c r="BQ49" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="BL49" s="28"/>
+      <c r="BR49" s="28"/>
     </row>
-    <row r="50" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>90</v>
       </c>
@@ -7303,58 +7531,61 @@
         <v>584</v>
       </c>
       <c r="I50" s="23"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="2" t="s">
+      <c r="J50" s="23"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="2"/>
+      <c r="N50" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2" t="s">
+      <c r="O50" s="2"/>
+      <c r="P50" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="R50" s="28"/>
-      <c r="S50" s="8"/>
-      <c r="T50" s="2" t="s">
+      <c r="Q50" s="11"/>
+      <c r="R50" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="S50" s="28"/>
+      <c r="T50" s="23"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="U50" s="2"/>
-      <c r="V50" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="W50" s="2"/>
       <c r="X50" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="Y50" s="11"/>
-      <c r="Z50" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA50" s="28"/>
-      <c r="BE50" s="2" t="s">
+      <c r="AA50" s="11"/>
+      <c r="AB50" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="AC50" s="28"/>
+      <c r="AD50" s="23"/>
+      <c r="BK50" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="BF50" s="2"/>
-      <c r="BG50" s="2" t="s">
+      <c r="BL50" s="2"/>
+      <c r="BM50" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="BH50" s="2"/>
-      <c r="BI50" s="2" t="s">
+      <c r="BN50" s="2"/>
+      <c r="BO50" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="BJ50" s="6"/>
-      <c r="BK50" s="27" t="s">
+      <c r="BP50" s="6"/>
+      <c r="BQ50" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="BL50" s="28"/>
+      <c r="BR50" s="28"/>
     </row>
-    <row r="51" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
         <v>91</v>
       </c>
@@ -7371,58 +7602,61 @@
         <v>576</v>
       </c>
       <c r="I51" s="21"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="4" t="s">
+      <c r="J51" s="21"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4" t="s">
+      <c r="M51" s="4"/>
+      <c r="N51" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4" t="s">
+      <c r="O51" s="4"/>
+      <c r="P51" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="20" t="s">
-        <v>576</v>
-      </c>
-      <c r="R51" s="21"/>
-      <c r="S51" s="8"/>
-      <c r="T51" s="4" t="s">
+      <c r="Q51" s="11"/>
+      <c r="R51" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="S51" s="21"/>
+      <c r="T51" s="21"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="4" t="s">
         <v>288</v>
-      </c>
-      <c r="U51" s="4"/>
-      <c r="V51" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="W51" s="4"/>
       <c r="X51" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="Y51" s="11"/>
-      <c r="Z51" s="20" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA51" s="21"/>
-      <c r="BE51" s="2" t="s">
+      <c r="AA51" s="11"/>
+      <c r="AB51" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="AC51" s="21"/>
+      <c r="AD51" s="21"/>
+      <c r="BK51" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="BF51" s="2"/>
-      <c r="BG51" s="2" t="s">
+      <c r="BL51" s="2"/>
+      <c r="BM51" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="BH51" s="2"/>
-      <c r="BI51" s="2" t="s">
+      <c r="BN51" s="2"/>
+      <c r="BO51" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="BJ51" s="6"/>
-      <c r="BK51" s="27" t="s">
+      <c r="BP51" s="6"/>
+      <c r="BQ51" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="BL51" s="28"/>
+      <c r="BR51" s="28"/>
     </row>
-    <row r="52" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>92</v>
       </c>
@@ -7439,58 +7673,61 @@
         <v>576</v>
       </c>
       <c r="I52" s="21"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="4" t="s">
+      <c r="J52" s="21"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4" t="s">
+      <c r="M52" s="4"/>
+      <c r="N52" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4" t="s">
+      <c r="O52" s="4"/>
+      <c r="P52" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="20" t="s">
-        <v>576</v>
-      </c>
-      <c r="R52" s="21"/>
-      <c r="S52" s="8"/>
-      <c r="T52" s="4" t="s">
+      <c r="Q52" s="11"/>
+      <c r="R52" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="S52" s="21"/>
+      <c r="T52" s="21"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="4" t="s">
         <v>289</v>
-      </c>
-      <c r="U52" s="4"/>
-      <c r="V52" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="W52" s="4"/>
       <c r="X52" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="Y52" s="11"/>
-      <c r="Z52" s="20" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA52" s="21"/>
-      <c r="BE52" s="2" t="s">
+      <c r="AA52" s="11"/>
+      <c r="AB52" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="AC52" s="21"/>
+      <c r="AD52" s="21"/>
+      <c r="BK52" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="BF52" s="2"/>
-      <c r="BG52" s="2" t="s">
+      <c r="BL52" s="2"/>
+      <c r="BM52" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="BH52" s="2"/>
-      <c r="BI52" s="2" t="s">
+      <c r="BN52" s="2"/>
+      <c r="BO52" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="BJ52" s="6"/>
-      <c r="BK52" s="27" t="s">
+      <c r="BP52" s="6"/>
+      <c r="BQ52" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="BL52" s="28"/>
+      <c r="BR52" s="28"/>
     </row>
-    <row r="53" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>93</v>
       </c>
@@ -7507,58 +7744,61 @@
         <v>576</v>
       </c>
       <c r="I53" s="21"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="4" t="s">
+      <c r="J53" s="21"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4" t="s">
+      <c r="M53" s="4"/>
+      <c r="N53" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4" t="s">
+      <c r="O53" s="4"/>
+      <c r="P53" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="20" t="s">
-        <v>576</v>
-      </c>
-      <c r="R53" s="21"/>
-      <c r="S53" s="8"/>
-      <c r="T53" s="4" t="s">
+      <c r="Q53" s="11"/>
+      <c r="R53" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="S53" s="21"/>
+      <c r="T53" s="21"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="4" t="s">
         <v>290</v>
-      </c>
-      <c r="U53" s="4"/>
-      <c r="V53" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="W53" s="4"/>
       <c r="X53" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="Y53" s="11"/>
-      <c r="Z53" s="20" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA53" s="21"/>
-      <c r="BE53" s="2" t="s">
+      <c r="AA53" s="11"/>
+      <c r="AB53" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="AC53" s="21"/>
+      <c r="AD53" s="21"/>
+      <c r="BK53" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="BF53" s="2"/>
-      <c r="BG53" s="2" t="s">
+      <c r="BL53" s="2"/>
+      <c r="BM53" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="BH53" s="2"/>
-      <c r="BI53" s="2" t="s">
+      <c r="BN53" s="2"/>
+      <c r="BO53" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="BJ53" s="6"/>
-      <c r="BK53" s="27" t="s">
+      <c r="BP53" s="6"/>
+      <c r="BQ53" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="BL53" s="32"/>
+      <c r="BR53" s="32"/>
     </row>
-    <row r="54" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>94</v>
       </c>
@@ -7575,42 +7815,45 @@
         <v>580</v>
       </c>
       <c r="I54" s="21"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="4" t="s">
+      <c r="J54" s="21"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4" t="s">
+      <c r="M54" s="4"/>
+      <c r="N54" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4" t="s">
+      <c r="O54" s="4"/>
+      <c r="P54" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="20" t="s">
+      <c r="Q54" s="11"/>
+      <c r="R54" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="R54" s="21"/>
-      <c r="S54" s="8"/>
-      <c r="T54" s="4" t="s">
+      <c r="S54" s="21"/>
+      <c r="T54" s="21"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="U54" s="4"/>
-      <c r="V54" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="W54" s="4"/>
       <c r="X54" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y54" s="4"/>
+      <c r="Z54" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="Y54" s="11"/>
-      <c r="Z54" s="20" t="s">
+      <c r="AA54" s="11"/>
+      <c r="AB54" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="AA54" s="21"/>
+      <c r="AC54" s="21"/>
+      <c r="AD54" s="21"/>
     </row>
-    <row r="55" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
         <v>95</v>
       </c>
@@ -7627,42 +7870,45 @@
         <v>576</v>
       </c>
       <c r="I55" s="21"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="4" t="s">
+      <c r="J55" s="21"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4" t="s">
+      <c r="M55" s="4"/>
+      <c r="N55" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4" t="s">
+      <c r="O55" s="4"/>
+      <c r="P55" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="20" t="s">
+      <c r="Q55" s="11"/>
+      <c r="R55" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="R55" s="21"/>
-      <c r="S55" s="8"/>
-      <c r="T55" s="4" t="s">
+      <c r="S55" s="21"/>
+      <c r="T55" s="21"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="4" t="s">
         <v>292</v>
-      </c>
-      <c r="U55" s="4"/>
-      <c r="V55" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="W55" s="4"/>
       <c r="X55" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y55" s="4"/>
+      <c r="Z55" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="Y55" s="11"/>
-      <c r="Z55" s="20" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA55" s="21"/>
+      <c r="AA55" s="11"/>
+      <c r="AB55" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="AC55" s="21"/>
+      <c r="AD55" s="21"/>
     </row>
-    <row r="56" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
         <v>96</v>
       </c>
@@ -7679,42 +7925,45 @@
         <v>580</v>
       </c>
       <c r="I56" s="21"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="4" t="s">
+      <c r="J56" s="21"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4" t="s">
+      <c r="M56" s="4"/>
+      <c r="N56" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4" t="s">
+      <c r="O56" s="4"/>
+      <c r="P56" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="P56" s="11"/>
-      <c r="Q56" s="20" t="s">
-        <v>576</v>
-      </c>
-      <c r="R56" s="21"/>
-      <c r="S56" s="8"/>
-      <c r="T56" s="4" t="s">
+      <c r="Q56" s="11"/>
+      <c r="R56" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="S56" s="21"/>
+      <c r="T56" s="21"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="4" t="s">
         <v>293</v>
-      </c>
-      <c r="U56" s="4"/>
-      <c r="V56" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="W56" s="4"/>
       <c r="X56" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y56" s="4"/>
+      <c r="Z56" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="Y56" s="11"/>
-      <c r="Z56" s="20" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA56" s="21"/>
+      <c r="AA56" s="11"/>
+      <c r="AB56" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="AC56" s="21"/>
+      <c r="AD56" s="21"/>
     </row>
-    <row r="57" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
         <v>97</v>
       </c>
@@ -7731,42 +7980,45 @@
         <v>580</v>
       </c>
       <c r="I57" s="21"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="4" t="s">
+      <c r="J57" s="21"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4" t="s">
+      <c r="M57" s="4"/>
+      <c r="N57" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4" t="s">
+      <c r="O57" s="4"/>
+      <c r="P57" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="20" t="s">
+      <c r="Q57" s="10"/>
+      <c r="R57" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="R57" s="21"/>
-      <c r="S57" s="8"/>
-      <c r="T57" s="4" t="s">
+      <c r="S57" s="21"/>
+      <c r="T57" s="21"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="U57" s="4"/>
-      <c r="V57" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="W57" s="4"/>
       <c r="X57" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y57" s="4"/>
+      <c r="Z57" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="Y57" s="10"/>
-      <c r="Z57" s="20" t="s">
+      <c r="AA57" s="10"/>
+      <c r="AB57" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="AA57" s="21"/>
+      <c r="AC57" s="21"/>
+      <c r="AD57" s="21"/>
     </row>
-    <row r="58" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
         <v>98</v>
       </c>
@@ -7783,42 +8035,45 @@
         <v>576</v>
       </c>
       <c r="I58" s="21"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="4" t="s">
+      <c r="J58" s="21"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4" t="s">
+      <c r="M58" s="4"/>
+      <c r="N58" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4" t="s">
+      <c r="O58" s="4"/>
+      <c r="P58" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="20" t="s">
-        <v>576</v>
-      </c>
-      <c r="R58" s="21"/>
-      <c r="S58" s="8"/>
-      <c r="T58" s="4" t="s">
+      <c r="Q58" s="10"/>
+      <c r="R58" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="S58" s="21"/>
+      <c r="T58" s="21"/>
+      <c r="U58" s="8"/>
+      <c r="V58" s="4" t="s">
         <v>295</v>
-      </c>
-      <c r="U58" s="4"/>
-      <c r="V58" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="W58" s="4"/>
       <c r="X58" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="Y58" s="10"/>
-      <c r="Z58" s="20" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA58" s="21"/>
+      <c r="AA58" s="10"/>
+      <c r="AB58" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="AC58" s="21"/>
+      <c r="AD58" s="21"/>
     </row>
-    <row r="59" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B59" s="4" t="s">
         <v>99</v>
       </c>
@@ -7835,42 +8090,45 @@
         <v>576</v>
       </c>
       <c r="I59" s="21"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="4" t="s">
+      <c r="J59" s="21"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4" t="s">
+      <c r="M59" s="4"/>
+      <c r="N59" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4" t="s">
+      <c r="O59" s="4"/>
+      <c r="P59" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="20" t="s">
-        <v>576</v>
-      </c>
-      <c r="R59" s="21"/>
-      <c r="S59" s="8"/>
-      <c r="T59" s="4" t="s">
+      <c r="Q59" s="10"/>
+      <c r="R59" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="S59" s="21"/>
+      <c r="T59" s="21"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="U59" s="4"/>
-      <c r="V59" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="W59" s="4"/>
       <c r="X59" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y59" s="4"/>
+      <c r="Z59" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="Y59" s="10"/>
-      <c r="Z59" s="20" t="s">
+      <c r="AA59" s="10"/>
+      <c r="AB59" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="AA59" s="21"/>
+      <c r="AC59" s="21"/>
+      <c r="AD59" s="21"/>
     </row>
-    <row r="60" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B60" s="4" t="s">
         <v>100</v>
       </c>
@@ -7887,42 +8145,45 @@
         <v>580</v>
       </c>
       <c r="I60" s="21"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="4" t="s">
+      <c r="J60" s="21"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4" t="s">
+      <c r="M60" s="4"/>
+      <c r="N60" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4" t="s">
+      <c r="O60" s="4"/>
+      <c r="P60" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="P60" s="11"/>
-      <c r="Q60" s="20" t="s">
-        <v>576</v>
-      </c>
-      <c r="R60" s="21"/>
-      <c r="S60" s="8"/>
-      <c r="T60" s="4" t="s">
+      <c r="Q60" s="11"/>
+      <c r="R60" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="S60" s="21"/>
+      <c r="T60" s="21"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="4" t="s">
         <v>297</v>
-      </c>
-      <c r="U60" s="4"/>
-      <c r="V60" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="W60" s="4"/>
       <c r="X60" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y60" s="4"/>
+      <c r="Z60" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="Y60" s="11"/>
-      <c r="Z60" s="20" t="s">
+      <c r="AA60" s="11"/>
+      <c r="AB60" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="AA60" s="21"/>
+      <c r="AC60" s="21"/>
+      <c r="AD60" s="21"/>
     </row>
-    <row r="61" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
         <v>101</v>
       </c>
@@ -7939,44 +8200,47 @@
         <v>576</v>
       </c>
       <c r="I61" s="21"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="4" t="s">
+      <c r="J61" s="21"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4" t="s">
+      <c r="M61" s="4"/>
+      <c r="N61" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="N61" s="4"/>
-      <c r="O61" s="4" t="s">
+      <c r="O61" s="4"/>
+      <c r="P61" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="P61" s="10"/>
-      <c r="Q61" s="20" t="s">
+      <c r="Q61" s="10"/>
+      <c r="R61" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="R61" s="21"/>
-      <c r="S61" s="8"/>
-      <c r="T61" s="4" t="s">
+      <c r="S61" s="21"/>
+      <c r="T61" s="21"/>
+      <c r="U61" s="8"/>
+      <c r="V61" s="4" t="s">
         <v>298</v>
-      </c>
-      <c r="U61" s="4"/>
-      <c r="V61" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="W61" s="4"/>
       <c r="X61" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y61" s="4"/>
+      <c r="Z61" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="Y61" s="10"/>
-      <c r="Z61" s="20" t="s">
+      <c r="AA61" s="10"/>
+      <c r="AB61" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="AA61" s="21"/>
+      <c r="AC61" s="21"/>
+      <c r="AD61" s="21"/>
     </row>
-    <row r="62" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4" t="s">
@@ -7991,41 +8255,44 @@
         <v>576</v>
       </c>
       <c r="I62" s="21"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4" t="s">
+      <c r="J62" s="21"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="N62" s="4"/>
-      <c r="O62" s="4" t="s">
+      <c r="O62" s="4"/>
+      <c r="P62" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="P62" s="10"/>
-      <c r="Q62" s="20" t="s">
-        <v>576</v>
-      </c>
-      <c r="R62" s="21"/>
-      <c r="T62" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="U62" s="4"/>
+      <c r="Q62" s="10"/>
+      <c r="R62" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="S62" s="21"/>
+      <c r="T62" s="21"/>
       <c r="V62" s="4" t="s">
-        <v>123</v>
+        <v>620</v>
       </c>
       <c r="W62" s="4"/>
       <c r="X62" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y62" s="4"/>
+      <c r="Z62" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="Y62" s="10"/>
-      <c r="Z62" s="20" t="s">
+      <c r="AA62" s="10"/>
+      <c r="AB62" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="AA62" s="21"/>
+      <c r="AC62" s="21"/>
+      <c r="AD62" s="21"/>
     </row>
-    <row r="63" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
         <v>102</v>
       </c>
@@ -8042,42 +8309,45 @@
         <v>576</v>
       </c>
       <c r="I63" s="21"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="4" t="s">
+      <c r="J63" s="21"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4" t="s">
+      <c r="M63" s="4"/>
+      <c r="N63" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="N63" s="4"/>
-      <c r="O63" s="4" t="s">
+      <c r="O63" s="4"/>
+      <c r="P63" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="P63" s="11"/>
-      <c r="Q63" s="20" t="s">
+      <c r="Q63" s="11"/>
+      <c r="R63" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="R63" s="21"/>
-      <c r="S63" s="8"/>
-      <c r="T63" s="4" t="s">
+      <c r="S63" s="21"/>
+      <c r="T63" s="21"/>
+      <c r="U63" s="8"/>
+      <c r="V63" s="4" t="s">
         <v>299</v>
-      </c>
-      <c r="U63" s="4"/>
-      <c r="V63" s="4" t="s">
-        <v>541</v>
       </c>
       <c r="W63" s="4"/>
       <c r="X63" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y63" s="4"/>
+      <c r="Z63" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="Y63" s="11"/>
-      <c r="Z63" s="20" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA63" s="21"/>
+      <c r="AA63" s="11"/>
+      <c r="AB63" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="AC63" s="21"/>
+      <c r="AD63" s="21"/>
     </row>
-    <row r="64" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
         <v>103</v>
       </c>
@@ -8094,42 +8364,45 @@
         <v>580</v>
       </c>
       <c r="I64" s="21"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="4" t="s">
+      <c r="J64" s="21"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4" t="s">
+      <c r="M64" s="4"/>
+      <c r="N64" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="N64" s="4"/>
-      <c r="O64" s="4" t="s">
+      <c r="O64" s="4"/>
+      <c r="P64" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="P64" s="11"/>
-      <c r="Q64" s="20" t="s">
-        <v>576</v>
-      </c>
-      <c r="R64" s="21"/>
-      <c r="S64" s="8"/>
-      <c r="T64" s="4" t="s">
+      <c r="Q64" s="11"/>
+      <c r="R64" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="S64" s="21"/>
+      <c r="T64" s="21"/>
+      <c r="U64" s="8"/>
+      <c r="V64" s="4" t="s">
         <v>300</v>
-      </c>
-      <c r="U64" s="4"/>
-      <c r="V64" s="4" t="s">
-        <v>542</v>
       </c>
       <c r="W64" s="4"/>
       <c r="X64" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="Y64" s="4"/>
+      <c r="Z64" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="Y64" s="11"/>
-      <c r="Z64" s="20" t="s">
+      <c r="AA64" s="11"/>
+      <c r="AB64" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="AA64" s="21"/>
+      <c r="AC64" s="21"/>
+      <c r="AD64" s="21"/>
     </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
         <v>104</v>
       </c>
@@ -8146,42 +8419,45 @@
         <v>575</v>
       </c>
       <c r="I65" s="23"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="2" t="s">
+      <c r="J65" s="23"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="2"/>
+      <c r="N65" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="34" t="s">
+      <c r="O65" s="2"/>
+      <c r="P65" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="P65" s="11"/>
-      <c r="Q65" s="27" t="s">
+      <c r="Q65" s="11"/>
+      <c r="R65" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="R65" s="28"/>
-      <c r="S65" s="8"/>
-      <c r="T65" s="2" t="s">
+      <c r="S65" s="28"/>
+      <c r="T65" s="23"/>
+      <c r="U65" s="8"/>
+      <c r="V65" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="U65" s="2"/>
-      <c r="V65" s="2" t="s">
+      <c r="W65" s="2"/>
+      <c r="X65" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="W65" s="2"/>
-      <c r="X65" s="34" t="s">
+      <c r="Y65" s="2"/>
+      <c r="Z65" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="Y65" s="10"/>
-      <c r="Z65" s="27" t="s">
+      <c r="AA65" s="10"/>
+      <c r="AB65" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="AA65" s="28"/>
+      <c r="AC65" s="28"/>
+      <c r="AD65" s="23"/>
     </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>105</v>
       </c>
@@ -8198,42 +8474,45 @@
         <v>575</v>
       </c>
       <c r="I66" s="21"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="4" t="s">
+      <c r="J66" s="21"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4" t="s">
+      <c r="M66" s="4"/>
+      <c r="N66" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="N66" s="4"/>
-      <c r="O66" s="34" t="s">
+      <c r="O66" s="4"/>
+      <c r="P66" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="P66" s="11"/>
-      <c r="Q66" s="20" t="s">
+      <c r="Q66" s="11"/>
+      <c r="R66" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="R66" s="21"/>
-      <c r="S66" s="8"/>
-      <c r="T66" s="4" t="s">
+      <c r="S66" s="21"/>
+      <c r="T66" s="21"/>
+      <c r="U66" s="8"/>
+      <c r="V66" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="U66" s="4"/>
-      <c r="V66" s="4" t="s">
+      <c r="W66" s="4"/>
+      <c r="X66" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="W66" s="4"/>
-      <c r="X66" s="34" t="s">
+      <c r="Y66" s="4"/>
+      <c r="Z66" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="Y66" s="10"/>
-      <c r="Z66" s="20" t="s">
+      <c r="AA66" s="10"/>
+      <c r="AB66" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="AA66" s="21"/>
+      <c r="AC66" s="21"/>
+      <c r="AD66" s="21"/>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B67" s="4" t="s">
         <v>106</v>
       </c>
@@ -8250,42 +8529,45 @@
         <v>575</v>
       </c>
       <c r="I67" s="21"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="4" t="s">
-        <v>618</v>
-      </c>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4" t="s">
+      <c r="J67" s="21"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="N67" s="4"/>
-      <c r="O67" s="34" t="s">
+      <c r="O67" s="4"/>
+      <c r="P67" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="P67" s="11"/>
-      <c r="Q67" s="20" t="s">
+      <c r="Q67" s="11"/>
+      <c r="R67" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="R67" s="21"/>
-      <c r="S67" s="8"/>
-      <c r="T67" s="4" t="s">
+      <c r="S67" s="21"/>
+      <c r="T67" s="21"/>
+      <c r="U67" s="8"/>
+      <c r="V67" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="U67" s="4"/>
-      <c r="V67" s="4" t="s">
+      <c r="W67" s="4"/>
+      <c r="X67" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="W67" s="4"/>
-      <c r="X67" s="34" t="s">
+      <c r="Y67" s="4"/>
+      <c r="Z67" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="Y67" s="10"/>
-      <c r="Z67" s="20" t="s">
+      <c r="AA67" s="10"/>
+      <c r="AB67" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="AA67" s="21"/>
+      <c r="AC67" s="21"/>
+      <c r="AD67" s="21"/>
     </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B68" s="4" t="s">
         <v>107</v>
       </c>
@@ -8302,42 +8584,45 @@
         <v>576</v>
       </c>
       <c r="I68" s="21"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="4" t="s">
+      <c r="J68" s="21"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4" t="s">
+      <c r="M68" s="4"/>
+      <c r="N68" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="N68" s="4"/>
-      <c r="O68" s="4" t="s">
+      <c r="O68" s="4"/>
+      <c r="P68" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="P68" s="11"/>
-      <c r="Q68" s="20" t="s">
-        <v>576</v>
-      </c>
-      <c r="R68" s="21"/>
-      <c r="S68" s="8"/>
-      <c r="T68" s="4" t="s">
+      <c r="Q68" s="11"/>
+      <c r="R68" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="S68" s="21"/>
+      <c r="T68" s="21"/>
+      <c r="U68" s="8"/>
+      <c r="V68" s="4" t="s">
         <v>242</v>
-      </c>
-      <c r="U68" s="4"/>
-      <c r="V68" s="4" t="s">
-        <v>543</v>
       </c>
       <c r="W68" s="4"/>
       <c r="X68" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y68" s="4"/>
+      <c r="Z68" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="Y68" s="10"/>
-      <c r="Z68" s="20" t="s">
+      <c r="AA68" s="10"/>
+      <c r="AB68" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="AA68" s="21"/>
+      <c r="AC68" s="21"/>
+      <c r="AD68" s="21"/>
     </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B69" s="3" t="s">
         <v>108</v>
       </c>
@@ -8354,42 +8639,45 @@
         <v>576</v>
       </c>
       <c r="I69" s="19"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="3" t="s">
+      <c r="J69" s="19"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3" t="s">
+      <c r="M69" s="3"/>
+      <c r="N69" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="N69" s="3"/>
-      <c r="O69" s="3" t="s">
+      <c r="O69" s="3"/>
+      <c r="P69" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="P69" s="11"/>
-      <c r="Q69" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="R69" s="19"/>
-      <c r="S69" s="8"/>
-      <c r="T69" s="3" t="s">
+      <c r="Q69" s="11"/>
+      <c r="R69" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="S69" s="19"/>
+      <c r="T69" s="19"/>
+      <c r="U69" s="8"/>
+      <c r="V69" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="U69" s="3"/>
-      <c r="V69" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="W69" s="3"/>
       <c r="X69" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y69" s="3"/>
+      <c r="Z69" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="Y69" s="10"/>
-      <c r="Z69" s="18" t="s">
+      <c r="AA69" s="10"/>
+      <c r="AB69" s="18" t="s">
         <v>575</v>
       </c>
-      <c r="AA69" s="19"/>
+      <c r="AC69" s="19"/>
+      <c r="AD69" s="19"/>
     </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
         <v>109</v>
       </c>
@@ -8406,42 +8694,45 @@
         <v>576</v>
       </c>
       <c r="I70" s="19"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="3" t="s">
+      <c r="J70" s="19"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3" t="s">
+      <c r="M70" s="3"/>
+      <c r="N70" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="N70" s="3"/>
-      <c r="O70" s="34" t="s">
+      <c r="O70" s="3"/>
+      <c r="P70" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="P70" s="11"/>
-      <c r="Q70" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="R70" s="19"/>
-      <c r="S70" s="8"/>
-      <c r="T70" s="3" t="s">
+      <c r="Q70" s="11"/>
+      <c r="R70" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="S70" s="19"/>
+      <c r="T70" s="19"/>
+      <c r="U70" s="8"/>
+      <c r="V70" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="U70" s="3"/>
-      <c r="V70" s="3" t="s">
+      <c r="W70" s="3"/>
+      <c r="X70" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="W70" s="3"/>
-      <c r="X70" s="34" t="s">
+      <c r="Y70" s="3"/>
+      <c r="Z70" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="Y70" s="10"/>
-      <c r="Z70" s="18" t="s">
+      <c r="AA70" s="10"/>
+      <c r="AB70" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="AA70" s="19"/>
+      <c r="AC70" s="19"/>
+      <c r="AD70" s="19"/>
     </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B71" s="4" t="s">
         <v>110</v>
       </c>
@@ -8458,42 +8749,45 @@
         <v>570</v>
       </c>
       <c r="I71" s="21"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="4" t="s">
+      <c r="J71" s="21"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4" t="s">
+      <c r="M71" s="4"/>
+      <c r="N71" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="N71" s="4"/>
-      <c r="O71" s="4" t="s">
+      <c r="O71" s="4"/>
+      <c r="P71" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="P71" s="11"/>
-      <c r="Q71" s="20" t="s">
+      <c r="Q71" s="11"/>
+      <c r="R71" s="20" t="s">
         <v>570</v>
       </c>
-      <c r="R71" s="21"/>
-      <c r="S71" s="8"/>
-      <c r="T71" s="4" t="s">
+      <c r="S71" s="21"/>
+      <c r="T71" s="21"/>
+      <c r="U71" s="8"/>
+      <c r="V71" s="4" t="s">
         <v>239</v>
-      </c>
-      <c r="U71" s="4"/>
-      <c r="V71" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="W71" s="4"/>
       <c r="X71" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y71" s="4"/>
+      <c r="Z71" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="Y71" s="11"/>
-      <c r="Z71" s="20" t="s">
+      <c r="AA71" s="11"/>
+      <c r="AB71" s="20" t="s">
         <v>587</v>
       </c>
-      <c r="AA71" s="21"/>
+      <c r="AC71" s="21"/>
+      <c r="AD71" s="21"/>
     </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B72" s="4" t="s">
         <v>546</v>
       </c>
@@ -8510,41 +8804,44 @@
         <v>570</v>
       </c>
       <c r="I72" s="21"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="4" t="s">
+      <c r="J72" s="21"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4" t="s">
+      <c r="M72" s="4"/>
+      <c r="N72" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="N72" s="4"/>
-      <c r="O72" s="34" t="s">
+      <c r="O72" s="4"/>
+      <c r="P72" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="P72" s="11"/>
-      <c r="Q72" s="20" t="s">
+      <c r="Q72" s="11"/>
+      <c r="R72" s="20" t="s">
         <v>585</v>
       </c>
-      <c r="R72" s="21"/>
-      <c r="T72" s="4" t="s">
+      <c r="S72" s="21"/>
+      <c r="T72" s="21"/>
+      <c r="V72" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="U72" s="4"/>
-      <c r="V72" s="4" t="s">
+      <c r="W72" s="4"/>
+      <c r="X72" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="W72" s="4"/>
-      <c r="X72" s="34" t="s">
+      <c r="Y72" s="4"/>
+      <c r="Z72" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="Y72" s="10"/>
-      <c r="Z72" s="20" t="s">
+      <c r="AA72" s="10"/>
+      <c r="AB72" s="20" t="s">
         <v>572</v>
       </c>
-      <c r="AA72" s="21"/>
+      <c r="AC72" s="21"/>
+      <c r="AD72" s="21"/>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="s">
         <v>550</v>
       </c>
@@ -8561,41 +8858,44 @@
         <v>572</v>
       </c>
       <c r="I73" s="19"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="3" t="s">
+      <c r="J73" s="19"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3" t="s">
+      <c r="M73" s="3"/>
+      <c r="N73" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="N73" s="3"/>
-      <c r="O73" s="34" t="s">
+      <c r="O73" s="3"/>
+      <c r="P73" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="P73" s="11"/>
-      <c r="Q73" s="25" t="s">
+      <c r="Q73" s="11"/>
+      <c r="R73" s="25" t="s">
         <v>572</v>
       </c>
-      <c r="R73" s="26"/>
-      <c r="T73" s="3" t="s">
+      <c r="S73" s="26"/>
+      <c r="T73" s="19"/>
+      <c r="V73" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="U73" s="3"/>
-      <c r="V73" s="3" t="s">
+      <c r="W73" s="3"/>
+      <c r="X73" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="W73" s="3"/>
-      <c r="X73" s="34" t="s">
+      <c r="Y73" s="3"/>
+      <c r="Z73" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="Y73" s="10"/>
-      <c r="Z73" s="18" t="s">
+      <c r="AA73" s="10"/>
+      <c r="AB73" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="AA73" s="26"/>
+      <c r="AC73" s="26"/>
+      <c r="AD73" s="19"/>
     </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B74" s="4" t="s">
         <v>600</v>
       </c>
@@ -8612,47 +8912,50 @@
         <v>576</v>
       </c>
       <c r="I74" s="21"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="4" t="s">
+      <c r="J74" s="21"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="L74" s="4"/>
-      <c r="M74" s="4" t="s">
+      <c r="M74" s="4"/>
+      <c r="N74" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="N74" s="4"/>
-      <c r="O74" s="4" t="s">
+      <c r="O74" s="4"/>
+      <c r="P74" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="P74" s="11"/>
-      <c r="Q74" s="20" t="s">
-        <v>576</v>
-      </c>
-      <c r="R74" s="21"/>
-      <c r="T74" s="4" t="s">
+      <c r="Q74" s="11"/>
+      <c r="R74" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="S74" s="21"/>
+      <c r="T74" s="21"/>
+      <c r="V74" s="4" t="s">
         <v>603</v>
-      </c>
-      <c r="U74" s="4"/>
-      <c r="V74" s="4" t="s">
-        <v>601</v>
       </c>
       <c r="W74" s="4"/>
       <c r="X74" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="Y74" s="4"/>
+      <c r="Z74" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="Y74" s="10"/>
-      <c r="Z74" s="20" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA74" s="21"/>
+      <c r="AA74" s="10"/>
+      <c r="AB74" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="AC74" s="21"/>
+      <c r="AD74" s="21"/>
     </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3" t="s">
@@ -8661,37 +8964,40 @@
       <c r="G75" s="11"/>
       <c r="H75" s="18"/>
       <c r="I75" s="19"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="37" t="s">
+      <c r="J75" s="19"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="37" t="s">
+        <v>615</v>
+      </c>
+      <c r="M75" s="37"/>
+      <c r="N75" s="37" t="s">
+        <v>614</v>
+      </c>
+      <c r="O75" s="37"/>
+      <c r="P75" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q75" s="11"/>
+      <c r="R75" s="37"/>
+      <c r="S75" s="37"/>
+      <c r="T75" s="19"/>
+      <c r="V75" s="37" t="s">
         <v>616</v>
-      </c>
-      <c r="L75" s="37"/>
-      <c r="M75" s="37" t="s">
-        <v>615</v>
-      </c>
-      <c r="N75" s="37"/>
-      <c r="O75" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="P75" s="11"/>
-      <c r="Q75" s="37"/>
-      <c r="R75" s="37"/>
-      <c r="T75" s="37" t="s">
-        <v>617</v>
-      </c>
-      <c r="U75" s="37"/>
-      <c r="V75" s="37" t="s">
-        <v>615</v>
       </c>
       <c r="W75" s="37"/>
       <c r="X75" s="37" t="s">
+        <v>614</v>
+      </c>
+      <c r="Y75" s="37"/>
+      <c r="Z75" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="Y75" s="11"/>
-      <c r="Z75" s="37"/>
-      <c r="AA75" s="37"/>
+      <c r="AA75" s="11"/>
+      <c r="AB75" s="37"/>
+      <c r="AC75" s="37"/>
+      <c r="AD75" s="19"/>
     </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B76" s="4" t="s">
         <v>138</v>
       </c>
@@ -8708,9 +9014,12 @@
         <v>576</v>
       </c>
       <c r="I76" s="21"/>
-      <c r="P76" s="36"/>
+      <c r="J76" s="21"/>
+      <c r="Q76" s="36"/>
+      <c r="T76" s="21"/>
+      <c r="AD76" s="21"/>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B77" s="4" t="s">
         <v>137</v>
       </c>
@@ -8727,8 +9036,11 @@
         <v>576</v>
       </c>
       <c r="I77" s="21"/>
+      <c r="J77" s="21"/>
+      <c r="T77" s="21"/>
+      <c r="AD77" s="21"/>
     </row>
-    <row r="78" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B78" s="4" t="s">
         <v>136</v>
       </c>
@@ -8745,8 +9057,11 @@
         <v>576</v>
       </c>
       <c r="I78" s="21"/>
+      <c r="J78" s="21"/>
+      <c r="T78" s="21"/>
+      <c r="AD78" s="21"/>
     </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B79" s="4" t="s">
         <v>135</v>
       </c>
@@ -8763,8 +9078,11 @@
         <v>576</v>
       </c>
       <c r="I79" s="21"/>
+      <c r="J79" s="21"/>
+      <c r="T79" s="21"/>
+      <c r="AD79" s="21"/>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B80" s="4" t="s">
         <v>134</v>
       </c>
@@ -8781,8 +9099,11 @@
         <v>576</v>
       </c>
       <c r="I80" s="21"/>
+      <c r="J80" s="21"/>
+      <c r="T80" s="21"/>
+      <c r="AD80" s="21"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B81" s="4" t="s">
         <v>133</v>
       </c>
@@ -8799,8 +9120,11 @@
         <v>576</v>
       </c>
       <c r="I81" s="21"/>
+      <c r="J81" s="21"/>
+      <c r="T81" s="21"/>
+      <c r="AD81" s="21"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B82" s="4" t="s">
         <v>132</v>
       </c>
@@ -8817,8 +9141,11 @@
         <v>575</v>
       </c>
       <c r="I82" s="23"/>
+      <c r="J82" s="23"/>
+      <c r="T82" s="23"/>
+      <c r="AD82" s="23"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
         <v>139</v>
       </c>
@@ -8835,8 +9162,11 @@
         <v>576</v>
       </c>
       <c r="I83" s="21"/>
+      <c r="J83" s="21"/>
+      <c r="T83" s="21"/>
+      <c r="AD83" s="21"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B84" s="4" t="s">
         <v>140</v>
       </c>
@@ -8853,8 +9183,11 @@
         <v>580</v>
       </c>
       <c r="I84" s="21"/>
+      <c r="J84" s="21"/>
+      <c r="T84" s="21"/>
+      <c r="AD84" s="21"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B85" s="4" t="s">
         <v>141</v>
       </c>
@@ -8871,8 +9204,11 @@
         <v>576</v>
       </c>
       <c r="I85" s="21"/>
+      <c r="J85" s="21"/>
+      <c r="T85" s="21"/>
+      <c r="AD85" s="21"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B86" s="4" t="s">
         <v>142</v>
       </c>
@@ -8889,8 +9225,11 @@
         <v>576</v>
       </c>
       <c r="I86" s="21"/>
+      <c r="J86" s="21"/>
+      <c r="T86" s="21"/>
+      <c r="AD86" s="21"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B87" s="4" t="s">
         <v>143</v>
       </c>
@@ -8907,8 +9246,11 @@
         <v>576</v>
       </c>
       <c r="I87" s="21"/>
+      <c r="J87" s="21"/>
+      <c r="T87" s="21"/>
+      <c r="AD87" s="21"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B88" s="4" t="s">
         <v>144</v>
       </c>
@@ -8925,8 +9267,11 @@
         <v>576</v>
       </c>
       <c r="I88" s="21"/>
+      <c r="J88" s="21"/>
+      <c r="T88" s="21"/>
+      <c r="AD88" s="21"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B89" s="4" t="s">
         <v>145</v>
       </c>
@@ -8943,8 +9288,11 @@
         <v>576</v>
       </c>
       <c r="I89" s="21"/>
+      <c r="J89" s="21"/>
+      <c r="T89" s="21"/>
+      <c r="AD89" s="21"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B90" s="4" t="s">
         <v>146</v>
       </c>
@@ -8961,8 +9309,11 @@
         <v>576</v>
       </c>
       <c r="I90" s="21"/>
+      <c r="J90" s="21"/>
+      <c r="T90" s="21"/>
+      <c r="AD90" s="21"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B91" s="4" t="s">
         <v>147</v>
       </c>
@@ -8979,8 +9330,11 @@
         <v>576</v>
       </c>
       <c r="I91" s="21"/>
+      <c r="J91" s="21"/>
+      <c r="T91" s="21"/>
+      <c r="AD91" s="21"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B92" s="4" t="s">
         <v>148</v>
       </c>
@@ -8997,8 +9351,11 @@
         <v>576</v>
       </c>
       <c r="I92" s="22"/>
+      <c r="J92" s="22"/>
+      <c r="T92" s="22"/>
+      <c r="AD92" s="22"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B93" s="4" t="s">
         <v>149</v>
       </c>

--- a/Planning/Assetlist.xlsx
+++ b/Planning/Assetlist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CarloAkuma\Desktop\JOHN CENA TUUTUUDUU TUUU\Gamelab1\Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Desktop\Gamelab1\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2193,7 +2193,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2209,9 +2209,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2249,7 +2249,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2321,7 +2321,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2473,8 +2473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CD93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
-      <selection activeCell="BI3" sqref="BI3:BI37"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="AJ3" sqref="AJ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2700,7 +2700,7 @@
         <v>307</v>
       </c>
       <c r="AI3" s="3"/>
-      <c r="AJ3" s="3" t="s">
+      <c r="AJ3" s="34" t="s">
         <v>319</v>
       </c>
       <c r="AK3" s="10"/>

--- a/Planning/Assetlist.xlsx
+++ b/Planning/Assetlist.xlsx
@@ -2473,8 +2473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CD93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="AJ3" sqref="AJ3"/>
+    <sheetView tabSelected="1" topLeftCell="AB16" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="AU34" sqref="AU34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5941,7 +5941,7 @@
       </c>
       <c r="AS32" s="3"/>
       <c r="AT32" s="3"/>
-      <c r="AU32" s="3" t="s">
+      <c r="AU32" s="34" t="s">
         <v>383</v>
       </c>
       <c r="AV32" s="10"/>
@@ -6048,7 +6048,7 @@
       </c>
       <c r="AS33" s="3"/>
       <c r="AT33" s="3"/>
-      <c r="AU33" s="3" t="s">
+      <c r="AU33" s="34" t="s">
         <v>383</v>
       </c>
       <c r="AV33" s="10"/>
@@ -6155,7 +6155,7 @@
       </c>
       <c r="AS34" s="3"/>
       <c r="AT34" s="3"/>
-      <c r="AU34" s="3" t="s">
+      <c r="AU34" s="34" t="s">
         <v>383</v>
       </c>
       <c r="AV34" s="10"/>

--- a/Planning/Assetlist.xlsx
+++ b/Planning/Assetlist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Desktop\Gamelab1\Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CarloAkuma\Desktop\JOHN CENA TUUTUUDUU TUUU\Gamelab1\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="635">
   <si>
     <t>2D</t>
   </si>
@@ -1957,6 +1957,12 @@
   </si>
   <si>
     <t>2D_ENVFB_001</t>
+  </si>
+  <si>
+    <t>7S_SAL_001</t>
+  </si>
+  <si>
+    <t>Save And Load</t>
   </si>
 </sst>
 </file>
@@ -2035,7 +2041,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2146,11 +2152,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2191,9 +2208,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2209,9 +2228,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2249,7 +2268,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2321,7 +2340,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2473,8 +2492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CD93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB16" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="AU34" sqref="AU34"/>
+    <sheetView tabSelected="1" topLeftCell="AY20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BG38" activeCellId="1" sqref="BA38:BE38 BG38:BI38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2700,7 +2719,7 @@
         <v>307</v>
       </c>
       <c r="AI3" s="3"/>
-      <c r="AJ3" s="34" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>319</v>
       </c>
       <c r="AK3" s="10"/>
@@ -5941,7 +5960,7 @@
       </c>
       <c r="AS32" s="3"/>
       <c r="AT32" s="3"/>
-      <c r="AU32" s="34" t="s">
+      <c r="AU32" s="3" t="s">
         <v>383</v>
       </c>
       <c r="AV32" s="10"/>
@@ -6048,7 +6067,7 @@
       </c>
       <c r="AS33" s="3"/>
       <c r="AT33" s="3"/>
-      <c r="AU33" s="34" t="s">
+      <c r="AU33" s="3" t="s">
         <v>383</v>
       </c>
       <c r="AV33" s="10"/>
@@ -6155,7 +6174,7 @@
       </c>
       <c r="AS34" s="3"/>
       <c r="AT34" s="3"/>
-      <c r="AU34" s="34" t="s">
+      <c r="AU34" s="3" t="s">
         <v>383</v>
       </c>
       <c r="AV34" s="10"/>
@@ -6590,6 +6609,22 @@
       </c>
       <c r="AX38" s="19"/>
       <c r="AY38" s="8"/>
+      <c r="BA38" s="40" t="s">
+        <v>633</v>
+      </c>
+      <c r="BB38" s="41"/>
+      <c r="BC38" s="40" t="s">
+        <v>634</v>
+      </c>
+      <c r="BD38" s="41"/>
+      <c r="BE38" s="40" t="s">
+        <v>427</v>
+      </c>
+      <c r="BG38" s="40" t="s">
+        <v>569</v>
+      </c>
+      <c r="BH38" s="41"/>
+      <c r="BI38" s="41"/>
       <c r="BK38" s="2" t="s">
         <v>464</v>
       </c>

--- a/Planning/Assetlist.xlsx
+++ b/Planning/Assetlist.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CarloAkuma\Desktop\JOHN CENA TUUTUUDUU TUUU\Gamelab1\Planning\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20328" windowHeight="9732"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +24,7 @@
     <author>CarloAkuma</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="644">
   <si>
     <t>2D</t>
   </si>
@@ -1963,6 +1958,33 @@
   </si>
   <si>
     <t>Save And Load</t>
+  </si>
+  <si>
+    <t>8SFX_COMIC_001</t>
+  </si>
+  <si>
+    <t>Super Hero Attack Particle</t>
+  </si>
+  <si>
+    <t>8SFX_COMIC_002</t>
+  </si>
+  <si>
+    <t>8SFX_COMIC_003</t>
+  </si>
+  <si>
+    <t>7S_ParDes_001</t>
+  </si>
+  <si>
+    <t>Particle Destroy</t>
+  </si>
+  <si>
+    <t>7S_ParRand_001</t>
+  </si>
+  <si>
+    <t>Particle Randomizer</t>
+  </si>
+  <si>
+    <t>5 uur</t>
   </si>
 </sst>
 </file>
@@ -2212,7 +2234,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2482,7 +2504,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2492,21 +2514,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CD93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AY20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BG38" activeCellId="1" sqref="BA38:BE38 BG38:BI38"/>
+    <sheetView tabSelected="1" topLeftCell="AR19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BI32" sqref="BI32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="10" width="9.140625" style="1"/>
-    <col min="18" max="20" width="9.5703125" style="1" customWidth="1"/>
-    <col min="28" max="30" width="9.140625" style="1"/>
-    <col min="38" max="40" width="9.140625" style="1" customWidth="1"/>
-    <col min="51" max="51" width="9.140625" style="1"/>
-    <col min="61" max="61" width="9.140625" style="1"/>
+    <col min="8" max="10" width="9.109375" style="1"/>
+    <col min="18" max="20" width="9.5546875" style="1" customWidth="1"/>
+    <col min="28" max="30" width="9.109375" style="1"/>
+    <col min="38" max="40" width="9.109375" style="1" customWidth="1"/>
+    <col min="51" max="51" width="9.109375" style="1"/>
+    <col min="61" max="61" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:82" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:82" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2639,7 +2661,7 @@
       <c r="CC1" s="9"/>
       <c r="CD1" s="9"/>
     </row>
-    <row r="2" spans="2:82" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:82" ht="15" x14ac:dyDescent="0.25">
       <c r="G2" s="1"/>
       <c r="K2" s="1"/>
       <c r="Q2" s="1"/>
@@ -2657,7 +2679,7 @@
       <c r="CC2" s="9"/>
       <c r="CD2" s="9"/>
     </row>
-    <row r="3" spans="2:82" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:82" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2781,7 +2803,7 @@
       </c>
       <c r="BR3" s="31"/>
     </row>
-    <row r="4" spans="2:82" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:82" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -2905,7 +2927,7 @@
       </c>
       <c r="BR4" s="28"/>
     </row>
-    <row r="5" spans="2:82" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:82" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
@@ -3029,7 +3051,7 @@
       </c>
       <c r="BR5" s="28"/>
     </row>
-    <row r="6" spans="2:82" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:82" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
@@ -3153,7 +3175,7 @@
       </c>
       <c r="BR6" s="19"/>
     </row>
-    <row r="7" spans="2:82" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:82" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
@@ -3277,7 +3299,7 @@
       </c>
       <c r="BR7" s="19"/>
     </row>
-    <row r="8" spans="2:82" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:82" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
@@ -3384,24 +3406,24 @@
       <c r="BH8" s="19"/>
       <c r="BI8" s="19"/>
       <c r="BJ8" s="1"/>
-      <c r="BK8" s="3" t="s">
+      <c r="BK8" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="BL8" s="3"/>
-      <c r="BM8" s="3" t="s">
+      <c r="BL8" s="2"/>
+      <c r="BM8" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="BN8" s="3"/>
-      <c r="BO8" s="3" t="s">
+      <c r="BN8" s="2"/>
+      <c r="BO8" s="2" t="s">
         <v>479</v>
       </c>
       <c r="BP8" s="6"/>
-      <c r="BQ8" s="18" t="s">
+      <c r="BQ8" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="BR8" s="19"/>
+      <c r="BR8" s="2"/>
     </row>
-    <row r="9" spans="2:82" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:82" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
@@ -3525,7 +3547,7 @@
       </c>
       <c r="BR9" s="19"/>
     </row>
-    <row r="10" spans="2:82" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:82" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -3649,7 +3671,7 @@
       </c>
       <c r="BR10" s="19"/>
     </row>
-    <row r="11" spans="2:82" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:82" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>35</v>
       </c>
@@ -3739,24 +3761,24 @@
       <c r="BH11" s="19"/>
       <c r="BI11" s="19"/>
       <c r="BJ11" s="1"/>
-      <c r="BK11" s="2" t="s">
+      <c r="BK11" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="BL11" s="2"/>
-      <c r="BM11" s="2" t="s">
+      <c r="BL11" s="3"/>
+      <c r="BM11" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="BN11" s="2"/>
-      <c r="BO11" s="2" t="s">
+      <c r="BN11" s="3"/>
+      <c r="BO11" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="BP11" s="6"/>
-      <c r="BQ11" s="27" t="s">
+      <c r="BP11" s="3"/>
+      <c r="BQ11" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="BR11" s="28"/>
+      <c r="BR11" s="3"/>
     </row>
-    <row r="12" spans="2:82" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:82" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
@@ -3863,7 +3885,7 @@
       </c>
       <c r="BR12" s="19"/>
     </row>
-    <row r="13" spans="2:82" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:82" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>564</v>
       </c>
@@ -3970,7 +3992,7 @@
       </c>
       <c r="BR13" s="19"/>
     </row>
-    <row r="14" spans="2:82" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:82" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>565</v>
       </c>
@@ -4077,7 +4099,7 @@
       </c>
       <c r="BR14" s="19"/>
     </row>
-    <row r="15" spans="2:82" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:82" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>566</v>
       </c>
@@ -4184,7 +4206,7 @@
       </c>
       <c r="BR15" s="19"/>
     </row>
-    <row r="16" spans="2:82" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:82" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
@@ -4291,7 +4313,7 @@
       </c>
       <c r="BR16" s="19"/>
     </row>
-    <row r="17" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:72" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
@@ -4396,7 +4418,7 @@
       </c>
       <c r="BR17" s="19"/>
     </row>
-    <row r="18" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:72" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
@@ -4503,7 +4525,7 @@
       </c>
       <c r="BR18" s="28"/>
     </row>
-    <row r="19" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:72" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
@@ -4610,7 +4632,7 @@
       </c>
       <c r="BR19" s="28"/>
     </row>
-    <row r="20" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:72" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>17</v>
       </c>
@@ -4717,7 +4739,7 @@
       </c>
       <c r="BR20" s="28"/>
     </row>
-    <row r="21" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:72" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>18</v>
       </c>
@@ -4827,7 +4849,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="22" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:72" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>19</v>
       </c>
@@ -4934,7 +4956,7 @@
       </c>
       <c r="BR22" s="28"/>
     </row>
-    <row r="23" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:72" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>12</v>
       </c>
@@ -5041,7 +5063,7 @@
       </c>
       <c r="BR23" s="28"/>
     </row>
-    <row r="24" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:72" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>632</v>
       </c>
@@ -5148,7 +5170,7 @@
       </c>
       <c r="BR24" s="28"/>
     </row>
-    <row r="25" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:72" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>20</v>
       </c>
@@ -5255,7 +5277,7 @@
       </c>
       <c r="BR25" s="28"/>
     </row>
-    <row r="26" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:72" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>21</v>
       </c>
@@ -5362,7 +5384,7 @@
       </c>
       <c r="BR26" s="28"/>
     </row>
-    <row r="27" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:72" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>22</v>
       </c>
@@ -5469,7 +5491,7 @@
       </c>
       <c r="BR27" s="28"/>
     </row>
-    <row r="28" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:72" ht="15" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>23</v>
       </c>
@@ -5576,7 +5598,7 @@
       </c>
       <c r="BR28" s="28"/>
     </row>
-    <row r="29" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:72" ht="15" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>24</v>
       </c>
@@ -5683,7 +5705,7 @@
       </c>
       <c r="BR29" s="28"/>
     </row>
-    <row r="30" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:72" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>25</v>
       </c>
@@ -5790,7 +5812,7 @@
       </c>
       <c r="BR30" s="28"/>
     </row>
-    <row r="31" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:72" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>54</v>
       </c>
@@ -5897,7 +5919,7 @@
       </c>
       <c r="BR31" s="28"/>
     </row>
-    <row r="32" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:72" ht="15" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>55</v>
       </c>
@@ -6004,7 +6026,7 @@
       </c>
       <c r="BR32" s="28"/>
     </row>
-    <row r="33" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:70" ht="15" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>56</v>
       </c>
@@ -6111,7 +6133,7 @@
       </c>
       <c r="BR33" s="28"/>
     </row>
-    <row r="34" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:70" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>72</v>
       </c>
@@ -6217,7 +6239,7 @@
       </c>
       <c r="BR34" s="28"/>
     </row>
-    <row r="35" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:70" ht="15" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>57</v>
       </c>
@@ -6323,7 +6345,7 @@
       </c>
       <c r="BR35" s="28"/>
     </row>
-    <row r="36" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:70" ht="15" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>73</v>
       </c>
@@ -6429,7 +6451,7 @@
       </c>
       <c r="BR36" s="28"/>
     </row>
-    <row r="37" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:70" ht="15" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>58</v>
       </c>
@@ -6535,7 +6557,7 @@
       </c>
       <c r="BR37" s="28"/>
     </row>
-    <row r="38" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:70" ht="15" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>59</v>
       </c>
@@ -6642,7 +6664,7 @@
       </c>
       <c r="BR38" s="28"/>
     </row>
-    <row r="39" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:70" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>60</v>
       </c>
@@ -6714,6 +6736,23 @@
       </c>
       <c r="AX39" s="19"/>
       <c r="AY39" s="8"/>
+      <c r="BA39" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="BB39" s="2"/>
+      <c r="BC39" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="BD39" s="2"/>
+      <c r="BE39" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="BF39" s="2"/>
+      <c r="BG39" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="BH39" s="2"/>
+      <c r="BI39" s="2"/>
       <c r="BK39" s="2" t="s">
         <v>465</v>
       </c>
@@ -6731,7 +6770,7 @@
       </c>
       <c r="BR39" s="28"/>
     </row>
-    <row r="40" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:70" ht="15" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>61</v>
       </c>
@@ -6803,6 +6842,23 @@
       </c>
       <c r="AX40" s="19"/>
       <c r="AY40" s="8"/>
+      <c r="BA40" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="BB40" s="2"/>
+      <c r="BC40" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="BD40" s="2"/>
+      <c r="BE40" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="BF40" s="2"/>
+      <c r="BG40" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="BH40" s="2"/>
+      <c r="BI40" s="2"/>
       <c r="BK40" s="2" t="s">
         <v>466</v>
       </c>
@@ -6820,7 +6876,7 @@
       </c>
       <c r="BR40" s="28"/>
     </row>
-    <row r="41" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:70" ht="15" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>62</v>
       </c>
@@ -6909,7 +6965,7 @@
       </c>
       <c r="BR41" s="28"/>
     </row>
-    <row r="42" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:70" ht="15" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>63</v>
       </c>
@@ -6998,7 +7054,7 @@
       </c>
       <c r="BR42" s="28"/>
     </row>
-    <row r="43" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:70" ht="15" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
         <v>64</v>
       </c>
@@ -7087,7 +7143,7 @@
       </c>
       <c r="BR43" s="28"/>
     </row>
-    <row r="44" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:70" ht="15" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>65</v>
       </c>
@@ -7176,7 +7232,7 @@
       </c>
       <c r="BR44" s="28"/>
     </row>
-    <row r="45" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:70" ht="15" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
         <v>66</v>
       </c>
@@ -7265,7 +7321,7 @@
       </c>
       <c r="BR45" s="28"/>
     </row>
-    <row r="46" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:70" ht="15" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
         <v>67</v>
       </c>
@@ -7336,7 +7392,7 @@
       </c>
       <c r="BR46" s="28"/>
     </row>
-    <row r="47" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:70" ht="15" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
         <v>68</v>
       </c>
@@ -7407,7 +7463,7 @@
       </c>
       <c r="BR47" s="28"/>
     </row>
-    <row r="48" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:70" ht="15" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
         <v>88</v>
       </c>
@@ -7478,7 +7534,7 @@
       </c>
       <c r="BR48" s="28"/>
     </row>
-    <row r="49" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:70" ht="15" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>89</v>
       </c>
@@ -7549,7 +7605,7 @@
       </c>
       <c r="BR49" s="28"/>
     </row>
-    <row r="50" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:70" ht="15" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>90</v>
       </c>
@@ -7620,7 +7676,7 @@
       </c>
       <c r="BR50" s="28"/>
     </row>
-    <row r="51" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:70" ht="15" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
         <v>91</v>
       </c>
@@ -7691,7 +7747,7 @@
       </c>
       <c r="BR51" s="28"/>
     </row>
-    <row r="52" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B52" s="4" t="s">
         <v>92</v>
       </c>
@@ -7762,7 +7818,7 @@
       </c>
       <c r="BR52" s="28"/>
     </row>
-    <row r="53" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B53" s="4" t="s">
         <v>93</v>
       </c>
@@ -7833,7 +7889,7 @@
       </c>
       <c r="BR53" s="32"/>
     </row>
-    <row r="54" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B54" s="4" t="s">
         <v>94</v>
       </c>
@@ -7887,8 +7943,24 @@
       </c>
       <c r="AC54" s="21"/>
       <c r="AD54" s="21"/>
+      <c r="BK54" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="BL54" s="2"/>
+      <c r="BM54" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="BN54" s="2"/>
+      <c r="BO54" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="BP54" s="6"/>
+      <c r="BQ54" s="27" t="s">
+        <v>580</v>
+      </c>
+      <c r="BR54" s="32"/>
     </row>
-    <row r="55" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B55" s="4" t="s">
         <v>95</v>
       </c>
@@ -7942,8 +8014,24 @@
       </c>
       <c r="AC55" s="21"/>
       <c r="AD55" s="21"/>
+      <c r="BK55" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="BL55" s="2"/>
+      <c r="BM55" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="BN55" s="2"/>
+      <c r="BO55" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="BP55" s="6"/>
+      <c r="BQ55" s="27" t="s">
+        <v>575</v>
+      </c>
+      <c r="BR55" s="32"/>
     </row>
-    <row r="56" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B56" s="4" t="s">
         <v>96</v>
       </c>
@@ -7997,8 +8085,24 @@
       </c>
       <c r="AC56" s="21"/>
       <c r="AD56" s="21"/>
+      <c r="BK56" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="BL56" s="2"/>
+      <c r="BM56" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="BN56" s="2"/>
+      <c r="BO56" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="BP56" s="6"/>
+      <c r="BQ56" s="27" t="s">
+        <v>575</v>
+      </c>
+      <c r="BR56" s="32"/>
     </row>
-    <row r="57" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B57" s="4" t="s">
         <v>97</v>
       </c>
@@ -8053,7 +8157,7 @@
       <c r="AC57" s="21"/>
       <c r="AD57" s="21"/>
     </row>
-    <row r="58" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B58" s="4" t="s">
         <v>98</v>
       </c>
@@ -8108,7 +8212,7 @@
       <c r="AC58" s="21"/>
       <c r="AD58" s="21"/>
     </row>
-    <row r="59" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B59" s="4" t="s">
         <v>99</v>
       </c>
@@ -8163,7 +8267,7 @@
       <c r="AC59" s="21"/>
       <c r="AD59" s="21"/>
     </row>
-    <row r="60" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B60" s="4" t="s">
         <v>100</v>
       </c>
@@ -8218,7 +8322,7 @@
       <c r="AC60" s="21"/>
       <c r="AD60" s="21"/>
     </row>
-    <row r="61" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B61" s="4" t="s">
         <v>101</v>
       </c>
@@ -8273,7 +8377,7 @@
       <c r="AC61" s="21"/>
       <c r="AD61" s="21"/>
     </row>
-    <row r="62" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B62" s="4" t="s">
         <v>619</v>
       </c>
@@ -8327,7 +8431,7 @@
       <c r="AC62" s="21"/>
       <c r="AD62" s="21"/>
     </row>
-    <row r="63" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B63" s="4" t="s">
         <v>102</v>
       </c>
@@ -8382,7 +8486,7 @@
       <c r="AC63" s="21"/>
       <c r="AD63" s="21"/>
     </row>
-    <row r="64" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B64" s="4" t="s">
         <v>103</v>
       </c>
@@ -8437,7 +8541,7 @@
       <c r="AC64" s="21"/>
       <c r="AD64" s="21"/>
     </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B65" s="4" t="s">
         <v>104</v>
       </c>
@@ -8492,7 +8596,7 @@
       <c r="AC65" s="28"/>
       <c r="AD65" s="23"/>
     </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B66" s="2" t="s">
         <v>105</v>
       </c>
@@ -8547,7 +8651,7 @@
       <c r="AC66" s="21"/>
       <c r="AD66" s="21"/>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B67" s="4" t="s">
         <v>106</v>
       </c>
@@ -8602,7 +8706,7 @@
       <c r="AC67" s="21"/>
       <c r="AD67" s="21"/>
     </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B68" s="4" t="s">
         <v>107</v>
       </c>
@@ -8657,7 +8761,7 @@
       <c r="AC68" s="21"/>
       <c r="AD68" s="21"/>
     </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B69" s="3" t="s">
         <v>108</v>
       </c>
@@ -8712,7 +8816,7 @@
       <c r="AC69" s="19"/>
       <c r="AD69" s="19"/>
     </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="s">
         <v>109</v>
       </c>
@@ -8767,7 +8871,7 @@
       <c r="AC70" s="19"/>
       <c r="AD70" s="19"/>
     </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B71" s="4" t="s">
         <v>110</v>
       </c>
@@ -8822,7 +8926,7 @@
       <c r="AC71" s="21"/>
       <c r="AD71" s="21"/>
     </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B72" s="4" t="s">
         <v>546</v>
       </c>
@@ -8876,7 +8980,7 @@
       <c r="AC72" s="21"/>
       <c r="AD72" s="21"/>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B73" s="3" t="s">
         <v>550</v>
       </c>
@@ -8930,7 +9034,7 @@
       <c r="AC73" s="26"/>
       <c r="AD73" s="19"/>
     </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B74" s="4" t="s">
         <v>600</v>
       </c>
@@ -8984,7 +9088,7 @@
       <c r="AC74" s="21"/>
       <c r="AD74" s="21"/>
     </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B75" s="3" t="s">
         <v>613</v>
       </c>
@@ -9032,7 +9136,7 @@
       <c r="AC75" s="37"/>
       <c r="AD75" s="19"/>
     </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B76" s="4" t="s">
         <v>138</v>
       </c>
@@ -9054,7 +9158,7 @@
       <c r="T76" s="21"/>
       <c r="AD76" s="21"/>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B77" s="4" t="s">
         <v>137</v>
       </c>
@@ -9075,7 +9179,7 @@
       <c r="T77" s="21"/>
       <c r="AD77" s="21"/>
     </row>
-    <row r="78" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B78" s="4" t="s">
         <v>136</v>
       </c>
@@ -9096,7 +9200,7 @@
       <c r="T78" s="21"/>
       <c r="AD78" s="21"/>
     </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B79" s="4" t="s">
         <v>135</v>
       </c>
@@ -9117,7 +9221,7 @@
       <c r="T79" s="21"/>
       <c r="AD79" s="21"/>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B80" s="4" t="s">
         <v>134</v>
       </c>
@@ -9138,7 +9242,7 @@
       <c r="T80" s="21"/>
       <c r="AD80" s="21"/>
     </row>
-    <row r="81" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B81" s="4" t="s">
         <v>133</v>
       </c>
@@ -9159,7 +9263,7 @@
       <c r="T81" s="21"/>
       <c r="AD81" s="21"/>
     </row>
-    <row r="82" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B82" s="4" t="s">
         <v>132</v>
       </c>
@@ -9180,7 +9284,7 @@
       <c r="T82" s="23"/>
       <c r="AD82" s="23"/>
     </row>
-    <row r="83" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B83" s="2" t="s">
         <v>139</v>
       </c>
@@ -9201,7 +9305,7 @@
       <c r="T83" s="21"/>
       <c r="AD83" s="21"/>
     </row>
-    <row r="84" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B84" s="4" t="s">
         <v>140</v>
       </c>
@@ -9222,7 +9326,7 @@
       <c r="T84" s="21"/>
       <c r="AD84" s="21"/>
     </row>
-    <row r="85" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B85" s="4" t="s">
         <v>141</v>
       </c>
@@ -9243,7 +9347,7 @@
       <c r="T85" s="21"/>
       <c r="AD85" s="21"/>
     </row>
-    <row r="86" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B86" s="4" t="s">
         <v>142</v>
       </c>
@@ -9264,7 +9368,7 @@
       <c r="T86" s="21"/>
       <c r="AD86" s="21"/>
     </row>
-    <row r="87" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B87" s="4" t="s">
         <v>143</v>
       </c>
@@ -9285,7 +9389,7 @@
       <c r="T87" s="21"/>
       <c r="AD87" s="21"/>
     </row>
-    <row r="88" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B88" s="4" t="s">
         <v>144</v>
       </c>
@@ -9306,7 +9410,7 @@
       <c r="T88" s="21"/>
       <c r="AD88" s="21"/>
     </row>
-    <row r="89" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B89" s="4" t="s">
         <v>145</v>
       </c>
@@ -9327,7 +9431,7 @@
       <c r="T89" s="21"/>
       <c r="AD89" s="21"/>
     </row>
-    <row r="90" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B90" s="4" t="s">
         <v>146</v>
       </c>
@@ -9348,7 +9452,7 @@
       <c r="T90" s="21"/>
       <c r="AD90" s="21"/>
     </row>
-    <row r="91" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B91" s="4" t="s">
         <v>147</v>
       </c>
@@ -9369,7 +9473,7 @@
       <c r="T91" s="21"/>
       <c r="AD91" s="21"/>
     </row>
-    <row r="92" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B92" s="4" t="s">
         <v>148</v>
       </c>
@@ -9390,7 +9494,7 @@
       <c r="T92" s="22"/>
       <c r="AD92" s="22"/>
     </row>
-    <row r="93" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B93" s="4" t="s">
         <v>149</v>
       </c>

--- a/Planning/Assetlist.xlsx
+++ b/Planning/Assetlist.xlsx
@@ -2504,7 +2504,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2514,8 +2514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CD93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BI32" sqref="BI32"/>
+    <sheetView tabSelected="1" topLeftCell="AX1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BJ19" sqref="BJ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3414,7 +3414,7 @@
         <v>507</v>
       </c>
       <c r="BN8" s="2"/>
-      <c r="BO8" s="2" t="s">
+      <c r="BO8" s="35" t="s">
         <v>479</v>
       </c>
       <c r="BP8" s="6"/>
@@ -6744,7 +6744,7 @@
         <v>640</v>
       </c>
       <c r="BD39" s="2"/>
-      <c r="BE39" s="2" t="s">
+      <c r="BE39" s="35" t="s">
         <v>427</v>
       </c>
       <c r="BF39" s="2"/>
@@ -6850,7 +6850,7 @@
         <v>642</v>
       </c>
       <c r="BD40" s="2"/>
-      <c r="BE40" s="2" t="s">
+      <c r="BE40" s="35" t="s">
         <v>427</v>
       </c>
       <c r="BF40" s="2"/>
@@ -7605,7 +7605,7 @@
       </c>
       <c r="BR49" s="28"/>
     </row>
-    <row r="50" spans="2:70" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B50" s="2" t="s">
         <v>90</v>
       </c>
@@ -7676,7 +7676,7 @@
       </c>
       <c r="BR50" s="28"/>
     </row>
-    <row r="51" spans="2:70" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
         <v>91</v>
       </c>
@@ -7951,7 +7951,7 @@
         <v>636</v>
       </c>
       <c r="BN54" s="2"/>
-      <c r="BO54" s="2" t="s">
+      <c r="BO54" s="35" t="s">
         <v>479</v>
       </c>
       <c r="BP54" s="6"/>
@@ -8022,7 +8022,7 @@
         <v>636</v>
       </c>
       <c r="BN55" s="2"/>
-      <c r="BO55" s="2" t="s">
+      <c r="BO55" s="35" t="s">
         <v>479</v>
       </c>
       <c r="BP55" s="6"/>
@@ -8093,7 +8093,7 @@
         <v>636</v>
       </c>
       <c r="BN56" s="2"/>
-      <c r="BO56" s="2" t="s">
+      <c r="BO56" s="35" t="s">
         <v>479</v>
       </c>
       <c r="BP56" s="6"/>

--- a/Planning/Assetlist.xlsx
+++ b/Planning/Assetlist.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carloakuma\Desktop\Gamelab1\Planning\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20328" windowHeight="9732"/>
   </bookViews>
@@ -24,7 +29,7 @@
     <author>CarloAkuma</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1990,7 +1995,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2234,7 +2239,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2504,7 +2509,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2514,8 +2519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CD93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AX1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BJ19" sqref="BJ19"/>
+    <sheetView tabSelected="1" topLeftCell="D42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4525,7 +4530,7 @@
       </c>
       <c r="BR18" s="28"/>
     </row>
-    <row r="19" spans="2:72" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:72" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
@@ -4632,7 +4637,7 @@
       </c>
       <c r="BR19" s="28"/>
     </row>
-    <row r="20" spans="2:72" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:72" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
         <v>17</v>
       </c>
@@ -4739,7 +4744,7 @@
       </c>
       <c r="BR20" s="28"/>
     </row>
-    <row r="21" spans="2:72" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:72" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>18</v>
       </c>
@@ -4849,7 +4854,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="22" spans="2:72" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:72" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>19</v>
       </c>
@@ -4956,7 +4961,7 @@
       </c>
       <c r="BR22" s="28"/>
     </row>
-    <row r="23" spans="2:72" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:72" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>12</v>
       </c>
@@ -5063,7 +5068,7 @@
       </c>
       <c r="BR23" s="28"/>
     </row>
-    <row r="24" spans="2:72" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:72" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>632</v>
       </c>
@@ -5170,7 +5175,7 @@
       </c>
       <c r="BR24" s="28"/>
     </row>
-    <row r="25" spans="2:72" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:72" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>20</v>
       </c>
@@ -5277,7 +5282,7 @@
       </c>
       <c r="BR25" s="28"/>
     </row>
-    <row r="26" spans="2:72" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:72" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
         <v>21</v>
       </c>
@@ -5384,7 +5389,7 @@
       </c>
       <c r="BR26" s="28"/>
     </row>
-    <row r="27" spans="2:72" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:72" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
         <v>22</v>
       </c>
@@ -5491,7 +5496,7 @@
       </c>
       <c r="BR27" s="28"/>
     </row>
-    <row r="28" spans="2:72" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:72" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
         <v>23</v>
       </c>
@@ -5598,7 +5603,7 @@
       </c>
       <c r="BR28" s="28"/>
     </row>
-    <row r="29" spans="2:72" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:72" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>24</v>
       </c>
@@ -5705,7 +5710,7 @@
       </c>
       <c r="BR29" s="28"/>
     </row>
-    <row r="30" spans="2:72" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:72" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>25</v>
       </c>
@@ -5812,7 +5817,7 @@
       </c>
       <c r="BR30" s="28"/>
     </row>
-    <row r="31" spans="2:72" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:72" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>54</v>
       </c>
@@ -5919,7 +5924,7 @@
       </c>
       <c r="BR31" s="28"/>
     </row>
-    <row r="32" spans="2:72" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:72" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
         <v>55</v>
       </c>
@@ -6026,7 +6031,7 @@
       </c>
       <c r="BR32" s="28"/>
     </row>
-    <row r="33" spans="2:70" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>56</v>
       </c>
@@ -6133,7 +6138,7 @@
       </c>
       <c r="BR33" s="28"/>
     </row>
-    <row r="34" spans="2:70" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>72</v>
       </c>
@@ -6239,7 +6244,7 @@
       </c>
       <c r="BR34" s="28"/>
     </row>
-    <row r="35" spans="2:70" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
         <v>57</v>
       </c>
@@ -6345,7 +6350,7 @@
       </c>
       <c r="BR35" s="28"/>
     </row>
-    <row r="36" spans="2:70" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
         <v>73</v>
       </c>
@@ -6451,7 +6456,7 @@
       </c>
       <c r="BR36" s="28"/>
     </row>
-    <row r="37" spans="2:70" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
         <v>58</v>
       </c>
@@ -6557,7 +6562,7 @@
       </c>
       <c r="BR37" s="28"/>
     </row>
-    <row r="38" spans="2:70" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
         <v>59</v>
       </c>
@@ -6664,7 +6669,7 @@
       </c>
       <c r="BR38" s="28"/>
     </row>
-    <row r="39" spans="2:70" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
         <v>60</v>
       </c>
@@ -6770,7 +6775,7 @@
       </c>
       <c r="BR39" s="28"/>
     </row>
-    <row r="40" spans="2:70" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>61</v>
       </c>
@@ -6876,7 +6881,7 @@
       </c>
       <c r="BR40" s="28"/>
     </row>
-    <row r="41" spans="2:70" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
         <v>62</v>
       </c>
@@ -6965,7 +6970,7 @@
       </c>
       <c r="BR41" s="28"/>
     </row>
-    <row r="42" spans="2:70" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
         <v>63</v>
       </c>
@@ -7054,7 +7059,7 @@
       </c>
       <c r="BR42" s="28"/>
     </row>
-    <row r="43" spans="2:70" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
         <v>64</v>
       </c>
@@ -7143,7 +7148,7 @@
       </c>
       <c r="BR43" s="28"/>
     </row>
-    <row r="44" spans="2:70" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
         <v>65</v>
       </c>
@@ -7232,7 +7237,7 @@
       </c>
       <c r="BR44" s="28"/>
     </row>
-    <row r="45" spans="2:70" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
         <v>66</v>
       </c>
@@ -7321,7 +7326,7 @@
       </c>
       <c r="BR45" s="28"/>
     </row>
-    <row r="46" spans="2:70" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
         <v>67</v>
       </c>
@@ -7392,7 +7397,7 @@
       </c>
       <c r="BR46" s="28"/>
     </row>
-    <row r="47" spans="2:70" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="s">
         <v>68</v>
       </c>
@@ -7463,7 +7468,7 @@
       </c>
       <c r="BR47" s="28"/>
     </row>
-    <row r="48" spans="2:70" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
         <v>88</v>
       </c>
@@ -7534,7 +7539,7 @@
       </c>
       <c r="BR48" s="28"/>
     </row>
-    <row r="49" spans="2:70" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B49" s="2" t="s">
         <v>89</v>
       </c>

--- a/Planning/Assetlist.xlsx
+++ b/Planning/Assetlist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20328" windowHeight="9732"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="4368"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="666">
   <si>
     <t>2D</t>
   </si>
@@ -1990,6 +1990,72 @@
   </si>
   <si>
     <t>5 uur</t>
+  </si>
+  <si>
+    <t>Possible Random Junk</t>
+  </si>
+  <si>
+    <t>Fles</t>
+  </si>
+  <si>
+    <t>Gi Joe</t>
+  </si>
+  <si>
+    <t>Haarclip</t>
+  </si>
+  <si>
+    <t>elastiek</t>
+  </si>
+  <si>
+    <t>Knuffels</t>
+  </si>
+  <si>
+    <t>Speelgoed</t>
+  </si>
+  <si>
+    <t>Hark</t>
+  </si>
+  <si>
+    <t>Barbiepop</t>
+  </si>
+  <si>
+    <t>Zandfigurine</t>
+  </si>
+  <si>
+    <t>Speelkaart</t>
+  </si>
+  <si>
+    <t>Knikker</t>
+  </si>
+  <si>
+    <t>Virginity</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Fiets shit</t>
+  </si>
+  <si>
+    <t>Schoolstuff</t>
+  </si>
+  <si>
+    <t>toy gun</t>
+  </si>
+  <si>
+    <t>toy soldier</t>
+  </si>
+  <si>
+    <t>veiligheidsspeld</t>
+  </si>
+  <si>
+    <t>schroefje</t>
+  </si>
+  <si>
+    <t>zonnebril</t>
+  </si>
+  <si>
+    <t>knoop</t>
   </si>
 </sst>
 </file>
@@ -2018,7 +2084,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2064,6 +2130,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2194,7 +2266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2237,6 +2309,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -2517,10 +2590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:CD93"/>
+  <dimension ref="B1:CD110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2533,7 +2606,7 @@
     <col min="61" max="61" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:82" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:82" x14ac:dyDescent="0.3">
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2666,7 +2739,7 @@
       <c r="CC1" s="9"/>
       <c r="CD1" s="9"/>
     </row>
-    <row r="2" spans="2:82" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:82" x14ac:dyDescent="0.3">
       <c r="G2" s="1"/>
       <c r="K2" s="1"/>
       <c r="Q2" s="1"/>
@@ -2684,7 +2757,7 @@
       <c r="CC2" s="9"/>
       <c r="CD2" s="9"/>
     </row>
-    <row r="3" spans="2:82" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:82" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2808,7 +2881,7 @@
       </c>
       <c r="BR3" s="31"/>
     </row>
-    <row r="4" spans="2:82" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:82" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -2932,7 +3005,7 @@
       </c>
       <c r="BR4" s="28"/>
     </row>
-    <row r="5" spans="2:82" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:82" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
@@ -3056,7 +3129,7 @@
       </c>
       <c r="BR5" s="28"/>
     </row>
-    <row r="6" spans="2:82" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:82" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
@@ -3180,7 +3253,7 @@
       </c>
       <c r="BR6" s="19"/>
     </row>
-    <row r="7" spans="2:82" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:82" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
@@ -3304,7 +3377,7 @@
       </c>
       <c r="BR7" s="19"/>
     </row>
-    <row r="8" spans="2:82" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:82" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
@@ -3428,7 +3501,7 @@
       </c>
       <c r="BR8" s="2"/>
     </row>
-    <row r="9" spans="2:82" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:82" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
@@ -3552,7 +3625,7 @@
       </c>
       <c r="BR9" s="19"/>
     </row>
-    <row r="10" spans="2:82" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:82" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -3676,7 +3749,7 @@
       </c>
       <c r="BR10" s="19"/>
     </row>
-    <row r="11" spans="2:82" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:82" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>35</v>
       </c>
@@ -3783,7 +3856,7 @@
       </c>
       <c r="BR11" s="3"/>
     </row>
-    <row r="12" spans="2:82" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:82" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
@@ -3890,7 +3963,7 @@
       </c>
       <c r="BR12" s="19"/>
     </row>
-    <row r="13" spans="2:82" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:82" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>564</v>
       </c>
@@ -3997,7 +4070,7 @@
       </c>
       <c r="BR13" s="19"/>
     </row>
-    <row r="14" spans="2:82" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:82" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>565</v>
       </c>
@@ -4104,7 +4177,7 @@
       </c>
       <c r="BR14" s="19"/>
     </row>
-    <row r="15" spans="2:82" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:82" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>566</v>
       </c>
@@ -4211,7 +4284,7 @@
       </c>
       <c r="BR15" s="19"/>
     </row>
-    <row r="16" spans="2:82" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:82" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
@@ -4318,7 +4391,7 @@
       </c>
       <c r="BR16" s="19"/>
     </row>
-    <row r="17" spans="2:72" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:72" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
@@ -4423,7 +4496,7 @@
       </c>
       <c r="BR17" s="19"/>
     </row>
-    <row r="18" spans="2:72" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:72" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
@@ -9516,6 +9589,99 @@
         <v>576</v>
       </c>
     </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>645</v>
+      </c>
+      <c r="D100" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>646</v>
+      </c>
+      <c r="D101" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>647</v>
+      </c>
+      <c r="D102" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>648</v>
+      </c>
+      <c r="D103" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>649</v>
+      </c>
+      <c r="D104" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>654</v>
+      </c>
+      <c r="D105" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>656</v>
+      </c>
+      <c r="D106" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>658</v>
+      </c>
+      <c r="D107" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>660</v>
+      </c>
+      <c r="D108" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B109" s="42" t="s">
+        <v>664</v>
+      </c>
+      <c r="D109" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>665</v>
+      </c>
+      <c r="D110" t="s">
+        <v>663</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Planning/Assetlist.xlsx
+++ b/Planning/Assetlist.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carloakuma\Desktop\Gamelab1\Planning\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="4368"/>
   </bookViews>
@@ -29,7 +24,7 @@
     <author>CarloAkuma</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="676">
   <si>
     <t>2D</t>
   </si>
@@ -2056,12 +2051,42 @@
   </si>
   <si>
     <t>knoop</t>
+  </si>
+  <si>
+    <t>2D_ENVBRO_001</t>
+  </si>
+  <si>
+    <t>20 minuten</t>
+  </si>
+  <si>
+    <t>2D_ENVKRANT_001</t>
+  </si>
+  <si>
+    <t>1 uur</t>
+  </si>
+  <si>
+    <t>3D_ENVBRO</t>
+  </si>
+  <si>
+    <t>Broom</t>
+  </si>
+  <si>
+    <t>Krant</t>
+  </si>
+  <si>
+    <t>15 min</t>
+  </si>
+  <si>
+    <t>3D_ENVKRANT_001</t>
+  </si>
+  <si>
+    <t>_001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2266,7 +2291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2310,9 +2335,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2582,7 +2609,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2592,8 +2619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CD110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P78" sqref="P78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9232,7 +9259,22 @@
       </c>
       <c r="I76" s="21"/>
       <c r="J76" s="21"/>
+      <c r="L76" s="44" t="s">
+        <v>670</v>
+      </c>
+      <c r="M76" t="s">
+        <v>675</v>
+      </c>
+      <c r="N76" s="44" t="s">
+        <v>671</v>
+      </c>
+      <c r="P76" t="s">
+        <v>170</v>
+      </c>
       <c r="Q76" s="36"/>
+      <c r="R76" s="44" t="s">
+        <v>673</v>
+      </c>
       <c r="T76" s="21"/>
       <c r="AD76" s="21"/>
     </row>
@@ -9254,6 +9296,18 @@
       </c>
       <c r="I77" s="21"/>
       <c r="J77" s="21"/>
+      <c r="L77" s="37" t="s">
+        <v>674</v>
+      </c>
+      <c r="N77" s="37" t="s">
+        <v>672</v>
+      </c>
+      <c r="P77" t="s">
+        <v>170</v>
+      </c>
+      <c r="R77" s="37" t="s">
+        <v>581</v>
+      </c>
       <c r="T77" s="21"/>
       <c r="AD77" s="21"/>
     </row>
@@ -9587,6 +9641,34 @@
       <c r="G93" s="12"/>
       <c r="H93" s="20" t="s">
         <v>576</v>
+      </c>
+    </row>
+    <row r="94" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B94" s="43" t="s">
+        <v>666</v>
+      </c>
+      <c r="D94" s="43" t="s">
+        <v>671</v>
+      </c>
+      <c r="F94" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="20" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="95" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>668</v>
+      </c>
+      <c r="D95" s="43" t="s">
+        <v>672</v>
+      </c>
+      <c r="F95" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="H95" s="20" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.3">

--- a/Planning/Assetlist.xlsx
+++ b/Planning/Assetlist.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carloakuma\Desktop\Gamelab1\Planning\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="4368"/>
   </bookViews>
@@ -24,7 +29,7 @@
     <author>CarloAkuma</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2086,7 +2091,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2339,7 +2344,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2609,7 +2614,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2619,8 +2624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CD110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P78" sqref="P78"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9404,7 +9409,7 @@
         <v>156</v>
       </c>
       <c r="E82" s="4"/>
-      <c r="F82" s="4" t="s">
+      <c r="F82" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G82" s="12"/>
@@ -9425,7 +9430,7 @@
         <v>157</v>
       </c>
       <c r="E83" s="2"/>
-      <c r="F83" s="2" t="s">
+      <c r="F83" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G83" s="12"/>
@@ -9488,7 +9493,7 @@
         <v>160</v>
       </c>
       <c r="E86" s="4"/>
-      <c r="F86" s="4" t="s">
+      <c r="F86" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G86" s="12"/>
@@ -9509,7 +9514,7 @@
         <v>161</v>
       </c>
       <c r="E87" s="4"/>
-      <c r="F87" s="4" t="s">
+      <c r="F87" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G87" s="12"/>
@@ -9530,7 +9535,7 @@
         <v>162</v>
       </c>
       <c r="E88" s="4"/>
-      <c r="F88" s="4" t="s">
+      <c r="F88" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G88" s="12"/>
@@ -9551,7 +9556,7 @@
         <v>163</v>
       </c>
       <c r="E89" s="4"/>
-      <c r="F89" s="4" t="s">
+      <c r="F89" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G89" s="12"/>
@@ -9572,7 +9577,7 @@
         <v>164</v>
       </c>
       <c r="E90" s="4"/>
-      <c r="F90" s="4" t="s">
+      <c r="F90" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G90" s="12"/>
